--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2857</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2890</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10332" uniqueCount="3527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10396" uniqueCount="3553">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10612,6 +10612,84 @@
   </si>
   <si>
     <t>18-Jul-2025</t>
+  </si>
+  <si>
+    <t>Ahmed Abd Elmonim Said Khalil</t>
+  </si>
+  <si>
+    <t>Mohaned Ibrahem Mohamed Ali</t>
+  </si>
+  <si>
+    <t>DSS3850</t>
+  </si>
+  <si>
+    <t>DSS3851</t>
+  </si>
+  <si>
+    <t>DSS3852</t>
+  </si>
+  <si>
+    <t>DSS3853</t>
+  </si>
+  <si>
+    <t>DSS3854</t>
+  </si>
+  <si>
+    <t>DSS3855</t>
+  </si>
+  <si>
+    <t>DSS3856</t>
+  </si>
+  <si>
+    <t>DSS3857</t>
+  </si>
+  <si>
+    <t>DSS3858</t>
+  </si>
+  <si>
+    <t>DSS3859</t>
+  </si>
+  <si>
+    <t>DSS3860</t>
+  </si>
+  <si>
+    <t>DSS3861</t>
+  </si>
+  <si>
+    <t>DSS3862</t>
+  </si>
+  <si>
+    <t>DSS3863</t>
+  </si>
+  <si>
+    <t>DSS3864</t>
+  </si>
+  <si>
+    <t>DSS3865</t>
+  </si>
+  <si>
+    <t>15-Aug-2025</t>
+  </si>
+  <si>
+    <t>20-Aug-2025</t>
+  </si>
+  <si>
+    <t>16-Aug-2025</t>
+  </si>
+  <si>
+    <t>13-Aug-2025</t>
+  </si>
+  <si>
+    <t>11-Aug-2025</t>
+  </si>
+  <si>
+    <t>12-Aug-2025</t>
+  </si>
+  <si>
+    <t>17-Aug-2025</t>
+  </si>
+  <si>
+    <t>18-Aug-2025</t>
   </si>
 </sst>
 </file>
@@ -10691,7 +10769,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10755,6 +10833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10839,7 +10923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -11116,6 +11200,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11394,7 +11484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11402,10 +11492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2857"/>
+  <dimension ref="A1:E2873"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2841" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="G2852" sqref="G2852"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2856" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C2877" sqref="C2877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59497,7 +59587,7 @@
       <c r="D2850" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2850" s="51">
+      <c r="E2850" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59514,7 +59604,7 @@
       <c r="D2851" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2851" s="51">
+      <c r="E2851" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59531,7 +59621,7 @@
       <c r="D2852" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2852" s="51">
+      <c r="E2852" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59548,7 +59638,7 @@
       <c r="D2853" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2853" s="51">
+      <c r="E2853" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59565,7 +59655,7 @@
       <c r="D2854" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2854" s="51">
+      <c r="E2854" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59582,7 +59672,7 @@
       <c r="D2855" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2855" s="51">
+      <c r="E2855" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59599,7 +59689,7 @@
       <c r="D2856" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2856" s="51">
+      <c r="E2856" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59616,7 +59706,279 @@
       <c r="D2857" s="40" t="s">
         <v>3526</v>
       </c>
-      <c r="E2857" s="51">
+      <c r="E2857" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2858" s="27" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B2858" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2858" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2858" s="27" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E2858" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2859" s="27" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B2859" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2859" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2859" s="27" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E2859" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2860" s="27" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B2860" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2860" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2860" s="27" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E2860" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2861" s="27" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B2861" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2861" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2861" s="27" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E2861" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2862" s="27" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B2862" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2862" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2862" s="27" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E2862" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2863" s="27" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B2863" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2863" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2863" s="27" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E2863" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2864" s="27" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B2864" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2864" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2864" s="27" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E2864" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2865" s="27" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B2865" s="27" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2865" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2865" s="27" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E2865" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2866" s="93" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B2866" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2866" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2866" s="94" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E2866" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2867" s="93" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B2867" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2867" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2867" s="94" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E2867" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2868" s="93" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2868" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2868" s="94" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2868" s="94" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E2868" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2869" s="93" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B2869" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2869" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2869" s="94" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E2869" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2870" s="93" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B2870" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2870" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2870" s="94" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E2870" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2871" s="93" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B2871" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2871" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2871" s="94" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E2871" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2872" s="93" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B2872" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2872" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2872" s="94" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E2872" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2873" s="93" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B2873" s="94" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2873" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2873" s="94" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E2873" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10396" uniqueCount="3553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10460" uniqueCount="3571">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10690,6 +10690,60 @@
   </si>
   <si>
     <t>18-Aug-2025</t>
+  </si>
+  <si>
+    <t>Wahed Mohamed Mohammed Abdallah</t>
+  </si>
+  <si>
+    <t>DSS3866</t>
+  </si>
+  <si>
+    <t>DSS3867</t>
+  </si>
+  <si>
+    <t>DSS3868</t>
+  </si>
+  <si>
+    <t>DSS3869</t>
+  </si>
+  <si>
+    <t>DSS3870</t>
+  </si>
+  <si>
+    <t>DSS3871</t>
+  </si>
+  <si>
+    <t>DSS3872</t>
+  </si>
+  <si>
+    <t>DSS3873</t>
+  </si>
+  <si>
+    <t>Saied Ramzy Saied Elsayed</t>
+  </si>
+  <si>
+    <t>DSS3874</t>
+  </si>
+  <si>
+    <t>DSS3875</t>
+  </si>
+  <si>
+    <t>DSS3876</t>
+  </si>
+  <si>
+    <t>DSS3877</t>
+  </si>
+  <si>
+    <t>DSS3878</t>
+  </si>
+  <si>
+    <t>DSS3879</t>
+  </si>
+  <si>
+    <t>DSS3880</t>
+  </si>
+  <si>
+    <t>DSS3881</t>
   </si>
 </sst>
 </file>
@@ -11484,7 +11538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11492,10 +11546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2873"/>
+  <dimension ref="A1:E2889"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2856" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C2877" sqref="C2877"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2871" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B2882" sqref="A2882:B2889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59979,6 +60033,278 @@
         <v>3552</v>
       </c>
       <c r="E2873" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2874" s="27" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B2874" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2874" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2874" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2874" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2875" s="27" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B2875" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2875" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2875" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2875" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2876" s="27" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B2876" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2876" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2876" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2876" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2877" s="27" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B2877" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2877" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2877" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2877" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2878" s="27" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B2878" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2878" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2878" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2878" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2879" s="27" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B2879" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2879" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2879" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2879" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2880" s="27" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B2880" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2880" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2880" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2880" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2881" s="27" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B2881" s="27" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2881" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2881" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2881" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2882" s="28" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B2882" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2882" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2882" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2882" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2883" s="28" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B2883" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2883" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2883" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2883" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2884" s="28" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B2884" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2884" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2884" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2884" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2885" s="28" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B2885" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2885" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2885" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2885" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2886" s="28" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B2886" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2886" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2886" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2886" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2887" s="28" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B2887" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2887" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2887" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2887" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2888" s="28" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B2888" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2888" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2888" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2888" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2889" s="28" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B2889" s="28" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2889" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2889" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2889" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2890</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2909</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10460" uniqueCount="3571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10500" uniqueCount="3585">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10744,6 +10744,48 @@
   </si>
   <si>
     <t>DSS3881</t>
+  </si>
+  <si>
+    <t>Abdelrahaman Mohamed Fouad Hassan</t>
+  </si>
+  <si>
+    <t>DSS3882</t>
+  </si>
+  <si>
+    <t>DSS3883</t>
+  </si>
+  <si>
+    <t>DSS3884</t>
+  </si>
+  <si>
+    <t>DSS3885</t>
+  </si>
+  <si>
+    <t>DSS3886</t>
+  </si>
+  <si>
+    <t>DSS3887</t>
+  </si>
+  <si>
+    <t>DSS3888</t>
+  </si>
+  <si>
+    <t>DSS3889</t>
+  </si>
+  <si>
+    <t>DSS3890</t>
+  </si>
+  <si>
+    <t>DSS3891</t>
+  </si>
+  <si>
+    <t>Amr Mohamed Elshahat Hafez</t>
+  </si>
+  <si>
+    <t>25-Aug-2025</t>
+  </si>
+  <si>
+    <t>Installation and Maintenance of Fire Fighting Systems for Generator Enclosures</t>
   </si>
 </sst>
 </file>
@@ -11538,7 +11580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11546,10 +11588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2889"/>
+  <dimension ref="A1:E2899"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2871" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B2882" sqref="A2882:B2889"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2886" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D2902" sqref="D2902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60305,6 +60347,176 @@
         <v>3176</v>
       </c>
       <c r="E2889" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2890" s="27" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B2890" s="27" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C2890" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2890" s="27" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E2890" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2891" s="28" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B2891" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2891" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2891" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2891" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2892" s="28" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B2892" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2892" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2892" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2892" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2893" s="28" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B2893" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2893" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2893" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2893" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2894" s="28" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B2894" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2894" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2894" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2894" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2895" s="28" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B2895" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2895" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2895" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2895" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2896" s="28" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B2896" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2896" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2896" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2896" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2897" s="28" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B2897" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2897" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2897" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2897" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2898" s="28" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B2898" s="28" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2898" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2898" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2898" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2899" s="27" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B2899" s="27" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C2899" s="27" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D2899" s="27" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E2899" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10500" uniqueCount="3585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10504" uniqueCount="3587">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10786,6 +10786,12 @@
   </si>
   <si>
     <t>Installation and Maintenance of Fire Fighting Systems for Generator Enclosures</t>
+  </si>
+  <si>
+    <t>DSS3892</t>
+  </si>
+  <si>
+    <t>04-Sep-2025</t>
   </si>
 </sst>
 </file>
@@ -11580,7 +11586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11588,10 +11594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2899"/>
+  <dimension ref="A1:E2900"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2886" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D2902" sqref="D2902"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2894" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C2907" sqref="C2907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60517,6 +60523,23 @@
         <v>3583</v>
       </c>
       <c r="E2899" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2900" s="85" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B2900" s="85" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C2900" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2900" s="85" t="s">
+        <v>3586</v>
+      </c>
+      <c r="E2900" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3099</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3141</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11116" uniqueCount="3770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11340" uniqueCount="3831">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11341,6 +11341,189 @@
   </si>
   <si>
     <t>DSS4045</t>
+  </si>
+  <si>
+    <t>Mostafa Esmail Ali Mgahed</t>
+  </si>
+  <si>
+    <t>MAHMOUD SOLIMAN ATWA GEBIL</t>
+  </si>
+  <si>
+    <t>AIMAN HASAN MOHSEN MOHAMMED</t>
+  </si>
+  <si>
+    <t>Emad Eldin Fathi Ahmed Ali</t>
+  </si>
+  <si>
+    <t>ELSAYED MOHAMED SAYED ABDELKADER ALI</t>
+  </si>
+  <si>
+    <t>DSS4046</t>
+  </si>
+  <si>
+    <t>DSS4047</t>
+  </si>
+  <si>
+    <t>DSS4048</t>
+  </si>
+  <si>
+    <t>DSS4049</t>
+  </si>
+  <si>
+    <t>DSS4050</t>
+  </si>
+  <si>
+    <t>DSS4051</t>
+  </si>
+  <si>
+    <t>DSS4052</t>
+  </si>
+  <si>
+    <t>DSS4053</t>
+  </si>
+  <si>
+    <t>DSS4054</t>
+  </si>
+  <si>
+    <t>DSS4055</t>
+  </si>
+  <si>
+    <t>DSS4056</t>
+  </si>
+  <si>
+    <t>DSS4057</t>
+  </si>
+  <si>
+    <t>DSS4058</t>
+  </si>
+  <si>
+    <t>DSS4059</t>
+  </si>
+  <si>
+    <t>DSS4060</t>
+  </si>
+  <si>
+    <t>DSS4061</t>
+  </si>
+  <si>
+    <t>DSS4062</t>
+  </si>
+  <si>
+    <t>DSS4063</t>
+  </si>
+  <si>
+    <t>DSS4064</t>
+  </si>
+  <si>
+    <t>DSS4065</t>
+  </si>
+  <si>
+    <t>DSS4066</t>
+  </si>
+  <si>
+    <t>DSS4067</t>
+  </si>
+  <si>
+    <t>DSS4068</t>
+  </si>
+  <si>
+    <t>DSS4069</t>
+  </si>
+  <si>
+    <t>DSS4070</t>
+  </si>
+  <si>
+    <t>DSS4071</t>
+  </si>
+  <si>
+    <t>DSS4072</t>
+  </si>
+  <si>
+    <t>DSS4073</t>
+  </si>
+  <si>
+    <t>DSS4074</t>
+  </si>
+  <si>
+    <t>DSS4075</t>
+  </si>
+  <si>
+    <t>DSS4076</t>
+  </si>
+  <si>
+    <t>DSS4077</t>
+  </si>
+  <si>
+    <t>DSS4078</t>
+  </si>
+  <si>
+    <t>DSS4079</t>
+  </si>
+  <si>
+    <t>DSS4080</t>
+  </si>
+  <si>
+    <t>DSS4081</t>
+  </si>
+  <si>
+    <t>DSS4082</t>
+  </si>
+  <si>
+    <t>DSS4083</t>
+  </si>
+  <si>
+    <t>DSS4084</t>
+  </si>
+  <si>
+    <t>DSS4085</t>
+  </si>
+  <si>
+    <t>DSS4086</t>
+  </si>
+  <si>
+    <t>DSS4087</t>
+  </si>
+  <si>
+    <t>DSS4088</t>
+  </si>
+  <si>
+    <t>DSS4089</t>
+  </si>
+  <si>
+    <t>DSS4090</t>
+  </si>
+  <si>
+    <t>DSS4091</t>
+  </si>
+  <si>
+    <t>DSS4092</t>
+  </si>
+  <si>
+    <t>DSS4093</t>
+  </si>
+  <si>
+    <t>DSS4094</t>
+  </si>
+  <si>
+    <t>DSS4095</t>
+  </si>
+  <si>
+    <t>DSS4096</t>
+  </si>
+  <si>
+    <t>DSS4097</t>
+  </si>
+  <si>
+    <t>DSS4098</t>
+  </si>
+  <si>
+    <t>DSS4099</t>
+  </si>
+  <si>
+    <t>DSS4100</t>
+  </si>
+  <si>
+    <t>DSS4101</t>
   </si>
 </sst>
 </file>
@@ -12156,10 +12339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3053"/>
+  <dimension ref="A1:E3109"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3035" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3055" sqref="C3055"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3034" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="F3053" sqref="F3053"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61526,7 +61709,7 @@
       <c r="D2925" s="28" t="s">
         <v>3617</v>
       </c>
-      <c r="E2925" s="51">
+      <c r="E2925" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61543,7 +61726,7 @@
       <c r="D2926" s="27" t="s">
         <v>3169</v>
       </c>
-      <c r="E2926" s="51">
+      <c r="E2926" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61560,7 +61743,7 @@
       <c r="D2927" s="27" t="s">
         <v>3213</v>
       </c>
-      <c r="E2927" s="51">
+      <c r="E2927" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61577,7 +61760,7 @@
       <c r="D2928" s="27" t="s">
         <v>3171</v>
       </c>
-      <c r="E2928" s="51">
+      <c r="E2928" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61594,7 +61777,7 @@
       <c r="D2929" s="27" t="s">
         <v>3172</v>
       </c>
-      <c r="E2929" s="51">
+      <c r="E2929" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61611,7 +61794,7 @@
       <c r="D2930" s="27" t="s">
         <v>3173</v>
       </c>
-      <c r="E2930" s="51">
+      <c r="E2930" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61628,7 +61811,7 @@
       <c r="D2931" s="27" t="s">
         <v>3174</v>
       </c>
-      <c r="E2931" s="51">
+      <c r="E2931" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61645,7 +61828,7 @@
       <c r="D2932" s="27" t="s">
         <v>3175</v>
       </c>
-      <c r="E2932" s="51">
+      <c r="E2932" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61662,7 +61845,7 @@
       <c r="D2933" s="27" t="s">
         <v>3176</v>
       </c>
-      <c r="E2933" s="51">
+      <c r="E2933" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61679,7 +61862,7 @@
       <c r="D2934" s="28" t="s">
         <v>3169</v>
       </c>
-      <c r="E2934" s="51">
+      <c r="E2934" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61696,7 +61879,7 @@
       <c r="D2935" s="28" t="s">
         <v>3213</v>
       </c>
-      <c r="E2935" s="51">
+      <c r="E2935" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61713,7 +61896,7 @@
       <c r="D2936" s="28" t="s">
         <v>3171</v>
       </c>
-      <c r="E2936" s="51">
+      <c r="E2936" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61730,7 +61913,7 @@
       <c r="D2937" s="28" t="s">
         <v>3172</v>
       </c>
-      <c r="E2937" s="51">
+      <c r="E2937" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61747,7 +61930,7 @@
       <c r="D2938" s="28" t="s">
         <v>3173</v>
       </c>
-      <c r="E2938" s="51">
+      <c r="E2938" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61764,7 +61947,7 @@
       <c r="D2939" s="28" t="s">
         <v>3174</v>
       </c>
-      <c r="E2939" s="51">
+      <c r="E2939" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61781,7 +61964,7 @@
       <c r="D2940" s="28" t="s">
         <v>3175</v>
       </c>
-      <c r="E2940" s="51">
+      <c r="E2940" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61798,7 +61981,7 @@
       <c r="D2941" s="28" t="s">
         <v>3176</v>
       </c>
-      <c r="E2941" s="51">
+      <c r="E2941" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61815,7 +61998,7 @@
       <c r="D2942" s="27" t="s">
         <v>3169</v>
       </c>
-      <c r="E2942" s="51">
+      <c r="E2942" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61832,7 +62015,7 @@
       <c r="D2943" s="27" t="s">
         <v>3213</v>
       </c>
-      <c r="E2943" s="51">
+      <c r="E2943" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61849,7 +62032,7 @@
       <c r="D2944" s="27" t="s">
         <v>3171</v>
       </c>
-      <c r="E2944" s="51">
+      <c r="E2944" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61866,7 +62049,7 @@
       <c r="D2945" s="27" t="s">
         <v>3172</v>
       </c>
-      <c r="E2945" s="51">
+      <c r="E2945" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61883,7 +62066,7 @@
       <c r="D2946" s="27" t="s">
         <v>3173</v>
       </c>
-      <c r="E2946" s="51">
+      <c r="E2946" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61900,7 +62083,7 @@
       <c r="D2947" s="27" t="s">
         <v>3174</v>
       </c>
-      <c r="E2947" s="51">
+      <c r="E2947" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61917,7 +62100,7 @@
       <c r="D2948" s="27" t="s">
         <v>3175</v>
       </c>
-      <c r="E2948" s="51">
+      <c r="E2948" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61934,7 +62117,7 @@
       <c r="D2949" s="27" t="s">
         <v>3176</v>
       </c>
-      <c r="E2949" s="51">
+      <c r="E2949" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61951,7 +62134,7 @@
       <c r="D2950" s="28" t="s">
         <v>3169</v>
       </c>
-      <c r="E2950" s="51">
+      <c r="E2950" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61968,7 +62151,7 @@
       <c r="D2951" s="28" t="s">
         <v>3213</v>
       </c>
-      <c r="E2951" s="51">
+      <c r="E2951" s="96">
         <v>1</v>
       </c>
     </row>
@@ -61985,7 +62168,7 @@
       <c r="D2952" s="28" t="s">
         <v>3171</v>
       </c>
-      <c r="E2952" s="51">
+      <c r="E2952" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62002,7 +62185,7 @@
       <c r="D2953" s="28" t="s">
         <v>3172</v>
       </c>
-      <c r="E2953" s="51">
+      <c r="E2953" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62019,7 +62202,7 @@
       <c r="D2954" s="28" t="s">
         <v>3173</v>
       </c>
-      <c r="E2954" s="51">
+      <c r="E2954" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62036,7 +62219,7 @@
       <c r="D2955" s="28" t="s">
         <v>3174</v>
       </c>
-      <c r="E2955" s="51">
+      <c r="E2955" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62053,7 +62236,7 @@
       <c r="D2956" s="28" t="s">
         <v>3175</v>
       </c>
-      <c r="E2956" s="51">
+      <c r="E2956" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62070,7 +62253,7 @@
       <c r="D2957" s="28" t="s">
         <v>3176</v>
       </c>
-      <c r="E2957" s="51">
+      <c r="E2957" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62087,7 +62270,7 @@
       <c r="D2958" s="27" t="s">
         <v>3634</v>
       </c>
-      <c r="E2958" s="51">
+      <c r="E2958" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62104,7 +62287,7 @@
       <c r="D2959" s="27" t="s">
         <v>3635</v>
       </c>
-      <c r="E2959" s="51">
+      <c r="E2959" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62121,7 +62304,7 @@
       <c r="D2960" s="27" t="s">
         <v>3636</v>
       </c>
-      <c r="E2960" s="51">
+      <c r="E2960" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62138,7 +62321,7 @@
       <c r="D2961" s="27" t="s">
         <v>3637</v>
       </c>
-      <c r="E2961" s="51">
+      <c r="E2961" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62155,7 +62338,7 @@
       <c r="D2962" s="27" t="s">
         <v>3638</v>
       </c>
-      <c r="E2962" s="51">
+      <c r="E2962" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62172,7 +62355,7 @@
       <c r="D2963" s="27" t="s">
         <v>3639</v>
       </c>
-      <c r="E2963" s="51">
+      <c r="E2963" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62189,7 +62372,7 @@
       <c r="D2964" s="27" t="s">
         <v>3640</v>
       </c>
-      <c r="E2964" s="51">
+      <c r="E2964" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62206,7 +62389,7 @@
       <c r="D2965" s="27" t="s">
         <v>3641</v>
       </c>
-      <c r="E2965" s="51">
+      <c r="E2965" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62223,7 +62406,7 @@
       <c r="D2966" s="28" t="s">
         <v>3634</v>
       </c>
-      <c r="E2966" s="51">
+      <c r="E2966" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62240,7 +62423,7 @@
       <c r="D2967" s="28" t="s">
         <v>3635</v>
       </c>
-      <c r="E2967" s="51">
+      <c r="E2967" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62257,7 +62440,7 @@
       <c r="D2968" s="28" t="s">
         <v>3636</v>
       </c>
-      <c r="E2968" s="51">
+      <c r="E2968" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62274,7 +62457,7 @@
       <c r="D2969" s="28" t="s">
         <v>3637</v>
       </c>
-      <c r="E2969" s="51">
+      <c r="E2969" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62291,7 +62474,7 @@
       <c r="D2970" s="28" t="s">
         <v>3638</v>
       </c>
-      <c r="E2970" s="51">
+      <c r="E2970" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62308,7 +62491,7 @@
       <c r="D2971" s="28" t="s">
         <v>3639</v>
       </c>
-      <c r="E2971" s="51">
+      <c r="E2971" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62325,7 +62508,7 @@
       <c r="D2972" s="28" t="s">
         <v>3640</v>
       </c>
-      <c r="E2972" s="51">
+      <c r="E2972" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62342,7 +62525,7 @@
       <c r="D2973" s="28" t="s">
         <v>3641</v>
       </c>
-      <c r="E2973" s="51">
+      <c r="E2973" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62359,7 +62542,7 @@
       <c r="D2974" s="27" t="s">
         <v>3634</v>
       </c>
-      <c r="E2974" s="51">
+      <c r="E2974" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62376,7 +62559,7 @@
       <c r="D2975" s="27" t="s">
         <v>3635</v>
       </c>
-      <c r="E2975" s="51">
+      <c r="E2975" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62393,7 +62576,7 @@
       <c r="D2976" s="27" t="s">
         <v>3636</v>
       </c>
-      <c r="E2976" s="51">
+      <c r="E2976" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62410,7 +62593,7 @@
       <c r="D2977" s="27" t="s">
         <v>3637</v>
       </c>
-      <c r="E2977" s="51">
+      <c r="E2977" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62427,7 +62610,7 @@
       <c r="D2978" s="27" t="s">
         <v>3638</v>
       </c>
-      <c r="E2978" s="51">
+      <c r="E2978" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62444,7 +62627,7 @@
       <c r="D2979" s="27" t="s">
         <v>3639</v>
       </c>
-      <c r="E2979" s="51">
+      <c r="E2979" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62461,7 +62644,7 @@
       <c r="D2980" s="27" t="s">
         <v>3640</v>
       </c>
-      <c r="E2980" s="51">
+      <c r="E2980" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62478,7 +62661,7 @@
       <c r="D2981" s="27" t="s">
         <v>3641</v>
       </c>
-      <c r="E2981" s="51">
+      <c r="E2981" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62495,7 +62678,7 @@
       <c r="D2982" s="28" t="s">
         <v>3634</v>
       </c>
-      <c r="E2982" s="51">
+      <c r="E2982" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62512,7 +62695,7 @@
       <c r="D2983" s="28" t="s">
         <v>3635</v>
       </c>
-      <c r="E2983" s="51">
+      <c r="E2983" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62529,7 +62712,7 @@
       <c r="D2984" s="28" t="s">
         <v>3636</v>
       </c>
-      <c r="E2984" s="51">
+      <c r="E2984" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62546,7 +62729,7 @@
       <c r="D2985" s="28" t="s">
         <v>3637</v>
       </c>
-      <c r="E2985" s="51">
+      <c r="E2985" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62563,7 +62746,7 @@
       <c r="D2986" s="28" t="s">
         <v>3638</v>
       </c>
-      <c r="E2986" s="51">
+      <c r="E2986" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62580,7 +62763,7 @@
       <c r="D2987" s="28" t="s">
         <v>3639</v>
       </c>
-      <c r="E2987" s="51">
+      <c r="E2987" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62597,7 +62780,7 @@
       <c r="D2988" s="28" t="s">
         <v>3640</v>
       </c>
-      <c r="E2988" s="51">
+      <c r="E2988" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62614,7 +62797,7 @@
       <c r="D2989" s="28" t="s">
         <v>3641</v>
       </c>
-      <c r="E2989" s="51">
+      <c r="E2989" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62631,7 +62814,7 @@
       <c r="D2990" s="27" t="s">
         <v>3634</v>
       </c>
-      <c r="E2990" s="51">
+      <c r="E2990" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62648,7 +62831,7 @@
       <c r="D2991" s="27" t="s">
         <v>3635</v>
       </c>
-      <c r="E2991" s="51">
+      <c r="E2991" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62665,7 +62848,7 @@
       <c r="D2992" s="27" t="s">
         <v>3636</v>
       </c>
-      <c r="E2992" s="51">
+      <c r="E2992" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62682,7 +62865,7 @@
       <c r="D2993" s="27" t="s">
         <v>3637</v>
       </c>
-      <c r="E2993" s="51">
+      <c r="E2993" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62699,7 +62882,7 @@
       <c r="D2994" s="27" t="s">
         <v>3638</v>
       </c>
-      <c r="E2994" s="51">
+      <c r="E2994" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62716,7 +62899,7 @@
       <c r="D2995" s="27" t="s">
         <v>3639</v>
       </c>
-      <c r="E2995" s="51">
+      <c r="E2995" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62733,7 +62916,7 @@
       <c r="D2996" s="27" t="s">
         <v>3640</v>
       </c>
-      <c r="E2996" s="51">
+      <c r="E2996" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62750,7 +62933,7 @@
       <c r="D2997" s="27" t="s">
         <v>3641</v>
       </c>
-      <c r="E2997" s="51">
+      <c r="E2997" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62767,7 +62950,7 @@
       <c r="D2998" s="28" t="s">
         <v>3634</v>
       </c>
-      <c r="E2998" s="51">
+      <c r="E2998" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62784,7 +62967,7 @@
       <c r="D2999" s="28" t="s">
         <v>3635</v>
       </c>
-      <c r="E2999" s="51">
+      <c r="E2999" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62801,7 +62984,7 @@
       <c r="D3000" s="28" t="s">
         <v>3636</v>
       </c>
-      <c r="E3000" s="51">
+      <c r="E3000" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62818,7 +63001,7 @@
       <c r="D3001" s="28" t="s">
         <v>3637</v>
       </c>
-      <c r="E3001" s="51">
+      <c r="E3001" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62835,7 +63018,7 @@
       <c r="D3002" s="28" t="s">
         <v>3638</v>
       </c>
-      <c r="E3002" s="51">
+      <c r="E3002" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62852,7 +63035,7 @@
       <c r="D3003" s="28" t="s">
         <v>3639</v>
       </c>
-      <c r="E3003" s="51">
+      <c r="E3003" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62869,7 +63052,7 @@
       <c r="D3004" s="28" t="s">
         <v>3640</v>
       </c>
-      <c r="E3004" s="51">
+      <c r="E3004" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62886,7 +63069,7 @@
       <c r="D3005" s="28" t="s">
         <v>3641</v>
       </c>
-      <c r="E3005" s="51">
+      <c r="E3005" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62903,7 +63086,7 @@
       <c r="D3006" s="27" t="s">
         <v>3634</v>
       </c>
-      <c r="E3006" s="51">
+      <c r="E3006" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62920,7 +63103,7 @@
       <c r="D3007" s="27" t="s">
         <v>3635</v>
       </c>
-      <c r="E3007" s="51">
+      <c r="E3007" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62937,7 +63120,7 @@
       <c r="D3008" s="27" t="s">
         <v>3636</v>
       </c>
-      <c r="E3008" s="51">
+      <c r="E3008" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62954,7 +63137,7 @@
       <c r="D3009" s="27" t="s">
         <v>3637</v>
       </c>
-      <c r="E3009" s="51">
+      <c r="E3009" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62971,7 +63154,7 @@
       <c r="D3010" s="27" t="s">
         <v>3638</v>
       </c>
-      <c r="E3010" s="51">
+      <c r="E3010" s="96">
         <v>1</v>
       </c>
     </row>
@@ -62988,7 +63171,7 @@
       <c r="D3011" s="27" t="s">
         <v>3639</v>
       </c>
-      <c r="E3011" s="51">
+      <c r="E3011" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63005,7 +63188,7 @@
       <c r="D3012" s="27" t="s">
         <v>3640</v>
       </c>
-      <c r="E3012" s="51">
+      <c r="E3012" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63022,7 +63205,7 @@
       <c r="D3013" s="27" t="s">
         <v>3641</v>
       </c>
-      <c r="E3013" s="51">
+      <c r="E3013" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63039,7 +63222,7 @@
       <c r="D3014" s="28" t="s">
         <v>3634</v>
       </c>
-      <c r="E3014" s="51">
+      <c r="E3014" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63056,7 +63239,7 @@
       <c r="D3015" s="28" t="s">
         <v>3635</v>
       </c>
-      <c r="E3015" s="51">
+      <c r="E3015" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63073,7 +63256,7 @@
       <c r="D3016" s="28" t="s">
         <v>3636</v>
       </c>
-      <c r="E3016" s="51">
+      <c r="E3016" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63090,7 +63273,7 @@
       <c r="D3017" s="28" t="s">
         <v>3637</v>
       </c>
-      <c r="E3017" s="51">
+      <c r="E3017" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63107,7 +63290,7 @@
       <c r="D3018" s="28" t="s">
         <v>3638</v>
       </c>
-      <c r="E3018" s="51">
+      <c r="E3018" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63124,7 +63307,7 @@
       <c r="D3019" s="28" t="s">
         <v>3639</v>
       </c>
-      <c r="E3019" s="51">
+      <c r="E3019" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63141,7 +63324,7 @@
       <c r="D3020" s="28" t="s">
         <v>3640</v>
       </c>
-      <c r="E3020" s="51">
+      <c r="E3020" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63158,7 +63341,7 @@
       <c r="D3021" s="28" t="s">
         <v>3641</v>
       </c>
-      <c r="E3021" s="51">
+      <c r="E3021" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63175,7 +63358,7 @@
       <c r="D3022" s="27" t="s">
         <v>3634</v>
       </c>
-      <c r="E3022" s="51">
+      <c r="E3022" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63192,7 +63375,7 @@
       <c r="D3023" s="27" t="s">
         <v>3635</v>
       </c>
-      <c r="E3023" s="51">
+      <c r="E3023" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63209,7 +63392,7 @@
       <c r="D3024" s="27" t="s">
         <v>3636</v>
       </c>
-      <c r="E3024" s="51">
+      <c r="E3024" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63226,7 +63409,7 @@
       <c r="D3025" s="27" t="s">
         <v>3637</v>
       </c>
-      <c r="E3025" s="51">
+      <c r="E3025" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63243,7 +63426,7 @@
       <c r="D3026" s="27" t="s">
         <v>3638</v>
       </c>
-      <c r="E3026" s="51">
+      <c r="E3026" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63260,7 +63443,7 @@
       <c r="D3027" s="27" t="s">
         <v>3639</v>
       </c>
-      <c r="E3027" s="51">
+      <c r="E3027" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63277,7 +63460,7 @@
       <c r="D3028" s="27" t="s">
         <v>3640</v>
       </c>
-      <c r="E3028" s="51">
+      <c r="E3028" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63294,7 +63477,7 @@
       <c r="D3029" s="27" t="s">
         <v>3641</v>
       </c>
-      <c r="E3029" s="51">
+      <c r="E3029" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63311,7 +63494,7 @@
       <c r="D3030" s="28" t="s">
         <v>3634</v>
       </c>
-      <c r="E3030" s="51">
+      <c r="E3030" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63328,7 +63511,7 @@
       <c r="D3031" s="28" t="s">
         <v>3635</v>
       </c>
-      <c r="E3031" s="51">
+      <c r="E3031" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63345,7 +63528,7 @@
       <c r="D3032" s="28" t="s">
         <v>3636</v>
       </c>
-      <c r="E3032" s="51">
+      <c r="E3032" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63362,7 +63545,7 @@
       <c r="D3033" s="28" t="s">
         <v>3637</v>
       </c>
-      <c r="E3033" s="51">
+      <c r="E3033" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63379,7 +63562,7 @@
       <c r="D3034" s="28" t="s">
         <v>3638</v>
       </c>
-      <c r="E3034" s="51">
+      <c r="E3034" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63396,7 +63579,7 @@
       <c r="D3035" s="28" t="s">
         <v>3639</v>
       </c>
-      <c r="E3035" s="51">
+      <c r="E3035" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63413,7 +63596,7 @@
       <c r="D3036" s="28" t="s">
         <v>3640</v>
       </c>
-      <c r="E3036" s="51">
+      <c r="E3036" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63430,7 +63613,7 @@
       <c r="D3037" s="28" t="s">
         <v>3641</v>
       </c>
-      <c r="E3037" s="51">
+      <c r="E3037" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63447,7 +63630,7 @@
       <c r="D3038" s="27" t="s">
         <v>3634</v>
       </c>
-      <c r="E3038" s="51">
+      <c r="E3038" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63464,7 +63647,7 @@
       <c r="D3039" s="27" t="s">
         <v>3635</v>
       </c>
-      <c r="E3039" s="51">
+      <c r="E3039" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63481,7 +63664,7 @@
       <c r="D3040" s="27" t="s">
         <v>3636</v>
       </c>
-      <c r="E3040" s="51">
+      <c r="E3040" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63498,7 +63681,7 @@
       <c r="D3041" s="27" t="s">
         <v>3637</v>
       </c>
-      <c r="E3041" s="51">
+      <c r="E3041" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63515,7 +63698,7 @@
       <c r="D3042" s="27" t="s">
         <v>3638</v>
       </c>
-      <c r="E3042" s="51">
+      <c r="E3042" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63532,7 +63715,7 @@
       <c r="D3043" s="27" t="s">
         <v>3639</v>
       </c>
-      <c r="E3043" s="51">
+      <c r="E3043" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63549,7 +63732,7 @@
       <c r="D3044" s="27" t="s">
         <v>3640</v>
       </c>
-      <c r="E3044" s="51">
+      <c r="E3044" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63566,7 +63749,7 @@
       <c r="D3045" s="27" t="s">
         <v>3641</v>
       </c>
-      <c r="E3045" s="51">
+      <c r="E3045" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63583,7 +63766,7 @@
       <c r="D3046" s="28" t="s">
         <v>3634</v>
       </c>
-      <c r="E3046" s="51">
+      <c r="E3046" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63600,7 +63783,7 @@
       <c r="D3047" s="28" t="s">
         <v>3635</v>
       </c>
-      <c r="E3047" s="51">
+      <c r="E3047" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63617,7 +63800,7 @@
       <c r="D3048" s="28" t="s">
         <v>3636</v>
       </c>
-      <c r="E3048" s="51">
+      <c r="E3048" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63634,7 +63817,7 @@
       <c r="D3049" s="28" t="s">
         <v>3637</v>
       </c>
-      <c r="E3049" s="51">
+      <c r="E3049" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63651,7 +63834,7 @@
       <c r="D3050" s="28" t="s">
         <v>3638</v>
       </c>
-      <c r="E3050" s="51">
+      <c r="E3050" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63668,7 +63851,7 @@
       <c r="D3051" s="28" t="s">
         <v>3639</v>
       </c>
-      <c r="E3051" s="51">
+      <c r="E3051" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63685,7 +63868,7 @@
       <c r="D3052" s="28" t="s">
         <v>3640</v>
       </c>
-      <c r="E3052" s="51">
+      <c r="E3052" s="96">
         <v>1</v>
       </c>
     </row>
@@ -63702,7 +63885,959 @@
       <c r="D3053" s="28" t="s">
         <v>3641</v>
       </c>
-      <c r="E3053" s="51">
+      <c r="E3053" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3054" s="27" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3054" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3054" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3054" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3054" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3055" s="27" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3055" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3055" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3055" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3055" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3056" s="27" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3056" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3056" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3056" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3056" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3057" s="27" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3057" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3057" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3057" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3057" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3058" s="27" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3058" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3058" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3058" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3058" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3059" s="27" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3059" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3059" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3059" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3059" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3060" s="27" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3060" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3060" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3060" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3060" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3061" s="27" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3061" s="27" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3061" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3061" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3061" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3062" s="28" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3062" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3062" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3062" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3062" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3063" s="28" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3063" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3063" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3063" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3063" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3064" s="28" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3064" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3064" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3064" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3064" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3065" s="28" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3065" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3065" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3065" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3065" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3066" s="28" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3066" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3066" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3066" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3066" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3067" s="28" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3067" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3067" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3067" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3067" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3068" s="28" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3068" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3068" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3068" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3068" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3069" s="28" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3069" s="28" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3069" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3069" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3069" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3070" s="27" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3070" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3070" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3070" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3070" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3071" s="27" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3071" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3071" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3071" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3071" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3072" s="27" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3072" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3072" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3072" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3072" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3073" s="27" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3073" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3073" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3073" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3073" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3074" s="27" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3074" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3074" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3074" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3074" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3075" s="27" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3075" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3075" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3075" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3075" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3076" s="27" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3076" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3076" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3076" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3076" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3077" s="27" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3077" s="27" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3077" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3077" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3077" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3078" s="28" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3078" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3078" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3078" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3078" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3079" s="28" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3079" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3079" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3079" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3079" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3080" s="28" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3080" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3080" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3080" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3080" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3081" s="28" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3081" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3081" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3081" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3081" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3082" s="28" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3082" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3082" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3082" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3082" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3083" s="28" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3083" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3083" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3083" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3083" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3084" s="28" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3084" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3084" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3084" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3084" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3085" s="28" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3085" s="28" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3085" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3085" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3085" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3086" s="27" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3086" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3086" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3086" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3086" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3087" s="27" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3087" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3087" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3087" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3087" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3088" s="27" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3088" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3088" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3088" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3088" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3089" s="27" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3089" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3089" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3089" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3089" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3090" s="27" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3090" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3090" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3090" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3090" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3091" s="27" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3091" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3091" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3091" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3091" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3092" s="27" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3092" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3092" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3092" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3092" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3093" s="27" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3093" s="27" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3093" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3093" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3093" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3094" s="28" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3094" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3094" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3094" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3094" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3095" s="28" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3095" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3095" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3095" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3095" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3096" s="28" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3096" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3096" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3096" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3096" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3097" s="28" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3097" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3097" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3097" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3097" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3098" s="28" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3098" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3098" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3098" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3098" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3099" s="28" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3099" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3099" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3099" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3099" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3100" s="28" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3100" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3100" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3100" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3100" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3101" s="28" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3101" s="28" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3101" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3101" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3101" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3102" s="27" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3102" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3102" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3102" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E3102" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3103" s="27" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3103" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3103" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3103" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3103" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3104" s="27" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3104" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3104" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3104" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3104" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3105" s="27" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3105" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3105" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3105" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3105" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3106" s="27" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3106" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3106" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3106" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3106" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3107" s="27" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3107" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3107" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3107" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3107" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3108" s="27" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B3108" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3108" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3108" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3108" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3109" s="27" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3109" s="27" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3109" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3109" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3109" s="96">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3141</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3231</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11340" uniqueCount="3831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11476" uniqueCount="3884">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11524,6 +11524,165 @@
   </si>
   <si>
     <t>DSS4101</t>
+  </si>
+  <si>
+    <t>AHMED NEGM AHMED AWAD AFFAN</t>
+  </si>
+  <si>
+    <t>27-Aug-2025</t>
+  </si>
+  <si>
+    <t>DSS4102</t>
+  </si>
+  <si>
+    <t>DSS4103</t>
+  </si>
+  <si>
+    <t>Meelad Jummah Faraj Alzinnad</t>
+  </si>
+  <si>
+    <t>DSS4104</t>
+  </si>
+  <si>
+    <t>DSS4105</t>
+  </si>
+  <si>
+    <t>DSS4106</t>
+  </si>
+  <si>
+    <t>DSS4107</t>
+  </si>
+  <si>
+    <t>DSS4108</t>
+  </si>
+  <si>
+    <t>DSS4109</t>
+  </si>
+  <si>
+    <t>DSS4110</t>
+  </si>
+  <si>
+    <t>DSS4111</t>
+  </si>
+  <si>
+    <t>DSS4112</t>
+  </si>
+  <si>
+    <t>DSS4113</t>
+  </si>
+  <si>
+    <t>DSS4114</t>
+  </si>
+  <si>
+    <t>DSS4115</t>
+  </si>
+  <si>
+    <t>DSS4116</t>
+  </si>
+  <si>
+    <t>DSS4117</t>
+  </si>
+  <si>
+    <t>DSS4118</t>
+  </si>
+  <si>
+    <t>DSS4119</t>
+  </si>
+  <si>
+    <t>DSS4120</t>
+  </si>
+  <si>
+    <t>DSS4121</t>
+  </si>
+  <si>
+    <t>DSS4122</t>
+  </si>
+  <si>
+    <t>DSS4123</t>
+  </si>
+  <si>
+    <t>DSS4124</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Wahba Hussein</t>
+  </si>
+  <si>
+    <t>Mohammed Khamis Abdel Aziz Mansour</t>
+  </si>
+  <si>
+    <t>Fire Fighting &amp; Fire Prevention</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Sebaei Sayed</t>
+  </si>
+  <si>
+    <t>16-Sep-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yousef Atef Mohamed </t>
+  </si>
+  <si>
+    <t>Mostafa Mahmoud Rabie Abdelhamid</t>
+  </si>
+  <si>
+    <t>DSS4125</t>
+  </si>
+  <si>
+    <t>DSS4126</t>
+  </si>
+  <si>
+    <t>DSS4127</t>
+  </si>
+  <si>
+    <t>DSS4128</t>
+  </si>
+  <si>
+    <t>DSS4129</t>
+  </si>
+  <si>
+    <t>DSS4130</t>
+  </si>
+  <si>
+    <t>DSS4131</t>
+  </si>
+  <si>
+    <t>DSS4132</t>
+  </si>
+  <si>
+    <t>5-Mar-2025</t>
+  </si>
+  <si>
+    <t>10-Mar-2025</t>
+  </si>
+  <si>
+    <t>6-Mar-2025</t>
+  </si>
+  <si>
+    <t>3-Mar-2025</t>
+  </si>
+  <si>
+    <t>1-Mar-2025</t>
+  </si>
+  <si>
+    <t>2-Mar-2025</t>
+  </si>
+  <si>
+    <t>7-Mar-2025</t>
+  </si>
+  <si>
+    <t>8-Mar-2025</t>
+  </si>
+  <si>
+    <t>DSS4133</t>
+  </si>
+  <si>
+    <t>13-Sep-2026</t>
+  </si>
+  <si>
+    <t>Khalid Alsagheer Amar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rigging Competent Person</t>
   </si>
 </sst>
 </file>
@@ -11764,7 +11923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -12054,6 +12213,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12339,10 +12507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3109"/>
+  <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3034" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="F3053" sqref="F3053"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3066" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D3076" sqref="D3076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37923,8 +38091,8 @@
       <c r="C1526" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1526" s="28">
-        <v>45780</v>
+      <c r="D1526" s="28" t="s">
+        <v>3872</v>
       </c>
       <c r="E1526" s="51">
         <v>1</v>
@@ -37940,8 +38108,8 @@
       <c r="C1527" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D1527" s="28">
-        <v>45933</v>
+      <c r="D1527" s="28" t="s">
+        <v>3873</v>
       </c>
       <c r="E1527" s="51">
         <v>1</v>
@@ -37957,8 +38125,8 @@
       <c r="C1528" s="28" t="s">
         <v>952</v>
       </c>
-      <c r="D1528" s="28">
-        <v>45811</v>
+      <c r="D1528" s="28" t="s">
+        <v>3874</v>
       </c>
       <c r="E1528" s="51">
         <v>1</v>
@@ -37974,8 +38142,8 @@
       <c r="C1529" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="D1529" s="28">
-        <v>45719</v>
+      <c r="D1529" s="28" t="s">
+        <v>3875</v>
       </c>
       <c r="E1529" s="51">
         <v>1</v>
@@ -37991,8 +38159,8 @@
       <c r="C1530" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D1530" s="28">
-        <v>45660</v>
+      <c r="D1530" s="28" t="s">
+        <v>3876</v>
       </c>
       <c r="E1530" s="51">
         <v>1</v>
@@ -38008,8 +38176,8 @@
       <c r="C1531" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D1531" s="28">
-        <v>45691</v>
+      <c r="D1531" s="28" t="s">
+        <v>3877</v>
       </c>
       <c r="E1531" s="51">
         <v>1</v>
@@ -38025,8 +38193,8 @@
       <c r="C1532" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D1532" s="28">
-        <v>45841</v>
+      <c r="D1532" s="28" t="s">
+        <v>3878</v>
       </c>
       <c r="E1532" s="51">
         <v>1</v>
@@ -38042,8 +38210,8 @@
       <c r="C1533" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="D1533" s="28">
-        <v>45872</v>
+      <c r="D1533" s="28" t="s">
+        <v>3879</v>
       </c>
       <c r="E1533" s="51">
         <v>1</v>
@@ -64840,6 +65008,1090 @@
       <c r="E3109" s="96">
         <v>1</v>
       </c>
+    </row>
+    <row r="3110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3110" s="40" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B3110" s="40" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3110" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3110" s="40" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E3110" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3111" s="40" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B3111" s="40" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C3111" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3111" s="40" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E3111" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3112" s="28" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B3112" s="28" t="s">
+        <v>3835</v>
+      </c>
+      <c r="C3112" s="95" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3112" s="28" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E3112" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3113" s="28" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B3113" s="28" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3113" s="95" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3113" s="28" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E3113" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3114" s="28" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B3114" s="28" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C3114" s="95" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3114" s="28" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E3114" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3115" s="28" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B3115" s="28" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C3115" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3115" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3115" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3116" s="27" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B3116" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3116" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3116" s="27" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3116" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3117" s="27" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B3117" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3117" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3117" s="27" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3117" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3118" s="27" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B3118" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3118" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3118" s="27" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3118" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3119" s="27" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B3119" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3119" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3119" s="27" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E3119" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3120" s="27" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B3120" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3120" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3120" s="27" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3120" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3121" s="27" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B3121" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3121" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3121" s="27" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3121" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3122" s="27" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B3122" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3122" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3122" s="27" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3122" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3123" s="27" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B3123" s="27" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C3123" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3123" s="27" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3123" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3124" s="28" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B3124" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3124" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3124" s="28" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3124" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3125" s="28" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B3125" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3125" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3125" s="28" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3125" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3126" s="28" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B3126" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3126" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3126" s="28" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3126" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3127" s="28" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B3127" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3127" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3127" s="28" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E3127" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3128" s="28" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B3128" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3128" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3128" s="28" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3128" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3129" s="28" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B3129" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3129" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3129" s="28" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3129" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3130" s="28" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B3130" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3130" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3130" s="28" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3130" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3131" s="28" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B3131" s="28" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C3131" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3131" s="28" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3131" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3132" s="27" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B3132" s="27" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C3132" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3132" s="27" t="s">
+        <v>3861</v>
+      </c>
+      <c r="E3132" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3133" s="28" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B3133" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3133" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3133" s="28" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3133" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3134" s="28" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B3134" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3134" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3134" s="28" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3134" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3135" s="28" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B3135" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3135" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3135" s="28" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3135" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3136" s="28" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B3136" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3136" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3136" s="28" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E3136" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3137" s="28" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B3137" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3137" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3137" s="28" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3137" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3138" s="28" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B3138" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3138" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3138" s="28" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3138" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3139" s="28" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B3139" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3139" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3139" s="28" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3139" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3140" s="28" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B3140" s="28" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C3140" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3140" s="28" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3140" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3141" s="27" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B3141" s="27" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C3141" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D3141" s="27" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E3141" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3142" s="97"/>
+      <c r="B3142" s="51"/>
+      <c r="C3142" s="98"/>
+      <c r="D3142" s="98"/>
+    </row>
+    <row r="3143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3143" s="97"/>
+      <c r="B3143" s="51"/>
+      <c r="C3143" s="98"/>
+      <c r="D3143" s="98"/>
+    </row>
+    <row r="3144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3144" s="97"/>
+      <c r="B3144" s="51"/>
+      <c r="C3144" s="98"/>
+      <c r="D3144" s="98"/>
+    </row>
+    <row r="3145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3145" s="97"/>
+      <c r="B3145" s="51"/>
+      <c r="C3145" s="98"/>
+      <c r="D3145" s="98"/>
+    </row>
+    <row r="3146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3146" s="97"/>
+      <c r="B3146" s="51"/>
+      <c r="C3146" s="98"/>
+      <c r="D3146" s="98"/>
+    </row>
+    <row r="3147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3147" s="97"/>
+      <c r="B3147" s="51"/>
+      <c r="C3147" s="98"/>
+      <c r="D3147" s="98"/>
+    </row>
+    <row r="3148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3148" s="97"/>
+      <c r="B3148" s="51"/>
+      <c r="C3148" s="98"/>
+      <c r="D3148" s="98"/>
+    </row>
+    <row r="3149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3149" s="97"/>
+      <c r="B3149" s="51"/>
+      <c r="C3149" s="98"/>
+      <c r="D3149" s="98"/>
+    </row>
+    <row r="3150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3150" s="97"/>
+      <c r="B3150" s="51"/>
+      <c r="C3150" s="98"/>
+      <c r="D3150" s="98"/>
+    </row>
+    <row r="3151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3151" s="97"/>
+      <c r="B3151" s="51"/>
+      <c r="C3151" s="98"/>
+      <c r="D3151" s="98"/>
+    </row>
+    <row r="3152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3152" s="97"/>
+      <c r="B3152" s="51"/>
+      <c r="C3152" s="98"/>
+      <c r="D3152" s="98"/>
+    </row>
+    <row r="3153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3153" s="97"/>
+      <c r="B3153" s="51"/>
+      <c r="C3153" s="98"/>
+      <c r="D3153" s="98"/>
+    </row>
+    <row r="3154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3154" s="97"/>
+      <c r="B3154" s="51"/>
+      <c r="C3154" s="98"/>
+      <c r="D3154" s="98"/>
+    </row>
+    <row r="3155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3155" s="97"/>
+      <c r="B3155" s="51"/>
+      <c r="C3155" s="98"/>
+      <c r="D3155" s="98"/>
+    </row>
+    <row r="3156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3156" s="97"/>
+      <c r="B3156" s="51"/>
+      <c r="C3156" s="98"/>
+      <c r="D3156" s="98"/>
+    </row>
+    <row r="3157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3157" s="97"/>
+      <c r="B3157" s="51"/>
+      <c r="C3157" s="98"/>
+      <c r="D3157" s="98"/>
+    </row>
+    <row r="3158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3158" s="97"/>
+      <c r="B3158" s="51"/>
+      <c r="C3158" s="98"/>
+      <c r="D3158" s="98"/>
+    </row>
+    <row r="3159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3159" s="97"/>
+      <c r="B3159" s="51"/>
+      <c r="C3159" s="98"/>
+      <c r="D3159" s="98"/>
+    </row>
+    <row r="3160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3160" s="97"/>
+      <c r="B3160" s="51"/>
+      <c r="C3160" s="98"/>
+      <c r="D3160" s="98"/>
+    </row>
+    <row r="3161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3161" s="97"/>
+      <c r="B3161" s="51"/>
+      <c r="C3161" s="98"/>
+      <c r="D3161" s="98"/>
+    </row>
+    <row r="3162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3162" s="97"/>
+      <c r="B3162" s="51"/>
+      <c r="C3162" s="98"/>
+      <c r="D3162" s="98"/>
+    </row>
+    <row r="3163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3163" s="97"/>
+      <c r="B3163" s="51"/>
+      <c r="C3163" s="98"/>
+      <c r="D3163" s="98"/>
+    </row>
+    <row r="3164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3164" s="97"/>
+      <c r="B3164" s="51"/>
+      <c r="C3164" s="98"/>
+      <c r="D3164" s="98"/>
+    </row>
+    <row r="3165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3165" s="97"/>
+      <c r="B3165" s="51"/>
+      <c r="C3165" s="98"/>
+      <c r="D3165" s="98"/>
+    </row>
+    <row r="3166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3166" s="97"/>
+      <c r="B3166" s="51"/>
+      <c r="C3166" s="98"/>
+      <c r="D3166" s="98"/>
+    </row>
+    <row r="3167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3167" s="97"/>
+      <c r="B3167" s="51"/>
+      <c r="C3167" s="98"/>
+      <c r="D3167" s="98"/>
+    </row>
+    <row r="3168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3168" s="97"/>
+      <c r="B3168" s="51"/>
+      <c r="C3168" s="98"/>
+      <c r="D3168" s="98"/>
+    </row>
+    <row r="3169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3169" s="97"/>
+      <c r="B3169" s="51"/>
+      <c r="C3169" s="98"/>
+      <c r="D3169" s="98"/>
+    </row>
+    <row r="3170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3170" s="97"/>
+      <c r="B3170" s="51"/>
+      <c r="C3170" s="98"/>
+      <c r="D3170" s="98"/>
+    </row>
+    <row r="3171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3171" s="97"/>
+      <c r="B3171" s="51"/>
+      <c r="C3171" s="98"/>
+      <c r="D3171" s="98"/>
+    </row>
+    <row r="3172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3172" s="97"/>
+      <c r="B3172" s="51"/>
+      <c r="C3172" s="98"/>
+      <c r="D3172" s="98"/>
+    </row>
+    <row r="3173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3173" s="97"/>
+      <c r="B3173" s="51"/>
+      <c r="C3173" s="98"/>
+      <c r="D3173" s="98"/>
+    </row>
+    <row r="3174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3174" s="97"/>
+      <c r="B3174" s="51"/>
+      <c r="C3174" s="98"/>
+      <c r="D3174" s="98"/>
+    </row>
+    <row r="3175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3175" s="97"/>
+      <c r="B3175" s="51"/>
+      <c r="C3175" s="98"/>
+      <c r="D3175" s="98"/>
+    </row>
+    <row r="3176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3176" s="97"/>
+      <c r="B3176" s="51"/>
+      <c r="C3176" s="98"/>
+      <c r="D3176" s="98"/>
+    </row>
+    <row r="3177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3177" s="97"/>
+      <c r="B3177" s="51"/>
+      <c r="C3177" s="98"/>
+      <c r="D3177" s="98"/>
+    </row>
+    <row r="3178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3178" s="97"/>
+      <c r="B3178" s="51"/>
+      <c r="C3178" s="98"/>
+      <c r="D3178" s="98"/>
+    </row>
+    <row r="3179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3179" s="97"/>
+      <c r="B3179" s="51"/>
+      <c r="C3179" s="98"/>
+      <c r="D3179" s="98"/>
+    </row>
+    <row r="3180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3180" s="97"/>
+      <c r="B3180" s="51"/>
+      <c r="C3180" s="98"/>
+      <c r="D3180" s="98"/>
+    </row>
+    <row r="3181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3181" s="97"/>
+      <c r="B3181" s="51"/>
+      <c r="C3181" s="98"/>
+      <c r="D3181" s="98"/>
+    </row>
+    <row r="3182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3182" s="97"/>
+      <c r="B3182" s="51"/>
+      <c r="C3182" s="98"/>
+      <c r="D3182" s="98"/>
+    </row>
+    <row r="3183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3183" s="97"/>
+      <c r="B3183" s="51"/>
+      <c r="C3183" s="98"/>
+      <c r="D3183" s="98"/>
+    </row>
+    <row r="3184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3184" s="97"/>
+      <c r="B3184" s="51"/>
+      <c r="C3184" s="98"/>
+      <c r="D3184" s="98"/>
+    </row>
+    <row r="3185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3185" s="97"/>
+      <c r="B3185" s="51"/>
+      <c r="C3185" s="98"/>
+      <c r="D3185" s="98"/>
+    </row>
+    <row r="3186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3186" s="97"/>
+      <c r="B3186" s="51"/>
+      <c r="C3186" s="98"/>
+      <c r="D3186" s="98"/>
+    </row>
+    <row r="3187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3187" s="97"/>
+      <c r="B3187" s="51"/>
+      <c r="C3187" s="98"/>
+      <c r="D3187" s="98"/>
+    </row>
+    <row r="3188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3188" s="97"/>
+      <c r="B3188" s="51"/>
+      <c r="C3188" s="98"/>
+      <c r="D3188" s="98"/>
+    </row>
+    <row r="3189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3189" s="97"/>
+      <c r="B3189" s="51"/>
+      <c r="C3189" s="98"/>
+      <c r="D3189" s="98"/>
+    </row>
+    <row r="3190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3190" s="97"/>
+      <c r="B3190" s="51"/>
+      <c r="C3190" s="98"/>
+      <c r="D3190" s="98"/>
+    </row>
+    <row r="3191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3191" s="97"/>
+      <c r="B3191" s="51"/>
+      <c r="C3191" s="98"/>
+      <c r="D3191" s="98"/>
+    </row>
+    <row r="3192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3192" s="97"/>
+      <c r="B3192" s="51"/>
+      <c r="C3192" s="98"/>
+      <c r="D3192" s="98"/>
+    </row>
+    <row r="3193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3193" s="97"/>
+      <c r="B3193" s="51"/>
+      <c r="C3193" s="98"/>
+      <c r="D3193" s="98"/>
+    </row>
+    <row r="3194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3194" s="97"/>
+      <c r="B3194" s="51"/>
+      <c r="C3194" s="98"/>
+      <c r="D3194" s="98"/>
+    </row>
+    <row r="3195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3195" s="97"/>
+      <c r="B3195" s="51"/>
+      <c r="C3195" s="98"/>
+      <c r="D3195" s="98"/>
+    </row>
+    <row r="3196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3196" s="97"/>
+      <c r="B3196" s="51"/>
+      <c r="C3196" s="98"/>
+      <c r="D3196" s="98"/>
+    </row>
+    <row r="3197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3197" s="97"/>
+      <c r="B3197" s="51"/>
+      <c r="C3197" s="98"/>
+      <c r="D3197" s="98"/>
+    </row>
+    <row r="3198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3198" s="97"/>
+      <c r="B3198" s="51"/>
+      <c r="C3198" s="98"/>
+      <c r="D3198" s="98"/>
+    </row>
+    <row r="3199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3199" s="97"/>
+      <c r="B3199" s="51"/>
+      <c r="C3199" s="98"/>
+      <c r="D3199" s="98"/>
+    </row>
+    <row r="3200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3200" s="97"/>
+      <c r="B3200" s="51"/>
+      <c r="C3200" s="98"/>
+      <c r="D3200" s="98"/>
+    </row>
+    <row r="3201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3201" s="97"/>
+      <c r="B3201" s="51"/>
+      <c r="C3201" s="98"/>
+      <c r="D3201" s="98"/>
+    </row>
+    <row r="3202" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3202" s="97"/>
+      <c r="B3202" s="51"/>
+      <c r="C3202" s="98"/>
+      <c r="D3202" s="98"/>
+    </row>
+    <row r="3203" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3203" s="97"/>
+      <c r="B3203" s="51"/>
+      <c r="C3203" s="98"/>
+      <c r="D3203" s="98"/>
+    </row>
+    <row r="3204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3204" s="97"/>
+      <c r="B3204" s="51"/>
+      <c r="C3204" s="98"/>
+      <c r="D3204" s="98"/>
+    </row>
+    <row r="3205" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3205" s="97"/>
+      <c r="B3205" s="51"/>
+      <c r="C3205" s="98"/>
+      <c r="D3205" s="98"/>
+    </row>
+    <row r="3206" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3206" s="97"/>
+      <c r="B3206" s="51"/>
+      <c r="C3206" s="98"/>
+      <c r="D3206" s="98"/>
+    </row>
+    <row r="3207" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3207" s="97"/>
+      <c r="B3207" s="51"/>
+      <c r="C3207" s="98"/>
+      <c r="D3207" s="98"/>
+    </row>
+    <row r="3208" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3208" s="97"/>
+      <c r="B3208" s="51"/>
+      <c r="C3208" s="98"/>
+      <c r="D3208" s="98"/>
+    </row>
+    <row r="3209" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3209" s="97"/>
+      <c r="B3209" s="51"/>
+      <c r="C3209" s="98"/>
+      <c r="D3209" s="98"/>
+    </row>
+    <row r="3210" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3210" s="97"/>
+      <c r="B3210" s="51"/>
+      <c r="C3210" s="98"/>
+      <c r="D3210" s="98"/>
+    </row>
+    <row r="3211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3211" s="97"/>
+      <c r="B3211" s="51"/>
+      <c r="C3211" s="98"/>
+      <c r="D3211" s="98"/>
+    </row>
+    <row r="3212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3212" s="97"/>
+      <c r="B3212" s="51"/>
+      <c r="C3212" s="98"/>
+      <c r="D3212" s="98"/>
+    </row>
+    <row r="3213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3213" s="97"/>
+      <c r="B3213" s="51"/>
+      <c r="C3213" s="98"/>
+      <c r="D3213" s="98"/>
+    </row>
+    <row r="3214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3214" s="97"/>
+      <c r="B3214" s="51"/>
+      <c r="C3214" s="98"/>
+      <c r="D3214" s="98"/>
+    </row>
+    <row r="3215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3215" s="97"/>
+      <c r="B3215" s="51"/>
+      <c r="C3215" s="98"/>
+      <c r="D3215" s="98"/>
+    </row>
+    <row r="3216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3216" s="97"/>
+      <c r="B3216" s="51"/>
+      <c r="C3216" s="98"/>
+      <c r="D3216" s="98"/>
+    </row>
+    <row r="3217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3217" s="97"/>
+      <c r="B3217" s="51"/>
+      <c r="C3217" s="98"/>
+      <c r="D3217" s="98"/>
+    </row>
+    <row r="3218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3218" s="97"/>
+      <c r="B3218" s="51"/>
+      <c r="C3218" s="98"/>
+      <c r="D3218" s="98"/>
+    </row>
+    <row r="3219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3219" s="97"/>
+      <c r="B3219" s="51"/>
+      <c r="C3219" s="98"/>
+      <c r="D3219" s="98"/>
+    </row>
+    <row r="3220" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3220" s="97"/>
+      <c r="B3220" s="51"/>
+      <c r="C3220" s="98"/>
+      <c r="D3220" s="98"/>
+    </row>
+    <row r="3221" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3221" s="97"/>
+      <c r="B3221" s="51"/>
+      <c r="C3221" s="98"/>
+      <c r="D3221" s="98"/>
+    </row>
+    <row r="3222" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3222" s="97"/>
+      <c r="B3222" s="51"/>
+      <c r="C3222" s="98"/>
+      <c r="D3222" s="98"/>
+    </row>
+    <row r="3223" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3223" s="97"/>
+      <c r="B3223" s="51"/>
+      <c r="C3223" s="98"/>
+      <c r="D3223" s="98"/>
+    </row>
+    <row r="3224" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3224" s="97"/>
+      <c r="B3224" s="51"/>
+      <c r="C3224" s="98"/>
+      <c r="D3224" s="98"/>
+    </row>
+    <row r="3225" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3225" s="97"/>
+      <c r="B3225" s="51"/>
+      <c r="C3225" s="98"/>
+      <c r="D3225" s="98"/>
+    </row>
+    <row r="3226" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3226" s="97"/>
+      <c r="B3226" s="51"/>
+      <c r="C3226" s="98"/>
+      <c r="D3226" s="98"/>
+    </row>
+    <row r="3227" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3227" s="97"/>
+      <c r="B3227" s="51"/>
+      <c r="C3227" s="98"/>
+      <c r="D3227" s="98"/>
+    </row>
+    <row r="3228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3228" s="97"/>
+      <c r="B3228" s="51"/>
+      <c r="C3228" s="98"/>
+      <c r="D3228" s="98"/>
+    </row>
+    <row r="3229" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3229" s="97"/>
+      <c r="B3229" s="51"/>
+      <c r="C3229" s="98"/>
+      <c r="D3229" s="98"/>
+    </row>
+    <row r="3230" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3230" s="97"/>
+      <c r="B3230" s="51"/>
+      <c r="C3230" s="98"/>
+      <c r="D3230" s="98"/>
+    </row>
+    <row r="3231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3231" s="99"/>
+      <c r="B3231" s="51"/>
+      <c r="C3231" s="98"/>
+      <c r="D3231" s="98"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11676,13 +11676,13 @@
     <t>DSS4133</t>
   </si>
   <si>
-    <t>13-Sep-2026</t>
-  </si>
-  <si>
     <t>Khalid Alsagheer Amar</t>
   </si>
   <si>
     <t xml:space="preserve"> Rigging Competent Person</t>
+  </si>
+  <si>
+    <t>13-Sep-2025</t>
   </si>
 </sst>
 </file>
@@ -12499,7 +12499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12509,8 +12509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3066" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D3076" sqref="D3076"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3132" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D3143" sqref="D3143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65541,13 +65541,13 @@
         <v>3880</v>
       </c>
       <c r="B3141" s="27" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C3141" s="27" t="s">
         <v>3882</v>
       </c>
-      <c r="C3141" s="27" t="s">
+      <c r="D3141" s="27" t="s">
         <v>3883</v>
-      </c>
-      <c r="D3141" s="27" t="s">
-        <v>3881</v>
       </c>
       <c r="E3141" s="51">
         <v>1</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11476" uniqueCount="3884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11508" uniqueCount="3893">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11683,6 +11683,33 @@
   </si>
   <si>
     <t>13-Sep-2025</t>
+  </si>
+  <si>
+    <t>HUSSIEN SAIED HUSSIEN ALY</t>
+  </si>
+  <si>
+    <t>DSS4134</t>
+  </si>
+  <si>
+    <t>DSS4135</t>
+  </si>
+  <si>
+    <t>DSS4136</t>
+  </si>
+  <si>
+    <t>DSS4137</t>
+  </si>
+  <si>
+    <t>DSS4138</t>
+  </si>
+  <si>
+    <t>DSS4139</t>
+  </si>
+  <si>
+    <t>DSS4140</t>
+  </si>
+  <si>
+    <t>DSS4141</t>
   </si>
 </sst>
 </file>
@@ -12499,7 +12526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12509,8 +12536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3132" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D3143" sqref="D3143"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3135" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3142" sqref="A3142:B3149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65554,52 +65581,140 @@
       </c>
     </row>
     <row r="3142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3142" s="97"/>
-      <c r="B3142" s="51"/>
-      <c r="C3142" s="98"/>
-      <c r="D3142" s="98"/>
+      <c r="A3142" s="28" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B3142" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3142" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3142" s="28" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3142" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3143" s="97"/>
-      <c r="B3143" s="51"/>
-      <c r="C3143" s="98"/>
-      <c r="D3143" s="98"/>
+      <c r="A3143" s="28" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B3143" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3143" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3143" s="28" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3143" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3144" s="97"/>
-      <c r="B3144" s="51"/>
-      <c r="C3144" s="98"/>
-      <c r="D3144" s="98"/>
+      <c r="A3144" s="28" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B3144" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3144" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3144" s="28" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3144" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3145" s="97"/>
-      <c r="B3145" s="51"/>
-      <c r="C3145" s="98"/>
-      <c r="D3145" s="98"/>
+      <c r="A3145" s="28" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B3145" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3145" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3145" s="28" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E3145" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3146" s="97"/>
-      <c r="B3146" s="51"/>
-      <c r="C3146" s="98"/>
-      <c r="D3146" s="98"/>
+      <c r="A3146" s="28" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B3146" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3146" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3146" s="28" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3146" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3147" s="97"/>
-      <c r="B3147" s="51"/>
-      <c r="C3147" s="98"/>
-      <c r="D3147" s="98"/>
+      <c r="A3147" s="28" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B3147" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3147" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3147" s="28" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3147" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3148" s="97"/>
-      <c r="B3148" s="51"/>
-      <c r="C3148" s="98"/>
-      <c r="D3148" s="98"/>
+      <c r="A3148" s="28" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B3148" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3148" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3148" s="28" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3148" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3149" s="97"/>
-      <c r="B3149" s="51"/>
-      <c r="C3149" s="98"/>
-      <c r="D3149" s="98"/>
+      <c r="A3149" s="28" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B3149" s="28" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C3149" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3149" s="28" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3149" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3150" s="97"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11508" uniqueCount="3893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11512" uniqueCount="3895">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11710,6 +11710,12 @@
   </si>
   <si>
     <t>DSS4141</t>
+  </si>
+  <si>
+    <t>DSS4142</t>
+  </si>
+  <si>
+    <t>Excavation Safety</t>
   </si>
 </sst>
 </file>
@@ -12526,7 +12532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12537,7 +12543,7 @@
   <dimension ref="A1:E3231"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3135" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3142" sqref="A3142:B3149"/>
+      <selection activeCell="C3154" sqref="C3154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65717,10 +65723,21 @@
       </c>
     </row>
     <row r="3150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3150" s="97"/>
-      <c r="B3150" s="51"/>
-      <c r="C3150" s="98"/>
-      <c r="D3150" s="98"/>
+      <c r="A3150" s="27" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B3150" s="27" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C3150" s="27" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D3150" s="27" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E3150" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3151" s="97"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11512" uniqueCount="3895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11544" uniqueCount="3912">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11716,6 +11716,57 @@
   </si>
   <si>
     <t>Excavation Safety</t>
+  </si>
+  <si>
+    <t>MOHAMMED HAMED ALI ABDEL-MOATI</t>
+  </si>
+  <si>
+    <t>05-Sep-2019</t>
+  </si>
+  <si>
+    <t>10-Sep-2019</t>
+  </si>
+  <si>
+    <t>06-Sep-2019</t>
+  </si>
+  <si>
+    <t>03-Sep-2019</t>
+  </si>
+  <si>
+    <t>01-Sep-2019</t>
+  </si>
+  <si>
+    <t>02-Sep-2019</t>
+  </si>
+  <si>
+    <t>07-Sep-2019</t>
+  </si>
+  <si>
+    <t>08-Sep-2019</t>
+  </si>
+  <si>
+    <t>DSS668</t>
+  </si>
+  <si>
+    <t>DSS669</t>
+  </si>
+  <si>
+    <t>DSS670</t>
+  </si>
+  <si>
+    <t>DSS671</t>
+  </si>
+  <si>
+    <t>DSS672</t>
+  </si>
+  <si>
+    <t>DSS673</t>
+  </si>
+  <si>
+    <t>DSS674</t>
+  </si>
+  <si>
+    <t>DSS675</t>
   </si>
 </sst>
 </file>
@@ -11956,7 +12007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -12255,6 +12306,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12532,7 +12586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12542,8 +12596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3135" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3154" sqref="C3154"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3143" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="A3151" sqref="A3151:E3158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65740,108 +65794,196 @@
       </c>
     </row>
     <row r="3151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3151" s="97"/>
-      <c r="B3151" s="51"/>
-      <c r="C3151" s="98"/>
-      <c r="D3151" s="98"/>
+      <c r="A3151" s="100" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B3151" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3151" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3151" s="100" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E3151" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3152" s="97"/>
-      <c r="B3152" s="51"/>
-      <c r="C3152" s="98"/>
-      <c r="D3152" s="98"/>
-    </row>
-    <row r="3153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3153" s="97"/>
-      <c r="B3153" s="51"/>
-      <c r="C3153" s="98"/>
-      <c r="D3153" s="98"/>
-    </row>
-    <row r="3154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3154" s="97"/>
-      <c r="B3154" s="51"/>
-      <c r="C3154" s="98"/>
-      <c r="D3154" s="98"/>
-    </row>
-    <row r="3155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3155" s="97"/>
-      <c r="B3155" s="51"/>
-      <c r="C3155" s="98"/>
-      <c r="D3155" s="98"/>
-    </row>
-    <row r="3156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3156" s="97"/>
-      <c r="B3156" s="51"/>
-      <c r="C3156" s="98"/>
-      <c r="D3156" s="98"/>
-    </row>
-    <row r="3157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3157" s="97"/>
-      <c r="B3157" s="51"/>
-      <c r="C3157" s="98"/>
-      <c r="D3157" s="98"/>
-    </row>
-    <row r="3158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3158" s="97"/>
-      <c r="B3158" s="51"/>
-      <c r="C3158" s="98"/>
-      <c r="D3158" s="98"/>
-    </row>
-    <row r="3159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3152" s="100" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B3152" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3152" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3152" s="100" t="s">
+        <v>3897</v>
+      </c>
+      <c r="E3152" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3153" s="100" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B3153" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3153" s="100" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3153" s="100" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E3153" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3154" s="100" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B3154" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3154" s="100" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3154" s="100" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E3154" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3155" s="100" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B3155" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3155" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3155" s="100" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E3155" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3156" s="100" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B3156" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3156" s="100" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3156" s="100" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E3156" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3157" s="100" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B3157" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3157" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3157" s="100" t="s">
+        <v>3902</v>
+      </c>
+      <c r="E3157" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3158" s="100" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B3158" s="100" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C3158" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3158" s="100" t="s">
+        <v>3903</v>
+      </c>
+      <c r="E3158" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3159" s="97"/>
       <c r="B3159" s="51"/>
       <c r="C3159" s="98"/>
       <c r="D3159" s="98"/>
     </row>
-    <row r="3160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3160" s="97"/>
       <c r="B3160" s="51"/>
       <c r="C3160" s="98"/>
       <c r="D3160" s="98"/>
     </row>
-    <row r="3161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3161" s="97"/>
       <c r="B3161" s="51"/>
       <c r="C3161" s="98"/>
       <c r="D3161" s="98"/>
     </row>
-    <row r="3162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3162" s="97"/>
       <c r="B3162" s="51"/>
       <c r="C3162" s="98"/>
       <c r="D3162" s="98"/>
     </row>
-    <row r="3163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3163" s="97"/>
       <c r="B3163" s="51"/>
       <c r="C3163" s="98"/>
       <c r="D3163" s="98"/>
     </row>
-    <row r="3164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3164" s="97"/>
       <c r="B3164" s="51"/>
       <c r="C3164" s="98"/>
       <c r="D3164" s="98"/>
     </row>
-    <row r="3165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3165" s="97"/>
       <c r="B3165" s="51"/>
       <c r="C3165" s="98"/>
       <c r="D3165" s="98"/>
     </row>
-    <row r="3166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3166" s="97"/>
       <c r="B3166" s="51"/>
       <c r="C3166" s="98"/>
       <c r="D3166" s="98"/>
     </row>
-    <row r="3167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3167" s="97"/>
       <c r="B3167" s="51"/>
       <c r="C3167" s="98"/>
       <c r="D3167" s="98"/>
     </row>
-    <row r="3168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3168" s="97"/>
       <c r="B3168" s="51"/>
       <c r="C3168" s="98"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11544" uniqueCount="3912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11552" uniqueCount="3915">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11767,6 +11767,15 @@
   </si>
   <si>
     <t>DSS675</t>
+  </si>
+  <si>
+    <t>DSS4143</t>
+  </si>
+  <si>
+    <t>DSS4144</t>
+  </si>
+  <si>
+    <t>02-Oct-2025</t>
   </si>
 </sst>
 </file>
@@ -12586,7 +12595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12596,8 +12605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3143" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="A3151" sqref="A3151:E3158"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3144" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3155" sqref="C3155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65930,16 +65939,38 @@
       </c>
     </row>
     <row r="3159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3159" s="97"/>
-      <c r="B3159" s="51"/>
-      <c r="C3159" s="98"/>
-      <c r="D3159" s="98"/>
+      <c r="A3159" s="6" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B3159" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3159" s="28" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3159" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3160" s="97"/>
-      <c r="B3160" s="51"/>
-      <c r="C3160" s="98"/>
-      <c r="D3160" s="98"/>
+      <c r="A3160" s="6" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B3160" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3160" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3160" s="28" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3160" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3161" s="97"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11552" uniqueCount="3915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11588" uniqueCount="3926">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11776,6 +11776,39 @@
   </si>
   <si>
     <t>02-Oct-2025</t>
+  </si>
+  <si>
+    <t>Ahmed Emad Ali Marey</t>
+  </si>
+  <si>
+    <t>12-Sep-2025</t>
+  </si>
+  <si>
+    <t>DSS4145</t>
+  </si>
+  <si>
+    <t>DSS4146</t>
+  </si>
+  <si>
+    <t>DSS4147</t>
+  </si>
+  <si>
+    <t>DSS4148</t>
+  </si>
+  <si>
+    <t>DSS4149</t>
+  </si>
+  <si>
+    <t>DSS4150</t>
+  </si>
+  <si>
+    <t>DSS4151</t>
+  </si>
+  <si>
+    <t>DSS4152</t>
+  </si>
+  <si>
+    <t>DSS4153</t>
   </si>
 </sst>
 </file>
@@ -12605,8 +12638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3144" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3155" sqref="C3155"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3156" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3162" sqref="C3162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65973,144 +66006,243 @@
       </c>
     </row>
     <row r="3161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3161" s="97"/>
-      <c r="B3161" s="51"/>
-      <c r="C3161" s="98"/>
-      <c r="D3161" s="98"/>
+      <c r="A3161" s="27" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B3161" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3161" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3161" s="27" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3161" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3162" s="97"/>
-      <c r="B3162" s="51"/>
-      <c r="C3162" s="98"/>
-      <c r="D3162" s="98"/>
+      <c r="A3162" s="27" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B3162" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3162" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3162" s="27" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3162" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3163" s="97"/>
-      <c r="B3163" s="51"/>
-      <c r="C3163" s="98"/>
-      <c r="D3163" s="98"/>
+      <c r="A3163" s="27" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B3163" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3163" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3163" s="27" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3163" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3164" s="97"/>
-      <c r="B3164" s="51"/>
-      <c r="C3164" s="98"/>
-      <c r="D3164" s="98"/>
+      <c r="A3164" s="27" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B3164" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3164" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3164" s="27" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E3164" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3165" s="97"/>
-      <c r="B3165" s="51"/>
-      <c r="C3165" s="98"/>
-      <c r="D3165" s="98"/>
+      <c r="A3165" s="27" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B3165" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3165" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3165" s="27" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3165" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3166" s="97"/>
-      <c r="B3166" s="51"/>
-      <c r="C3166" s="98"/>
-      <c r="D3166" s="98"/>
+      <c r="A3166" s="27" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B3166" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3166" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3166" s="27" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3166" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3167" s="97"/>
-      <c r="B3167" s="51"/>
-      <c r="C3167" s="98"/>
-      <c r="D3167" s="98"/>
+      <c r="A3167" s="27" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B3167" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3167" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3167" s="27" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3167" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="3168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3168" s="97"/>
-      <c r="B3168" s="51"/>
-      <c r="C3168" s="98"/>
-      <c r="D3168" s="98"/>
-    </row>
-    <row r="3169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3169" s="97"/>
-      <c r="B3169" s="51"/>
-      <c r="C3169" s="98"/>
-      <c r="D3169" s="98"/>
-    </row>
-    <row r="3170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3168" s="27" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B3168" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3168" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3168" s="27" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3168" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3169" s="27" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B3169" s="27" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3169" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3169" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3169" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3170" s="97"/>
       <c r="B3170" s="51"/>
       <c r="C3170" s="98"/>
       <c r="D3170" s="98"/>
     </row>
-    <row r="3171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3171" s="97"/>
       <c r="B3171" s="51"/>
       <c r="C3171" s="98"/>
       <c r="D3171" s="98"/>
     </row>
-    <row r="3172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3172" s="97"/>
       <c r="B3172" s="51"/>
       <c r="C3172" s="98"/>
       <c r="D3172" s="98"/>
     </row>
-    <row r="3173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3173" s="97"/>
       <c r="B3173" s="51"/>
       <c r="C3173" s="98"/>
       <c r="D3173" s="98"/>
     </row>
-    <row r="3174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3174" s="97"/>
       <c r="B3174" s="51"/>
       <c r="C3174" s="98"/>
       <c r="D3174" s="98"/>
     </row>
-    <row r="3175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3175" s="97"/>
       <c r="B3175" s="51"/>
       <c r="C3175" s="98"/>
       <c r="D3175" s="98"/>
     </row>
-    <row r="3176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3176" s="97"/>
       <c r="B3176" s="51"/>
       <c r="C3176" s="98"/>
       <c r="D3176" s="98"/>
     </row>
-    <row r="3177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3177" s="97"/>
       <c r="B3177" s="51"/>
       <c r="C3177" s="98"/>
       <c r="D3177" s="98"/>
     </row>
-    <row r="3178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3178" s="97"/>
       <c r="B3178" s="51"/>
       <c r="C3178" s="98"/>
       <c r="D3178" s="98"/>
     </row>
-    <row r="3179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3179" s="97"/>
       <c r="B3179" s="51"/>
       <c r="C3179" s="98"/>
       <c r="D3179" s="98"/>
     </row>
-    <row r="3180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3180" s="97"/>
       <c r="B3180" s="51"/>
       <c r="C3180" s="98"/>
       <c r="D3180" s="98"/>
     </row>
-    <row r="3181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3181" s="97"/>
       <c r="B3181" s="51"/>
       <c r="C3181" s="98"/>
       <c r="D3181" s="98"/>
     </row>
-    <row r="3182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3182" s="97"/>
       <c r="B3182" s="51"/>
       <c r="C3182" s="98"/>
       <c r="D3182" s="98"/>
     </row>
-    <row r="3183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3183" s="97"/>
       <c r="B3183" s="51"/>
       <c r="C3183" s="98"/>
       <c r="D3183" s="98"/>
     </row>
-    <row r="3184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3184" s="97"/>
       <c r="B3184" s="51"/>
       <c r="C3184" s="98"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3231</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3491</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11588" uniqueCount="3926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12684" uniqueCount="4247">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -11809,6 +11809,969 @@
   </si>
   <si>
     <t>DSS4153</t>
+  </si>
+  <si>
+    <t>Ahmed Mostafa Mohamed Mostafa</t>
+  </si>
+  <si>
+    <t>DSS4154</t>
+  </si>
+  <si>
+    <t>15-Sep-2025</t>
+  </si>
+  <si>
+    <t>DSS4155</t>
+  </si>
+  <si>
+    <t>Eslam Radwan Mohamed Radwan</t>
+  </si>
+  <si>
+    <t>DSS4156</t>
+  </si>
+  <si>
+    <t>DSS4157</t>
+  </si>
+  <si>
+    <t>DSS4158</t>
+  </si>
+  <si>
+    <t>DSS4159</t>
+  </si>
+  <si>
+    <t>DSS4160</t>
+  </si>
+  <si>
+    <t>DSS4161</t>
+  </si>
+  <si>
+    <t>DSS4162</t>
+  </si>
+  <si>
+    <t>DSS4163</t>
+  </si>
+  <si>
+    <t>Mohamed Mortada Abdelraouf Abdelmageed</t>
+  </si>
+  <si>
+    <t>ALI ABDELAZIM MOHAMED SELIM</t>
+  </si>
+  <si>
+    <t>Abdulmumin Fathi Altahir</t>
+  </si>
+  <si>
+    <t>ABDELAZIZ MOHAMED ABAKR ADAM</t>
+  </si>
+  <si>
+    <t>Hussien Saied Hussien Aly</t>
+  </si>
+  <si>
+    <t>MOHAMMAD MUDAR ADNAN ALAARI</t>
+  </si>
+  <si>
+    <t>Mohamed Abdllah Mohamed Ismail</t>
+  </si>
+  <si>
+    <t>Moamen Rashad Allam Al-Samman</t>
+  </si>
+  <si>
+    <t>TAHA MOHAMED OMER MOHAMED</t>
+  </si>
+  <si>
+    <t>19-Sep-2025</t>
+  </si>
+  <si>
+    <t>17-Sep-2025</t>
+  </si>
+  <si>
+    <t>14-Sep-2025</t>
+  </si>
+  <si>
+    <t>DSS4164</t>
+  </si>
+  <si>
+    <t>DSS4165</t>
+  </si>
+  <si>
+    <t>DSS4166</t>
+  </si>
+  <si>
+    <t>DSS4167</t>
+  </si>
+  <si>
+    <t>DSS4168</t>
+  </si>
+  <si>
+    <t>DSS4169</t>
+  </si>
+  <si>
+    <t>DSS4170</t>
+  </si>
+  <si>
+    <t>DSS4171</t>
+  </si>
+  <si>
+    <t>DSS4172</t>
+  </si>
+  <si>
+    <t>DSS4173</t>
+  </si>
+  <si>
+    <t>DSS4174</t>
+  </si>
+  <si>
+    <t>DSS4175</t>
+  </si>
+  <si>
+    <t>DSS4176</t>
+  </si>
+  <si>
+    <t>DSS4177</t>
+  </si>
+  <si>
+    <t>DSS4178</t>
+  </si>
+  <si>
+    <t>DSS4179</t>
+  </si>
+  <si>
+    <t>DSS4180</t>
+  </si>
+  <si>
+    <t>DSS4181</t>
+  </si>
+  <si>
+    <t>DSS4182</t>
+  </si>
+  <si>
+    <t>DSS4183</t>
+  </si>
+  <si>
+    <t>DSS4184</t>
+  </si>
+  <si>
+    <t>DSS4185</t>
+  </si>
+  <si>
+    <t>DSS4186</t>
+  </si>
+  <si>
+    <t>DSS4187</t>
+  </si>
+  <si>
+    <t>DSS4188</t>
+  </si>
+  <si>
+    <t>DSS4189</t>
+  </si>
+  <si>
+    <t>DSS4190</t>
+  </si>
+  <si>
+    <t>DSS4191</t>
+  </si>
+  <si>
+    <t>DSS4192</t>
+  </si>
+  <si>
+    <t>DSS4193</t>
+  </si>
+  <si>
+    <t>DSS4194</t>
+  </si>
+  <si>
+    <t>DSS4195</t>
+  </si>
+  <si>
+    <t>DSS4196</t>
+  </si>
+  <si>
+    <t>DSS4197</t>
+  </si>
+  <si>
+    <t>DSS4198</t>
+  </si>
+  <si>
+    <t>DSS4199</t>
+  </si>
+  <si>
+    <t>DSS4200</t>
+  </si>
+  <si>
+    <t>DSS4201</t>
+  </si>
+  <si>
+    <t>DSS4202</t>
+  </si>
+  <si>
+    <t>DSS4203</t>
+  </si>
+  <si>
+    <t>DSS4204</t>
+  </si>
+  <si>
+    <t>DSS4205</t>
+  </si>
+  <si>
+    <t>DSS4206</t>
+  </si>
+  <si>
+    <t>DSS4207</t>
+  </si>
+  <si>
+    <t>DSS4208</t>
+  </si>
+  <si>
+    <t>DSS4209</t>
+  </si>
+  <si>
+    <t>DSS4210</t>
+  </si>
+  <si>
+    <t>DSS4211</t>
+  </si>
+  <si>
+    <t>DSS4212</t>
+  </si>
+  <si>
+    <t>DSS4213</t>
+  </si>
+  <si>
+    <t>DSS4214</t>
+  </si>
+  <si>
+    <t>DSS4215</t>
+  </si>
+  <si>
+    <t>DSS4216</t>
+  </si>
+  <si>
+    <t>DSS4217</t>
+  </si>
+  <si>
+    <t>DSS4218</t>
+  </si>
+  <si>
+    <t>DSS4219</t>
+  </si>
+  <si>
+    <t>DSS4220</t>
+  </si>
+  <si>
+    <t>DSS4221</t>
+  </si>
+  <si>
+    <t>DSS4222</t>
+  </si>
+  <si>
+    <t>DSS4223</t>
+  </si>
+  <si>
+    <t>DSS4224</t>
+  </si>
+  <si>
+    <t>DSS4225</t>
+  </si>
+  <si>
+    <t>DSS4226</t>
+  </si>
+  <si>
+    <t>DSS4227</t>
+  </si>
+  <si>
+    <t>DSS4228</t>
+  </si>
+  <si>
+    <t>DSS4229</t>
+  </si>
+  <si>
+    <t>DSS4230</t>
+  </si>
+  <si>
+    <t>DSS4231</t>
+  </si>
+  <si>
+    <t>DSS4232</t>
+  </si>
+  <si>
+    <t>DSS4233</t>
+  </si>
+  <si>
+    <t>DSS4234</t>
+  </si>
+  <si>
+    <t>DSS4235</t>
+  </si>
+  <si>
+    <t>DSS4236</t>
+  </si>
+  <si>
+    <t>DSS4237</t>
+  </si>
+  <si>
+    <t>DSS4238</t>
+  </si>
+  <si>
+    <t>DSS4239</t>
+  </si>
+  <si>
+    <t>DSS4240</t>
+  </si>
+  <si>
+    <t>DSS4241</t>
+  </si>
+  <si>
+    <t>DSS4242</t>
+  </si>
+  <si>
+    <t>DSS4243</t>
+  </si>
+  <si>
+    <t>Muhammad Alam Yaqout Abdel-Moez</t>
+  </si>
+  <si>
+    <t>DSS4244</t>
+  </si>
+  <si>
+    <t>DSS4245</t>
+  </si>
+  <si>
+    <t>DSS4246</t>
+  </si>
+  <si>
+    <t>DSS4247</t>
+  </si>
+  <si>
+    <t>DSS4248</t>
+  </si>
+  <si>
+    <t>DSS4249</t>
+  </si>
+  <si>
+    <t>DSS4250</t>
+  </si>
+  <si>
+    <t>DSS4251</t>
+  </si>
+  <si>
+    <t>18-Sep-2025</t>
+  </si>
+  <si>
+    <t>11-Sep-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed Mohammed Ahmed Mohammed </t>
+  </si>
+  <si>
+    <t>Yasser AboEl-Qasem Sayed Abdelati</t>
+  </si>
+  <si>
+    <t>05-Oct-2025</t>
+  </si>
+  <si>
+    <t>10-Oct-2025</t>
+  </si>
+  <si>
+    <t>06-Oct-2025</t>
+  </si>
+  <si>
+    <t>03-Oct-2025</t>
+  </si>
+  <si>
+    <t>01-Oct-2025</t>
+  </si>
+  <si>
+    <t>07-Oct-2025</t>
+  </si>
+  <si>
+    <t>08-Oct-2025</t>
+  </si>
+  <si>
+    <t>DSS4252</t>
+  </si>
+  <si>
+    <t>DSS4253</t>
+  </si>
+  <si>
+    <t>DSS4254</t>
+  </si>
+  <si>
+    <t>DSS4255</t>
+  </si>
+  <si>
+    <t>DSS4256</t>
+  </si>
+  <si>
+    <t>DSS4257</t>
+  </si>
+  <si>
+    <t>DSS4258</t>
+  </si>
+  <si>
+    <t>DSS4259</t>
+  </si>
+  <si>
+    <t>DSS4260</t>
+  </si>
+  <si>
+    <t>DSS4261</t>
+  </si>
+  <si>
+    <t>DSS4262</t>
+  </si>
+  <si>
+    <t>DSS4263</t>
+  </si>
+  <si>
+    <t>DSS4264</t>
+  </si>
+  <si>
+    <t>DSS4265</t>
+  </si>
+  <si>
+    <t>DSS4266</t>
+  </si>
+  <si>
+    <t>DSS4267</t>
+  </si>
+  <si>
+    <t>Mohamed Sharfi Ahmed Ali</t>
+  </si>
+  <si>
+    <t>Hossam Ahmed Mohamed Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Ayman Ahmed El Fargahly</t>
+  </si>
+  <si>
+    <t>Haitham El Araby Mohamed Abo El Ataa</t>
+  </si>
+  <si>
+    <t>Khaled Gamal Abdel Aal Hassan</t>
+  </si>
+  <si>
+    <t>Khalid Taha Marzouq Tantawy</t>
+  </si>
+  <si>
+    <t>Moaz yousef elsayed yousef</t>
+  </si>
+  <si>
+    <t>Seoudy Ramadan Abdelkader Hemdan</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ayman Abdrabo Abdeldaem</t>
+  </si>
+  <si>
+    <t>Ahmed Bayoumy Nour Eldin Bayoumy</t>
+  </si>
+  <si>
+    <t>Khaled ibrahim khaled shabaan</t>
+  </si>
+  <si>
+    <t>Mostafa Abdelmonem Esmael Dawd</t>
+  </si>
+  <si>
+    <t>AkRAM NASR MIFTAH KEELALI</t>
+  </si>
+  <si>
+    <t>Abdelrahman Samy Mohamed Zahra</t>
+  </si>
+  <si>
+    <t>Siraj Emran Mohammed Ihbal</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelmmeguid Hammad Sayed Ahmed Ismail</t>
+  </si>
+  <si>
+    <t>Yahya Reda AbdElkrem AbdElmohsin</t>
+  </si>
+  <si>
+    <t>MOHAMED MAHMOUD ABDALHAMID ABDALRAHMAN</t>
+  </si>
+  <si>
+    <t>AHMED ABDALLA GHARIB ABDALLA</t>
+  </si>
+  <si>
+    <t>Mahmoud Elemam Elshabrawy Elsayed</t>
+  </si>
+  <si>
+    <t>DSS4268</t>
+  </si>
+  <si>
+    <t>DSS4269</t>
+  </si>
+  <si>
+    <t>DSS4270</t>
+  </si>
+  <si>
+    <t>DSS4271</t>
+  </si>
+  <si>
+    <t>DSS4272</t>
+  </si>
+  <si>
+    <t>DSS4273</t>
+  </si>
+  <si>
+    <t>DSS4274</t>
+  </si>
+  <si>
+    <t>DSS4275</t>
+  </si>
+  <si>
+    <t>DSS4276</t>
+  </si>
+  <si>
+    <t>DSS4277</t>
+  </si>
+  <si>
+    <t>DSS4278</t>
+  </si>
+  <si>
+    <t>DSS4279</t>
+  </si>
+  <si>
+    <t>DSS4280</t>
+  </si>
+  <si>
+    <t>DSS4281</t>
+  </si>
+  <si>
+    <t>DSS4282</t>
+  </si>
+  <si>
+    <t>DSS4283</t>
+  </si>
+  <si>
+    <t>DSS4284</t>
+  </si>
+  <si>
+    <t>DSS4285</t>
+  </si>
+  <si>
+    <t>DSS4286</t>
+  </si>
+  <si>
+    <t>DSS4287</t>
+  </si>
+  <si>
+    <t>DSS4288</t>
+  </si>
+  <si>
+    <t>DSS4289</t>
+  </si>
+  <si>
+    <t>DSS4290</t>
+  </si>
+  <si>
+    <t>DSS4291</t>
+  </si>
+  <si>
+    <t>DSS4292</t>
+  </si>
+  <si>
+    <t>DSS4293</t>
+  </si>
+  <si>
+    <t>DSS4294</t>
+  </si>
+  <si>
+    <t>DSS4295</t>
+  </si>
+  <si>
+    <t>DSS4296</t>
+  </si>
+  <si>
+    <t>DSS4297</t>
+  </si>
+  <si>
+    <t>DSS4298</t>
+  </si>
+  <si>
+    <t>DSS4299</t>
+  </si>
+  <si>
+    <t>DSS4300</t>
+  </si>
+  <si>
+    <t>DSS4301</t>
+  </si>
+  <si>
+    <t>DSS4302</t>
+  </si>
+  <si>
+    <t>DSS4303</t>
+  </si>
+  <si>
+    <t>DSS4304</t>
+  </si>
+  <si>
+    <t>DSS4305</t>
+  </si>
+  <si>
+    <t>DSS4306</t>
+  </si>
+  <si>
+    <t>DSS4307</t>
+  </si>
+  <si>
+    <t>DSS4308</t>
+  </si>
+  <si>
+    <t>DSS4309</t>
+  </si>
+  <si>
+    <t>DSS4310</t>
+  </si>
+  <si>
+    <t>DSS4311</t>
+  </si>
+  <si>
+    <t>DSS4312</t>
+  </si>
+  <si>
+    <t>DSS4313</t>
+  </si>
+  <si>
+    <t>DSS4314</t>
+  </si>
+  <si>
+    <t>DSS4315</t>
+  </si>
+  <si>
+    <t>DSS4316</t>
+  </si>
+  <si>
+    <t>DSS4317</t>
+  </si>
+  <si>
+    <t>DSS4318</t>
+  </si>
+  <si>
+    <t>DSS4319</t>
+  </si>
+  <si>
+    <t>DSS4320</t>
+  </si>
+  <si>
+    <t>DSS4321</t>
+  </si>
+  <si>
+    <t>DSS4322</t>
+  </si>
+  <si>
+    <t>DSS4323</t>
+  </si>
+  <si>
+    <t>DSS4324</t>
+  </si>
+  <si>
+    <t>DSS4325</t>
+  </si>
+  <si>
+    <t>DSS4326</t>
+  </si>
+  <si>
+    <t>DSS4327</t>
+  </si>
+  <si>
+    <t>DSS4328</t>
+  </si>
+  <si>
+    <t>DSS4329</t>
+  </si>
+  <si>
+    <t>DSS4330</t>
+  </si>
+  <si>
+    <t>DSS4331</t>
+  </si>
+  <si>
+    <t>DSS4332</t>
+  </si>
+  <si>
+    <t>DSS4333</t>
+  </si>
+  <si>
+    <t>DSS4334</t>
+  </si>
+  <si>
+    <t>DSS4335</t>
+  </si>
+  <si>
+    <t>DSS4336</t>
+  </si>
+  <si>
+    <t>DSS4337</t>
+  </si>
+  <si>
+    <t>DSS4338</t>
+  </si>
+  <si>
+    <t>DSS4339</t>
+  </si>
+  <si>
+    <t>DSS4340</t>
+  </si>
+  <si>
+    <t>DSS4341</t>
+  </si>
+  <si>
+    <t>DSS4342</t>
+  </si>
+  <si>
+    <t>DSS4343</t>
+  </si>
+  <si>
+    <t>DSS4344</t>
+  </si>
+  <si>
+    <t>DSS4345</t>
+  </si>
+  <si>
+    <t>DSS4346</t>
+  </si>
+  <si>
+    <t>DSS4347</t>
+  </si>
+  <si>
+    <t>DSS4348</t>
+  </si>
+  <si>
+    <t>DSS4349</t>
+  </si>
+  <si>
+    <t>DSS4350</t>
+  </si>
+  <si>
+    <t>DSS4351</t>
+  </si>
+  <si>
+    <t>DSS4352</t>
+  </si>
+  <si>
+    <t>DSS4353</t>
+  </si>
+  <si>
+    <t>DSS4354</t>
+  </si>
+  <si>
+    <t>DSS4355</t>
+  </si>
+  <si>
+    <t>DSS4356</t>
+  </si>
+  <si>
+    <t>DSS4357</t>
+  </si>
+  <si>
+    <t>DSS4358</t>
+  </si>
+  <si>
+    <t>DSS4359</t>
+  </si>
+  <si>
+    <t>DSS4360</t>
+  </si>
+  <si>
+    <t>DSS4361</t>
+  </si>
+  <si>
+    <t>DSS4362</t>
+  </si>
+  <si>
+    <t>DSS4363</t>
+  </si>
+  <si>
+    <t>DSS4364</t>
+  </si>
+  <si>
+    <t>DSS4365</t>
+  </si>
+  <si>
+    <t>DSS4366</t>
+  </si>
+  <si>
+    <t>DSS4367</t>
+  </si>
+  <si>
+    <t>DSS4368</t>
+  </si>
+  <si>
+    <t>DSS4369</t>
+  </si>
+  <si>
+    <t>DSS4370</t>
+  </si>
+  <si>
+    <t>DSS4371</t>
+  </si>
+  <si>
+    <t>DSS4372</t>
+  </si>
+  <si>
+    <t>DSS4373</t>
+  </si>
+  <si>
+    <t>DSS4374</t>
+  </si>
+  <si>
+    <t>DSS4375</t>
+  </si>
+  <si>
+    <t>DSS4376</t>
+  </si>
+  <si>
+    <t>DSS4377</t>
+  </si>
+  <si>
+    <t>DSS4378</t>
+  </si>
+  <si>
+    <t>DSS4379</t>
+  </si>
+  <si>
+    <t>DSS4380</t>
+  </si>
+  <si>
+    <t>DSS4381</t>
+  </si>
+  <si>
+    <t>DSS4382</t>
+  </si>
+  <si>
+    <t>DSS4383</t>
+  </si>
+  <si>
+    <t>DSS4384</t>
+  </si>
+  <si>
+    <t>DSS4385</t>
+  </si>
+  <si>
+    <t>DSS4386</t>
+  </si>
+  <si>
+    <t>DSS4387</t>
+  </si>
+  <si>
+    <t>DSS4388</t>
+  </si>
+  <si>
+    <t>DSS4389</t>
+  </si>
+  <si>
+    <t>DSS4390</t>
+  </si>
+  <si>
+    <t>DSS4391</t>
+  </si>
+  <si>
+    <t>DSS4392</t>
+  </si>
+  <si>
+    <t>DSS4393</t>
+  </si>
+  <si>
+    <t>DSS4394</t>
+  </si>
+  <si>
+    <t>DSS4395</t>
+  </si>
+  <si>
+    <t>DSS4396</t>
+  </si>
+  <si>
+    <t>DSS4397</t>
+  </si>
+  <si>
+    <t>DSS4398</t>
+  </si>
+  <si>
+    <t>DSS4399</t>
+  </si>
+  <si>
+    <t>DSS4400</t>
+  </si>
+  <si>
+    <t>DSS4401</t>
+  </si>
+  <si>
+    <t>DSS4402</t>
+  </si>
+  <si>
+    <t>DSS4403</t>
+  </si>
+  <si>
+    <t>DSS4404</t>
+  </si>
+  <si>
+    <t>DSS4405</t>
+  </si>
+  <si>
+    <t>DSS4406</t>
+  </si>
+  <si>
+    <t>DSS4407</t>
+  </si>
+  <si>
+    <t>DSS4408</t>
+  </si>
+  <si>
+    <t>DSS4409</t>
+  </si>
+  <si>
+    <t>DSS4410</t>
+  </si>
+  <si>
+    <t>DSS4411</t>
+  </si>
+  <si>
+    <t>DSS4413</t>
+  </si>
+  <si>
+    <t>DSS4414</t>
+  </si>
+  <si>
+    <t>DSS4415</t>
+  </si>
+  <si>
+    <t>DSS4416</t>
+  </si>
+  <si>
+    <t>DSS4417</t>
+  </si>
+  <si>
+    <t>DSS4418</t>
+  </si>
+  <si>
+    <t>DSS4419</t>
+  </si>
+  <si>
+    <t>DSS4420</t>
+  </si>
+  <si>
+    <t>DSS4422</t>
+  </si>
+  <si>
+    <t>DSS4423</t>
+  </si>
+  <si>
+    <t>DSS4424</t>
+  </si>
+  <si>
+    <t>DSS4425</t>
+  </si>
+  <si>
+    <t>DSS4426</t>
+  </si>
+  <si>
+    <t>DSS4427</t>
+  </si>
+  <si>
+    <t>DSS4428</t>
+  </si>
+  <si>
+    <t>DSS4429</t>
   </si>
 </sst>
 </file>
@@ -12049,7 +13012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -12339,16 +13302,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -12628,7 +13585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12636,10 +13593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3231"/>
+  <dimension ref="A1:E3443"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3156" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3162" sqref="C3162"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3442" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3457" sqref="B3457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65836,16 +66793,16 @@
       </c>
     </row>
     <row r="3151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3151" s="100" t="s">
+      <c r="A3151" s="97" t="s">
         <v>3904</v>
       </c>
-      <c r="B3151" s="100" t="s">
+      <c r="B3151" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3151" s="100" t="s">
+      <c r="C3151" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D3151" s="100" t="s">
+      <c r="D3151" s="97" t="s">
         <v>3896</v>
       </c>
       <c r="E3151" s="51">
@@ -65853,16 +66810,16 @@
       </c>
     </row>
     <row r="3152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3152" s="100" t="s">
+      <c r="A3152" s="97" t="s">
         <v>3905</v>
       </c>
-      <c r="B3152" s="100" t="s">
+      <c r="B3152" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3152" s="100" t="s">
+      <c r="C3152" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="D3152" s="100" t="s">
+      <c r="D3152" s="97" t="s">
         <v>3897</v>
       </c>
       <c r="E3152" s="51">
@@ -65870,16 +66827,16 @@
       </c>
     </row>
     <row r="3153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3153" s="100" t="s">
+      <c r="A3153" s="97" t="s">
         <v>3906</v>
       </c>
-      <c r="B3153" s="100" t="s">
+      <c r="B3153" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3153" s="100" t="s">
+      <c r="C3153" s="97" t="s">
         <v>952</v>
       </c>
-      <c r="D3153" s="100" t="s">
+      <c r="D3153" s="97" t="s">
         <v>3898</v>
       </c>
       <c r="E3153" s="51">
@@ -65887,16 +66844,16 @@
       </c>
     </row>
     <row r="3154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3154" s="100" t="s">
+      <c r="A3154" s="97" t="s">
         <v>3907</v>
       </c>
-      <c r="B3154" s="100" t="s">
+      <c r="B3154" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3154" s="100" t="s">
+      <c r="C3154" s="97" t="s">
         <v>3859</v>
       </c>
-      <c r="D3154" s="100" t="s">
+      <c r="D3154" s="97" t="s">
         <v>3899</v>
       </c>
       <c r="E3154" s="51">
@@ -65904,16 +66861,16 @@
       </c>
     </row>
     <row r="3155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3155" s="100" t="s">
+      <c r="A3155" s="97" t="s">
         <v>3908</v>
       </c>
-      <c r="B3155" s="100" t="s">
+      <c r="B3155" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3155" s="100" t="s">
+      <c r="C3155" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="D3155" s="100" t="s">
+      <c r="D3155" s="97" t="s">
         <v>3900</v>
       </c>
       <c r="E3155" s="51">
@@ -65921,16 +66878,16 @@
       </c>
     </row>
     <row r="3156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3156" s="100" t="s">
+      <c r="A3156" s="97" t="s">
         <v>3909</v>
       </c>
-      <c r="B3156" s="100" t="s">
+      <c r="B3156" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3156" s="100" t="s">
+      <c r="C3156" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="D3156" s="100" t="s">
+      <c r="D3156" s="97" t="s">
         <v>3901</v>
       </c>
       <c r="E3156" s="51">
@@ -65938,16 +66895,16 @@
       </c>
     </row>
     <row r="3157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3157" s="100" t="s">
+      <c r="A3157" s="97" t="s">
         <v>3910</v>
       </c>
-      <c r="B3157" s="100" t="s">
+      <c r="B3157" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3157" s="100" t="s">
+      <c r="C3157" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="D3157" s="100" t="s">
+      <c r="D3157" s="97" t="s">
         <v>3902</v>
       </c>
       <c r="E3157" s="51">
@@ -65955,16 +66912,16 @@
       </c>
     </row>
     <row r="3158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3158" s="100" t="s">
+      <c r="A3158" s="97" t="s">
         <v>3911</v>
       </c>
-      <c r="B3158" s="100" t="s">
+      <c r="B3158" s="97" t="s">
         <v>3895</v>
       </c>
-      <c r="C3158" s="100" t="s">
+      <c r="C3158" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="D3158" s="100" t="s">
+      <c r="D3158" s="97" t="s">
         <v>3903</v>
       </c>
       <c r="E3158" s="51">
@@ -66159,376 +67116,4662 @@
       </c>
     </row>
     <row r="3170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3170" s="97"/>
-      <c r="B3170" s="51"/>
-      <c r="C3170" s="98"/>
-      <c r="D3170" s="98"/>
+      <c r="A3170" s="98" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B3170" s="98" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C3170" s="95" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3170" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3170" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3171" s="97"/>
-      <c r="B3171" s="51"/>
-      <c r="C3171" s="98"/>
-      <c r="D3171" s="98"/>
+      <c r="A3171" s="98" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B3171" s="98" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C3171" s="95" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3171" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3171" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3172" s="97"/>
-      <c r="B3172" s="51"/>
-      <c r="C3172" s="98"/>
-      <c r="D3172" s="98"/>
+      <c r="A3172" s="27" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B3172" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3172" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3172" s="27" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3172" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3173" s="97"/>
-      <c r="B3173" s="51"/>
-      <c r="C3173" s="98"/>
-      <c r="D3173" s="98"/>
+      <c r="A3173" s="27" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B3173" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3173" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3173" s="27" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3173" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3174" s="97"/>
-      <c r="B3174" s="51"/>
-      <c r="C3174" s="98"/>
-      <c r="D3174" s="98"/>
+      <c r="A3174" s="27" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B3174" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3174" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3174" s="27" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3174" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3175" s="97"/>
-      <c r="B3175" s="51"/>
-      <c r="C3175" s="98"/>
-      <c r="D3175" s="98"/>
+      <c r="A3175" s="27" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B3175" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3175" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3175" s="27" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E3175" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3176" s="97"/>
-      <c r="B3176" s="51"/>
-      <c r="C3176" s="98"/>
-      <c r="D3176" s="98"/>
+      <c r="A3176" s="27" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B3176" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3176" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3176" s="27" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3176" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3177" s="97"/>
-      <c r="B3177" s="51"/>
-      <c r="C3177" s="98"/>
-      <c r="D3177" s="98"/>
+      <c r="A3177" s="27" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B3177" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3177" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3177" s="27" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3177" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3178" s="97"/>
-      <c r="B3178" s="51"/>
-      <c r="C3178" s="98"/>
-      <c r="D3178" s="98"/>
+      <c r="A3178" s="27" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B3178" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3178" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3178" s="27" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3178" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3179" s="97"/>
-      <c r="B3179" s="51"/>
-      <c r="C3179" s="98"/>
-      <c r="D3179" s="98"/>
+      <c r="A3179" s="27" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B3179" s="27" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C3179" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3179" s="27" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3179" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3180" s="97"/>
-      <c r="B3180" s="51"/>
-      <c r="C3180" s="98"/>
-      <c r="D3180" s="98"/>
+      <c r="A3180" s="28" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B3180" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3180" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3180" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3180" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3181" s="97"/>
-      <c r="B3181" s="51"/>
-      <c r="C3181" s="98"/>
-      <c r="D3181" s="98"/>
+      <c r="A3181" s="28" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B3181" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3181" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3181" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3181" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3182" s="97"/>
-      <c r="B3182" s="51"/>
-      <c r="C3182" s="98"/>
-      <c r="D3182" s="98"/>
+      <c r="A3182" s="28" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B3182" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3182" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3182" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3182" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3183" s="97"/>
-      <c r="B3183" s="51"/>
-      <c r="C3183" s="98"/>
-      <c r="D3183" s="98"/>
+      <c r="A3183" s="28" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B3183" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3183" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3183" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3183" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3184" s="97"/>
-      <c r="B3184" s="51"/>
-      <c r="C3184" s="98"/>
-      <c r="D3184" s="98"/>
-    </row>
-    <row r="3185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3185" s="97"/>
-      <c r="B3185" s="51"/>
-      <c r="C3185" s="98"/>
-      <c r="D3185" s="98"/>
-    </row>
-    <row r="3186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3186" s="97"/>
-      <c r="B3186" s="51"/>
-      <c r="C3186" s="98"/>
-      <c r="D3186" s="98"/>
-    </row>
-    <row r="3187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3187" s="97"/>
-      <c r="B3187" s="51"/>
-      <c r="C3187" s="98"/>
-      <c r="D3187" s="98"/>
-    </row>
-    <row r="3188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3188" s="97"/>
-      <c r="B3188" s="51"/>
-      <c r="C3188" s="98"/>
-      <c r="D3188" s="98"/>
-    </row>
-    <row r="3189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3189" s="97"/>
-      <c r="B3189" s="51"/>
-      <c r="C3189" s="98"/>
-      <c r="D3189" s="98"/>
-    </row>
-    <row r="3190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3190" s="97"/>
-      <c r="B3190" s="51"/>
-      <c r="C3190" s="98"/>
-      <c r="D3190" s="98"/>
-    </row>
-    <row r="3191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3191" s="97"/>
-      <c r="B3191" s="51"/>
-      <c r="C3191" s="98"/>
-      <c r="D3191" s="98"/>
-    </row>
-    <row r="3192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3192" s="97"/>
-      <c r="B3192" s="51"/>
-      <c r="C3192" s="98"/>
-      <c r="D3192" s="98"/>
-    </row>
-    <row r="3193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3193" s="97"/>
-      <c r="B3193" s="51"/>
-      <c r="C3193" s="98"/>
-      <c r="D3193" s="98"/>
-    </row>
-    <row r="3194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3194" s="97"/>
-      <c r="B3194" s="51"/>
-      <c r="C3194" s="98"/>
-      <c r="D3194" s="98"/>
-    </row>
-    <row r="3195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3195" s="97"/>
-      <c r="B3195" s="51"/>
-      <c r="C3195" s="98"/>
-      <c r="D3195" s="98"/>
-    </row>
-    <row r="3196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3196" s="97"/>
-      <c r="B3196" s="51"/>
-      <c r="C3196" s="98"/>
-      <c r="D3196" s="98"/>
-    </row>
-    <row r="3197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3197" s="97"/>
-      <c r="B3197" s="51"/>
-      <c r="C3197" s="98"/>
-      <c r="D3197" s="98"/>
-    </row>
-    <row r="3198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3198" s="97"/>
-      <c r="B3198" s="51"/>
-      <c r="C3198" s="98"/>
-      <c r="D3198" s="98"/>
-    </row>
-    <row r="3199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3199" s="97"/>
-      <c r="B3199" s="51"/>
-      <c r="C3199" s="98"/>
-      <c r="D3199" s="98"/>
-    </row>
-    <row r="3200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3200" s="97"/>
-      <c r="B3200" s="51"/>
-      <c r="C3200" s="98"/>
-      <c r="D3200" s="98"/>
-    </row>
-    <row r="3201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3201" s="97"/>
-      <c r="B3201" s="51"/>
-      <c r="C3201" s="98"/>
-      <c r="D3201" s="98"/>
-    </row>
-    <row r="3202" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3202" s="97"/>
-      <c r="B3202" s="51"/>
-      <c r="C3202" s="98"/>
-      <c r="D3202" s="98"/>
-    </row>
-    <row r="3203" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3203" s="97"/>
-      <c r="B3203" s="51"/>
-      <c r="C3203" s="98"/>
-      <c r="D3203" s="98"/>
-    </row>
-    <row r="3204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3204" s="97"/>
-      <c r="B3204" s="51"/>
-      <c r="C3204" s="98"/>
-      <c r="D3204" s="98"/>
-    </row>
-    <row r="3205" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3205" s="97"/>
-      <c r="B3205" s="51"/>
-      <c r="C3205" s="98"/>
-      <c r="D3205" s="98"/>
-    </row>
-    <row r="3206" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3206" s="97"/>
-      <c r="B3206" s="51"/>
-      <c r="C3206" s="98"/>
-      <c r="D3206" s="98"/>
-    </row>
-    <row r="3207" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3207" s="97"/>
-      <c r="B3207" s="51"/>
-      <c r="C3207" s="98"/>
-      <c r="D3207" s="98"/>
-    </row>
-    <row r="3208" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3208" s="97"/>
-      <c r="B3208" s="51"/>
-      <c r="C3208" s="98"/>
-      <c r="D3208" s="98"/>
-    </row>
-    <row r="3209" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3209" s="97"/>
-      <c r="B3209" s="51"/>
-      <c r="C3209" s="98"/>
-      <c r="D3209" s="98"/>
-    </row>
-    <row r="3210" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3210" s="97"/>
-      <c r="B3210" s="51"/>
-      <c r="C3210" s="98"/>
-      <c r="D3210" s="98"/>
-    </row>
-    <row r="3211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3211" s="97"/>
-      <c r="B3211" s="51"/>
-      <c r="C3211" s="98"/>
-      <c r="D3211" s="98"/>
-    </row>
-    <row r="3212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3212" s="97"/>
-      <c r="B3212" s="51"/>
-      <c r="C3212" s="98"/>
-      <c r="D3212" s="98"/>
-    </row>
-    <row r="3213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3213" s="97"/>
-      <c r="B3213" s="51"/>
-      <c r="C3213" s="98"/>
-      <c r="D3213" s="98"/>
-    </row>
-    <row r="3214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3214" s="97"/>
-      <c r="B3214" s="51"/>
-      <c r="C3214" s="98"/>
-      <c r="D3214" s="98"/>
-    </row>
-    <row r="3215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3215" s="97"/>
-      <c r="B3215" s="51"/>
-      <c r="C3215" s="98"/>
-      <c r="D3215" s="98"/>
-    </row>
-    <row r="3216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3216" s="97"/>
-      <c r="B3216" s="51"/>
-      <c r="C3216" s="98"/>
-      <c r="D3216" s="98"/>
-    </row>
-    <row r="3217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3217" s="97"/>
-      <c r="B3217" s="51"/>
-      <c r="C3217" s="98"/>
-      <c r="D3217" s="98"/>
-    </row>
-    <row r="3218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3218" s="97"/>
-      <c r="B3218" s="51"/>
-      <c r="C3218" s="98"/>
-      <c r="D3218" s="98"/>
-    </row>
-    <row r="3219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3219" s="97"/>
-      <c r="B3219" s="51"/>
-      <c r="C3219" s="98"/>
-      <c r="D3219" s="98"/>
-    </row>
-    <row r="3220" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3220" s="97"/>
-      <c r="B3220" s="51"/>
-      <c r="C3220" s="98"/>
-      <c r="D3220" s="98"/>
-    </row>
-    <row r="3221" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3221" s="97"/>
-      <c r="B3221" s="51"/>
-      <c r="C3221" s="98"/>
-      <c r="D3221" s="98"/>
-    </row>
-    <row r="3222" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3222" s="97"/>
-      <c r="B3222" s="51"/>
-      <c r="C3222" s="98"/>
-      <c r="D3222" s="98"/>
-    </row>
-    <row r="3223" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3223" s="97"/>
-      <c r="B3223" s="51"/>
-      <c r="C3223" s="98"/>
-      <c r="D3223" s="98"/>
-    </row>
-    <row r="3224" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3224" s="97"/>
-      <c r="B3224" s="51"/>
-      <c r="C3224" s="98"/>
-      <c r="D3224" s="98"/>
-    </row>
-    <row r="3225" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3225" s="97"/>
-      <c r="B3225" s="51"/>
-      <c r="C3225" s="98"/>
-      <c r="D3225" s="98"/>
-    </row>
-    <row r="3226" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3226" s="97"/>
-      <c r="B3226" s="51"/>
-      <c r="C3226" s="98"/>
-      <c r="D3226" s="98"/>
-    </row>
-    <row r="3227" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3227" s="97"/>
-      <c r="B3227" s="51"/>
-      <c r="C3227" s="98"/>
-      <c r="D3227" s="98"/>
-    </row>
-    <row r="3228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3228" s="97"/>
-      <c r="B3228" s="51"/>
-      <c r="C3228" s="98"/>
-      <c r="D3228" s="98"/>
-    </row>
-    <row r="3229" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3229" s="97"/>
-      <c r="B3229" s="51"/>
-      <c r="C3229" s="98"/>
-      <c r="D3229" s="98"/>
-    </row>
-    <row r="3230" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3230" s="97"/>
-      <c r="B3230" s="51"/>
-      <c r="C3230" s="98"/>
-      <c r="D3230" s="98"/>
-    </row>
-    <row r="3231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3231" s="99"/>
-      <c r="B3231" s="51"/>
-      <c r="C3231" s="98"/>
-      <c r="D3231" s="98"/>
+      <c r="A3184" s="28" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B3184" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3184" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3184" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3184" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3185" s="28" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B3185" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3185" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3185" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3185" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3186" s="28" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B3186" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3186" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3186" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3186" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3187" s="28" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B3187" s="28" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C3187" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3187" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3187" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3188" s="27" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B3188" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3188" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3188" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3188" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3189" s="27" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B3189" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3189" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3189" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3189" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3190" s="27" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B3190" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3190" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3190" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3190" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3191" s="27" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B3191" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3191" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3191" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3191" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3192" s="27" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B3192" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3192" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3192" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3192" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3193" s="27" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B3193" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3193" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3193" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3193" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3194" s="27" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B3194" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3194" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3194" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3194" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3195" s="27" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B3195" s="27" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C3195" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3195" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3195" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3196" s="28" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B3196" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3196" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3196" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3196" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3197" s="28" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B3197" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3197" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3197" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3197" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3198" s="28" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B3198" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3198" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3198" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3198" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3199" s="28" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B3199" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3199" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3199" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3199" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3200" s="28" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B3200" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3200" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3200" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3200" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3201" s="28" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B3201" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3201" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3201" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3201" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3202" s="28" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B3202" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3202" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3202" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3202" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3203" s="28" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B3203" s="28" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C3203" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3203" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3203" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3204" s="27" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B3204" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3204" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3204" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3204" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3205" s="27" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B3205" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3205" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3205" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3205" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3206" s="27" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B3206" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3206" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3206" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3206" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3207" s="27" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B3207" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3207" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3207" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3207" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3208" s="27" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B3208" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3208" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3208" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3208" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3209" s="27" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B3209" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3209" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3209" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3209" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3210" s="27" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B3210" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3210" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3210" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3210" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3211" s="27" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B3211" s="27" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C3211" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3211" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3211" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3212" s="27" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B3212" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3212" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3212" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3212" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3213" s="27" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B3213" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3213" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3213" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3213" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3214" s="27" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B3214" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3214" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3214" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3214" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3215" s="27" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B3215" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3215" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3215" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3215" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3216" s="27" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B3216" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3216" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3216" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3216" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3217" s="27" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B3217" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3217" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3217" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3217" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3218" s="27" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B3218" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3218" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3218" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3218" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3219" s="27" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B3219" s="28" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C3219" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3219" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3219" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3220" s="27" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B3220" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3220" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3220" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3220" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3221" s="27" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B3221" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3221" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3221" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3221" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3222" s="27" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B3222" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3222" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3222" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3222" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3223" s="27" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B3223" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3223" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3223" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3223" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3224" s="27" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B3224" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3224" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3224" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3224" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3225" s="27" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B3225" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3225" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3225" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3225" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3226" s="27" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B3226" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3226" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3226" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3226" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3227" s="27" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B3227" s="27" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C3227" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3227" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3227" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3228" s="27" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B3228" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3228" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3228" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3228" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3229" s="27" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B3229" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3229" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3229" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3229" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3230" s="27" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B3230" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3230" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3230" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3230" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3231" s="27" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B3231" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3231" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3231" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3231" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3232" s="27" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B3232" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3232" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3232" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3232" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3233" s="27" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B3233" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3233" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3233" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3233" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3234" s="27" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B3234" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3234" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3234" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3234" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3235" s="27" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B3235" s="28" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C3235" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3235" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3235" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3236" s="27" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B3236" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3236" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3236" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3236" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3237" s="27" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B3237" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3237" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3237" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3237" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3238" s="27" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B3238" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3238" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3238" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3238" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3239" s="27" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B3239" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3239" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3239" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3239" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3240" s="27" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B3240" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3240" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3240" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3240" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3241" s="27" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B3241" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3241" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3241" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3241" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3242" s="27" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B3242" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3242" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3242" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3242" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3243" s="27" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B3243" s="27" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C3243" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3243" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3243" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3244" s="27" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B3244" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3244" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3244" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3244" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3245" s="27" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B3245" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3245" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3245" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3245" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3246" s="27" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B3246" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3246" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3246" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3246" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3247" s="27" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B3247" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3247" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3247" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3247" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3248" s="27" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B3248" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3248" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3248" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3248" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3249" s="27" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B3249" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3249" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3249" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3249" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3250" s="27" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B3250" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3250" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3250" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3250" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3251" s="27" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B3251" s="28" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C3251" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3251" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3251" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3252" s="27" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B3252" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3252" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3252" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3252" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3253" s="27" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B3253" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3253" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3253" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3253" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3254" s="27" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B3254" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3254" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3254" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3254" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3255" s="27" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B3255" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3255" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3255" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3255" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3256" s="27" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B3256" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3256" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3256" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3256" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3257" s="27" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B3257" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3257" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3257" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3257" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3258" s="27" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B3258" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3258" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3258" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3258" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3259" s="27" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B3259" s="27" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C3259" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3259" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3259" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3260" s="28" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B3260" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3260" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3260" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3260" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3261" s="28" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B3261" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3261" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3261" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3261" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3262" s="28" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B3262" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3262" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3262" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3262" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3263" s="28" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B3263" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3263" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3263" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3263" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3264" s="28" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B3264" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3264" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3264" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3264" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3265" s="28" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B3265" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3265" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3265" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3265" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3266" s="28" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B3266" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3266" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3266" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3266" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3267" s="28" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B3267" s="28" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C3267" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3267" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3267" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3268" s="27" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B3268" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3268" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3268" s="27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3268" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3269" s="27" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B3269" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3269" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3269" s="27" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3269" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3270" s="27" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B3270" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3270" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3270" s="27" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3270" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3271" s="27" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B3271" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3271" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3271" s="27" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3271" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3272" s="27" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B3272" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3272" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3272" s="27" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3272" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3273" s="27" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B3273" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3273" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3273" s="27" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3273" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3274" s="27" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B3274" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3274" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3274" s="27" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3274" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3275" s="27" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B3275" s="27" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C3275" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3275" s="27" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3275" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3276" s="28" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B3276" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3276" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3276" s="28" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3276" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3277" s="28" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B3277" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3277" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3277" s="28" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3277" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3278" s="28" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B3278" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3278" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3278" s="28" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3278" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3279" s="28" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B3279" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3279" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3279" s="28" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3279" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3280" s="28" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B3280" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3280" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3280" s="28" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3280" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3281" s="28" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B3281" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3281" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3281" s="28" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3281" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3282" s="28" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B3282" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3282" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3282" s="28" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3282" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3283" s="28" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B3283" s="28" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C3283" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3283" s="28" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3283" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3284" s="27" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B3284" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3284" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3284" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3284" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3285" s="27" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B3285" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3285" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3285" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3285" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3286" s="27" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B3286" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3286" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3286" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3286" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3287" s="27" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B3287" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3287" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3287" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3287" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3288" s="27" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B3288" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3288" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3288" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3288" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3289" s="27" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B3289" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3289" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3289" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3289" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3290" s="27" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B3290" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3290" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3290" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3290" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3291" s="27" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B3291" s="27" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C3291" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3291" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3291" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3292" s="28" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B3292" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3292" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3292" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3292" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3293" s="28" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B3293" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3293" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3293" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3293" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3294" s="28" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B3294" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3294" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3294" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3294" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3295" s="28" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B3295" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3295" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3295" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3295" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3296" s="28" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B3296" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3296" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3296" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3296" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3297" s="28" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B3297" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3297" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3297" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3297" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3298" s="28" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B3298" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3298" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3298" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3298" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3299" s="28" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B3299" s="28" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C3299" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3299" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3299" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3300" s="27" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B3300" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3300" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3300" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3300" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3301" s="27" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B3301" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3301" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3301" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3301" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3302" s="27" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B3302" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3302" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3302" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3302" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3303" s="27" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B3303" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3303" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3303" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3303" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3304" s="27" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B3304" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3304" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3304" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3304" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3305" s="27" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B3305" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3305" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3305" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3305" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3306" s="27" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B3306" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3306" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3306" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3306" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3307" s="27" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B3307" s="27" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C3307" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3307" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3307" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3308" s="28" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B3308" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3308" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3308" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3308" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3309" s="28" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B3309" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3309" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3309" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3309" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3310" s="28" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B3310" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3310" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3310" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3310" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3311" s="28" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B3311" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3311" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3311" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3311" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3312" s="28" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B3312" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3312" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3312" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3312" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3313" s="28" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B3313" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3313" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3313" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3313" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3314" s="28" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B3314" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3314" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3314" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3314" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3315" s="28" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B3315" s="28" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C3315" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3315" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3315" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3316" s="27" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B3316" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3316" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3316" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3316" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3317" s="27" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B3317" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3317" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3317" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3317" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3318" s="27" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B3318" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3318" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3318" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3318" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3319" s="27" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B3319" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3319" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3319" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3319" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3320" s="27" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B3320" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3320" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3320" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3320" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3321" s="27" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B3321" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3321" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3321" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3321" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3322" s="27" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B3322" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3322" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3322" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3322" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3323" s="27" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B3323" s="27" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C3323" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3323" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3323" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3324" s="28" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B3324" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3324" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3324" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3324" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3325" s="28" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B3325" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3325" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3325" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3325" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3326" s="28" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B3326" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3326" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3326" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3326" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3327" s="28" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B3327" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3327" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3327" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3327" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3328" s="28" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B3328" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3328" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3328" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3328" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3329" s="28" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B3329" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3329" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3329" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3329" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3330" s="28" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B3330" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3330" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3330" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3330" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3331" s="28" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B3331" s="28" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C3331" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3331" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3331" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3332" s="27" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B3332" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3332" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3332" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3332" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3333" s="27" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B3333" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3333" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3333" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3333" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3334" s="27" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B3334" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3334" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3334" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3334" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3335" s="27" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B3335" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3335" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3335" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3335" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3336" s="27" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B3336" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3336" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3336" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3336" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3337" s="27" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B3337" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3337" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3337" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3337" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3338" s="27" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B3338" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3338" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3338" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3338" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3339" s="27" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B3339" s="27" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C3339" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3339" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3339" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3340" s="28" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B3340" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3340" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3340" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3340" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3341" s="28" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B3341" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3341" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3341" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3341" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3342" s="28" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B3342" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3342" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3342" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3342" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3343" s="28" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B3343" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3343" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3343" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3343" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3344" s="28" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B3344" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3344" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3344" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3344" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3345" s="28" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B3345" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3345" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3345" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3345" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3346" s="28" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B3346" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3346" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3346" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3346" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3347" s="28" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B3347" s="28" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C3347" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3347" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3347" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3348" s="27" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B3348" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3348" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3348" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3348" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3349" s="27" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B3349" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3349" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3349" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3349" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3350" s="27" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B3350" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3350" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3350" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3350" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3351" s="27" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B3351" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3351" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3351" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3351" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3352" s="27" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B3352" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3352" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3352" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3352" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3353" s="27" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B3353" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3353" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3353" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3353" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3354" s="27" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B3354" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3354" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3354" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3354" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3355" s="27" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B3355" s="27" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C3355" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3355" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3355" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3356" s="28" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B3356" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3356" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3356" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3356" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3357" s="28" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B3357" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3357" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3357" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3357" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3358" s="28" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B3358" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3358" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3358" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3358" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3359" s="28" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B3359" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3359" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3359" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3359" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3360" s="28" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B3360" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3360" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3360" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3360" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3361" s="28" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B3361" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3361" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3361" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3361" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3362" s="28" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B3362" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3362" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3362" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3362" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3363" s="28" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B3363" s="28" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C3363" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3363" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3363" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3364" s="27" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B3364" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3364" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3364" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3364" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3365" s="27" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B3365" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3365" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3365" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3365" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3366" s="27" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B3366" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3366" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3366" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3366" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3367" s="27" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B3367" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3367" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3367" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3367" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3368" s="27" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B3368" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3368" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3368" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3368" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3369" s="27" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B3369" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3369" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3369" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3369" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3370" s="27" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B3370" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3370" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3370" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3370" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3371" s="27" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B3371" s="27" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C3371" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3371" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3371" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3372" s="28" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B3372" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3372" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3372" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3372" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3373" s="28" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B3373" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3373" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3373" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3373" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3374" s="28" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B3374" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3374" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3374" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3374" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3375" s="28" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B3375" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3375" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3375" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3375" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3376" s="28" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B3376" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3376" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3376" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3376" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3377" s="28" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B3377" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3377" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3377" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3377" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3378" s="28" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B3378" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3378" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3378" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3378" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3379" s="28" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B3379" s="28" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C3379" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3379" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3379" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3380" s="27" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B3380" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3380" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3380" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3380" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3381" s="27" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B3381" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3381" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3381" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3381" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3382" s="27" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B3382" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3382" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3382" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3382" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3383" s="27" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B3383" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3383" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3383" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3383" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3384" s="27" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B3384" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3384" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3384" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3384" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3385" s="27" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B3385" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3385" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3385" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3385" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3386" s="27" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B3386" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3386" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3386" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3386" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3387" s="27" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B3387" s="27" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C3387" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3387" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3387" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3388" s="28" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B3388" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3388" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3388" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3388" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3389" s="28" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B3389" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3389" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3389" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3389" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3390" s="28" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B3390" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3390" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3390" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3390" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3391" s="28" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B3391" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3391" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3391" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3391" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3392" s="28" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B3392" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3392" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3392" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3392" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3393" s="28" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B3393" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3393" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3393" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3393" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3394" s="28" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B3394" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3394" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3394" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3394" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3395" s="28" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B3395" s="28" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C3395" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3395" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3395" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3396" s="27" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B3396" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3396" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3396" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3396" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3397" s="27" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B3397" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3397" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3397" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3397" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3398" s="27" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B3398" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3398" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3398" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3398" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3399" s="27" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B3399" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3399" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3399" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3399" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3400" s="27" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B3400" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3400" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3400" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3400" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3401" s="27" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B3401" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3401" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3401" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3401" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3402" s="27" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B3402" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3402" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3402" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3402" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3403" s="27" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B3403" s="27" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C3403" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3403" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3403" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3404" s="28" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B3404" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3404" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3404" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3404" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3405" s="28" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B3405" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3405" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3405" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3405" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3406" s="28" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B3406" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3406" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3406" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3406" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3407" s="28" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B3407" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3407" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3407" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3407" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3408" s="28" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B3408" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3408" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3408" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3408" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3409" s="28" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B3409" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3409" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3409" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3409" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3410" s="28" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B3410" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3410" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3410" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3410" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3411" s="28" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B3411" s="28" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C3411" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3411" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3411" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3412" s="27" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B3412" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3412" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3412" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3412" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3413" s="27" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B3413" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3413" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3413" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3413" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3414" s="27" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B3414" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3414" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3414" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3414" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3415" s="27" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B3415" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3415" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3415" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3415" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3416" s="27" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B3416" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3416" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3416" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3416" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3417" s="27" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B3417" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3417" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3417" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3417" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3418" s="27" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B3418" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3418" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3418" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3418" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3419" s="27" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B3419" s="27" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C3419" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3419" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3419" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3420" s="28" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B3420" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3420" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3420" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3420" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3421" s="28" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B3421" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3421" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3421" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3421" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3422" s="28" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B3422" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3422" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3422" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3422" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3423" s="28" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B3423" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3423" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3423" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3423" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3424" s="28" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B3424" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3424" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3424" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3424" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3425" s="28" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B3425" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3425" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3425" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3425" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3426" s="28" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B3426" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3426" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3426" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3426" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3427" s="28" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B3427" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C3427" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3427" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3427" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3428" s="27" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B3428" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3428" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3428" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3428" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3429" s="27" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B3429" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3429" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3429" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3429" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3430" s="27" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B3430" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3430" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3430" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3430" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3431" s="27" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B3431" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3431" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3431" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3431" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3432" s="27" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B3432" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3432" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3432" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3432" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3433" s="27" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B3433" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3433" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3433" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3433" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3434" s="27" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B3434" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3434" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3434" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3434" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3435" s="27" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B3435" s="27" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C3435" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3435" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3435" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3436" s="28" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B3436" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3436" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3436" s="28" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3436" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3437" s="28" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B3437" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3437" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3437" s="28" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3437" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3438" s="28" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B3438" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3438" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3438" s="28" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3438" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3439" s="28" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B3439" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3439" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3439" s="28" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3439" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3440" s="28" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B3440" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3440" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3440" s="28" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3440" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3441" s="28" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B3441" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3441" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3441" s="28" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3441" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3442" s="28" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B3442" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3442" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3442" s="28" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3442" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3443" s="28" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B3443" s="28" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3443" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3443" s="28" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3443" s="51">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -66539,7 +71782,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="23" manualBreakCount="23">
+  <rowBreaks count="26" manualBreakCount="26">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="16383" man="1"/>
     <brk id="493" max="16383" man="1"/>
@@ -66563,6 +71806,9 @@
     <brk id="2832" max="16383" man="1"/>
     <brk id="2941" max="4" man="1"/>
     <brk id="3053" max="4" man="1"/>
+    <brk id="3168" max="4" man="1"/>
+    <brk id="3283" max="4" man="1"/>
+    <brk id="3395" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12684" uniqueCount="4247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12688" uniqueCount="4249">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12772,6 +12772,12 @@
   </si>
   <si>
     <t>DSS4429</t>
+  </si>
+  <si>
+    <t>Mahmoud Elsayed Abdelfattah Mohamed</t>
+  </si>
+  <si>
+    <t>DSS4430</t>
   </si>
 </sst>
 </file>
@@ -13585,7 +13591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13593,10 +13599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3443"/>
+  <dimension ref="A1:E3444"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3442" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3457" sqref="B3457"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3433" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3446" sqref="B3446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71770,6 +71776,23 @@
         <v>4041</v>
       </c>
       <c r="E3443" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3444" s="27" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B3444" s="27" t="s">
+        <v>4247</v>
+      </c>
+      <c r="C3444" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3444" s="27" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3444" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12688" uniqueCount="4249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12696" uniqueCount="4252">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12778,6 +12778,15 @@
   </si>
   <si>
     <t>DSS4430</t>
+  </si>
+  <si>
+    <t>DSS4431</t>
+  </si>
+  <si>
+    <t>DSS4432</t>
+  </si>
+  <si>
+    <t>12-Oct-2025</t>
   </si>
 </sst>
 </file>
@@ -13591,7 +13600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13599,10 +13608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3444"/>
+  <dimension ref="A1:E3446"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3433" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3446" sqref="B3446"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3439" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D3450" sqref="D3450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71793,6 +71802,40 @@
         <v>4046</v>
       </c>
       <c r="E3444" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3445" s="28" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B3445" s="28" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C3445" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3445" s="28" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3445" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3446" s="28" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B3446" s="28" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C3446" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3446" s="28" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E3446" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12696" uniqueCount="4252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12728" uniqueCount="4261">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12787,6 +12787,33 @@
   </si>
   <si>
     <t>12-Oct-2025</t>
+  </si>
+  <si>
+    <t>KHOWILED MOHAMED KHALIED HASHIM</t>
+  </si>
+  <si>
+    <t>DSS4433</t>
+  </si>
+  <si>
+    <t>DSS4434</t>
+  </si>
+  <si>
+    <t>DSS4435</t>
+  </si>
+  <si>
+    <t>DSS4436</t>
+  </si>
+  <si>
+    <t>DSS4437</t>
+  </si>
+  <si>
+    <t>DSS4438</t>
+  </si>
+  <si>
+    <t>DSS4439</t>
+  </si>
+  <si>
+    <t>DSS4440</t>
   </si>
 </sst>
 </file>
@@ -13600,7 +13627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13608,10 +13635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3446"/>
+  <dimension ref="A1:E3454"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3439" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D3450" sqref="D3450"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3437" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="F3446" sqref="F3446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69081,7 +69108,7 @@
       <c r="D3284" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3284" s="51">
+      <c r="E3284" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69098,7 +69125,7 @@
       <c r="D3285" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3285" s="51">
+      <c r="E3285" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69115,7 +69142,7 @@
       <c r="D3286" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3286" s="51">
+      <c r="E3286" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69132,7 +69159,7 @@
       <c r="D3287" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3287" s="51">
+      <c r="E3287" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69149,7 +69176,7 @@
       <c r="D3288" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3288" s="51">
+      <c r="E3288" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69166,7 +69193,7 @@
       <c r="D3289" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3289" s="51">
+      <c r="E3289" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69183,7 +69210,7 @@
       <c r="D3290" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3290" s="51">
+      <c r="E3290" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69200,7 +69227,7 @@
       <c r="D3291" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3291" s="51">
+      <c r="E3291" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69217,7 +69244,7 @@
       <c r="D3292" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3292" s="51">
+      <c r="E3292" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69234,7 +69261,7 @@
       <c r="D3293" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3293" s="51">
+      <c r="E3293" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69251,7 +69278,7 @@
       <c r="D3294" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3294" s="51">
+      <c r="E3294" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69268,7 +69295,7 @@
       <c r="D3295" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3295" s="51">
+      <c r="E3295" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69285,7 +69312,7 @@
       <c r="D3296" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3296" s="51">
+      <c r="E3296" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69302,7 +69329,7 @@
       <c r="D3297" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3297" s="51">
+      <c r="E3297" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69319,7 +69346,7 @@
       <c r="D3298" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3298" s="51">
+      <c r="E3298" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69336,7 +69363,7 @@
       <c r="D3299" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3299" s="51">
+      <c r="E3299" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69353,7 +69380,7 @@
       <c r="D3300" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3300" s="51">
+      <c r="E3300" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69370,7 +69397,7 @@
       <c r="D3301" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3301" s="51">
+      <c r="E3301" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69387,7 +69414,7 @@
       <c r="D3302" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3302" s="51">
+      <c r="E3302" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69404,7 +69431,7 @@
       <c r="D3303" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3303" s="51">
+      <c r="E3303" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69421,7 +69448,7 @@
       <c r="D3304" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3304" s="51">
+      <c r="E3304" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69438,7 +69465,7 @@
       <c r="D3305" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3305" s="51">
+      <c r="E3305" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69455,7 +69482,7 @@
       <c r="D3306" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3306" s="51">
+      <c r="E3306" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69472,7 +69499,7 @@
       <c r="D3307" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3307" s="51">
+      <c r="E3307" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69489,7 +69516,7 @@
       <c r="D3308" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3308" s="51">
+      <c r="E3308" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69506,7 +69533,7 @@
       <c r="D3309" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3309" s="51">
+      <c r="E3309" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69523,7 +69550,7 @@
       <c r="D3310" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3310" s="51">
+      <c r="E3310" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69540,7 +69567,7 @@
       <c r="D3311" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3311" s="51">
+      <c r="E3311" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69557,7 +69584,7 @@
       <c r="D3312" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3312" s="51">
+      <c r="E3312" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69574,7 +69601,7 @@
       <c r="D3313" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3313" s="51">
+      <c r="E3313" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69591,7 +69618,7 @@
       <c r="D3314" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3314" s="51">
+      <c r="E3314" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69608,7 +69635,7 @@
       <c r="D3315" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3315" s="51">
+      <c r="E3315" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69625,7 +69652,7 @@
       <c r="D3316" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3316" s="51">
+      <c r="E3316" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69642,7 +69669,7 @@
       <c r="D3317" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3317" s="51">
+      <c r="E3317" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69659,7 +69686,7 @@
       <c r="D3318" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3318" s="51">
+      <c r="E3318" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69676,7 +69703,7 @@
       <c r="D3319" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3319" s="51">
+      <c r="E3319" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69693,7 +69720,7 @@
       <c r="D3320" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3320" s="51">
+      <c r="E3320" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69710,7 +69737,7 @@
       <c r="D3321" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3321" s="51">
+      <c r="E3321" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69727,7 +69754,7 @@
       <c r="D3322" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3322" s="51">
+      <c r="E3322" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69744,7 +69771,7 @@
       <c r="D3323" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3323" s="51">
+      <c r="E3323" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69761,7 +69788,7 @@
       <c r="D3324" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3324" s="51">
+      <c r="E3324" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69778,7 +69805,7 @@
       <c r="D3325" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3325" s="51">
+      <c r="E3325" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69795,7 +69822,7 @@
       <c r="D3326" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3326" s="51">
+      <c r="E3326" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69812,7 +69839,7 @@
       <c r="D3327" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3327" s="51">
+      <c r="E3327" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69829,7 +69856,7 @@
       <c r="D3328" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3328" s="51">
+      <c r="E3328" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69846,7 +69873,7 @@
       <c r="D3329" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3329" s="51">
+      <c r="E3329" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69863,7 +69890,7 @@
       <c r="D3330" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3330" s="51">
+      <c r="E3330" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69880,7 +69907,7 @@
       <c r="D3331" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3331" s="51">
+      <c r="E3331" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69897,7 +69924,7 @@
       <c r="D3332" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3332" s="51">
+      <c r="E3332" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69914,7 +69941,7 @@
       <c r="D3333" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3333" s="51">
+      <c r="E3333" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69931,7 +69958,7 @@
       <c r="D3334" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3334" s="51">
+      <c r="E3334" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69948,7 +69975,7 @@
       <c r="D3335" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3335" s="51">
+      <c r="E3335" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69965,7 +69992,7 @@
       <c r="D3336" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3336" s="51">
+      <c r="E3336" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69982,7 +70009,7 @@
       <c r="D3337" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3337" s="51">
+      <c r="E3337" s="96">
         <v>1</v>
       </c>
     </row>
@@ -69999,7 +70026,7 @@
       <c r="D3338" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3338" s="51">
+      <c r="E3338" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70016,7 +70043,7 @@
       <c r="D3339" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3339" s="51">
+      <c r="E3339" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70033,7 +70060,7 @@
       <c r="D3340" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3340" s="51">
+      <c r="E3340" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70050,7 +70077,7 @@
       <c r="D3341" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3341" s="51">
+      <c r="E3341" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70067,7 +70094,7 @@
       <c r="D3342" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3342" s="51">
+      <c r="E3342" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70084,7 +70111,7 @@
       <c r="D3343" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3343" s="51">
+      <c r="E3343" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70101,7 +70128,7 @@
       <c r="D3344" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3344" s="51">
+      <c r="E3344" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70118,7 +70145,7 @@
       <c r="D3345" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3345" s="51">
+      <c r="E3345" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70135,7 +70162,7 @@
       <c r="D3346" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3346" s="51">
+      <c r="E3346" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70152,7 +70179,7 @@
       <c r="D3347" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3347" s="51">
+      <c r="E3347" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70169,7 +70196,7 @@
       <c r="D3348" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3348" s="51">
+      <c r="E3348" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70186,7 +70213,7 @@
       <c r="D3349" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3349" s="51">
+      <c r="E3349" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70203,7 +70230,7 @@
       <c r="D3350" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3350" s="51">
+      <c r="E3350" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70220,7 +70247,7 @@
       <c r="D3351" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3351" s="51">
+      <c r="E3351" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70237,7 +70264,7 @@
       <c r="D3352" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3352" s="51">
+      <c r="E3352" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70254,7 +70281,7 @@
       <c r="D3353" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3353" s="51">
+      <c r="E3353" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70271,7 +70298,7 @@
       <c r="D3354" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3354" s="51">
+      <c r="E3354" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70288,7 +70315,7 @@
       <c r="D3355" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3355" s="51">
+      <c r="E3355" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70305,7 +70332,7 @@
       <c r="D3356" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3356" s="51">
+      <c r="E3356" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70322,7 +70349,7 @@
       <c r="D3357" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3357" s="51">
+      <c r="E3357" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70339,7 +70366,7 @@
       <c r="D3358" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3358" s="51">
+      <c r="E3358" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70356,7 +70383,7 @@
       <c r="D3359" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3359" s="51">
+      <c r="E3359" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70373,7 +70400,7 @@
       <c r="D3360" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3360" s="51">
+      <c r="E3360" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70390,7 +70417,7 @@
       <c r="D3361" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3361" s="51">
+      <c r="E3361" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70407,7 +70434,7 @@
       <c r="D3362" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3362" s="51">
+      <c r="E3362" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70424,7 +70451,7 @@
       <c r="D3363" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3363" s="51">
+      <c r="E3363" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70441,7 +70468,7 @@
       <c r="D3364" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3364" s="51">
+      <c r="E3364" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70458,7 +70485,7 @@
       <c r="D3365" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3365" s="51">
+      <c r="E3365" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70475,7 +70502,7 @@
       <c r="D3366" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3366" s="51">
+      <c r="E3366" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70492,7 +70519,7 @@
       <c r="D3367" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3367" s="51">
+      <c r="E3367" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70509,7 +70536,7 @@
       <c r="D3368" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3368" s="51">
+      <c r="E3368" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70526,7 +70553,7 @@
       <c r="D3369" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3369" s="51">
+      <c r="E3369" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70543,7 +70570,7 @@
       <c r="D3370" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3370" s="51">
+      <c r="E3370" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70560,7 +70587,7 @@
       <c r="D3371" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3371" s="51">
+      <c r="E3371" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70577,7 +70604,7 @@
       <c r="D3372" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3372" s="51">
+      <c r="E3372" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70594,7 +70621,7 @@
       <c r="D3373" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3373" s="51">
+      <c r="E3373" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70611,7 +70638,7 @@
       <c r="D3374" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3374" s="51">
+      <c r="E3374" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70628,7 +70655,7 @@
       <c r="D3375" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3375" s="51">
+      <c r="E3375" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70645,7 +70672,7 @@
       <c r="D3376" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3376" s="51">
+      <c r="E3376" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70662,7 +70689,7 @@
       <c r="D3377" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3377" s="51">
+      <c r="E3377" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70679,7 +70706,7 @@
       <c r="D3378" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3378" s="51">
+      <c r="E3378" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70696,7 +70723,7 @@
       <c r="D3379" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3379" s="51">
+      <c r="E3379" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70713,7 +70740,7 @@
       <c r="D3380" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3380" s="51">
+      <c r="E3380" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70730,7 +70757,7 @@
       <c r="D3381" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3381" s="51">
+      <c r="E3381" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70747,7 +70774,7 @@
       <c r="D3382" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3382" s="51">
+      <c r="E3382" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70764,7 +70791,7 @@
       <c r="D3383" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3383" s="51">
+      <c r="E3383" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70781,7 +70808,7 @@
       <c r="D3384" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3384" s="51">
+      <c r="E3384" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70798,7 +70825,7 @@
       <c r="D3385" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3385" s="51">
+      <c r="E3385" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70815,7 +70842,7 @@
       <c r="D3386" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3386" s="51">
+      <c r="E3386" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70832,7 +70859,7 @@
       <c r="D3387" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3387" s="51">
+      <c r="E3387" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70849,7 +70876,7 @@
       <c r="D3388" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3388" s="51">
+      <c r="E3388" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70866,7 +70893,7 @@
       <c r="D3389" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3389" s="51">
+      <c r="E3389" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70883,7 +70910,7 @@
       <c r="D3390" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3390" s="51">
+      <c r="E3390" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70900,7 +70927,7 @@
       <c r="D3391" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3391" s="51">
+      <c r="E3391" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70917,7 +70944,7 @@
       <c r="D3392" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3392" s="51">
+      <c r="E3392" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70934,7 +70961,7 @@
       <c r="D3393" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3393" s="51">
+      <c r="E3393" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70951,7 +70978,7 @@
       <c r="D3394" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3394" s="51">
+      <c r="E3394" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70968,7 +70995,7 @@
       <c r="D3395" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3395" s="51">
+      <c r="E3395" s="96">
         <v>1</v>
       </c>
     </row>
@@ -70985,7 +71012,7 @@
       <c r="D3396" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3396" s="51">
+      <c r="E3396" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71002,7 +71029,7 @@
       <c r="D3397" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3397" s="51">
+      <c r="E3397" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71019,7 +71046,7 @@
       <c r="D3398" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3398" s="51">
+      <c r="E3398" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71036,7 +71063,7 @@
       <c r="D3399" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3399" s="51">
+      <c r="E3399" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71053,7 +71080,7 @@
       <c r="D3400" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3400" s="51">
+      <c r="E3400" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71070,7 +71097,7 @@
       <c r="D3401" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3401" s="51">
+      <c r="E3401" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71087,7 +71114,7 @@
       <c r="D3402" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3402" s="51">
+      <c r="E3402" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71104,7 +71131,7 @@
       <c r="D3403" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3403" s="51">
+      <c r="E3403" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71121,7 +71148,7 @@
       <c r="D3404" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3404" s="51">
+      <c r="E3404" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71138,7 +71165,7 @@
       <c r="D3405" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3405" s="51">
+      <c r="E3405" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71155,7 +71182,7 @@
       <c r="D3406" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3406" s="51">
+      <c r="E3406" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71172,7 +71199,7 @@
       <c r="D3407" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3407" s="51">
+      <c r="E3407" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71189,7 +71216,7 @@
       <c r="D3408" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3408" s="51">
+      <c r="E3408" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71206,7 +71233,7 @@
       <c r="D3409" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3409" s="51">
+      <c r="E3409" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71223,7 +71250,7 @@
       <c r="D3410" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3410" s="51">
+      <c r="E3410" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71240,7 +71267,7 @@
       <c r="D3411" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3411" s="51">
+      <c r="E3411" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71257,7 +71284,7 @@
       <c r="D3412" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3412" s="51">
+      <c r="E3412" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71274,7 +71301,7 @@
       <c r="D3413" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3413" s="51">
+      <c r="E3413" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71291,7 +71318,7 @@
       <c r="D3414" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3414" s="51">
+      <c r="E3414" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71308,7 +71335,7 @@
       <c r="D3415" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3415" s="51">
+      <c r="E3415" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71325,7 +71352,7 @@
       <c r="D3416" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3416" s="51">
+      <c r="E3416" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71342,7 +71369,7 @@
       <c r="D3417" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3417" s="51">
+      <c r="E3417" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71359,7 +71386,7 @@
       <c r="D3418" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3418" s="51">
+      <c r="E3418" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71376,7 +71403,7 @@
       <c r="D3419" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3419" s="51">
+      <c r="E3419" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71393,7 +71420,7 @@
       <c r="D3420" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3420" s="51">
+      <c r="E3420" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71410,7 +71437,7 @@
       <c r="D3421" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3421" s="51">
+      <c r="E3421" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71427,7 +71454,7 @@
       <c r="D3422" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3422" s="51">
+      <c r="E3422" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71444,7 +71471,7 @@
       <c r="D3423" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3423" s="51">
+      <c r="E3423" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71461,7 +71488,7 @@
       <c r="D3424" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3424" s="51">
+      <c r="E3424" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71478,7 +71505,7 @@
       <c r="D3425" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3425" s="51">
+      <c r="E3425" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71495,7 +71522,7 @@
       <c r="D3426" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3426" s="51">
+      <c r="E3426" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71512,7 +71539,7 @@
       <c r="D3427" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3427" s="51">
+      <c r="E3427" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71529,7 +71556,7 @@
       <c r="D3428" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3428" s="51">
+      <c r="E3428" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71546,7 +71573,7 @@
       <c r="D3429" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3429" s="51">
+      <c r="E3429" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71563,7 +71590,7 @@
       <c r="D3430" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3430" s="51">
+      <c r="E3430" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71580,7 +71607,7 @@
       <c r="D3431" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3431" s="51">
+      <c r="E3431" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71597,7 +71624,7 @@
       <c r="D3432" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3432" s="51">
+      <c r="E3432" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71614,7 +71641,7 @@
       <c r="D3433" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3433" s="51">
+      <c r="E3433" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71631,7 +71658,7 @@
       <c r="D3434" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3434" s="51">
+      <c r="E3434" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71648,7 +71675,7 @@
       <c r="D3435" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3435" s="51">
+      <c r="E3435" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71665,7 +71692,7 @@
       <c r="D3436" s="28" t="s">
         <v>3950</v>
       </c>
-      <c r="E3436" s="51">
+      <c r="E3436" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71682,7 +71709,7 @@
       <c r="D3437" s="28" t="s">
         <v>3948</v>
       </c>
-      <c r="E3437" s="51">
+      <c r="E3437" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71699,7 +71726,7 @@
       <c r="D3438" s="28" t="s">
         <v>4040</v>
       </c>
-      <c r="E3438" s="51">
+      <c r="E3438" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71716,7 +71743,7 @@
       <c r="D3439" s="28" t="s">
         <v>3949</v>
       </c>
-      <c r="E3439" s="51">
+      <c r="E3439" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71733,7 +71760,7 @@
       <c r="D3440" s="28" t="s">
         <v>3928</v>
       </c>
-      <c r="E3440" s="51">
+      <c r="E3440" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71750,7 +71777,7 @@
       <c r="D3441" s="28" t="s">
         <v>3883</v>
       </c>
-      <c r="E3441" s="51">
+      <c r="E3441" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71767,7 +71794,7 @@
       <c r="D3442" s="28" t="s">
         <v>3916</v>
       </c>
-      <c r="E3442" s="51">
+      <c r="E3442" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71784,7 +71811,7 @@
       <c r="D3443" s="28" t="s">
         <v>4041</v>
       </c>
-      <c r="E3443" s="51">
+      <c r="E3443" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71801,7 +71828,7 @@
       <c r="D3444" s="27" t="s">
         <v>4046</v>
       </c>
-      <c r="E3444" s="51">
+      <c r="E3444" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71818,7 +71845,7 @@
       <c r="D3445" s="28" t="s">
         <v>4046</v>
       </c>
-      <c r="E3445" s="51">
+      <c r="E3445" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71835,7 +71862,143 @@
       <c r="D3446" s="28" t="s">
         <v>4251</v>
       </c>
-      <c r="E3446" s="51">
+      <c r="E3446" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3447" s="27" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B3447" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3447" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3447" s="27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3447" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3448" s="27" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B3448" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3448" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3448" s="27" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3448" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3449" s="27" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B3449" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3449" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3449" s="27" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3449" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3450" s="27" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B3450" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3450" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3450" s="27" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3450" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3451" s="27" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B3451" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3451" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3451" s="27" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3451" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3452" s="27" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B3452" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3452" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3452" s="27" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3452" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3453" s="27" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B3453" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3453" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3453" s="27" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3453" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3454" s="27" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B3454" s="27" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C3454" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3454" s="27" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3454" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12728" uniqueCount="4261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12764" uniqueCount="4273">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12814,6 +12814,42 @@
   </si>
   <si>
     <t>DSS4440</t>
+  </si>
+  <si>
+    <t>DSS4441</t>
+  </si>
+  <si>
+    <t>16-Feb-2025</t>
+  </si>
+  <si>
+    <t>HOSSAM MOHAMED KAMAL ALI</t>
+  </si>
+  <si>
+    <t>Wael Mahmoud Abd Elrahim Mohamed</t>
+  </si>
+  <si>
+    <t>DSS4442</t>
+  </si>
+  <si>
+    <t>DSS4443</t>
+  </si>
+  <si>
+    <t>DSS4444</t>
+  </si>
+  <si>
+    <t>DSS4445</t>
+  </si>
+  <si>
+    <t>DSS4446</t>
+  </si>
+  <si>
+    <t>DSS4447</t>
+  </si>
+  <si>
+    <t>DSS4448</t>
+  </si>
+  <si>
+    <t>DSS4449</t>
   </si>
 </sst>
 </file>
@@ -13627,7 +13663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13635,10 +13671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3454"/>
+  <dimension ref="A1:E3463"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3437" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="F3446" sqref="F3446"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3446" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3453" sqref="C3453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71999,6 +72035,159 @@
         <v>4050</v>
       </c>
       <c r="E3454" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3455" s="28" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B3455" s="28" t="s">
+        <v>4263</v>
+      </c>
+      <c r="C3455" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3455" s="28" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E3455" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3456" s="27" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B3456" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3456" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3456" s="27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3456" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3457" s="27" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B3457" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3457" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3457" s="27" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3457" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3458" s="27" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B3458" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3458" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3458" s="27" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3458" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3459" s="27" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B3459" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3459" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3459" s="27" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3459" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3460" s="27" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B3460" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3460" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3460" s="27" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3460" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3461" s="27" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B3461" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3461" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3461" s="27" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3461" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3462" s="27" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B3462" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3462" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3462" s="27" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3462" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3463" s="27" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B3463" s="27" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C3463" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3463" s="27" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3463" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12764" uniqueCount="4273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12796" uniqueCount="4282">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12850,6 +12850,33 @@
   </si>
   <si>
     <t>DSS4449</t>
+  </si>
+  <si>
+    <t>AHMED ABDULFATAH ALI MOHAMMED</t>
+  </si>
+  <si>
+    <t>DSS4450</t>
+  </si>
+  <si>
+    <t>DSS4451</t>
+  </si>
+  <si>
+    <t>DSS4452</t>
+  </si>
+  <si>
+    <t>DSS4453</t>
+  </si>
+  <si>
+    <t>DSS4454</t>
+  </si>
+  <si>
+    <t>DSS4455</t>
+  </si>
+  <si>
+    <t>DSS4456</t>
+  </si>
+  <si>
+    <t>DSS4457</t>
   </si>
 </sst>
 </file>
@@ -13663,7 +13690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13671,10 +13698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3463"/>
+  <dimension ref="A1:E3471"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3446" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3453" sqref="C3453"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3455" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3473" sqref="B3473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72188,6 +72215,142 @@
         <v>4050</v>
       </c>
       <c r="E3463" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3464" s="28" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B3464" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3464" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3464" s="28" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3464" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3465" s="28" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B3465" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3465" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3465" s="28" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3465" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3466" s="28" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B3466" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3466" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3466" s="28" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3466" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3467" s="28" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B3467" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3467" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3467" s="28" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3467" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3468" s="28" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B3468" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3468" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3468" s="28" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3468" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3469" s="28" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B3469" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3469" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3469" s="28" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3469" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3470" s="28" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B3470" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3470" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3470" s="28" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3470" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3471" s="28" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B3471" s="28" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C3471" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3471" s="28" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3471" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12796" uniqueCount="4282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12828" uniqueCount="4291">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12877,6 +12877,33 @@
   </si>
   <si>
     <t>DSS4457</t>
+  </si>
+  <si>
+    <t>Abdelrhman Ahmed Sanad Shafei</t>
+  </si>
+  <si>
+    <t>DSS4458</t>
+  </si>
+  <si>
+    <t>DSS4459</t>
+  </si>
+  <si>
+    <t>DSS4460</t>
+  </si>
+  <si>
+    <t>DSS4461</t>
+  </si>
+  <si>
+    <t>DSS4462</t>
+  </si>
+  <si>
+    <t>DSS4463</t>
+  </si>
+  <si>
+    <t>DSS4464</t>
+  </si>
+  <si>
+    <t>DSS4465</t>
   </si>
 </sst>
 </file>
@@ -13690,7 +13717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13698,10 +13725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3471"/>
+  <dimension ref="A1:E3479"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3455" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3473" sqref="B3473"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3464" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3472" sqref="B3472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72351,6 +72378,142 @@
         <v>4050</v>
       </c>
       <c r="E3471" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3472" s="27" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B3472" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3472" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3472" s="27" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E3472" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3473" s="27" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B3473" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3473" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3473" s="27" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E3473" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3474" s="27" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B3474" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3474" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3474" s="27" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E3474" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3475" s="27" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B3475" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3475" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3475" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3475" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3476" s="27" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B3476" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3476" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3476" s="27" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E3476" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3477" s="27" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B3477" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3477" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3477" s="27" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E3477" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3478" s="27" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B3478" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3478" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3478" s="27" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E3478" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3479" s="27" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B3479" s="27" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C3479" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3479" s="27" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E3479" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3491</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3517</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12828" uniqueCount="4291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12868" uniqueCount="4303">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12904,13 +12904,49 @@
   </si>
   <si>
     <t>DSS4465</t>
+  </si>
+  <si>
+    <t>Abdelrahman Motawee Barakat Abdelgaber</t>
+  </si>
+  <si>
+    <t>DSS4466</t>
+  </si>
+  <si>
+    <t>DSS4467</t>
+  </si>
+  <si>
+    <t>DSS4468</t>
+  </si>
+  <si>
+    <t>DSS4469</t>
+  </si>
+  <si>
+    <t>DSS4470</t>
+  </si>
+  <si>
+    <t>DSS4471</t>
+  </si>
+  <si>
+    <t>DSS4472</t>
+  </si>
+  <si>
+    <t>DSS4473</t>
+  </si>
+  <si>
+    <t>ALAA EZZELDIN ABDELRAHIM HUSSEIN</t>
+  </si>
+  <si>
+    <t>DSS4474</t>
+  </si>
+  <si>
+    <t>DSS4475</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12986,6 +13022,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -13144,7 +13187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -13440,6 +13483,9 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13717,7 +13763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13725,10 +13771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3479"/>
+  <dimension ref="A1:E3489"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3464" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3472" sqref="B3472"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3487" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="G3493" sqref="G3493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71969,7 +72015,7 @@
       <c r="D3447" s="27" t="s">
         <v>4044</v>
       </c>
-      <c r="E3447" s="51">
+      <c r="E3447" s="96">
         <v>1</v>
       </c>
     </row>
@@ -71986,7 +72032,7 @@
       <c r="D3448" s="27" t="s">
         <v>4045</v>
       </c>
-      <c r="E3448" s="51">
+      <c r="E3448" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72003,7 +72049,7 @@
       <c r="D3449" s="27" t="s">
         <v>4046</v>
       </c>
-      <c r="E3449" s="51">
+      <c r="E3449" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72020,7 +72066,7 @@
       <c r="D3450" s="27" t="s">
         <v>4047</v>
       </c>
-      <c r="E3450" s="51">
+      <c r="E3450" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72037,7 +72083,7 @@
       <c r="D3451" s="27" t="s">
         <v>4048</v>
       </c>
-      <c r="E3451" s="51">
+      <c r="E3451" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72054,7 +72100,7 @@
       <c r="D3452" s="27" t="s">
         <v>3914</v>
       </c>
-      <c r="E3452" s="51">
+      <c r="E3452" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72071,7 +72117,7 @@
       <c r="D3453" s="27" t="s">
         <v>4049</v>
       </c>
-      <c r="E3453" s="51">
+      <c r="E3453" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72088,7 +72134,7 @@
       <c r="D3454" s="27" t="s">
         <v>4050</v>
       </c>
-      <c r="E3454" s="51">
+      <c r="E3454" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72105,7 +72151,7 @@
       <c r="D3455" s="28" t="s">
         <v>4262</v>
       </c>
-      <c r="E3455" s="51">
+      <c r="E3455" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72122,7 +72168,7 @@
       <c r="D3456" s="27" t="s">
         <v>4044</v>
       </c>
-      <c r="E3456" s="51">
+      <c r="E3456" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72139,7 +72185,7 @@
       <c r="D3457" s="27" t="s">
         <v>4045</v>
       </c>
-      <c r="E3457" s="51">
+      <c r="E3457" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72156,7 +72202,7 @@
       <c r="D3458" s="27" t="s">
         <v>4046</v>
       </c>
-      <c r="E3458" s="51">
+      <c r="E3458" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72173,7 +72219,7 @@
       <c r="D3459" s="27" t="s">
         <v>4047</v>
       </c>
-      <c r="E3459" s="51">
+      <c r="E3459" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72190,7 +72236,7 @@
       <c r="D3460" s="27" t="s">
         <v>4048</v>
       </c>
-      <c r="E3460" s="51">
+      <c r="E3460" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72207,7 +72253,7 @@
       <c r="D3461" s="27" t="s">
         <v>3914</v>
       </c>
-      <c r="E3461" s="51">
+      <c r="E3461" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72224,7 +72270,7 @@
       <c r="D3462" s="27" t="s">
         <v>4049</v>
       </c>
-      <c r="E3462" s="51">
+      <c r="E3462" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72241,7 +72287,7 @@
       <c r="D3463" s="27" t="s">
         <v>4050</v>
       </c>
-      <c r="E3463" s="51">
+      <c r="E3463" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72258,7 +72304,7 @@
       <c r="D3464" s="28" t="s">
         <v>4044</v>
       </c>
-      <c r="E3464" s="51">
+      <c r="E3464" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72275,7 +72321,7 @@
       <c r="D3465" s="28" t="s">
         <v>4045</v>
       </c>
-      <c r="E3465" s="51">
+      <c r="E3465" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72292,7 +72338,7 @@
       <c r="D3466" s="28" t="s">
         <v>4046</v>
       </c>
-      <c r="E3466" s="51">
+      <c r="E3466" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72309,7 +72355,7 @@
       <c r="D3467" s="28" t="s">
         <v>4047</v>
       </c>
-      <c r="E3467" s="51">
+      <c r="E3467" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72326,7 +72372,7 @@
       <c r="D3468" s="28" t="s">
         <v>4048</v>
       </c>
-      <c r="E3468" s="51">
+      <c r="E3468" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72343,7 +72389,7 @@
       <c r="D3469" s="28" t="s">
         <v>3914</v>
       </c>
-      <c r="E3469" s="51">
+      <c r="E3469" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72360,7 +72406,7 @@
       <c r="D3470" s="28" t="s">
         <v>4049</v>
       </c>
-      <c r="E3470" s="51">
+      <c r="E3470" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72377,7 +72423,7 @@
       <c r="D3471" s="28" t="s">
         <v>4050</v>
       </c>
-      <c r="E3471" s="51">
+      <c r="E3471" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72394,7 +72440,7 @@
       <c r="D3472" s="27" t="s">
         <v>3950</v>
       </c>
-      <c r="E3472" s="51">
+      <c r="E3472" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72411,7 +72457,7 @@
       <c r="D3473" s="27" t="s">
         <v>3948</v>
       </c>
-      <c r="E3473" s="51">
+      <c r="E3473" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72428,7 +72474,7 @@
       <c r="D3474" s="27" t="s">
         <v>4040</v>
       </c>
-      <c r="E3474" s="51">
+      <c r="E3474" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72445,7 +72491,7 @@
       <c r="D3475" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3475" s="51">
+      <c r="E3475" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72462,7 +72508,7 @@
       <c r="D3476" s="27" t="s">
         <v>3928</v>
       </c>
-      <c r="E3476" s="51">
+      <c r="E3476" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72479,7 +72525,7 @@
       <c r="D3477" s="27" t="s">
         <v>3883</v>
       </c>
-      <c r="E3477" s="51">
+      <c r="E3477" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72496,7 +72542,7 @@
       <c r="D3478" s="27" t="s">
         <v>3916</v>
       </c>
-      <c r="E3478" s="51">
+      <c r="E3478" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72513,7 +72559,177 @@
       <c r="D3479" s="27" t="s">
         <v>4041</v>
       </c>
-      <c r="E3479" s="51">
+      <c r="E3479" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3480" s="99" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B3480" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3480" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3480" s="99" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3480" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3481" s="99" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B3481" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3481" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3481" s="99" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3481" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3482" s="99" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B3482" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3482" s="99" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3482" s="99" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3482" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3483" s="99" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B3483" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3483" s="99" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3483" s="99" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3483" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3484" s="99" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B3484" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3484" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3484" s="99" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3484" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3485" s="99" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B3485" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3485" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3485" s="99" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3485" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3486" s="99" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B3486" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3486" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3486" s="99" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3486" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3487" s="99" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B3487" s="99" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C3487" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3487" s="99" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3487" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3488" s="27" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B3488" s="27" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C3488" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3488" s="27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3488" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3489" s="27" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B3489" s="27" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C3489" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3489" s="27" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3489" s="51">
         <v>1</v>
       </c>
     </row>
@@ -72526,7 +72742,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="26" manualBreakCount="26">
+  <rowBreaks count="27" manualBreakCount="27">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="16383" man="1"/>
     <brk id="493" max="16383" man="1"/>
@@ -72553,6 +72769,7 @@
     <brk id="3168" max="4" man="1"/>
     <brk id="3283" max="4" man="1"/>
     <brk id="3395" max="4" man="1"/>
+    <brk id="3487" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12868" uniqueCount="4303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12872" uniqueCount="4305">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12940,6 +12940,12 @@
   </si>
   <si>
     <t>DSS4475</t>
+  </si>
+  <si>
+    <t>Mohamed Tarek Ahmed Mohamed Ghazy</t>
+  </si>
+  <si>
+    <t>DSS4476</t>
   </si>
 </sst>
 </file>
@@ -13763,7 +13769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13771,10 +13777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3489"/>
+  <dimension ref="A1:E3490"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3487" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="G3493" sqref="G3493"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3481" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3492" sqref="B3492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72730,6 +72736,23 @@
         <v>4045</v>
       </c>
       <c r="E3489" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3490" s="27" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B3490" s="27" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C3490" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3490" s="27" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E3490" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3517</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3742</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12872" uniqueCount="4305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13744" uniqueCount="4562">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -12946,13 +12946,784 @@
   </si>
   <si>
     <t>DSS4476</t>
+  </si>
+  <si>
+    <t>Ayman Mahmoud Mohamed Abdelhalim</t>
+  </si>
+  <si>
+    <t>Hossam Eldin wahid Abd Elaziz Ahmed</t>
+  </si>
+  <si>
+    <t>Islam wahid Abdelaziz Ahmed</t>
+  </si>
+  <si>
+    <t>Ahmed hussien abdelrahim hussien</t>
+  </si>
+  <si>
+    <t>Ahmed Gad Badry Saied</t>
+  </si>
+  <si>
+    <t>OSAMA MOHAMED MOHAMED ELWAKIL</t>
+  </si>
+  <si>
+    <t>Mohamed Sayed Ali Ali</t>
+  </si>
+  <si>
+    <t>NAGAH ALI RADWAN ZAHRA</t>
+  </si>
+  <si>
+    <t>Walid yasser ibrahim el sayed</t>
+  </si>
+  <si>
+    <t>Mutasem Abdu radman Ahmmad</t>
+  </si>
+  <si>
+    <t>MOHAMED ATIF ABDELGHANEY MOHAMED BAHRAM</t>
+  </si>
+  <si>
+    <t>Hamada Kamal Ahmad kaml</t>
+  </si>
+  <si>
+    <t>Elhusseiny Nagy Mohamed Elbarbary</t>
+  </si>
+  <si>
+    <t>Mohamed Gouda Al-Sayed Hassan</t>
+  </si>
+  <si>
+    <t>Hamd Abdelghafar Abdelsattar Ahmed</t>
+  </si>
+  <si>
+    <t>Abdelwahab Alsaeed Younes Atwa</t>
+  </si>
+  <si>
+    <t>KARIM FADL ABDELFATTAH AFlFY</t>
+  </si>
+  <si>
+    <t>Ahmed Sanad Youssif Ahmed El Nazer</t>
+  </si>
+  <si>
+    <t>Rahim Mohamed Hussein Hamida</t>
+  </si>
+  <si>
+    <t>AHMED ABDALLA AMIN ALI</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Reda Soliman Rabie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdeen Abbas Hassan Abdelgiuom </t>
+  </si>
+  <si>
+    <t>DSS4477</t>
+  </si>
+  <si>
+    <t>DSS4478</t>
+  </si>
+  <si>
+    <t>DSS4479</t>
+  </si>
+  <si>
+    <t>DSS4480</t>
+  </si>
+  <si>
+    <t>DSS4481</t>
+  </si>
+  <si>
+    <t>DSS4482</t>
+  </si>
+  <si>
+    <t>DSS4483</t>
+  </si>
+  <si>
+    <t>DSS4484</t>
+  </si>
+  <si>
+    <t>05-Nov-2025</t>
+  </si>
+  <si>
+    <t>1-Nov-2025</t>
+  </si>
+  <si>
+    <t>31-Oct-2025</t>
+  </si>
+  <si>
+    <t>02-Nov-2025</t>
+  </si>
+  <si>
+    <t>03-Nov-2025</t>
+  </si>
+  <si>
+    <t>26-Oct-2025</t>
+  </si>
+  <si>
+    <t>04-Nov-2025</t>
+  </si>
+  <si>
+    <t>28-Oct-2025</t>
+  </si>
+  <si>
+    <t>DSS4485</t>
+  </si>
+  <si>
+    <t>DSS4486</t>
+  </si>
+  <si>
+    <t>DSS4487</t>
+  </si>
+  <si>
+    <t>DSS4488</t>
+  </si>
+  <si>
+    <t>DSS4489</t>
+  </si>
+  <si>
+    <t>DSS4490</t>
+  </si>
+  <si>
+    <t>DSS4491</t>
+  </si>
+  <si>
+    <t>DSS4492</t>
+  </si>
+  <si>
+    <t>DSS4493</t>
+  </si>
+  <si>
+    <t>DSS4494</t>
+  </si>
+  <si>
+    <t>DSS4495</t>
+  </si>
+  <si>
+    <t>DSS4496</t>
+  </si>
+  <si>
+    <t>DSS4497</t>
+  </si>
+  <si>
+    <t>DSS4498</t>
+  </si>
+  <si>
+    <t>DSS4499</t>
+  </si>
+  <si>
+    <t>DSS4500</t>
+  </si>
+  <si>
+    <t>DSS4501</t>
+  </si>
+  <si>
+    <t>DSS4502</t>
+  </si>
+  <si>
+    <t>DSS4503</t>
+  </si>
+  <si>
+    <t>DSS4504</t>
+  </si>
+  <si>
+    <t>DSS4505</t>
+  </si>
+  <si>
+    <t>DSS4506</t>
+  </si>
+  <si>
+    <t>DSS4507</t>
+  </si>
+  <si>
+    <t>DSS4508</t>
+  </si>
+  <si>
+    <t>DSS4509</t>
+  </si>
+  <si>
+    <t>DSS4510</t>
+  </si>
+  <si>
+    <t>DSS4511</t>
+  </si>
+  <si>
+    <t>DSS4512</t>
+  </si>
+  <si>
+    <t>DSS4513</t>
+  </si>
+  <si>
+    <t>DSS4514</t>
+  </si>
+  <si>
+    <t>DSS4515</t>
+  </si>
+  <si>
+    <t>DSS4516</t>
+  </si>
+  <si>
+    <t>DSS4525</t>
+  </si>
+  <si>
+    <t>DSS4526</t>
+  </si>
+  <si>
+    <t>DSS4527</t>
+  </si>
+  <si>
+    <t>DSS4528</t>
+  </si>
+  <si>
+    <t>DSS4529</t>
+  </si>
+  <si>
+    <t>DSS4530</t>
+  </si>
+  <si>
+    <t>DSS4531</t>
+  </si>
+  <si>
+    <t>DSS4532</t>
+  </si>
+  <si>
+    <t>DSS4533</t>
+  </si>
+  <si>
+    <t>DSS4534</t>
+  </si>
+  <si>
+    <t>DSS4535</t>
+  </si>
+  <si>
+    <t>DSS4536</t>
+  </si>
+  <si>
+    <t>DSS4537</t>
+  </si>
+  <si>
+    <t>DSS4538</t>
+  </si>
+  <si>
+    <t>DSS4539</t>
+  </si>
+  <si>
+    <t>DSS4540</t>
+  </si>
+  <si>
+    <t>DSS4541</t>
+  </si>
+  <si>
+    <t>DSS4542</t>
+  </si>
+  <si>
+    <t>DSS4543</t>
+  </si>
+  <si>
+    <t>DSS4544</t>
+  </si>
+  <si>
+    <t>DSS4545</t>
+  </si>
+  <si>
+    <t>DSS4546</t>
+  </si>
+  <si>
+    <t>DSS4547</t>
+  </si>
+  <si>
+    <t>DSS4548</t>
+  </si>
+  <si>
+    <t>DSS4549</t>
+  </si>
+  <si>
+    <t>DSS4550</t>
+  </si>
+  <si>
+    <t>DSS4551</t>
+  </si>
+  <si>
+    <t>DSS4552</t>
+  </si>
+  <si>
+    <t>DSS4553</t>
+  </si>
+  <si>
+    <t>DSS4554</t>
+  </si>
+  <si>
+    <t>DSS4555</t>
+  </si>
+  <si>
+    <t>DSS4556</t>
+  </si>
+  <si>
+    <t>DSS4557</t>
+  </si>
+  <si>
+    <t>DSS4558</t>
+  </si>
+  <si>
+    <t>DSS4559</t>
+  </si>
+  <si>
+    <t>DSS4560</t>
+  </si>
+  <si>
+    <t>DSS4561</t>
+  </si>
+  <si>
+    <t>DSS4562</t>
+  </si>
+  <si>
+    <t>DSS4563</t>
+  </si>
+  <si>
+    <t>DSS4564</t>
+  </si>
+  <si>
+    <t>DSS4565</t>
+  </si>
+  <si>
+    <t>DSS4566</t>
+  </si>
+  <si>
+    <t>DSS4567</t>
+  </si>
+  <si>
+    <t>DSS4568</t>
+  </si>
+  <si>
+    <t>DSS4569</t>
+  </si>
+  <si>
+    <t>DSS4570</t>
+  </si>
+  <si>
+    <t>DSS4571</t>
+  </si>
+  <si>
+    <t>DSS4572</t>
+  </si>
+  <si>
+    <t>DSS4573</t>
+  </si>
+  <si>
+    <t>DSS4574</t>
+  </si>
+  <si>
+    <t>DSS4575</t>
+  </si>
+  <si>
+    <t>DSS4576</t>
+  </si>
+  <si>
+    <t>DSS4577</t>
+  </si>
+  <si>
+    <t>DSS4578</t>
+  </si>
+  <si>
+    <t>DSS4579</t>
+  </si>
+  <si>
+    <t>DSS4580</t>
+  </si>
+  <si>
+    <t>DSS4581</t>
+  </si>
+  <si>
+    <t>DSS4582</t>
+  </si>
+  <si>
+    <t>DSS4583</t>
+  </si>
+  <si>
+    <t>DSS4584</t>
+  </si>
+  <si>
+    <t>DSS4585</t>
+  </si>
+  <si>
+    <t>DSS4586</t>
+  </si>
+  <si>
+    <t>DSS4587</t>
+  </si>
+  <si>
+    <t>DSS4588</t>
+  </si>
+  <si>
+    <t>DSS4589</t>
+  </si>
+  <si>
+    <t>DSS4590</t>
+  </si>
+  <si>
+    <t>DSS4591</t>
+  </si>
+  <si>
+    <t>DSS4592</t>
+  </si>
+  <si>
+    <t>DSS4593</t>
+  </si>
+  <si>
+    <t>DSS4594</t>
+  </si>
+  <si>
+    <t>DSS4595</t>
+  </si>
+  <si>
+    <t>DSS4596</t>
+  </si>
+  <si>
+    <t>DSS4597</t>
+  </si>
+  <si>
+    <t>DSS4598</t>
+  </si>
+  <si>
+    <t>DSS4599</t>
+  </si>
+  <si>
+    <t>DSS4600</t>
+  </si>
+  <si>
+    <t>DSS4601</t>
+  </si>
+  <si>
+    <t>DSS4602</t>
+  </si>
+  <si>
+    <t>DSS4603</t>
+  </si>
+  <si>
+    <t>DSS4604</t>
+  </si>
+  <si>
+    <t>DSS4605</t>
+  </si>
+  <si>
+    <t>DSS4606</t>
+  </si>
+  <si>
+    <t>DSS4607</t>
+  </si>
+  <si>
+    <t>DSS4608</t>
+  </si>
+  <si>
+    <t>DSS4609</t>
+  </si>
+  <si>
+    <t>DSS4610</t>
+  </si>
+  <si>
+    <t>DSS4611</t>
+  </si>
+  <si>
+    <t>DSS4612</t>
+  </si>
+  <si>
+    <t>DSS4613</t>
+  </si>
+  <si>
+    <t>DSS4614</t>
+  </si>
+  <si>
+    <t>DSS4615</t>
+  </si>
+  <si>
+    <t>DSS4616</t>
+  </si>
+  <si>
+    <t>DSS4617</t>
+  </si>
+  <si>
+    <t>DSS4618</t>
+  </si>
+  <si>
+    <t>DSS4619</t>
+  </si>
+  <si>
+    <t>DSS4620</t>
+  </si>
+  <si>
+    <t>DSS4621</t>
+  </si>
+  <si>
+    <t>DSS4622</t>
+  </si>
+  <si>
+    <t>DSS4623</t>
+  </si>
+  <si>
+    <t>DSS4624</t>
+  </si>
+  <si>
+    <t>DSS4625</t>
+  </si>
+  <si>
+    <t>DSS4626</t>
+  </si>
+  <si>
+    <t>DSS4627</t>
+  </si>
+  <si>
+    <t>DSS4628</t>
+  </si>
+  <si>
+    <t>DSS4629</t>
+  </si>
+  <si>
+    <t>DSS4630</t>
+  </si>
+  <si>
+    <t>DSS4631</t>
+  </si>
+  <si>
+    <t>DSS4632</t>
+  </si>
+  <si>
+    <t>DSS4633</t>
+  </si>
+  <si>
+    <t>DSS4634</t>
+  </si>
+  <si>
+    <t>DSS4635</t>
+  </si>
+  <si>
+    <t>DSS4636</t>
+  </si>
+  <si>
+    <t>DSS4637</t>
+  </si>
+  <si>
+    <t>DSS4638</t>
+  </si>
+  <si>
+    <t>DSS4639</t>
+  </si>
+  <si>
+    <t>DSS4640</t>
+  </si>
+  <si>
+    <t>DSS4641</t>
+  </si>
+  <si>
+    <t>DSS4642</t>
+  </si>
+  <si>
+    <t>DSS4643</t>
+  </si>
+  <si>
+    <t>DSS4644</t>
+  </si>
+  <si>
+    <t>DSS4645</t>
+  </si>
+  <si>
+    <t>DSS4646</t>
+  </si>
+  <si>
+    <t>DSS4647</t>
+  </si>
+  <si>
+    <t>DSS4648</t>
+  </si>
+  <si>
+    <t>DSS4649</t>
+  </si>
+  <si>
+    <t>DSS4650</t>
+  </si>
+  <si>
+    <t>DSS4651</t>
+  </si>
+  <si>
+    <t>DSS4652</t>
+  </si>
+  <si>
+    <t>DSS4653</t>
+  </si>
+  <si>
+    <t>DSS4654</t>
+  </si>
+  <si>
+    <t>DSS4655</t>
+  </si>
+  <si>
+    <t>DSS4656</t>
+  </si>
+  <si>
+    <t>DSS4657</t>
+  </si>
+  <si>
+    <t>DSS4658</t>
+  </si>
+  <si>
+    <t>DSS4659</t>
+  </si>
+  <si>
+    <t>DSS4660</t>
+  </si>
+  <si>
+    <t>Ahmed Salah Osman Mohamed</t>
+  </si>
+  <si>
+    <t>Hamido Reda Hamido</t>
+  </si>
+  <si>
+    <t>Abdullah Muhammad al-Amin Pasha</t>
+  </si>
+  <si>
+    <t>BALNOUR HOSEEN BALNOUR BALNOUR</t>
+  </si>
+  <si>
+    <t>MOSTAFA KOTB METWALLY AHMED</t>
+  </si>
+  <si>
+    <t>Lifting and Rigging Competent Person &amp; Lifting Planner</t>
+  </si>
+  <si>
+    <t>DSS4661</t>
+  </si>
+  <si>
+    <t>DSS4662</t>
+  </si>
+  <si>
+    <t>DSS4663</t>
+  </si>
+  <si>
+    <t>DSS4664</t>
+  </si>
+  <si>
+    <t>DSS4665</t>
+  </si>
+  <si>
+    <t>DSS4666</t>
+  </si>
+  <si>
+    <t>DSS4667</t>
+  </si>
+  <si>
+    <t>DSS4668</t>
+  </si>
+  <si>
+    <t>DSS4669</t>
+  </si>
+  <si>
+    <t>DSS4670</t>
+  </si>
+  <si>
+    <t>DSS4671</t>
+  </si>
+  <si>
+    <t>DSS4672</t>
+  </si>
+  <si>
+    <t>DSS4673</t>
+  </si>
+  <si>
+    <t>DSS4674</t>
+  </si>
+  <si>
+    <t>DSS4675</t>
+  </si>
+  <si>
+    <t>DSS4676</t>
+  </si>
+  <si>
+    <t>DSS4677</t>
+  </si>
+  <si>
+    <t>DSS4678</t>
+  </si>
+  <si>
+    <t>DSS4679</t>
+  </si>
+  <si>
+    <t>DSS4680</t>
+  </si>
+  <si>
+    <t>DSS4681</t>
+  </si>
+  <si>
+    <t>DSS4682</t>
+  </si>
+  <si>
+    <t>DSS4683</t>
+  </si>
+  <si>
+    <t>DSS4684</t>
+  </si>
+  <si>
+    <t>DSS4685</t>
+  </si>
+  <si>
+    <t>DSS4686</t>
+  </si>
+  <si>
+    <t>DSS4687</t>
+  </si>
+  <si>
+    <t>DSS4688</t>
+  </si>
+  <si>
+    <t>DSS4689</t>
+  </si>
+  <si>
+    <t>DSS4690</t>
+  </si>
+  <si>
+    <t>DSS4691</t>
+  </si>
+  <si>
+    <t>DSS4692</t>
+  </si>
+  <si>
+    <t>DSS4693</t>
+  </si>
+  <si>
+    <t>DSS4694</t>
+  </si>
+  <si>
+    <t>DSS4695</t>
+  </si>
+  <si>
+    <t>DSS4696</t>
+  </si>
+  <si>
+    <t>DSS4697</t>
+  </si>
+  <si>
+    <t>DSS4698</t>
+  </si>
+  <si>
+    <t>DSS4699</t>
+  </si>
+  <si>
+    <t>DSS4700</t>
+  </si>
+  <si>
+    <t>Moamen Mohamed Ahmed Elsayed</t>
+  </si>
+  <si>
+    <t>Adam Abkar Adam Hasaballa</t>
+  </si>
+  <si>
+    <t>02-Nov-2026</t>
+  </si>
+  <si>
+    <t>DSS4701</t>
+  </si>
+  <si>
+    <t>DSS4702</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13035,6 +13806,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -13193,7 +13971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -13492,6 +14270,12 @@
     <xf numFmtId="14" fontId="11" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13777,10 +14561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3490"/>
+  <dimension ref="A1:E3708"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3481" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3492" sqref="B3492"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3694" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="G3706" sqref="G3706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72752,7 +73536,3713 @@
       <c r="D3490" s="27" t="s">
         <v>3949</v>
       </c>
-      <c r="E3490" s="51">
+      <c r="E3490" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3491" s="28" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B3491" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3491" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3491" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3491" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3492" s="28" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B3492" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3492" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3492" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3492" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3493" s="28" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B3493" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3493" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3493" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3493" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3494" s="28" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B3494" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3494" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3494" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3494" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3495" s="28" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B3495" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3495" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3495" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3495" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3496" s="28" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B3496" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3496" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3496" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3496" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3497" s="28" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B3497" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3497" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3497" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3497" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3498" s="28" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B3498" s="28" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C3498" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3498" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3498" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3499" s="27" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B3499" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3499" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3499" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3499" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3500" s="27" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B3500" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3500" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3500" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3500" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3501" s="27" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B3501" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3501" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3501" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3501" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3502" s="27" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B3502" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3502" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3502" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3502" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3503" s="27" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B3503" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3503" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3503" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3503" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3504" s="27" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B3504" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3504" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3504" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3504" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3505" s="27" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B3505" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3505" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3505" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3505" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3506" s="27" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B3506" s="27" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C3506" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3506" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3506" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3507" s="28" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B3507" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3507" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3507" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3507" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3508" s="28" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B3508" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3508" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3508" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3508" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3509" s="28" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B3509" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3509" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3509" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3509" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3510" s="28" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B3510" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3510" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3510" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3510" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3511" s="28" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B3511" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3511" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3511" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3511" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3512" s="28" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B3512" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3512" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3512" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3512" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3513" s="28" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B3513" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3513" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3513" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3513" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3514" s="28" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B3514" s="28" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C3514" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3514" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3514" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3515" s="27" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B3515" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3515" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3515" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3515" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3516" s="27" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B3516" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3516" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3516" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3516" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3517" s="27" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B3517" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3517" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3517" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3517" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3518" s="27" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B3518" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3518" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3518" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3518" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3519" s="27" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B3519" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3519" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3519" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3519" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3520" s="27" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B3520" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3520" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3520" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3520" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3521" s="27" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B3521" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3521" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3521" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3521" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3522" s="27" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B3522" s="27" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C3522" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3522" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3522" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3523" s="28" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B3523" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3523" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3523" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3523" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3524" s="28" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B3524" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3524" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3524" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3524" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3525" s="28" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B3525" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3525" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3525" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3525" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3526" s="28" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B3526" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3526" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3526" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3526" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3527" s="28" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B3527" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3527" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3527" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3527" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3528" s="28" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B3528" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3528" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3528" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3528" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3529" s="28" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B3529" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3529" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3529" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3529" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3530" s="28" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B3530" s="28" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C3530" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3530" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3530" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3531" s="28" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B3531" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3531" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3531" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3531" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3532" s="28" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B3532" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3532" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3532" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3532" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3533" s="28" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B3533" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3533" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3533" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3533" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3534" s="28" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B3534" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3534" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3534" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3534" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3535" s="28" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B3535" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3535" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3535" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3535" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3536" s="28" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B3536" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3536" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3536" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3536" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3537" s="28" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B3537" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3537" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3537" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3537" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3538" s="28" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B3538" s="28" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C3538" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3538" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3538" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3539" s="27" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B3539" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3539" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3539" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3539" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3540" s="27" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B3540" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3540" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3540" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3540" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3541" s="27" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B3541" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3541" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3541" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3541" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3542" s="27" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B3542" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3542" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3542" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3542" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3543" s="27" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B3543" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3543" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3543" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3543" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3544" s="27" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B3544" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3544" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3544" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3544" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3545" s="27" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B3545" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3545" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3545" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3545" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3546" s="27" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B3546" s="27" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C3546" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3546" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3546" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3547" s="28" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B3547" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3547" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3547" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3547" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3548" s="28" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B3548" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3548" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3548" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3548" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3549" s="28" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B3549" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3549" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3549" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3549" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3550" s="28" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B3550" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3550" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3550" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3550" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3551" s="28" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B3551" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3551" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3551" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3551" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3552" s="28" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B3552" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3552" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3552" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3552" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3553" s="28" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B3553" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3553" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3553" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3553" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3554" s="28" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B3554" s="28" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C3554" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3554" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3554" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3555" s="27" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B3555" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3555" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3555" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3555" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3556" s="27" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B3556" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3556" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3556" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3556" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3557" s="27" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B3557" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3557" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3557" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3557" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3558" s="27" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B3558" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3558" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3558" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3558" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3559" s="27" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B3559" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3559" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3559" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3559" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3560" s="27" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B3560" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3560" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3560" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3560" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3561" s="27" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B3561" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3561" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3561" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3561" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3562" s="27" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B3562" s="27" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C3562" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3562" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3562" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3563" s="28" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B3563" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3563" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3563" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3563" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3564" s="28" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B3564" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3564" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3564" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3564" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3565" s="28" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B3565" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3565" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3565" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3565" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3566" s="28" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B3566" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3566" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3566" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3566" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3567" s="28" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B3567" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3567" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3567" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3567" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3568" s="28" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B3568" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3568" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3568" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3568" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3569" s="28" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B3569" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3569" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3569" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3569" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3570" s="28" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B3570" s="28" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C3570" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3570" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3570" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3571" s="27" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B3571" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3571" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3571" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3571" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3572" s="27" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B3572" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3572" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3572" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3572" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3573" s="27" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B3573" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3573" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3573" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3573" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3574" s="27" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B3574" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3574" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3574" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3574" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3575" s="27" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B3575" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3575" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3575" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3575" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3576" s="27" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B3576" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3576" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3576" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3576" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3577" s="27" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B3577" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3577" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3577" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3577" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3578" s="27" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B3578" s="100" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3578" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3578" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3578" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3579" s="28" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B3579" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3579" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3579" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3579" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3580" s="28" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B3580" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3580" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3580" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3580" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3581" s="28" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B3581" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3581" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3581" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3581" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3582" s="28" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B3582" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3582" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3582" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3582" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3583" s="28" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B3583" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3583" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3583" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3583" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3584" s="28" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B3584" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3584" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3584" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3584" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3585" s="28" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B3585" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3585" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3585" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3585" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3586" s="28" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B3586" s="28" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C3586" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3586" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3586" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3587" s="27" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B3587" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3587" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3587" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3587" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3588" s="27" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B3588" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3588" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3588" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3588" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3589" s="27" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B3589" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3589" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3589" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3589" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3590" s="27" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B3590" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3590" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3590" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3590" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3591" s="27" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B3591" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3591" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3591" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3591" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3592" s="27" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B3592" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3592" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3592" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3592" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3593" s="27" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B3593" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3593" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3593" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3593" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3594" s="27" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B3594" s="27" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C3594" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3594" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3594" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3595" s="28" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B3595" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3595" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3595" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3595" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3596" s="28" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B3596" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3596" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3596" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3596" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3597" s="28" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B3597" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3597" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3597" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3597" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3598" s="28" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B3598" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3598" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3598" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3598" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3599" s="28" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B3599" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3599" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3599" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3599" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3600" s="28" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B3600" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3600" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3600" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3600" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3601" s="28" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B3601" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3601" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3601" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3601" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3602" s="28" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B3602" s="28" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C3602" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3602" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3602" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3603" s="27" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B3603" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3603" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3603" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3603" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3604" s="27" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B3604" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3604" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3604" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3604" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3605" s="27" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B3605" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3605" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3605" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3605" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3606" s="27" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B3606" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3606" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3606" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3606" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3607" s="27" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B3607" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3607" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3607" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3607" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3608" s="27" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B3608" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3608" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3608" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3608" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3609" s="27" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B3609" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3609" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3609" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3609" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3610" s="27" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B3610" s="27" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C3610" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3610" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3610" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3611" s="28" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B3611" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3611" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3611" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3611" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3612" s="28" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B3612" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3612" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3612" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3612" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3613" s="28" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B3613" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3613" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3613" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3613" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3614" s="28" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B3614" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3614" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3614" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3614" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3615" s="28" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B3615" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3615" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3615" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3615" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3616" s="28" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B3616" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3616" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3616" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3616" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3617" s="28" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B3617" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3617" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3617" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3617" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3618" s="28" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B3618" s="28" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C3618" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3618" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3618" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3619" s="27" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B3619" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3619" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3619" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3619" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3620" s="27" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B3620" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3620" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3620" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3620" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3621" s="27" t="s">
+        <v>4465</v>
+      </c>
+      <c r="B3621" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3621" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3621" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3621" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3622" s="27" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B3622" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3622" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3622" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3622" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3623" s="27" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B3623" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3623" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3623" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3623" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3624" s="27" t="s">
+        <v>4468</v>
+      </c>
+      <c r="B3624" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3624" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3624" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3624" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3625" s="27" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B3625" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3625" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3625" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3625" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3626" s="27" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B3626" s="27" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C3626" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3626" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3626" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3627" s="28" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B3627" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3627" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3627" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3627" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3628" s="28" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B3628" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3628" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3628" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3628" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3629" s="28" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B3629" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3629" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3629" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3629" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3630" s="28" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B3630" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3630" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3630" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3630" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3631" s="28" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B3631" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3631" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3631" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3631" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3632" s="28" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B3632" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3632" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3632" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3632" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3633" s="28" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B3633" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3633" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3633" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3633" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3634" s="28" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B3634" s="28" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C3634" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3634" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3634" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3635" s="27" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B3635" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3635" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3635" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3635" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3636" s="27" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B3636" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3636" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3636" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3636" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3637" s="27" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B3637" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3637" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3637" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3637" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3638" s="27" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B3638" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3638" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3638" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3638" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3639" s="27" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B3639" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3639" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3639" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3639" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3640" s="27" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B3640" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3640" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3640" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3640" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3641" s="27" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B3641" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3641" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3641" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3641" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3642" s="27" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B3642" s="27" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C3642" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3642" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3642" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3643" s="28" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B3643" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3643" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3643" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3643" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3644" s="28" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B3644" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3644" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3644" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3644" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3645" s="28" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B3645" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3645" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3645" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3645" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3646" s="28" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B3646" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3646" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3646" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3646" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3647" s="28" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B3647" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3647" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3647" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3647" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3648" s="28" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B3648" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3648" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3648" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3648" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3649" s="28" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B3649" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3649" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3649" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3649" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3650" s="28" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B3650" s="28" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C3650" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3650" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3650" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3651" s="27" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B3651" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3651" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3651" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3651" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3652" s="27" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B3652" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3652" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3652" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3652" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3653" s="27" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B3653" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3653" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3653" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3653" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3654" s="27" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B3654" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3654" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3654" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3654" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3655" s="27" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B3655" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3655" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3655" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3655" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3656" s="27" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B3656" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3656" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3656" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3656" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3657" s="27" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B3657" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3657" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3657" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3657" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3658" s="27" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B3658" s="27" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C3658" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3658" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3658" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3659" s="28" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B3659" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3659" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3659" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3659" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3660" s="28" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B3660" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3660" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3660" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3660" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3661" s="28" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B3661" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3661" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3661" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3661" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3662" s="28" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B3662" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3662" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3662" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3662" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3663" s="28" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B3663" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3663" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3663" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3663" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3664" s="28" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B3664" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3664" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3664" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3664" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3665" s="28" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B3665" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3665" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3665" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3665" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3666" s="28" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B3666" s="28" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C3666" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3666" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3666" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3667" s="27" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B3667" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3667" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3667" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3667" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3668" s="27" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B3668" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3668" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3668" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3668" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3669" s="27" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B3669" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3669" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3669" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3669" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3670" s="27" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B3670" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3670" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3670" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3670" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3671" s="27" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B3671" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3671" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3671" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3671" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3672" s="27" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B3672" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3672" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3672" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3672" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3673" s="27" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B3673" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3673" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3673" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3673" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3674" s="27" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B3674" s="27" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C3674" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3674" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3674" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3675" s="28" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B3675" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3675" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3675" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3675" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3676" s="28" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B3676" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3676" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3676" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3676" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3677" s="28" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B3677" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3677" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3677" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3677" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3678" s="28" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B3678" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3678" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3678" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3678" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3679" s="28" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B3679" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3679" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3679" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3679" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3680" s="28" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B3680" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3680" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3680" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3680" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3681" s="28" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B3681" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3681" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3681" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3681" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3682" s="28" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B3682" s="28" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C3682" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3682" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3682" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3683" s="27" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B3683" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3683" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3683" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3683" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3684" s="27" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B3684" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3684" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3684" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3684" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3685" s="27" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B3685" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3685" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3685" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3685" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3686" s="27" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B3686" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3686" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3686" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3686" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3687" s="27" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B3687" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3687" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3687" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3687" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3688" s="27" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B3688" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3688" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3688" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3688" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3689" s="27" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B3689" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3689" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3689" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3689" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3690" s="27" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B3690" s="27" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C3690" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3690" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3690" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3691" s="28" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B3691" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3691" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3691" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3691" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3692" s="28" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B3692" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3692" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3692" s="28" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3692" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3693" s="28" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B3693" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3693" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3693" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3693" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3694" s="28" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B3694" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3694" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3694" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3694" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3695" s="28" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B3695" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3695" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3695" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3695" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3696" s="28" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B3696" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3696" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3696" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3696" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3697" s="28" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B3697" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3697" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3697" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3697" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3698" s="28" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B3698" s="28" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C3698" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3698" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3698" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3699" s="27" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B3699" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3699" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3699" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3699" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3700" s="27" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B3700" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3700" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3700" s="27" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E3700" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3701" s="27" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B3701" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3701" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3701" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3701" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3702" s="27" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B3702" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3702" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3702" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3702" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3703" s="27" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B3703" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3703" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3703" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3703" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3704" s="27" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B3704" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3704" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3704" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3704" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3705" s="27" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B3705" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3705" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3705" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3705" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3706" s="27" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B3706" s="27" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C3706" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3706" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3706" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3707" s="28" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B3707" s="28" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C3707" s="101" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D3707" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3707" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3708" s="28" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B3708" s="28" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C3708" s="101" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D3708" s="28" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E3708" s="96">
         <v>1</v>
       </c>
     </row>
@@ -72765,7 +77255,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="27" manualBreakCount="27">
+  <rowBreaks count="29" manualBreakCount="29">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="16383" man="1"/>
     <brk id="493" max="16383" man="1"/>
@@ -72793,6 +77283,8 @@
     <brk id="3283" max="4" man="1"/>
     <brk id="3395" max="4" man="1"/>
     <brk id="3487" max="4" man="1"/>
+    <brk id="3586" max="4" man="1"/>
+    <brk id="3698" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13744" uniqueCount="4562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13748" uniqueCount="4564">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -13717,6 +13717,12 @@
   </si>
   <si>
     <t>DSS4702</t>
+  </si>
+  <si>
+    <t>DSS4703</t>
+  </si>
+  <si>
+    <t>Hassan Yasser Hassan Abdalla Gabr</t>
   </si>
 </sst>
 </file>
@@ -14553,7 +14559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14561,10 +14567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3708"/>
+  <dimension ref="A1:E3709"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3694" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="G3706" sqref="G3706"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3702" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3719" sqref="C3719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77243,6 +77249,23 @@
         <v>4559</v>
       </c>
       <c r="E3708" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3709" s="27" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B3709" s="27" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C3709" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3709" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3709" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3742</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3748</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13748" uniqueCount="4564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13856" uniqueCount="4599">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -13723,6 +13723,111 @@
   </si>
   <si>
     <t>Hassan Yasser Hassan Abdalla Gabr</t>
+  </si>
+  <si>
+    <t>Ali Ahmed Ali Mohamed</t>
+  </si>
+  <si>
+    <t>DSS4704</t>
+  </si>
+  <si>
+    <t>DSS4705</t>
+  </si>
+  <si>
+    <t>05-Nov-2020</t>
+  </si>
+  <si>
+    <t>01-Nov-2020</t>
+  </si>
+  <si>
+    <t>01-Nov-2025</t>
+  </si>
+  <si>
+    <t>Ahmed Gamal Elsayed Mohamed</t>
+  </si>
+  <si>
+    <t>SULTAN MUBARAK SAAD ALDAKHEEL</t>
+  </si>
+  <si>
+    <t>SAMEH OSAMA ELSAYED MOHAMED ABDELLATIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagy Essam Elsayed Zaki </t>
+  </si>
+  <si>
+    <t>DSS4706</t>
+  </si>
+  <si>
+    <t>DSS4707</t>
+  </si>
+  <si>
+    <t>DSS4708</t>
+  </si>
+  <si>
+    <t>DSS4709</t>
+  </si>
+  <si>
+    <t>DSS4710</t>
+  </si>
+  <si>
+    <t>DSS4711</t>
+  </si>
+  <si>
+    <t>DSS4712</t>
+  </si>
+  <si>
+    <t>DSS4713</t>
+  </si>
+  <si>
+    <t>DSS4714</t>
+  </si>
+  <si>
+    <t>DSS4715</t>
+  </si>
+  <si>
+    <t>DSS4716</t>
+  </si>
+  <si>
+    <t>DSS4717</t>
+  </si>
+  <si>
+    <t>DSS4718</t>
+  </si>
+  <si>
+    <t>DSS4719</t>
+  </si>
+  <si>
+    <t>DSS4720</t>
+  </si>
+  <si>
+    <t>DSS4721</t>
+  </si>
+  <si>
+    <t>DSS4722</t>
+  </si>
+  <si>
+    <t>DSS4723</t>
+  </si>
+  <si>
+    <t>DSS4724</t>
+  </si>
+  <si>
+    <t>DSS4725</t>
+  </si>
+  <si>
+    <t>DSS4726</t>
+  </si>
+  <si>
+    <t>DSS4727</t>
+  </si>
+  <si>
+    <t>DSS4728</t>
+  </si>
+  <si>
+    <t>DSS4729</t>
+  </si>
+  <si>
+    <t>DSS4730</t>
   </si>
 </sst>
 </file>
@@ -13977,7 +14082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -14282,6 +14387,9 @@
     <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14567,10 +14675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3709"/>
+  <dimension ref="A1:E3736"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3702" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3719" sqref="C3719"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3480" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3488" sqref="B3488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73506,7 +73614,7 @@
         <v>2</v>
       </c>
       <c r="D3488" s="27" t="s">
-        <v>4044</v>
+        <v>4335</v>
       </c>
       <c r="E3488" s="51">
         <v>1</v>
@@ -73523,23 +73631,23 @@
         <v>230</v>
       </c>
       <c r="D3489" s="27" t="s">
-        <v>4045</v>
+        <v>4335</v>
       </c>
       <c r="E3489" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="3490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3490" s="27" t="s">
+      <c r="A3490" s="52" t="s">
         <v>4304</v>
       </c>
-      <c r="B3490" s="27" t="s">
+      <c r="B3490" s="52" t="s">
         <v>4303</v>
       </c>
-      <c r="C3490" s="27" t="s">
+      <c r="C3490" s="52" t="s">
         <v>3859</v>
       </c>
-      <c r="D3490" s="27" t="s">
+      <c r="D3490" s="52" t="s">
         <v>3949</v>
       </c>
       <c r="E3490" s="96">
@@ -77110,7 +77218,7 @@
         <v>230</v>
       </c>
       <c r="D3700" s="27" t="s">
-        <v>4336</v>
+        <v>4569</v>
       </c>
       <c r="E3700" s="96">
         <v>1</v>
@@ -77266,6 +77374,465 @@
         <v>4342</v>
       </c>
       <c r="E3709" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3710" s="28" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B3710" s="28" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C3710" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3710" s="28" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E3710" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3711" s="28" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B3711" s="28" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C3711" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3711" s="28" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E3711" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3712" s="27" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B3712" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3712" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3712" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3712" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3713" s="27" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B3713" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3713" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3713" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3713" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3714" s="27" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B3714" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3714" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3714" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3714" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3715" s="27" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B3715" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3715" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3715" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3715" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3716" s="27" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B3716" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3716" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3716" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3716" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3717" s="27" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B3717" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3717" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3717" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3717" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3718" s="27" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B3718" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3718" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3718" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3718" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3719" s="27" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B3719" s="27" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C3719" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3719" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3719" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3720" s="28" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B3720" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3720" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3720" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3720" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3721" s="28" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B3721" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3721" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3721" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3721" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3722" s="28" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B3722" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3722" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3722" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3722" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3723" s="28" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B3723" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3723" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3723" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3723" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3724" s="28" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B3724" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3724" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3724" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3724" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3725" s="28" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B3725" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3725" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3725" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3725" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3726" s="28" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B3726" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3726" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3726" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3726" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3727" s="28" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B3727" s="28" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C3727" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3727" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3727" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3728" s="102" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B3728" s="102" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C3728" s="102" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D3728" s="52" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E3728" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3729" s="27" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B3729" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3729" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3729" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3729" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3730" s="27" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B3730" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3730" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3730" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3730" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3731" s="27" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B3731" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3731" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3731" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3731" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3732" s="27" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B3732" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3732" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3732" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3732" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3733" s="27" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B3733" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3733" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3733" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3733" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3734" s="27" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B3734" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3734" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3734" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3734" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3735" s="27" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B3735" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3735" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3735" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3735" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3736" s="27" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B3736" s="27" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C3736" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3736" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3736" s="96">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3748</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3801</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13856" uniqueCount="4599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13984" uniqueCount="4670">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -13828,6 +13828,219 @@
   </si>
   <si>
     <t>DSS4730</t>
+  </si>
+  <si>
+    <t>DSS4731</t>
+  </si>
+  <si>
+    <t>DSS4732</t>
+  </si>
+  <si>
+    <t>DSS4733</t>
+  </si>
+  <si>
+    <t>DSS4734</t>
+  </si>
+  <si>
+    <t>DSS4735</t>
+  </si>
+  <si>
+    <t>DSS4736</t>
+  </si>
+  <si>
+    <t>DSS4737</t>
+  </si>
+  <si>
+    <t>DSS4738</t>
+  </si>
+  <si>
+    <t>DSS4739</t>
+  </si>
+  <si>
+    <t>DSS4740</t>
+  </si>
+  <si>
+    <t>DSS4741</t>
+  </si>
+  <si>
+    <t>DSS4742</t>
+  </si>
+  <si>
+    <t>DSS4743</t>
+  </si>
+  <si>
+    <t>DSS4744</t>
+  </si>
+  <si>
+    <t>DSS4745</t>
+  </si>
+  <si>
+    <t>DSS4746</t>
+  </si>
+  <si>
+    <t>DSS4747</t>
+  </si>
+  <si>
+    <t>DSS4748</t>
+  </si>
+  <si>
+    <t>DSS4749</t>
+  </si>
+  <si>
+    <t>DSS4750</t>
+  </si>
+  <si>
+    <t>DSS4751</t>
+  </si>
+  <si>
+    <t>DSS4752</t>
+  </si>
+  <si>
+    <t>DSS4753</t>
+  </si>
+  <si>
+    <t>DSS4754</t>
+  </si>
+  <si>
+    <t>DSS4755</t>
+  </si>
+  <si>
+    <t>DSS4756</t>
+  </si>
+  <si>
+    <t>DSS4757</t>
+  </si>
+  <si>
+    <t>DSS4758</t>
+  </si>
+  <si>
+    <t>DSS4759</t>
+  </si>
+  <si>
+    <t>DSS4760</t>
+  </si>
+  <si>
+    <t>DSS4761</t>
+  </si>
+  <si>
+    <t>DSS4762</t>
+  </si>
+  <si>
+    <t>DSS4763</t>
+  </si>
+  <si>
+    <t>DSS4764</t>
+  </si>
+  <si>
+    <t>DSS4765</t>
+  </si>
+  <si>
+    <t>DSS4766</t>
+  </si>
+  <si>
+    <t>DSS4767</t>
+  </si>
+  <si>
+    <t>DSS4768</t>
+  </si>
+  <si>
+    <t>DSS4769</t>
+  </si>
+  <si>
+    <t>DSS4770</t>
+  </si>
+  <si>
+    <t>DSS4771</t>
+  </si>
+  <si>
+    <t>DSS4772</t>
+  </si>
+  <si>
+    <t>DSS4773</t>
+  </si>
+  <si>
+    <t>DSS4774</t>
+  </si>
+  <si>
+    <t>DSS4775</t>
+  </si>
+  <si>
+    <t>DSS4776</t>
+  </si>
+  <si>
+    <t>DSS4777</t>
+  </si>
+  <si>
+    <t>DSS4778</t>
+  </si>
+  <si>
+    <t>DSS4779</t>
+  </si>
+  <si>
+    <t>DSS4780</t>
+  </si>
+  <si>
+    <t>DSS4781</t>
+  </si>
+  <si>
+    <t>DSS4782</t>
+  </si>
+  <si>
+    <t>DSS4783</t>
+  </si>
+  <si>
+    <t>DSS4784</t>
+  </si>
+  <si>
+    <t>DSS4785</t>
+  </si>
+  <si>
+    <t>DSS4786</t>
+  </si>
+  <si>
+    <t>DSS4787</t>
+  </si>
+  <si>
+    <t>DSS4788</t>
+  </si>
+  <si>
+    <t>DSS4789</t>
+  </si>
+  <si>
+    <t>DSS4790</t>
+  </si>
+  <si>
+    <t>DSS4791</t>
+  </si>
+  <si>
+    <t>DSS4792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Talaat Mahmoud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMED MAHMOUD HUSSEIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMED ADEL ABDELATI </t>
+  </si>
+  <si>
+    <t>Ali Ahmed Mohamed</t>
+  </si>
+  <si>
+    <t>Mahmoud Reyad Kouta</t>
+  </si>
+  <si>
+    <t>Mutasem Abdu Radman Ahmed</t>
+  </si>
+  <si>
+    <t>09-Oct-2025</t>
+  </si>
+  <si>
+    <t>Nagy Mohamed Mohamed Elsayed</t>
+  </si>
+  <si>
+    <t>Al-Desouki Nabil Al-Desouki Abu Al-Maati</t>
   </si>
 </sst>
 </file>
@@ -14667,7 +14880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14675,10 +14888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3736"/>
+  <dimension ref="A1:E3798"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3480" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3488" sqref="B3488"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3741" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3756" sqref="C3756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75014,7 +75227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3571" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3571" s="27" t="s">
         <v>4415</v>
       </c>
@@ -75031,7 +75244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3572" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3572" s="27" t="s">
         <v>4416</v>
       </c>
@@ -75048,7 +75261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3573" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3573" s="27" t="s">
         <v>4417</v>
       </c>
@@ -75065,7 +75278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3574" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3574" s="27" t="s">
         <v>4418</v>
       </c>
@@ -75082,7 +75295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3575" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3575" s="27" t="s">
         <v>4419</v>
       </c>
@@ -75099,7 +75312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3576" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3576" s="27" t="s">
         <v>4420</v>
       </c>
@@ -75116,7 +75329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3577" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3577" s="27" t="s">
         <v>4421</v>
       </c>
@@ -75133,7 +75346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3578" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3578" s="27" t="s">
         <v>4422</v>
       </c>
@@ -77834,6 +78047,580 @@
       </c>
       <c r="E3736" s="96">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3737" s="40" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B3737" s="40" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C3737" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3737" s="40" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E3737" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3738" s="40" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B3738" s="40" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C3738" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3738" s="40" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E3738" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3739" s="40" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B3739" s="40" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C3739" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3739" s="40" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E3739" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3740" s="40" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B3740" s="40" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3740" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3740" s="40" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E3740" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3741" s="40" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B3741" s="40" t="s">
+        <v>4663</v>
+      </c>
+      <c r="C3741" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3741" s="40" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E3741" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3742" s="40" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B3742" s="40" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C3742" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3742" s="40" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E3742" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3743" s="27" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B3743" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3743" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3743" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3743" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3744" s="27" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B3744" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3744" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3744" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3744" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3745" s="27" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B3745" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3745" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3745" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3745" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3746" s="27" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B3746" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3746" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3746" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3746" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3747" s="27" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B3747" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3747" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3747" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3747" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3748" s="27" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B3748" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3748" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3748" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3748" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3749" s="27" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B3749" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3749" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3749" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3749" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3750" s="27" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B3750" s="27" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C3750" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3750" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3750" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3751" s="28" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B3751" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3751" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3751" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3751" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3752" s="28" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B3752" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3752" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3752" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3752" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3753" s="28" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B3753" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3753" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3753" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3753" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3754" s="28" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B3754" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3754" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3754" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3754" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3755" s="28" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B3755" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3755" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3755" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3755" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3756" s="28" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B3756" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3756" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3756" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3756" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3757" s="28" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B3757" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3757" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3757" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3757" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3758" s="28" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B3758" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C3758" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3758" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3758" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3759" s="27" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3760" s="27" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3761" s="27" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3762" s="27" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3763" s="27" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3764" s="27" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3765" s="27" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3766" s="27" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3767" s="27" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3768" s="27" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3769" s="27" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3770" s="27" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3771" s="27" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3772" s="27" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3773" s="27" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3774" s="27" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3775" s="27" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3776" s="27" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3777" s="27" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3778" s="27" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3779" s="27" t="s">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3780" s="27" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3781" s="27" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3782" s="27" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3783" s="27" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3784" s="27" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3785" s="27" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3786" s="27" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3787" s="27" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3788" s="27" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3789" s="27" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3790" s="27" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3791" s="27" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3792" s="27" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3793" s="27" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3794" s="27" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3795" s="27" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3796" s="27" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3797" s="27" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3798" s="27" t="s">
+        <v>4660</v>
       </c>
     </row>
   </sheetData>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13984" uniqueCount="4670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14040" uniqueCount="4657">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -13968,54 +13968,6 @@
     <t>DSS4776</t>
   </si>
   <si>
-    <t>DSS4777</t>
-  </si>
-  <si>
-    <t>DSS4778</t>
-  </si>
-  <si>
-    <t>DSS4779</t>
-  </si>
-  <si>
-    <t>DSS4780</t>
-  </si>
-  <si>
-    <t>DSS4781</t>
-  </si>
-  <si>
-    <t>DSS4782</t>
-  </si>
-  <si>
-    <t>DSS4783</t>
-  </si>
-  <si>
-    <t>DSS4784</t>
-  </si>
-  <si>
-    <t>DSS4785</t>
-  </si>
-  <si>
-    <t>DSS4786</t>
-  </si>
-  <si>
-    <t>DSS4787</t>
-  </si>
-  <si>
-    <t>DSS4788</t>
-  </si>
-  <si>
-    <t>DSS4789</t>
-  </si>
-  <si>
-    <t>DSS4790</t>
-  </si>
-  <si>
-    <t>DSS4791</t>
-  </si>
-  <si>
-    <t>DSS4792</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mohamed Talaat Mahmoud </t>
   </si>
   <si>
@@ -14041,6 +13993,15 @@
   </si>
   <si>
     <t>Al-Desouki Nabil Al-Desouki Abu Al-Maati</t>
+  </si>
+  <si>
+    <t>MOAAZ ABDEL MOAMEN SALAHELDIN SEDDIK</t>
+  </si>
+  <si>
+    <t>YOUNES ZAIN YOUNS KHEDR</t>
+  </si>
+  <si>
+    <t>HAMZA MOHAMED ALTAHIR ABBAS</t>
   </si>
 </sst>
 </file>
@@ -14880,7 +14841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14888,10 +14849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3798"/>
+  <dimension ref="A1:E3782"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3741" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3756" sqref="C3756"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3776" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3789" sqref="B3789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78054,15 +78015,15 @@
         <v>4599</v>
       </c>
       <c r="B3737" s="40" t="s">
-        <v>4661</v>
+        <v>4645</v>
       </c>
       <c r="C3737" s="40" t="s">
         <v>534</v>
       </c>
       <c r="D3737" s="40" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E3737" s="51">
+        <v>4651</v>
+      </c>
+      <c r="E3737" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78071,15 +78032,15 @@
         <v>4600</v>
       </c>
       <c r="B3738" s="40" t="s">
-        <v>4664</v>
+        <v>4648</v>
       </c>
       <c r="C3738" s="40" t="s">
         <v>534</v>
       </c>
       <c r="D3738" s="40" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E3738" s="51">
+        <v>4651</v>
+      </c>
+      <c r="E3738" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78088,15 +78049,15 @@
         <v>4601</v>
       </c>
       <c r="B3739" s="40" t="s">
-        <v>4662</v>
+        <v>4646</v>
       </c>
       <c r="C3739" s="40" t="s">
         <v>534</v>
       </c>
       <c r="D3739" s="40" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E3739" s="51">
+        <v>4651</v>
+      </c>
+      <c r="E3739" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78105,15 +78066,15 @@
         <v>4602</v>
       </c>
       <c r="B3740" s="40" t="s">
-        <v>4665</v>
+        <v>4649</v>
       </c>
       <c r="C3740" s="40" t="s">
         <v>534</v>
       </c>
       <c r="D3740" s="40" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E3740" s="51">
+        <v>4651</v>
+      </c>
+      <c r="E3740" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78122,15 +78083,15 @@
         <v>4603</v>
       </c>
       <c r="B3741" s="40" t="s">
-        <v>4663</v>
+        <v>4647</v>
       </c>
       <c r="C3741" s="40" t="s">
         <v>534</v>
       </c>
       <c r="D3741" s="40" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E3741" s="51">
+        <v>4651</v>
+      </c>
+      <c r="E3741" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78139,15 +78100,15 @@
         <v>4604</v>
       </c>
       <c r="B3742" s="40" t="s">
-        <v>4666</v>
+        <v>4650</v>
       </c>
       <c r="C3742" s="40" t="s">
         <v>534</v>
       </c>
       <c r="D3742" s="40" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E3742" s="51">
+        <v>4651</v>
+      </c>
+      <c r="E3742" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78156,7 +78117,7 @@
         <v>4605</v>
       </c>
       <c r="B3743" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3743" s="27" t="s">
         <v>2</v>
@@ -78164,7 +78125,7 @@
       <c r="D3743" s="27" t="s">
         <v>4335</v>
       </c>
-      <c r="E3743" s="51">
+      <c r="E3743" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78173,7 +78134,7 @@
         <v>4606</v>
       </c>
       <c r="B3744" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3744" s="27" t="s">
         <v>230</v>
@@ -78181,7 +78142,7 @@
       <c r="D3744" s="27" t="s">
         <v>4569</v>
       </c>
-      <c r="E3744" s="51">
+      <c r="E3744" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78190,7 +78151,7 @@
         <v>4607</v>
       </c>
       <c r="B3745" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3745" s="27" t="s">
         <v>952</v>
@@ -78198,7 +78159,7 @@
       <c r="D3745" s="27" t="s">
         <v>4337</v>
       </c>
-      <c r="E3745" s="51">
+      <c r="E3745" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78207,7 +78168,7 @@
         <v>4608</v>
       </c>
       <c r="B3746" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3746" s="27" t="s">
         <v>3859</v>
@@ -78215,7 +78176,7 @@
       <c r="D3746" s="27" t="s">
         <v>4338</v>
       </c>
-      <c r="E3746" s="51">
+      <c r="E3746" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78224,7 +78185,7 @@
         <v>4609</v>
       </c>
       <c r="B3747" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3747" s="27" t="s">
         <v>247</v>
@@ -78232,7 +78193,7 @@
       <c r="D3747" s="27" t="s">
         <v>4339</v>
       </c>
-      <c r="E3747" s="51">
+      <c r="E3747" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78241,7 +78202,7 @@
         <v>4610</v>
       </c>
       <c r="B3748" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3748" s="27" t="s">
         <v>263</v>
@@ -78249,7 +78210,7 @@
       <c r="D3748" s="27" t="s">
         <v>4340</v>
       </c>
-      <c r="E3748" s="51">
+      <c r="E3748" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78258,7 +78219,7 @@
         <v>4611</v>
       </c>
       <c r="B3749" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3749" s="27" t="s">
         <v>252</v>
@@ -78266,7 +78227,7 @@
       <c r="D3749" s="27" t="s">
         <v>4341</v>
       </c>
-      <c r="E3749" s="51">
+      <c r="E3749" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78275,7 +78236,7 @@
         <v>4612</v>
       </c>
       <c r="B3750" s="27" t="s">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="C3750" s="27" t="s">
         <v>231</v>
@@ -78283,7 +78244,7 @@
       <c r="D3750" s="27" t="s">
         <v>4342</v>
       </c>
-      <c r="E3750" s="51">
+      <c r="E3750" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78292,7 +78253,7 @@
         <v>4613</v>
       </c>
       <c r="B3751" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3751" s="28" t="s">
         <v>2</v>
@@ -78300,7 +78261,7 @@
       <c r="D3751" s="28" t="s">
         <v>4335</v>
       </c>
-      <c r="E3751" s="51">
+      <c r="E3751" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78309,7 +78270,7 @@
         <v>4614</v>
       </c>
       <c r="B3752" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3752" s="28" t="s">
         <v>230</v>
@@ -78317,7 +78278,7 @@
       <c r="D3752" s="28" t="s">
         <v>4569</v>
       </c>
-      <c r="E3752" s="51">
+      <c r="E3752" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78326,7 +78287,7 @@
         <v>4615</v>
       </c>
       <c r="B3753" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3753" s="28" t="s">
         <v>952</v>
@@ -78334,7 +78295,7 @@
       <c r="D3753" s="28" t="s">
         <v>4337</v>
       </c>
-      <c r="E3753" s="51">
+      <c r="E3753" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78343,7 +78304,7 @@
         <v>4616</v>
       </c>
       <c r="B3754" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3754" s="28" t="s">
         <v>3859</v>
@@ -78351,7 +78312,7 @@
       <c r="D3754" s="28" t="s">
         <v>4338</v>
       </c>
-      <c r="E3754" s="51">
+      <c r="E3754" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78360,7 +78321,7 @@
         <v>4617</v>
       </c>
       <c r="B3755" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3755" s="28" t="s">
         <v>247</v>
@@ -78368,7 +78329,7 @@
       <c r="D3755" s="28" t="s">
         <v>4339</v>
       </c>
-      <c r="E3755" s="51">
+      <c r="E3755" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78377,7 +78338,7 @@
         <v>4618</v>
       </c>
       <c r="B3756" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3756" s="28" t="s">
         <v>263</v>
@@ -78385,7 +78346,7 @@
       <c r="D3756" s="28" t="s">
         <v>4340</v>
       </c>
-      <c r="E3756" s="51">
+      <c r="E3756" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78394,7 +78355,7 @@
         <v>4619</v>
       </c>
       <c r="B3757" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3757" s="28" t="s">
         <v>252</v>
@@ -78402,7 +78363,7 @@
       <c r="D3757" s="28" t="s">
         <v>4341</v>
       </c>
-      <c r="E3757" s="51">
+      <c r="E3757" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78411,7 +78372,7 @@
         <v>4620</v>
       </c>
       <c r="B3758" s="28" t="s">
-        <v>4669</v>
+        <v>4653</v>
       </c>
       <c r="C3758" s="28" t="s">
         <v>231</v>
@@ -78419,7 +78380,7 @@
       <c r="D3758" s="28" t="s">
         <v>4342</v>
       </c>
-      <c r="E3758" s="51">
+      <c r="E3758" s="96">
         <v>1</v>
       </c>
     </row>
@@ -78427,200 +78388,408 @@
       <c r="A3759" s="27" t="s">
         <v>4621</v>
       </c>
+      <c r="B3759" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3759" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3759" s="27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3759" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="3760" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3760" s="27" t="s">
         <v>4622</v>
       </c>
-    </row>
-    <row r="3761" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3760" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3760" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3760" s="27" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3760" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3761" s="27" t="s">
         <v>4623</v>
       </c>
-    </row>
-    <row r="3762" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3761" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3761" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3761" s="27" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3761" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3762" s="27" t="s">
         <v>4624</v>
       </c>
-    </row>
-    <row r="3763" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3762" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3762" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3762" s="27" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3762" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3763" s="27" t="s">
         <v>4625</v>
       </c>
-    </row>
-    <row r="3764" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3763" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3763" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3763" s="27" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3763" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3764" s="27" t="s">
         <v>4626</v>
       </c>
-    </row>
-    <row r="3765" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3764" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3764" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3764" s="27" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3764" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3765" s="27" t="s">
         <v>4627</v>
       </c>
-    </row>
-    <row r="3766" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3765" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3765" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3765" s="27" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3765" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3766" s="27" t="s">
         <v>4628</v>
       </c>
-    </row>
-    <row r="3767" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3767" s="27" t="s">
+      <c r="B3766" s="27" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C3766" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3766" s="27" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3766" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3767" s="28" t="s">
         <v>4629</v>
       </c>
-    </row>
-    <row r="3768" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3768" s="27" t="s">
+      <c r="B3767" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3767" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3767" s="28" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3767" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3768" s="28" t="s">
         <v>4630</v>
       </c>
-    </row>
-    <row r="3769" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3769" s="27" t="s">
+      <c r="B3768" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3768" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3768" s="28" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3768" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3769" s="28" t="s">
         <v>4631</v>
       </c>
-    </row>
-    <row r="3770" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3770" s="27" t="s">
+      <c r="B3769" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3769" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3769" s="28" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3769" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3770" s="28" t="s">
         <v>4632</v>
       </c>
-    </row>
-    <row r="3771" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3771" s="27" t="s">
+      <c r="B3770" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3770" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3770" s="28" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3770" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3771" s="28" t="s">
         <v>4633</v>
       </c>
-    </row>
-    <row r="3772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3772" s="27" t="s">
+      <c r="B3771" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3771" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3771" s="28" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3771" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3772" s="28" t="s">
         <v>4634</v>
       </c>
-    </row>
-    <row r="3773" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3773" s="27" t="s">
+      <c r="B3772" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3772" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3772" s="28" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3772" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3773" s="28" t="s">
         <v>4635</v>
       </c>
-    </row>
-    <row r="3774" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3774" s="27" t="s">
+      <c r="B3773" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3773" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3773" s="28" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3773" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3774" s="28" t="s">
         <v>4636</v>
       </c>
-    </row>
-    <row r="3775" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3774" s="28" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C3774" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3774" s="28" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3774" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3775" s="27" t="s">
         <v>4637</v>
       </c>
-    </row>
-    <row r="3776" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3775" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3775" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3775" s="27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E3775" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3776" s="27" t="s">
         <v>4638</v>
       </c>
-    </row>
-    <row r="3777" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3776" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3776" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3776" s="27" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E3776" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3777" s="27" t="s">
         <v>4639</v>
       </c>
-    </row>
-    <row r="3778" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3777" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3777" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3777" s="27" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E3777" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3778" s="27" t="s">
         <v>4640</v>
       </c>
-    </row>
-    <row r="3779" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3778" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3778" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3778" s="27" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E3778" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3779" s="27" t="s">
         <v>4641</v>
       </c>
-    </row>
-    <row r="3780" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3779" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3779" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3779" s="27" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E3779" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3780" s="27" t="s">
         <v>4642</v>
       </c>
-    </row>
-    <row r="3781" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3780" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3780" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3780" s="27" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E3780" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3781" s="27" t="s">
         <v>4643</v>
       </c>
-    </row>
-    <row r="3782" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3781" s="27" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C3781" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3781" s="27" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E3781" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3782" s="27" t="s">
         <v>4644</v>
       </c>
-    </row>
-    <row r="3783" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3783" s="27" t="s">
-        <v>4645</v>
-      </c>
-    </row>
-    <row r="3784" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3784" s="27" t="s">
-        <v>4646</v>
-      </c>
-    </row>
-    <row r="3785" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3785" s="27" t="s">
-        <v>4647</v>
-      </c>
-    </row>
-    <row r="3786" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3786" s="27" t="s">
-        <v>4648</v>
-      </c>
-    </row>
-    <row r="3787" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3787" s="27" t="s">
-        <v>4649</v>
-      </c>
-    </row>
-    <row r="3788" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3788" s="27" t="s">
-        <v>4650</v>
-      </c>
-    </row>
-    <row r="3789" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3789" s="27" t="s">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="3790" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3790" s="27" t="s">
-        <v>4652</v>
-      </c>
-    </row>
-    <row r="3791" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3791" s="27" t="s">
-        <v>4653</v>
-      </c>
-    </row>
-    <row r="3792" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3792" s="27" t="s">
-        <v>4654</v>
-      </c>
-    </row>
-    <row r="3793" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3793" s="27" t="s">
-        <v>4655</v>
-      </c>
-    </row>
-    <row r="3794" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3794" s="27" t="s">
+      <c r="B3782" s="27" t="s">
         <v>4656</v>
       </c>
-    </row>
-    <row r="3795" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3795" s="27" t="s">
-        <v>4657</v>
-      </c>
-    </row>
-    <row r="3796" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3796" s="27" t="s">
-        <v>4658</v>
-      </c>
-    </row>
-    <row r="3797" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3797" s="27" t="s">
-        <v>4659</v>
-      </c>
-    </row>
-    <row r="3798" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3798" s="27" t="s">
-        <v>4660</v>
+      <c r="C3782" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3782" s="27" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E3782" s="96">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14040" uniqueCount="4657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14044" uniqueCount="4659">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14002,6 +14002,12 @@
   </si>
   <si>
     <t>HAMZA MOHAMED ALTAHIR ABBAS</t>
+  </si>
+  <si>
+    <t>DSS4777</t>
+  </si>
+  <si>
+    <t>08-Nov-2025</t>
   </si>
 </sst>
 </file>
@@ -14841,7 +14847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14849,10 +14855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3782"/>
+  <dimension ref="A1:E3783"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3776" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3789" sqref="B3789"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3713" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3730" sqref="C3730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78789,6 +78795,23 @@
         <v>4050</v>
       </c>
       <c r="E3782" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3783" s="27" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B3783" s="27" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C3783" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3783" s="27" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E3783" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14044" uniqueCount="4659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14047" uniqueCount="4661">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14008,6 +14008,12 @@
   </si>
   <si>
     <t>08-Nov-2025</t>
+  </si>
+  <si>
+    <t>Karim Knawy Abd Elazim</t>
+  </si>
+  <si>
+    <t>DSS4778</t>
   </si>
 </sst>
 </file>
@@ -14262,7 +14268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -14570,6 +14576,9 @@
     <xf numFmtId="14" fontId="12" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14855,10 +14864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3783"/>
+  <dimension ref="A1:E3784"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3713" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3730" sqref="C3730"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3776" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3790" sqref="C3790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78799,19 +78808,36 @@
       </c>
     </row>
     <row r="3783" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3783" s="27" t="s">
+      <c r="A3783" s="28" t="s">
         <v>4657</v>
       </c>
-      <c r="B3783" s="27" t="s">
+      <c r="B3783" s="28" t="s">
         <v>4563</v>
       </c>
-      <c r="C3783" s="27" t="s">
+      <c r="C3783" s="28" t="s">
         <v>3859</v>
       </c>
-      <c r="D3783" s="27" t="s">
+      <c r="D3783" s="28" t="s">
         <v>4658</v>
       </c>
       <c r="E3783" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3784" s="40" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B3784" s="40" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C3784" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3784" s="103">
+        <v>45974</v>
+      </c>
+      <c r="E3784" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14047" uniqueCount="4661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14055" uniqueCount="4665">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14014,6 +14014,18 @@
   </si>
   <si>
     <t>DSS4778</t>
+  </si>
+  <si>
+    <t>Mohamed Abdel Fattah Bassiouni Hashem</t>
+  </si>
+  <si>
+    <t>DSS4779</t>
+  </si>
+  <si>
+    <t>DSS4780</t>
+  </si>
+  <si>
+    <t>13-Nov-2025</t>
   </si>
 </sst>
 </file>
@@ -14856,7 +14868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14864,10 +14876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3784"/>
+  <dimension ref="A1:E3786"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3776" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3790" sqref="C3790"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3779" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3789" sqref="C3789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78838,6 +78850,40 @@
         <v>45974</v>
       </c>
       <c r="E3784" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3785" s="27" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B3785" s="27" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C3785" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3785" s="27" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3785" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3786" s="27" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B3786" s="27" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C3786" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3786" s="27" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3786" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14055" uniqueCount="4665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14087" uniqueCount="4674">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14026,6 +14026,33 @@
   </si>
   <si>
     <t>13-Nov-2025</t>
+  </si>
+  <si>
+    <t>JASAM MEELOUD AHMED ALMAJDOUB</t>
+  </si>
+  <si>
+    <t>DSS4781</t>
+  </si>
+  <si>
+    <t>DSS4782</t>
+  </si>
+  <si>
+    <t>DSS4783</t>
+  </si>
+  <si>
+    <t>DSS4784</t>
+  </si>
+  <si>
+    <t>DSS4785</t>
+  </si>
+  <si>
+    <t>DSS4786</t>
+  </si>
+  <si>
+    <t>DSS4787</t>
+  </si>
+  <si>
+    <t>DSS4788</t>
   </si>
 </sst>
 </file>
@@ -14868,7 +14895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14876,10 +14903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3786"/>
+  <dimension ref="A1:E3794"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3779" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3789" sqref="C3789"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3785" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3802" sqref="C3802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78884,6 +78911,142 @@
         <v>4664</v>
       </c>
       <c r="E3786" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3787" s="28" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B3787" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3787" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3787" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3787" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3788" s="28" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B3788" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3788" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3788" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3788" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3789" s="28" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B3789" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3789" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3789" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3789" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3790" s="28" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B3790" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3790" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3790" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3790" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3791" s="28" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B3791" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3791" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3791" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3791" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3792" s="28" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B3792" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3792" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3792" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3792" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3793" s="28" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B3793" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3793" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3793" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3793" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3794" s="28" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B3794" s="28" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C3794" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3794" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3794" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14087" uniqueCount="4674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="4679">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14053,6 +14053,21 @@
   </si>
   <si>
     <t>DSS4788</t>
+  </si>
+  <si>
+    <t>KARIM TARIQ ALI KHALED</t>
+  </si>
+  <si>
+    <t>14-Nov-2024</t>
+  </si>
+  <si>
+    <t>18-Nov-2025</t>
+  </si>
+  <si>
+    <t>DSS4789</t>
+  </si>
+  <si>
+    <t>DSS4790</t>
   </si>
 </sst>
 </file>
@@ -14903,10 +14918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3794"/>
+  <dimension ref="A1:E3796"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3785" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3802" sqref="C3802"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3782" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3799" sqref="C3799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79047,6 +79062,40 @@
         <v>4342</v>
       </c>
       <c r="E3794" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3795" s="27" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B3795" s="27" t="s">
+        <v>4674</v>
+      </c>
+      <c r="C3795" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3795" s="27" t="s">
+        <v>4675</v>
+      </c>
+      <c r="E3795" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3796" s="27" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B3796" s="27" t="s">
+        <v>4674</v>
+      </c>
+      <c r="C3796" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3796" s="27" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E3796" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3801</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3812</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="4679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14111" uniqueCount="4686">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14068,6 +14068,27 @@
   </si>
   <si>
     <t>DSS4790</t>
+  </si>
+  <si>
+    <t>MAHMOUD ABDELBASSET MOHAMED MOUHRAN</t>
+  </si>
+  <si>
+    <t>14-Nov-2026</t>
+  </si>
+  <si>
+    <t>30-Oct-2025</t>
+  </si>
+  <si>
+    <t>DSS4791</t>
+  </si>
+  <si>
+    <t>DSS4792</t>
+  </si>
+  <si>
+    <t>DSS4793</t>
+  </si>
+  <si>
+    <t>DSS4794</t>
   </si>
 </sst>
 </file>
@@ -14910,7 +14931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14918,10 +14939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3796"/>
+  <dimension ref="A1:E3800"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3782" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3799" sqref="C3799"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3788" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3800" sqref="C3800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79096,6 +79117,74 @@
         <v>4676</v>
       </c>
       <c r="E3796" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3797" s="28" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B3797" s="28" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C3797" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3797" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3797" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3798" s="28" t="s">
+        <v>4683</v>
+      </c>
+      <c r="B3798" s="28" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C3798" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3798" s="28" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E3798" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3799" s="28" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B3799" s="28" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C3799" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3799" s="28" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E3799" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3800" s="28" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B3800" s="28" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C3800" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3800" s="28" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E3800" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3812</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3824</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14111" uniqueCount="4686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14163" uniqueCount="4704">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14073,7 +14073,7 @@
     <t>MAHMOUD ABDELBASSET MOHAMED MOUHRAN</t>
   </si>
   <si>
-    <t>14-Nov-2026</t>
+    <t>14-Nov-2025</t>
   </si>
   <si>
     <t>30-Oct-2025</t>
@@ -14089,6 +14089,60 @@
   </si>
   <si>
     <t>DSS4794</t>
+  </si>
+  <si>
+    <t>DSS4795</t>
+  </si>
+  <si>
+    <t>DSS4796</t>
+  </si>
+  <si>
+    <t>DSS4797</t>
+  </si>
+  <si>
+    <t>DSS4798</t>
+  </si>
+  <si>
+    <t>DSS4799</t>
+  </si>
+  <si>
+    <t>DSS4800</t>
+  </si>
+  <si>
+    <t>DSS4801</t>
+  </si>
+  <si>
+    <t>DSS4802</t>
+  </si>
+  <si>
+    <t>DSS4803</t>
+  </si>
+  <si>
+    <t>DSS4804</t>
+  </si>
+  <si>
+    <t>DSS4805</t>
+  </si>
+  <si>
+    <t>DSS4806</t>
+  </si>
+  <si>
+    <t>DSS4807</t>
+  </si>
+  <si>
+    <t>Mohamed Khalaf Allah Mohamed Khalaf Allah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed Abdul Hamid El-Sayed </t>
+  </si>
+  <si>
+    <t>SAMEH OSAMA ELSAYED MOHAMED</t>
+  </si>
+  <si>
+    <t>Hamada Kamal Ahmad Kaml</t>
+  </si>
+  <si>
+    <t>MOSTAFA ABD ELALEEM NADA</t>
   </si>
 </sst>
 </file>
@@ -14931,7 +14985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14939,10 +14993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3800"/>
+  <dimension ref="A1:E3813"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3788" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3800" sqref="C3800"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3799" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3817" sqref="C3817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79185,6 +79239,227 @@
         <v>4676</v>
       </c>
       <c r="E3800" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3801" s="40" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B3801" s="40" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C3801" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3801" s="40" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3801" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3802" s="40" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B3802" s="40" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C3802" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3802" s="40" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3802" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3803" s="40" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B3803" s="40" t="s">
+        <v>4702</v>
+      </c>
+      <c r="C3803" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3803" s="40" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3803" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3804" s="40" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B3804" s="40" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C3804" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3804" s="40" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3804" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3805" s="28" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B3805" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3805" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3805" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3805" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3806" s="28" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B3806" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3806" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3806" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3806" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3807" s="28" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B3807" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3807" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3807" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3807" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3808" s="28" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B3808" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3808" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3808" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3808" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3809" s="28" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B3809" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3809" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3809" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3809" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3810" s="28" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B3810" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3810" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3810" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3810" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3811" s="28" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B3811" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3811" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3811" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3811" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3812" s="28" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B3812" s="28" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C3812" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3812" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3812" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3813" s="40" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B3813" s="40" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C3813" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3813" s="40" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E3813" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3824</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3837</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14163" uniqueCount="4704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14227" uniqueCount="4722">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14143,6 +14143,60 @@
   </si>
   <si>
     <t>MOSTAFA ABD ELALEEM NADA</t>
+  </si>
+  <si>
+    <t>Abdallah Hassan Abdallah Hawas</t>
+  </si>
+  <si>
+    <t>DSS4808</t>
+  </si>
+  <si>
+    <t>DSS4809</t>
+  </si>
+  <si>
+    <t>DSS4810</t>
+  </si>
+  <si>
+    <t>DSS4811</t>
+  </si>
+  <si>
+    <t>DSS4812</t>
+  </si>
+  <si>
+    <t>DSS4813</t>
+  </si>
+  <si>
+    <t>DSS4814</t>
+  </si>
+  <si>
+    <t>DSS4815</t>
+  </si>
+  <si>
+    <t>Ali Said Ali Morsy</t>
+  </si>
+  <si>
+    <t>DSS4816</t>
+  </si>
+  <si>
+    <t>DSS4817</t>
+  </si>
+  <si>
+    <t>DSS4818</t>
+  </si>
+  <si>
+    <t>DSS4819</t>
+  </si>
+  <si>
+    <t>DSS4820</t>
+  </si>
+  <si>
+    <t>DSS4821</t>
+  </si>
+  <si>
+    <t>DSS4822</t>
+  </si>
+  <si>
+    <t>DSS4823</t>
   </si>
 </sst>
 </file>
@@ -14243,7 +14297,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14313,6 +14367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14397,7 +14457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -14708,6 +14768,12 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14985,7 +15051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14993,10 +15059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3813"/>
+  <dimension ref="A1:E3829"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3799" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3817" sqref="C3817"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3817" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3832" sqref="C3832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79460,6 +79526,278 @@
         <v>4664</v>
       </c>
       <c r="E3813" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3814" s="104" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B3814" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3814" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3814" s="104" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3814" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3815" s="104" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B3815" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3815" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3815" s="104" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3815" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3816" s="104" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B3816" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3816" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3816" s="104" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3816" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3817" s="104" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B3817" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3817" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3817" s="104" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3817" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3818" s="104" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B3818" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3818" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3818" s="104" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3818" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3819" s="104" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B3819" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3819" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3819" s="104" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3819" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3820" s="104" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B3820" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3820" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3820" s="104" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3820" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3821" s="104" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B3821" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C3821" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3821" s="104" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3821" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3822" s="105" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B3822" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3822" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3822" s="105" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3822" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3823" s="105" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B3823" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3823" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3823" s="105" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3823" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3824" s="105" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B3824" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3824" s="105" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3824" s="105" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3824" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3825" s="105" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B3825" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3825" s="105" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3825" s="105" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3825" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3826" s="105" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B3826" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3826" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3826" s="105" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3826" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3827" s="105" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B3827" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3827" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3827" s="105" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3827" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3828" s="105" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B3828" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3828" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3828" s="105" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3828" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3829" s="105" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B3829" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C3829" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3829" s="105" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3829" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3837</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3961</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14227" uniqueCount="4722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14639" uniqueCount="4841">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14127,9 +14127,6 @@
     <t>DSS4806</t>
   </si>
   <si>
-    <t>DSS4807</t>
-  </si>
-  <si>
     <t>Mohamed Khalaf Allah Mohamed Khalaf Allah</t>
   </si>
   <si>
@@ -14197,6 +14194,366 @@
   </si>
   <si>
     <t>DSS4823</t>
+  </si>
+  <si>
+    <t>Ziad Hamdanallah Mohamed Hussein</t>
+  </si>
+  <si>
+    <t>Saeed Saeed Sayed Mohammed</t>
+  </si>
+  <si>
+    <t>Abdulaziz Akthum Hisham Mustafa</t>
+  </si>
+  <si>
+    <t>MOAMEN KHALAF MOHAMED HASSEN</t>
+  </si>
+  <si>
+    <t>Mohamed Samir Mohamed Elfeky</t>
+  </si>
+  <si>
+    <t>Abdelrahman Zakaria Mohamed Ramadan</t>
+  </si>
+  <si>
+    <t>Aasem Elsayed Hussein Esmail Elsinghawy</t>
+  </si>
+  <si>
+    <t>Mohamed Abdelgawad Ahmed Mansour</t>
+  </si>
+  <si>
+    <t>Mohamed Hosny Hassan Ebeid</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RAHAT HUSSAIN</t>
+  </si>
+  <si>
+    <t>Ahmed Saied Elkhodary Hussein Elattar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eslam Mohamed Abdellhamed Megahed </t>
+  </si>
+  <si>
+    <t>DSS4824</t>
+  </si>
+  <si>
+    <t>DSS4825</t>
+  </si>
+  <si>
+    <t>DSS4826</t>
+  </si>
+  <si>
+    <t>DSS4827</t>
+  </si>
+  <si>
+    <t>DSS4828</t>
+  </si>
+  <si>
+    <t>DSS4829</t>
+  </si>
+  <si>
+    <t>DSS4830</t>
+  </si>
+  <si>
+    <t>DSS4831</t>
+  </si>
+  <si>
+    <t>DSS4832</t>
+  </si>
+  <si>
+    <t>DSS4833</t>
+  </si>
+  <si>
+    <t>DSS4834</t>
+  </si>
+  <si>
+    <t>DSS4835</t>
+  </si>
+  <si>
+    <t>DSS4836</t>
+  </si>
+  <si>
+    <t>DSS4837</t>
+  </si>
+  <si>
+    <t>DSS4838</t>
+  </si>
+  <si>
+    <t>DSS4839</t>
+  </si>
+  <si>
+    <t>DSS4840</t>
+  </si>
+  <si>
+    <t>DSS4841</t>
+  </si>
+  <si>
+    <t>DSS4842</t>
+  </si>
+  <si>
+    <t>DSS4843</t>
+  </si>
+  <si>
+    <t>DSS4844</t>
+  </si>
+  <si>
+    <t>DSS4845</t>
+  </si>
+  <si>
+    <t>DSS4846</t>
+  </si>
+  <si>
+    <t>DSS4847</t>
+  </si>
+  <si>
+    <t>DSS4848</t>
+  </si>
+  <si>
+    <t>DSS4849</t>
+  </si>
+  <si>
+    <t>DSS4850</t>
+  </si>
+  <si>
+    <t>DSS4851</t>
+  </si>
+  <si>
+    <t>DSS4852</t>
+  </si>
+  <si>
+    <t>DSS4853</t>
+  </si>
+  <si>
+    <t>DSS4854</t>
+  </si>
+  <si>
+    <t>DSS4855</t>
+  </si>
+  <si>
+    <t>DSS4856</t>
+  </si>
+  <si>
+    <t>DSS4857</t>
+  </si>
+  <si>
+    <t>DSS4858</t>
+  </si>
+  <si>
+    <t>DSS4859</t>
+  </si>
+  <si>
+    <t>DSS4860</t>
+  </si>
+  <si>
+    <t>DSS4861</t>
+  </si>
+  <si>
+    <t>DSS4862</t>
+  </si>
+  <si>
+    <t>DSS4863</t>
+  </si>
+  <si>
+    <t>DSS4864</t>
+  </si>
+  <si>
+    <t>DSS4865</t>
+  </si>
+  <si>
+    <t>DSS4866</t>
+  </si>
+  <si>
+    <t>DSS4867</t>
+  </si>
+  <si>
+    <t>DSS4868</t>
+  </si>
+  <si>
+    <t>DSS4869</t>
+  </si>
+  <si>
+    <t>DSS4870</t>
+  </si>
+  <si>
+    <t>DSS4871</t>
+  </si>
+  <si>
+    <t>DSS4872</t>
+  </si>
+  <si>
+    <t>DSS4873</t>
+  </si>
+  <si>
+    <t>DSS4874</t>
+  </si>
+  <si>
+    <t>DSS4875</t>
+  </si>
+  <si>
+    <t>DSS4876</t>
+  </si>
+  <si>
+    <t>DSS4877</t>
+  </si>
+  <si>
+    <t>DSS4878</t>
+  </si>
+  <si>
+    <t>DSS4879</t>
+  </si>
+  <si>
+    <t>DSS4880</t>
+  </si>
+  <si>
+    <t>DSS4881</t>
+  </si>
+  <si>
+    <t>DSS4882</t>
+  </si>
+  <si>
+    <t>DSS4883</t>
+  </si>
+  <si>
+    <t>DSS4884</t>
+  </si>
+  <si>
+    <t>DSS4885</t>
+  </si>
+  <si>
+    <t>DSS4886</t>
+  </si>
+  <si>
+    <t>DSS4887</t>
+  </si>
+  <si>
+    <t>DSS4888</t>
+  </si>
+  <si>
+    <t>DSS4889</t>
+  </si>
+  <si>
+    <t>DSS4890</t>
+  </si>
+  <si>
+    <t>DSS4891</t>
+  </si>
+  <si>
+    <t>DSS4892</t>
+  </si>
+  <si>
+    <t>DSS4893</t>
+  </si>
+  <si>
+    <t>DSS4894</t>
+  </si>
+  <si>
+    <t>DSS4895</t>
+  </si>
+  <si>
+    <t>DSS4896</t>
+  </si>
+  <si>
+    <t>DSS4897</t>
+  </si>
+  <si>
+    <t>DSS4898</t>
+  </si>
+  <si>
+    <t>DSS4899</t>
+  </si>
+  <si>
+    <t>DSS4900</t>
+  </si>
+  <si>
+    <t>DSS4901</t>
+  </si>
+  <si>
+    <t>DSS4902</t>
+  </si>
+  <si>
+    <t>DSS4903</t>
+  </si>
+  <si>
+    <t>DSS4904</t>
+  </si>
+  <si>
+    <t>DSS4905</t>
+  </si>
+  <si>
+    <t>DSS4906</t>
+  </si>
+  <si>
+    <t>DSS4907</t>
+  </si>
+  <si>
+    <t>DSS4908</t>
+  </si>
+  <si>
+    <t>DSS4909</t>
+  </si>
+  <si>
+    <t>DSS4910</t>
+  </si>
+  <si>
+    <t>DSS4911</t>
+  </si>
+  <si>
+    <t>DSS4912</t>
+  </si>
+  <si>
+    <t>DSS4913</t>
+  </si>
+  <si>
+    <t>DSS4914</t>
+  </si>
+  <si>
+    <t>DSS4915</t>
+  </si>
+  <si>
+    <t>DSS4916</t>
+  </si>
+  <si>
+    <t>DSS4917</t>
+  </si>
+  <si>
+    <t>DSS4918</t>
+  </si>
+  <si>
+    <t>DSS4919</t>
+  </si>
+  <si>
+    <t>ABDELHADY ALY ABDALLA ABDELRAHIM</t>
+  </si>
+  <si>
+    <t>10-Nov-2025</t>
+  </si>
+  <si>
+    <t>06-Nov-2025</t>
+  </si>
+  <si>
+    <t>07-Nov-2025</t>
+  </si>
+  <si>
+    <t>DSS4920</t>
+  </si>
+  <si>
+    <t>DSS4921</t>
+  </si>
+  <si>
+    <t>DSS4922</t>
+  </si>
+  <si>
+    <t>DSS4923</t>
+  </si>
+  <si>
+    <t>DSS4924</t>
+  </si>
+  <si>
+    <t>DSS4925</t>
+  </si>
+  <si>
+    <t>DSS4926</t>
+  </si>
+  <si>
+    <t>DSS4927</t>
   </si>
 </sst>
 </file>
@@ -15051,7 +15408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15059,10 +15416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3829"/>
+  <dimension ref="A1:E3932"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3817" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3832" sqref="C3832"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3919" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3935" sqref="B3935"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79015,7 +79372,7 @@
       <c r="D3783" s="28" t="s">
         <v>4658</v>
       </c>
-      <c r="E3783" s="51">
+      <c r="E3783" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79032,7 +79389,7 @@
       <c r="D3784" s="103">
         <v>45974</v>
       </c>
-      <c r="E3784" s="51">
+      <c r="E3784" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79049,7 +79406,7 @@
       <c r="D3785" s="27" t="s">
         <v>4664</v>
       </c>
-      <c r="E3785" s="51">
+      <c r="E3785" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79066,7 +79423,7 @@
       <c r="D3786" s="27" t="s">
         <v>4664</v>
       </c>
-      <c r="E3786" s="51">
+      <c r="E3786" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79083,7 +79440,7 @@
       <c r="D3787" s="28" t="s">
         <v>4335</v>
       </c>
-      <c r="E3787" s="51">
+      <c r="E3787" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79100,7 +79457,7 @@
       <c r="D3788" s="28" t="s">
         <v>4569</v>
       </c>
-      <c r="E3788" s="51">
+      <c r="E3788" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79117,7 +79474,7 @@
       <c r="D3789" s="28" t="s">
         <v>4337</v>
       </c>
-      <c r="E3789" s="51">
+      <c r="E3789" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79134,7 +79491,7 @@
       <c r="D3790" s="28" t="s">
         <v>4338</v>
       </c>
-      <c r="E3790" s="51">
+      <c r="E3790" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79151,7 +79508,7 @@
       <c r="D3791" s="28" t="s">
         <v>4339</v>
       </c>
-      <c r="E3791" s="51">
+      <c r="E3791" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79168,7 +79525,7 @@
       <c r="D3792" s="28" t="s">
         <v>4340</v>
       </c>
-      <c r="E3792" s="51">
+      <c r="E3792" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79185,7 +79542,7 @@
       <c r="D3793" s="28" t="s">
         <v>4341</v>
       </c>
-      <c r="E3793" s="51">
+      <c r="E3793" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79202,7 +79559,7 @@
       <c r="D3794" s="28" t="s">
         <v>4342</v>
       </c>
-      <c r="E3794" s="51">
+      <c r="E3794" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79219,7 +79576,7 @@
       <c r="D3795" s="27" t="s">
         <v>4675</v>
       </c>
-      <c r="E3795" s="51">
+      <c r="E3795" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79236,7 +79593,7 @@
       <c r="D3796" s="27" t="s">
         <v>4676</v>
       </c>
-      <c r="E3796" s="51">
+      <c r="E3796" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79253,7 +79610,7 @@
       <c r="D3797" s="28" t="s">
         <v>4340</v>
       </c>
-      <c r="E3797" s="51">
+      <c r="E3797" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79270,7 +79627,7 @@
       <c r="D3798" s="28" t="s">
         <v>4681</v>
       </c>
-      <c r="E3798" s="51">
+      <c r="E3798" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79287,7 +79644,7 @@
       <c r="D3799" s="28" t="s">
         <v>4680</v>
       </c>
-      <c r="E3799" s="51">
+      <c r="E3799" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79304,7 +79661,7 @@
       <c r="D3800" s="28" t="s">
         <v>4676</v>
       </c>
-      <c r="E3800" s="51">
+      <c r="E3800" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79313,7 +79670,7 @@
         <v>4686</v>
       </c>
       <c r="B3801" s="40" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="C3801" s="40" t="s">
         <v>534</v>
@@ -79321,7 +79678,7 @@
       <c r="D3801" s="40" t="s">
         <v>4664</v>
       </c>
-      <c r="E3801" s="51">
+      <c r="E3801" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79330,7 +79687,7 @@
         <v>4687</v>
       </c>
       <c r="B3802" s="40" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="C3802" s="40" t="s">
         <v>534</v>
@@ -79338,7 +79695,7 @@
       <c r="D3802" s="40" t="s">
         <v>4664</v>
       </c>
-      <c r="E3802" s="51">
+      <c r="E3802" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79347,7 +79704,7 @@
         <v>4688</v>
       </c>
       <c r="B3803" s="40" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="C3803" s="40" t="s">
         <v>534</v>
@@ -79355,7 +79712,7 @@
       <c r="D3803" s="40" t="s">
         <v>4664</v>
       </c>
-      <c r="E3803" s="51">
+      <c r="E3803" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79364,7 +79721,7 @@
         <v>4689</v>
       </c>
       <c r="B3804" s="40" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="C3804" s="40" t="s">
         <v>534</v>
@@ -79372,7 +79729,7 @@
       <c r="D3804" s="40" t="s">
         <v>4664</v>
       </c>
-      <c r="E3804" s="51">
+      <c r="E3804" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79381,7 +79738,7 @@
         <v>4690</v>
       </c>
       <c r="B3805" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3805" s="28" t="s">
         <v>2</v>
@@ -79389,7 +79746,7 @@
       <c r="D3805" s="28" t="s">
         <v>4335</v>
       </c>
-      <c r="E3805" s="51">
+      <c r="E3805" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79398,7 +79755,7 @@
         <v>4691</v>
       </c>
       <c r="B3806" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3806" s="28" t="s">
         <v>230</v>
@@ -79406,7 +79763,7 @@
       <c r="D3806" s="28" t="s">
         <v>4569</v>
       </c>
-      <c r="E3806" s="51">
+      <c r="E3806" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79415,7 +79772,7 @@
         <v>4692</v>
       </c>
       <c r="B3807" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3807" s="28" t="s">
         <v>952</v>
@@ -79423,7 +79780,7 @@
       <c r="D3807" s="28" t="s">
         <v>4337</v>
       </c>
-      <c r="E3807" s="51">
+      <c r="E3807" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79432,7 +79789,7 @@
         <v>4693</v>
       </c>
       <c r="B3808" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3808" s="28" t="s">
         <v>3859</v>
@@ -79440,7 +79797,7 @@
       <c r="D3808" s="28" t="s">
         <v>4338</v>
       </c>
-      <c r="E3808" s="51">
+      <c r="E3808" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79449,7 +79806,7 @@
         <v>4694</v>
       </c>
       <c r="B3809" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3809" s="28" t="s">
         <v>247</v>
@@ -79457,7 +79814,7 @@
       <c r="D3809" s="28" t="s">
         <v>4339</v>
       </c>
-      <c r="E3809" s="51">
+      <c r="E3809" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79466,7 +79823,7 @@
         <v>4695</v>
       </c>
       <c r="B3810" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3810" s="28" t="s">
         <v>263</v>
@@ -79474,7 +79831,7 @@
       <c r="D3810" s="28" t="s">
         <v>4340</v>
       </c>
-      <c r="E3810" s="51">
+      <c r="E3810" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79483,7 +79840,7 @@
         <v>4696</v>
       </c>
       <c r="B3811" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3811" s="28" t="s">
         <v>252</v>
@@ -79491,7 +79848,7 @@
       <c r="D3811" s="28" t="s">
         <v>4341</v>
       </c>
-      <c r="E3811" s="51">
+      <c r="E3811" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79500,7 +79857,7 @@
         <v>4697</v>
       </c>
       <c r="B3812" s="28" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C3812" s="28" t="s">
         <v>231</v>
@@ -79508,24 +79865,24 @@
       <c r="D3812" s="28" t="s">
         <v>4342</v>
       </c>
-      <c r="E3812" s="51">
+      <c r="E3812" s="96">
         <v>1</v>
       </c>
     </row>
     <row r="3813" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3813" s="40" t="s">
-        <v>4698</v>
-      </c>
-      <c r="B3813" s="40" t="s">
-        <v>4659</v>
-      </c>
-      <c r="C3813" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3813" s="40" t="s">
-        <v>4664</v>
-      </c>
-      <c r="E3813" s="51">
+      <c r="A3813" s="104" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B3813" s="104" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C3813" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3813" s="104" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3813" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79534,15 +79891,15 @@
         <v>4705</v>
       </c>
       <c r="B3814" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3814" s="104" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="D3814" s="104" t="s">
-        <v>4335</v>
-      </c>
-      <c r="E3814" s="51">
+        <v>4569</v>
+      </c>
+      <c r="E3814" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79551,15 +79908,15 @@
         <v>4706</v>
       </c>
       <c r="B3815" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3815" s="104" t="s">
-        <v>230</v>
+        <v>952</v>
       </c>
       <c r="D3815" s="104" t="s">
-        <v>4569</v>
-      </c>
-      <c r="E3815" s="51">
+        <v>4337</v>
+      </c>
+      <c r="E3815" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79568,15 +79925,15 @@
         <v>4707</v>
       </c>
       <c r="B3816" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3816" s="104" t="s">
-        <v>952</v>
+        <v>3859</v>
       </c>
       <c r="D3816" s="104" t="s">
-        <v>4337</v>
-      </c>
-      <c r="E3816" s="51">
+        <v>4338</v>
+      </c>
+      <c r="E3816" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79585,15 +79942,15 @@
         <v>4708</v>
       </c>
       <c r="B3817" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3817" s="104" t="s">
-        <v>3859</v>
+        <v>247</v>
       </c>
       <c r="D3817" s="104" t="s">
-        <v>4338</v>
-      </c>
-      <c r="E3817" s="51">
+        <v>4339</v>
+      </c>
+      <c r="E3817" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79602,15 +79959,15 @@
         <v>4709</v>
       </c>
       <c r="B3818" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3818" s="104" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D3818" s="104" t="s">
-        <v>4339</v>
-      </c>
-      <c r="E3818" s="51">
+        <v>4340</v>
+      </c>
+      <c r="E3818" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79619,15 +79976,15 @@
         <v>4710</v>
       </c>
       <c r="B3819" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3819" s="104" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D3819" s="104" t="s">
-        <v>4340</v>
-      </c>
-      <c r="E3819" s="51">
+        <v>4341</v>
+      </c>
+      <c r="E3819" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79636,32 +79993,32 @@
         <v>4711</v>
       </c>
       <c r="B3820" s="104" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C3820" s="104" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D3820" s="104" t="s">
-        <v>4341</v>
-      </c>
-      <c r="E3820" s="51">
+        <v>4342</v>
+      </c>
+      <c r="E3820" s="96">
         <v>1</v>
       </c>
     </row>
     <row r="3821" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3821" s="104" t="s">
+      <c r="A3821" s="105" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B3821" s="105" t="s">
         <v>4712</v>
       </c>
-      <c r="B3821" s="104" t="s">
-        <v>4704</v>
-      </c>
-      <c r="C3821" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3821" s="104" t="s">
-        <v>4342</v>
-      </c>
-      <c r="E3821" s="51">
+      <c r="C3821" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3821" s="105" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3821" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79670,15 +80027,15 @@
         <v>4714</v>
       </c>
       <c r="B3822" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3822" s="105" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="D3822" s="105" t="s">
-        <v>4335</v>
-      </c>
-      <c r="E3822" s="51">
+        <v>4569</v>
+      </c>
+      <c r="E3822" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79687,15 +80044,15 @@
         <v>4715</v>
       </c>
       <c r="B3823" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3823" s="105" t="s">
-        <v>230</v>
+        <v>952</v>
       </c>
       <c r="D3823" s="105" t="s">
-        <v>4569</v>
-      </c>
-      <c r="E3823" s="51">
+        <v>4337</v>
+      </c>
+      <c r="E3823" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79704,15 +80061,15 @@
         <v>4716</v>
       </c>
       <c r="B3824" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3824" s="105" t="s">
-        <v>952</v>
+        <v>3859</v>
       </c>
       <c r="D3824" s="105" t="s">
-        <v>4337</v>
-      </c>
-      <c r="E3824" s="51">
+        <v>4338</v>
+      </c>
+      <c r="E3824" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79721,15 +80078,15 @@
         <v>4717</v>
       </c>
       <c r="B3825" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3825" s="105" t="s">
-        <v>3859</v>
+        <v>247</v>
       </c>
       <c r="D3825" s="105" t="s">
-        <v>4338</v>
-      </c>
-      <c r="E3825" s="51">
+        <v>4339</v>
+      </c>
+      <c r="E3825" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79738,15 +80095,15 @@
         <v>4718</v>
       </c>
       <c r="B3826" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3826" s="105" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D3826" s="105" t="s">
-        <v>4339</v>
-      </c>
-      <c r="E3826" s="51">
+        <v>4340</v>
+      </c>
+      <c r="E3826" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79755,15 +80112,15 @@
         <v>4719</v>
       </c>
       <c r="B3827" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3827" s="105" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D3827" s="105" t="s">
-        <v>4340</v>
-      </c>
-      <c r="E3827" s="51">
+        <v>4341</v>
+      </c>
+      <c r="E3827" s="96">
         <v>1</v>
       </c>
     </row>
@@ -79772,32 +80129,1783 @@
         <v>4720</v>
       </c>
       <c r="B3828" s="105" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C3828" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3828" s="105" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3828" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3829" s="28" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B3829" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3829" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3829" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3829" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3830" s="28" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B3830" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3830" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3830" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3830" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3831" s="28" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B3831" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3831" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3831" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3831" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3832" s="28" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B3832" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3832" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3832" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3832" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3833" s="28" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B3833" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3833" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3833" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3833" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3834" s="28" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B3834" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3834" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3834" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3834" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3835" s="28" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B3835" s="28" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C3835" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D3828" s="105" t="s">
+      <c r="D3835" s="28" t="s">
         <v>4341</v>
       </c>
-      <c r="E3828" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3829" s="105" t="s">
+      <c r="E3835" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3836" s="28" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B3836" s="28" t="s">
         <v>4721</v>
       </c>
-      <c r="B3829" s="105" t="s">
-        <v>4713</v>
-      </c>
-      <c r="C3829" s="105" t="s">
+      <c r="C3836" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="D3829" s="105" t="s">
+      <c r="D3836" s="28" t="s">
         <v>4342</v>
       </c>
-      <c r="E3829" s="51">
+      <c r="E3836" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3837" s="27" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B3837" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3837" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3837" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3837" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3838" s="27" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B3838" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3838" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3838" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3838" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3839" s="27" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B3839" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3839" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3839" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3839" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3840" s="27" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B3840" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3840" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3840" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3840" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3841" s="27" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B3841" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3841" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3841" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3841" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3842" s="27" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B3842" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3842" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3842" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3842" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3843" s="27" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B3843" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3843" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3843" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3843" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3844" s="27" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B3844" s="27" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C3844" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3844" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3844" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3845" s="28" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B3845" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3845" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3845" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3845" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3846" s="28" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B3846" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3846" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3846" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3846" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3847" s="28" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B3847" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3847" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3847" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3847" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3848" s="28" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B3848" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3848" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3848" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3848" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3849" s="28" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B3849" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3849" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3849" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3849" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3850" s="28" t="s">
+        <v>4754</v>
+      </c>
+      <c r="B3850" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3850" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3850" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3850" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3851" s="28" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B3851" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3851" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3851" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3851" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3852" s="28" t="s">
+        <v>4756</v>
+      </c>
+      <c r="B3852" s="28" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C3852" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3852" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3852" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3853" s="27" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B3853" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3853" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3853" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3853" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3854" s="27" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B3854" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3854" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3854" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3854" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3855" s="27" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B3855" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3855" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3855" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3855" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3856" s="27" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B3856" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3856" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3856" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3856" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3857" s="27" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B3857" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3857" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3857" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3857" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3858" s="27" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B3858" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3858" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3858" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3858" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3859" s="27" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B3859" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3859" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3859" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3859" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3860" s="27" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B3860" s="27" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C3860" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3860" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3860" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3861" s="28" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B3861" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3861" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3861" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3861" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3862" s="28" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B3862" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3862" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3862" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3862" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3863" s="28" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B3863" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3863" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3863" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3863" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3864" s="28" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B3864" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3864" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3864" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3864" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3865" s="28" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B3865" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3865" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3865" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3865" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3866" s="28" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B3866" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3866" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3866" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3866" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3867" s="28" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B3867" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3867" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3867" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3867" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3868" s="28" t="s">
+        <v>4772</v>
+      </c>
+      <c r="B3868" s="28" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C3868" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3868" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3868" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3869" s="27" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B3869" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3869" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3869" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3869" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3870" s="27" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B3870" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3870" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3870" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3870" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3871" s="27" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B3871" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3871" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3871" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3871" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3872" s="27" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B3872" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3872" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3872" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3872" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3873" s="27" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B3873" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3873" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3873" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3873" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3874" s="27" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B3874" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3874" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3874" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3874" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3875" s="27" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B3875" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3875" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3875" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3875" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3876" s="27" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B3876" s="27" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C3876" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3876" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3876" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3877" s="28" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B3877" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3877" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3877" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3877" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3878" s="28" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B3878" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3878" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3878" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3878" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3879" s="28" t="s">
+        <v>4783</v>
+      </c>
+      <c r="B3879" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3879" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3879" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3879" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3880" s="28" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B3880" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3880" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3880" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3880" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3881" s="28" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B3881" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3881" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3881" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3881" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3882" s="28" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B3882" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3882" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3882" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3882" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3883" s="28" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B3883" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3883" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3883" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3883" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3884" s="28" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B3884" s="28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C3884" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3884" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3884" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3885" s="27" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B3885" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3885" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3885" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3885" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3886" s="27" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B3886" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3886" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3886" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3886" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3887" s="27" t="s">
+        <v>4791</v>
+      </c>
+      <c r="B3887" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3887" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3887" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3887" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3888" s="27" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B3888" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3888" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3888" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3888" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3889" s="27" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B3889" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3889" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3889" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3889" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3890" s="27" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B3890" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3890" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3890" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3890" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3891" s="27" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B3891" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3891" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3891" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3891" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3892" s="27" t="s">
+        <v>4796</v>
+      </c>
+      <c r="B3892" s="27" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C3892" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3892" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3892" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3893" s="28" t="s">
+        <v>4797</v>
+      </c>
+      <c r="B3893" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3893" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3893" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3893" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3894" s="28" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B3894" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3894" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3894" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3894" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3895" s="28" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B3895" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3895" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3895" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3895" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3896" s="28" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B3896" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3896" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3896" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3896" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3897" s="28" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B3897" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3897" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3897" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3897" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3898" s="28" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B3898" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3898" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3898" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3898" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3899" s="28" t="s">
+        <v>4803</v>
+      </c>
+      <c r="B3899" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3899" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3899" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3899" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3900" s="28" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B3900" s="28" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C3900" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3900" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3900" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3901" s="27" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B3901" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3901" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3901" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3901" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3902" s="27" t="s">
+        <v>4806</v>
+      </c>
+      <c r="B3902" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3902" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3902" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3902" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3903" s="27" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B3903" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3903" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3903" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3903" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3904" s="27" t="s">
+        <v>4808</v>
+      </c>
+      <c r="B3904" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3904" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3904" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3904" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3905" s="27" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B3905" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3905" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3905" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3905" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3906" s="27" t="s">
+        <v>4810</v>
+      </c>
+      <c r="B3906" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3906" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3906" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3906" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3907" s="27" t="s">
+        <v>4811</v>
+      </c>
+      <c r="B3907" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3907" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3907" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3907" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3908" s="27" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B3908" s="27" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C3908" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3908" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3908" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3909" s="28" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B3909" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3909" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3909" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3909" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3910" s="28" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B3910" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3910" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3910" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3910" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3911" s="28" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B3911" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3911" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3911" s="28" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3911" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3912" s="28" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B3912" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3912" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3912" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3912" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3913" s="28" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B3913" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3913" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3913" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3913" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3914" s="28" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B3914" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3914" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3914" s="28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3914" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3915" s="28" t="s">
+        <v>4819</v>
+      </c>
+      <c r="B3915" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3915" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3915" s="28" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3915" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3916" s="28" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B3916" s="28" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C3916" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3916" s="28" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3916" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3917" s="27" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B3917" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3917" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3917" s="27" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3917" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3918" s="27" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B3918" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3918" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3918" s="27" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3918" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3919" s="27" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B3919" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3919" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3919" s="27" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E3919" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3920" s="27" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B3920" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3920" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3920" s="27" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3920" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3921" s="27" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B3921" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3921" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3921" s="27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3921" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3922" s="27" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B3922" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3922" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3922" s="27" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E3922" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3923" s="27" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B3923" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3923" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3923" s="27" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E3923" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3924" s="27" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B3924" s="27" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C3924" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3924" s="27" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E3924" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3925" s="28" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B3925" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3925" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3925" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3925" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3926" s="28" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B3926" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3926" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3926" s="28" t="s">
+        <v>4830</v>
+      </c>
+      <c r="E3926" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3927" s="28" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B3927" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3927" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3927" s="28" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E3927" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3928" s="28" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B3928" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3928" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3928" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3928" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3929" s="28" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B3929" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3929" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3929" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3929" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3930" s="28" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B3930" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3930" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3930" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3930" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3931" s="28" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B3931" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3931" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3931" s="28" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E3931" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3932" s="28" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B3932" s="28" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C3932" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3932" s="28" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E3932" s="96">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14639" uniqueCount="4841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14643" uniqueCount="4843">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14554,6 +14554,12 @@
   </si>
   <si>
     <t>DSS4927</t>
+  </si>
+  <si>
+    <t>08-Nov-2026</t>
+  </si>
+  <si>
+    <t>DSS4928</t>
   </si>
 </sst>
 </file>
@@ -15408,7 +15414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15416,10 +15422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3932"/>
+  <dimension ref="A1:E3933"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3919" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3935" sqref="B3935"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3630" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C3612" sqref="C3612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81906,6 +81912,23 @@
         <v>4658</v>
       </c>
       <c r="E3932" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3933" s="27" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B3933" s="27" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C3933" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3933" s="27" t="s">
+        <v>4841</v>
+      </c>
+      <c r="E3933" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14643" uniqueCount="4843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14679" uniqueCount="4854">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14560,6 +14560,39 @@
   </si>
   <si>
     <t>DSS4928</t>
+  </si>
+  <si>
+    <t>Ahmed Hassan Ebrahim Elsead</t>
+  </si>
+  <si>
+    <t>DSS4929</t>
+  </si>
+  <si>
+    <t>DSS4930</t>
+  </si>
+  <si>
+    <t>DSS4931</t>
+  </si>
+  <si>
+    <t>DSS4932</t>
+  </si>
+  <si>
+    <t>DSS4933</t>
+  </si>
+  <si>
+    <t>DSS4934</t>
+  </si>
+  <si>
+    <t>DSS4935</t>
+  </si>
+  <si>
+    <t>DSS4936</t>
+  </si>
+  <si>
+    <t>DSS4937</t>
+  </si>
+  <si>
+    <t>30/11/2025</t>
   </si>
 </sst>
 </file>
@@ -15422,10 +15455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3933"/>
+  <dimension ref="A1:E3942"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3630" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C3612" sqref="C3612"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3928" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3945" sqref="B3945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81928,7 +81961,160 @@
       <c r="D3933" s="27" t="s">
         <v>4841</v>
       </c>
-      <c r="E3933" s="51">
+      <c r="E3933" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3934" s="28" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B3934" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3934" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3934" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3934" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3935" s="28" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B3935" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3935" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3935" s="28" t="s">
+        <v>4830</v>
+      </c>
+      <c r="E3935" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3936" s="28" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B3936" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3936" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3936" s="28" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E3936" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3937" s="28" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B3937" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3937" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3937" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3937" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3938" s="28" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B3938" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3938" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3938" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3938" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3939" s="28" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B3939" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3939" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3939" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3939" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3940" s="28" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B3940" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3940" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3940" s="28" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E3940" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3941" s="28" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B3941" s="28" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C3941" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3941" s="28" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E3941" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3942" s="27" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B3942" s="27" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C3942" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3942" s="27" t="s">
+        <v>4853</v>
+      </c>
+      <c r="E3942" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14679" uniqueCount="4854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14711" uniqueCount="4863">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14593,6 +14593,33 @@
   </si>
   <si>
     <t>30/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdel Moneim Taher Abdel Moneim Mabrouk </t>
+  </si>
+  <si>
+    <t>DSS4938</t>
+  </si>
+  <si>
+    <t>DSS4939</t>
+  </si>
+  <si>
+    <t>DSS4940</t>
+  </si>
+  <si>
+    <t>DSS4941</t>
+  </si>
+  <si>
+    <t>DSS4942</t>
+  </si>
+  <si>
+    <t>DSS4943</t>
+  </si>
+  <si>
+    <t>DSS4944</t>
+  </si>
+  <si>
+    <t>DSS4945</t>
   </si>
 </sst>
 </file>
@@ -15447,7 +15474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15455,10 +15482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3942"/>
+  <dimension ref="A1:E3950"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3928" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3945" sqref="B3945"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3937" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="E3952" sqref="E3952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82115,6 +82142,142 @@
         <v>4853</v>
       </c>
       <c r="E3942" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3943" s="28" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B3943" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3943" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3943" s="28" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E3943" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3944" s="28" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B3944" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3944" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3944" s="28" t="s">
+        <v>4830</v>
+      </c>
+      <c r="E3944" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3945" s="28" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B3945" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3945" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3945" s="28" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E3945" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3946" s="28" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B3946" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3946" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3946" s="28" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E3946" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3947" s="28" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B3947" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3947" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3947" s="28" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3947" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3948" s="28" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B3948" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3948" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3948" s="28" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E3948" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3949" s="28" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B3949" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3949" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3949" s="28" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E3949" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3950" s="28" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B3950" s="28" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C3950" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3950" s="28" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E3950" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14711" uniqueCount="4863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14743" uniqueCount="4880">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14620,6 +14620,57 @@
   </si>
   <si>
     <t>DSS4945</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Ahmed Ghallab</t>
+  </si>
+  <si>
+    <t>DSS4946</t>
+  </si>
+  <si>
+    <t>DSS4947</t>
+  </si>
+  <si>
+    <t>DSS4948</t>
+  </si>
+  <si>
+    <t>DSS4949</t>
+  </si>
+  <si>
+    <t>DSS4950</t>
+  </si>
+  <si>
+    <t>DSS4951</t>
+  </si>
+  <si>
+    <t>DSS4952</t>
+  </si>
+  <si>
+    <t>DSS4953</t>
+  </si>
+  <si>
+    <t>05-Dec-2025</t>
+  </si>
+  <si>
+    <t>10-Dec-2025</t>
+  </si>
+  <si>
+    <t>06-Dec-2025</t>
+  </si>
+  <si>
+    <t>03-Dec-2025</t>
+  </si>
+  <si>
+    <t>01-Dec-2025</t>
+  </si>
+  <si>
+    <t>02-Dec-2025</t>
+  </si>
+  <si>
+    <t>07-Dec-2025</t>
+  </si>
+  <si>
+    <t>08-Dec-2025</t>
   </si>
 </sst>
 </file>
@@ -15482,10 +15533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3950"/>
+  <dimension ref="A1:E3958"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3937" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="E3952" sqref="E3952"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3947" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B3959" sqref="B3959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82278,6 +82329,142 @@
         <v>4658</v>
       </c>
       <c r="E3950" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3951" s="104" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B3951" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3951" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3951" s="104" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3951" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3952" s="104" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B3952" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3952" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3952" s="104" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E3952" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3953" s="104" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B3953" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3953" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3953" s="104" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E3953" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3954" s="104" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B3954" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3954" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3954" s="104" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E3954" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3955" s="104" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B3955" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3955" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3955" s="104" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3955" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3956" s="104" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B3956" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3956" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3956" s="104" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E3956" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3957" s="104" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B3957" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3957" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3957" s="104" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E3957" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3958" s="104" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B3958" s="104" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C3958" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3958" s="104" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E3958" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$3961</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4207</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14743" uniqueCount="4880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15607" uniqueCount="5123">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -14671,6 +14671,735 @@
   </si>
   <si>
     <t>08-Dec-2025</t>
+  </si>
+  <si>
+    <t>Rabie Dahy Khalifah Sabrah</t>
+  </si>
+  <si>
+    <t>Elzubair mohamed Ali Elsidig</t>
+  </si>
+  <si>
+    <t>Hassan nabil hassan ahmed</t>
+  </si>
+  <si>
+    <t>GAMAL ABDELGHANY ABDALLAH ABDELGHANY</t>
+  </si>
+  <si>
+    <t>Mahmoud Hamdan badry salem</t>
+  </si>
+  <si>
+    <t>Abdelhamid Mohamed Abdelhamid Abdelrahman</t>
+  </si>
+  <si>
+    <t>Mahmoud Fekry Mahmoud Mahmoud</t>
+  </si>
+  <si>
+    <t>Ahmed Nasser Mohamed Gad</t>
+  </si>
+  <si>
+    <t>Abdelrhman Mohamed Elsaid Bassiouny</t>
+  </si>
+  <si>
+    <t>ABDALLA HASSAN OSMAN WIDAA</t>
+  </si>
+  <si>
+    <t>ABDELRAHMAN MOHAMED ABDELHAMID ABDELRAHIM</t>
+  </si>
+  <si>
+    <t>Shapaan ali shapaan Guod</t>
+  </si>
+  <si>
+    <t>Mahmoud Mohamed Ahmed Hussein</t>
+  </si>
+  <si>
+    <t>Ahmed Fares Ahmed Abdel-Hakim</t>
+  </si>
+  <si>
+    <t>DSS4954</t>
+  </si>
+  <si>
+    <t>DSS4955</t>
+  </si>
+  <si>
+    <t>DSS4956</t>
+  </si>
+  <si>
+    <t>DSS4957</t>
+  </si>
+  <si>
+    <t>DSS4958</t>
+  </si>
+  <si>
+    <t>DSS4959</t>
+  </si>
+  <si>
+    <t>DSS4960</t>
+  </si>
+  <si>
+    <t>DSS4961</t>
+  </si>
+  <si>
+    <t>DSS4962</t>
+  </si>
+  <si>
+    <t>DSS4963</t>
+  </si>
+  <si>
+    <t>DSS4964</t>
+  </si>
+  <si>
+    <t>DSS4965</t>
+  </si>
+  <si>
+    <t>DSS4966</t>
+  </si>
+  <si>
+    <t>DSS4967</t>
+  </si>
+  <si>
+    <t>DSS4968</t>
+  </si>
+  <si>
+    <t>DSS4969</t>
+  </si>
+  <si>
+    <t>DSS4970</t>
+  </si>
+  <si>
+    <t>DSS4971</t>
+  </si>
+  <si>
+    <t>DSS4972</t>
+  </si>
+  <si>
+    <t>DSS4973</t>
+  </si>
+  <si>
+    <t>DSS4974</t>
+  </si>
+  <si>
+    <t>DSS4975</t>
+  </si>
+  <si>
+    <t>DSS4976</t>
+  </si>
+  <si>
+    <t>DSS4977</t>
+  </si>
+  <si>
+    <t>DSS4978</t>
+  </si>
+  <si>
+    <t>DSS4979</t>
+  </si>
+  <si>
+    <t>DSS4980</t>
+  </si>
+  <si>
+    <t>DSS4981</t>
+  </si>
+  <si>
+    <t>DSS4982</t>
+  </si>
+  <si>
+    <t>DSS4983</t>
+  </si>
+  <si>
+    <t>DSS4984</t>
+  </si>
+  <si>
+    <t>DSS4985</t>
+  </si>
+  <si>
+    <t>DSS4986</t>
+  </si>
+  <si>
+    <t>DSS4987</t>
+  </si>
+  <si>
+    <t>DSS4988</t>
+  </si>
+  <si>
+    <t>DSS4989</t>
+  </si>
+  <si>
+    <t>DSS4990</t>
+  </si>
+  <si>
+    <t>DSS4991</t>
+  </si>
+  <si>
+    <t>DSS4992</t>
+  </si>
+  <si>
+    <t>DSS4993</t>
+  </si>
+  <si>
+    <t>DSS4994</t>
+  </si>
+  <si>
+    <t>DSS4995</t>
+  </si>
+  <si>
+    <t>DSS4996</t>
+  </si>
+  <si>
+    <t>DSS4997</t>
+  </si>
+  <si>
+    <t>DSS4998</t>
+  </si>
+  <si>
+    <t>DSS4999</t>
+  </si>
+  <si>
+    <t>DSS5000</t>
+  </si>
+  <si>
+    <t>DSS5001</t>
+  </si>
+  <si>
+    <t>DSS5002</t>
+  </si>
+  <si>
+    <t>DSS5003</t>
+  </si>
+  <si>
+    <t>DSS5004</t>
+  </si>
+  <si>
+    <t>DSS5005</t>
+  </si>
+  <si>
+    <t>DSS5006</t>
+  </si>
+  <si>
+    <t>DSS5007</t>
+  </si>
+  <si>
+    <t>DSS5008</t>
+  </si>
+  <si>
+    <t>DSS5009</t>
+  </si>
+  <si>
+    <t>DSS5010</t>
+  </si>
+  <si>
+    <t>DSS5011</t>
+  </si>
+  <si>
+    <t>DSS5012</t>
+  </si>
+  <si>
+    <t>DSS5013</t>
+  </si>
+  <si>
+    <t>DSS5014</t>
+  </si>
+  <si>
+    <t>DSS5015</t>
+  </si>
+  <si>
+    <t>DSS5016</t>
+  </si>
+  <si>
+    <t>DSS5017</t>
+  </si>
+  <si>
+    <t>DSS5018</t>
+  </si>
+  <si>
+    <t>DSS5019</t>
+  </si>
+  <si>
+    <t>DSS5020</t>
+  </si>
+  <si>
+    <t>DSS5021</t>
+  </si>
+  <si>
+    <t>DSS5022</t>
+  </si>
+  <si>
+    <t>DSS5023</t>
+  </si>
+  <si>
+    <t>DSS5024</t>
+  </si>
+  <si>
+    <t>DSS5025</t>
+  </si>
+  <si>
+    <t>DSS5026</t>
+  </si>
+  <si>
+    <t>DSS5027</t>
+  </si>
+  <si>
+    <t>DSS5028</t>
+  </si>
+  <si>
+    <t>DSS5029</t>
+  </si>
+  <si>
+    <t>DSS5030</t>
+  </si>
+  <si>
+    <t>DSS5031</t>
+  </si>
+  <si>
+    <t>DSS5032</t>
+  </si>
+  <si>
+    <t>DSS5033</t>
+  </si>
+  <si>
+    <t>DSS5034</t>
+  </si>
+  <si>
+    <t>DSS5035</t>
+  </si>
+  <si>
+    <t>DSS5036</t>
+  </si>
+  <si>
+    <t>DSS5037</t>
+  </si>
+  <si>
+    <t>DSS5038</t>
+  </si>
+  <si>
+    <t>DSS5039</t>
+  </si>
+  <si>
+    <t>DSS5040</t>
+  </si>
+  <si>
+    <t>DSS5041</t>
+  </si>
+  <si>
+    <t>DSS5042</t>
+  </si>
+  <si>
+    <t>DSS5043</t>
+  </si>
+  <si>
+    <t>DSS5044</t>
+  </si>
+  <si>
+    <t>DSS5045</t>
+  </si>
+  <si>
+    <t>DSS5046</t>
+  </si>
+  <si>
+    <t>DSS5047</t>
+  </si>
+  <si>
+    <t>DSS5048</t>
+  </si>
+  <si>
+    <t>DSS5049</t>
+  </si>
+  <si>
+    <t>DSS5050</t>
+  </si>
+  <si>
+    <t>DSS5051</t>
+  </si>
+  <si>
+    <t>DSS5052</t>
+  </si>
+  <si>
+    <t>DSS5053</t>
+  </si>
+  <si>
+    <t>DSS5054</t>
+  </si>
+  <si>
+    <t>DSS5055</t>
+  </si>
+  <si>
+    <t>DSS5056</t>
+  </si>
+  <si>
+    <t>DSS5057</t>
+  </si>
+  <si>
+    <t>DSS5058</t>
+  </si>
+  <si>
+    <t>DSS5059</t>
+  </si>
+  <si>
+    <t>DSS5060</t>
+  </si>
+  <si>
+    <t>DSS5061</t>
+  </si>
+  <si>
+    <t>DSS5062</t>
+  </si>
+  <si>
+    <t>DSS5063</t>
+  </si>
+  <si>
+    <t>DSS5064</t>
+  </si>
+  <si>
+    <t>DSS5065</t>
+  </si>
+  <si>
+    <t>DSS5066</t>
+  </si>
+  <si>
+    <t>DSS5067</t>
+  </si>
+  <si>
+    <t>DSS5068</t>
+  </si>
+  <si>
+    <t>DSS5069</t>
+  </si>
+  <si>
+    <t>DSS5070</t>
+  </si>
+  <si>
+    <t>DSS5071</t>
+  </si>
+  <si>
+    <t>DSS5072</t>
+  </si>
+  <si>
+    <t>DSS5073</t>
+  </si>
+  <si>
+    <t>MOHAMED SABRY ELGOHARY FOUDA</t>
+  </si>
+  <si>
+    <t>Ahmad Raafat Ahmad Ali</t>
+  </si>
+  <si>
+    <t>Ali Abd El Hafiz Aallouah</t>
+  </si>
+  <si>
+    <t>Ebrahem Ebrahem Zaki Almorsy</t>
+  </si>
+  <si>
+    <t>Ebrahim Mohamed Ebrahim Hassanen</t>
+  </si>
+  <si>
+    <t>Hashim Altigani Husain Abdalrahim</t>
+  </si>
+  <si>
+    <t>MAHMOUD ABDELAAL ALI AHMED</t>
+  </si>
+  <si>
+    <t>RADWAN MOHAMMED OMAR NASER</t>
+  </si>
+  <si>
+    <t>DSS5074</t>
+  </si>
+  <si>
+    <t>DSS5075</t>
+  </si>
+  <si>
+    <t>DSS5076</t>
+  </si>
+  <si>
+    <t>DSS5077</t>
+  </si>
+  <si>
+    <t>DSS5078</t>
+  </si>
+  <si>
+    <t>DSS5079</t>
+  </si>
+  <si>
+    <t>DSS5080</t>
+  </si>
+  <si>
+    <t>DSS5081</t>
+  </si>
+  <si>
+    <t>AHMED ABDELNASER MOHAMED</t>
+  </si>
+  <si>
+    <t>Ali Abdulrahman Mohammed Sweilem Helal</t>
+  </si>
+  <si>
+    <t>Muhamad Ashraf Ezzat Abdulsalam</t>
+  </si>
+  <si>
+    <t>Samy Medhat Zaki Elrakaiby</t>
+  </si>
+  <si>
+    <t>DSS5082</t>
+  </si>
+  <si>
+    <t>DSS5083</t>
+  </si>
+  <si>
+    <t>DSS5084</t>
+  </si>
+  <si>
+    <t>DSS5085</t>
+  </si>
+  <si>
+    <t>DSS5086</t>
+  </si>
+  <si>
+    <t>DSS5087</t>
+  </si>
+  <si>
+    <t>DSS5088</t>
+  </si>
+  <si>
+    <t>DSS5089</t>
+  </si>
+  <si>
+    <t>DSS5090</t>
+  </si>
+  <si>
+    <t>DSS5091</t>
+  </si>
+  <si>
+    <t>DSS5092</t>
+  </si>
+  <si>
+    <t>DSS5093</t>
+  </si>
+  <si>
+    <t>DSS5094</t>
+  </si>
+  <si>
+    <t>DSS5095</t>
+  </si>
+  <si>
+    <t>DSS5096</t>
+  </si>
+  <si>
+    <t>DSS5097</t>
+  </si>
+  <si>
+    <t>DSS5098</t>
+  </si>
+  <si>
+    <t>DSS5099</t>
+  </si>
+  <si>
+    <t>DSS5100</t>
+  </si>
+  <si>
+    <t>DSS5101</t>
+  </si>
+  <si>
+    <t>DSS5102</t>
+  </si>
+  <si>
+    <t>DSS5103</t>
+  </si>
+  <si>
+    <t>DSS5104</t>
+  </si>
+  <si>
+    <t>DSS5105</t>
+  </si>
+  <si>
+    <t>DSS5106</t>
+  </si>
+  <si>
+    <t>DSS5107</t>
+  </si>
+  <si>
+    <t>DSS5108</t>
+  </si>
+  <si>
+    <t>DSS5109</t>
+  </si>
+  <si>
+    <t>DSS5110</t>
+  </si>
+  <si>
+    <t>DSS5111</t>
+  </si>
+  <si>
+    <t>DSS5112</t>
+  </si>
+  <si>
+    <t>DSS5113</t>
+  </si>
+  <si>
+    <t>DSS5114</t>
+  </si>
+  <si>
+    <t>DSS5115</t>
+  </si>
+  <si>
+    <t>DSS5116</t>
+  </si>
+  <si>
+    <t>DSS5117</t>
+  </si>
+  <si>
+    <t>DSS5118</t>
+  </si>
+  <si>
+    <t>DSS5119</t>
+  </si>
+  <si>
+    <t>DSS5120</t>
+  </si>
+  <si>
+    <t>DSS5121</t>
+  </si>
+  <si>
+    <t>DSS5122</t>
+  </si>
+  <si>
+    <t>DSS5123</t>
+  </si>
+  <si>
+    <t>DSS5124</t>
+  </si>
+  <si>
+    <t>DSS5125</t>
+  </si>
+  <si>
+    <t>DSS5126</t>
+  </si>
+  <si>
+    <t>DSS5127</t>
+  </si>
+  <si>
+    <t>DSS5128</t>
+  </si>
+  <si>
+    <t>DSS5129</t>
+  </si>
+  <si>
+    <t>DSS5130</t>
+  </si>
+  <si>
+    <t>DSS5131</t>
+  </si>
+  <si>
+    <t>DSS5132</t>
+  </si>
+  <si>
+    <t>DSS5133</t>
+  </si>
+  <si>
+    <t>DSS5134</t>
+  </si>
+  <si>
+    <t>DSS5135</t>
+  </si>
+  <si>
+    <t>DSS5136</t>
+  </si>
+  <si>
+    <t>DSS5137</t>
+  </si>
+  <si>
+    <t>DSS5138</t>
+  </si>
+  <si>
+    <t>DSS5139</t>
+  </si>
+  <si>
+    <t>DSS5140</t>
+  </si>
+  <si>
+    <t>DSS5141</t>
+  </si>
+  <si>
+    <t>DSS5142</t>
+  </si>
+  <si>
+    <t>DSS5143</t>
+  </si>
+  <si>
+    <t>DSS5144</t>
+  </si>
+  <si>
+    <t>DSS5145</t>
+  </si>
+  <si>
+    <t>DSS5146</t>
+  </si>
+  <si>
+    <t>DSS5147</t>
+  </si>
+  <si>
+    <t>DSS5148</t>
+  </si>
+  <si>
+    <t>DSS5149</t>
+  </si>
+  <si>
+    <t>DSS5150</t>
+  </si>
+  <si>
+    <t>DSS5151</t>
+  </si>
+  <si>
+    <t>DSS5152</t>
+  </si>
+  <si>
+    <t>DSS5153</t>
+  </si>
+  <si>
+    <t>DSS5154</t>
+  </si>
+  <si>
+    <t>DSS5155</t>
+  </si>
+  <si>
+    <t>DSS5156</t>
+  </si>
+  <si>
+    <t>DSS5157</t>
+  </si>
+  <si>
+    <t>DSS5158</t>
+  </si>
+  <si>
+    <t>DSS5159</t>
+  </si>
+  <si>
+    <t>DSS5160</t>
+  </si>
+  <si>
+    <t>DSS5161</t>
+  </si>
+  <si>
+    <t>Ahmed Magdy Hassan Tahaa</t>
+  </si>
+  <si>
+    <t>DSS5162</t>
+  </si>
+  <si>
+    <t>DSS5163</t>
+  </si>
+  <si>
+    <t>DSS5164</t>
+  </si>
+  <si>
+    <t>DSS5165</t>
+  </si>
+  <si>
+    <t>DSS5166</t>
+  </si>
+  <si>
+    <t>DSS5167</t>
+  </si>
+  <si>
+    <t>DSS5168</t>
+  </si>
+  <si>
+    <t>DSS5169</t>
   </si>
 </sst>
 </file>
@@ -15525,7 +16254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15533,10 +16262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3958"/>
+  <dimension ref="A1:E4174"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3947" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B3959" sqref="B3959"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4166" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B4177" sqref="B4177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82209,7 +82938,7 @@
       <c r="D3943" s="28" t="s">
         <v>4335</v>
       </c>
-      <c r="E3943" s="51">
+      <c r="E3943" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82226,7 +82955,7 @@
       <c r="D3944" s="28" t="s">
         <v>4830</v>
       </c>
-      <c r="E3944" s="51">
+      <c r="E3944" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82243,7 +82972,7 @@
       <c r="D3945" s="28" t="s">
         <v>4831</v>
       </c>
-      <c r="E3945" s="51">
+      <c r="E3945" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82260,7 +82989,7 @@
       <c r="D3946" s="28" t="s">
         <v>4339</v>
       </c>
-      <c r="E3946" s="51">
+      <c r="E3946" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82277,7 +83006,7 @@
       <c r="D3947" s="28" t="s">
         <v>4569</v>
       </c>
-      <c r="E3947" s="51">
+      <c r="E3947" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82294,7 +83023,7 @@
       <c r="D3948" s="28" t="s">
         <v>4338</v>
       </c>
-      <c r="E3948" s="51">
+      <c r="E3948" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82311,7 +83040,7 @@
       <c r="D3949" s="28" t="s">
         <v>4832</v>
       </c>
-      <c r="E3949" s="51">
+      <c r="E3949" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82328,7 +83057,7 @@
       <c r="D3950" s="28" t="s">
         <v>4658</v>
       </c>
-      <c r="E3950" s="51">
+      <c r="E3950" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82345,7 +83074,7 @@
       <c r="D3951" s="104" t="s">
         <v>4872</v>
       </c>
-      <c r="E3951" s="51">
+      <c r="E3951" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82362,7 +83091,7 @@
       <c r="D3952" s="104" t="s">
         <v>4873</v>
       </c>
-      <c r="E3952" s="51">
+      <c r="E3952" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82379,7 +83108,7 @@
       <c r="D3953" s="104" t="s">
         <v>4874</v>
       </c>
-      <c r="E3953" s="51">
+      <c r="E3953" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82396,7 +83125,7 @@
       <c r="D3954" s="104" t="s">
         <v>4875</v>
       </c>
-      <c r="E3954" s="51">
+      <c r="E3954" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82413,7 +83142,7 @@
       <c r="D3955" s="104" t="s">
         <v>4876</v>
       </c>
-      <c r="E3955" s="51">
+      <c r="E3955" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82430,7 +83159,7 @@
       <c r="D3956" s="104" t="s">
         <v>4877</v>
       </c>
-      <c r="E3956" s="51">
+      <c r="E3956" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82447,7 +83176,7 @@
       <c r="D3957" s="104" t="s">
         <v>4878</v>
       </c>
-      <c r="E3957" s="51">
+      <c r="E3957" s="96">
         <v>1</v>
       </c>
     </row>
@@ -82464,7 +83193,3679 @@
       <c r="D3958" s="104" t="s">
         <v>4879</v>
       </c>
-      <c r="E3958" s="51">
+      <c r="E3958" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3959" s="27" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B3959" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3959" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3959" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3959" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3960" s="27" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B3960" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3960" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3960" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E3960" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3961" s="27" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B3961" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3961" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3961" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E3961" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3962" s="27" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B3962" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3962" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3962" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E3962" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3963" s="27" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B3963" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3963" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3963" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3963" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3964" s="27" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B3964" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3964" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3964" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E3964" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3965" s="27" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B3965" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3965" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3965" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E3965" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3966" s="27" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B3966" s="27" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C3966" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3966" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E3966" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3967" s="28" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B3967" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3967" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3967" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3967" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3968" s="28" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B3968" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3968" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3968" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E3968" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3969" s="28" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B3969" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3969" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3969" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E3969" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3970" s="28" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B3970" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3970" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3970" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E3970" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3971" s="28" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B3971" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3971" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3971" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3971" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3972" s="28" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B3972" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3972" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3972" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E3972" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3973" s="28" t="s">
+        <v>4908</v>
+      </c>
+      <c r="B3973" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3973" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3973" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E3973" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3974" s="28" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B3974" s="28" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C3974" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3974" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E3974" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3975" s="27" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B3975" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3975" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3975" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3975" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3976" s="27" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B3976" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3976" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3976" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E3976" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3977" s="27" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B3977" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3977" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3977" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E3977" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3978" s="27" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B3978" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3978" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3978" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E3978" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3979" s="27" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B3979" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3979" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3979" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3979" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3980" s="27" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B3980" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3980" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3980" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E3980" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3981" s="27" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B3981" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3981" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3981" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E3981" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3982" s="27" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B3982" s="27" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C3982" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3982" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E3982" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3983" s="28" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B3983" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3983" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3983" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3983" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3984" s="28" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B3984" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3984" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3984" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E3984" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3985" s="28" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B3985" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3985" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3985" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E3985" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3986" s="28" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B3986" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3986" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3986" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E3986" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3987" s="28" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B3987" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3987" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3987" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3987" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3988" s="28" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B3988" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3988" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3988" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E3988" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3989" s="28" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B3989" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3989" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3989" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E3989" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3990" s="28" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B3990" s="28" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C3990" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3990" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E3990" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3991" s="27" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B3991" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3991" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3991" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3991" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3992" s="27" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B3992" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3992" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3992" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E3992" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3993" s="27" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B3993" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3993" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D3993" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E3993" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3994" s="27" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B3994" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3994" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3994" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E3994" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3995" s="27" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B3995" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3995" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3995" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E3995" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3996" s="27" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B3996" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3996" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3996" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E3996" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3997" s="27" t="s">
+        <v>4932</v>
+      </c>
+      <c r="B3997" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3997" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3997" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E3997" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3998" s="27" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B3998" s="27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C3998" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3998" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E3998" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3999" s="28" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B3999" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C3999" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3999" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E3999" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4000" s="28" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B4000" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4000" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4000" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4000" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4001" s="28" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B4001" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4001" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4001" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4001" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4002" s="28" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B4002" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4002" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4002" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4002" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4003" s="28" t="s">
+        <v>4938</v>
+      </c>
+      <c r="B4003" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4003" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4003" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4003" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4004" s="28" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B4004" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4004" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4004" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4004" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4005" s="28" t="s">
+        <v>4940</v>
+      </c>
+      <c r="B4005" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4005" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4005" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4005" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4006" s="28" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B4006" s="28" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C4006" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4006" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4006" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4007" s="27" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B4007" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4007" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4007" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4007" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4008" s="27" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B4008" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4008" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4008" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4008" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4009" s="27" t="s">
+        <v>4944</v>
+      </c>
+      <c r="B4009" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4009" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4009" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4009" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4010" s="27" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B4010" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4010" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4010" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4010" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4011" s="27" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B4011" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4011" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4011" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4011" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4012" s="27" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B4012" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4012" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4012" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4012" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4013" s="27" t="s">
+        <v>4948</v>
+      </c>
+      <c r="B4013" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4013" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4013" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4013" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4014" s="27" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B4014" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4014" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4014" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4014" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4015" s="28" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B4015" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4015" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4015" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4015" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4016" s="28" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B4016" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4016" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4016" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4016" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4017" s="28" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B4017" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4017" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4017" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4017" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4018" s="28" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B4018" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4018" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4018" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4018" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4019" s="28" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B4019" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4019" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4019" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4019" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4020" s="28" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B4020" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4020" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4020" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4020" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4021" s="28" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B4021" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4021" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4021" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4021" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4022" s="28" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B4022" s="28" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C4022" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4022" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4022" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4023" s="27" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B4023" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4023" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4023" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4023" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4024" s="27" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B4024" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4024" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4024" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4024" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4025" s="27" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B4025" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4025" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4025" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4025" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4026" s="27" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B4026" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4026" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4026" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4026" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4027" s="27" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B4027" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4027" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4027" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4027" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4028" s="27" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B4028" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4028" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4028" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4028" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4029" s="27" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B4029" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4029" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4029" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4029" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4030" s="27" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B4030" s="27" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C4030" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4030" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4030" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4031" s="28" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B4031" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4031" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4031" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4031" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4032" s="28" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B4032" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4032" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4032" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4032" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4033" s="28" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B4033" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4033" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4033" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4033" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4034" s="28" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B4034" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4034" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4034" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4034" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4035" s="28" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B4035" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4035" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4035" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4035" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4036" s="28" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B4036" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4036" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4036" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4036" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4037" s="28" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B4037" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4037" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4037" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4037" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4038" s="28" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B4038" s="28" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C4038" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4038" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4038" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4039" s="27" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B4039" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4039" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4039" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4039" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4040" s="27" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B4040" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4040" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4040" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4040" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4041" s="27" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B4041" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4041" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4041" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4041" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4042" s="27" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B4042" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4042" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4042" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4042" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4043" s="27" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B4043" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4043" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4043" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4043" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4044" s="27" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B4044" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4044" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4044" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4044" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4045" s="27" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B4045" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4045" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4045" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4045" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4046" s="27" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B4046" s="27" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C4046" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4046" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4046" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4047" s="28" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B4047" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4047" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4047" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4047" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4048" s="28" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B4048" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4048" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4048" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4048" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4049" s="28" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B4049" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4049" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4049" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4049" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4050" s="28" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B4050" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4050" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4050" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4050" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4051" s="28" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B4051" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4051" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4051" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4051" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4052" s="28" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B4052" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4052" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4052" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4052" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4053" s="28" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B4053" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4053" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4053" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4053" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4054" s="28" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B4054" s="28" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C4054" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4054" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4054" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4055" s="27" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B4055" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4055" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4055" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4055" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4056" s="27" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B4056" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4056" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4056" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4056" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4057" s="27" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B4057" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4057" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4057" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4057" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4058" s="27" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B4058" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4058" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4058" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4058" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4059" s="27" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B4059" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4059" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4059" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4059" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4060" s="27" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B4060" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4060" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4060" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4060" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4061" s="27" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B4061" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4061" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4061" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4061" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4062" s="27" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B4062" s="27" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C4062" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4062" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4062" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4063" s="28" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B4063" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4063" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4063" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4063" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4064" s="28" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B4064" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4064" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4064" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4064" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4065" s="28" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B4065" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4065" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4065" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4065" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4066" s="28" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B4066" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4066" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4066" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4066" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4067" s="28" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B4067" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4067" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4067" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4067" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4068" s="28" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B4068" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4068" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4068" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4068" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4069" s="28" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B4069" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4069" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4069" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4069" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4070" s="28" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B4070" s="28" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C4070" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4070" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4070" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4071" s="27" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B4071" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4071" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4071" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4071" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4072" s="27" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B4072" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4072" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4072" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4072" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4073" s="27" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B4073" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4073" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4073" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4073" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4074" s="27" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B4074" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4074" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4074" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4074" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4075" s="27" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B4075" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4075" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4075" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4075" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4076" s="27" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B4076" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4076" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4076" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4076" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4077" s="27" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B4077" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4077" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4077" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4077" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4078" s="27" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B4078" s="27" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C4078" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4078" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4078" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4079" s="28" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B4079" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4079" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4079" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4079" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4080" s="28" t="s">
+        <v>5023</v>
+      </c>
+      <c r="B4080" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4080" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4080" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4080" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4081" s="28" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B4081" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4081" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4081" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4081" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4082" s="28" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B4082" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4082" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4082" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4082" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4083" s="28" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B4083" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4083" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4083" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4083" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4084" s="28" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B4084" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4084" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4084" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4084" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4085" s="28" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B4085" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4085" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4085" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4085" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4086" s="28" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B4086" s="28" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C4086" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4086" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4086" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4087" s="28" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B4087" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4087" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4087" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4087" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4088" s="28" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B4088" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4088" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4088" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4088" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4089" s="28" t="s">
+        <v>5036</v>
+      </c>
+      <c r="B4089" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4089" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4089" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4089" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4090" s="28" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B4090" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4090" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4090" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4090" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4091" s="28" t="s">
+        <v>5038</v>
+      </c>
+      <c r="B4091" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4091" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4091" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4091" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4092" s="28" t="s">
+        <v>5039</v>
+      </c>
+      <c r="B4092" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4092" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4092" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4092" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4093" s="28" t="s">
+        <v>5040</v>
+      </c>
+      <c r="B4093" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4093" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4093" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4093" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4094" s="28" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B4094" s="27" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C4094" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4094" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4094" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4095" s="28" t="s">
+        <v>5042</v>
+      </c>
+      <c r="B4095" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4095" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4095" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4095" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4096" s="28" t="s">
+        <v>5043</v>
+      </c>
+      <c r="B4096" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4096" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4096" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4096" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4097" s="28" t="s">
+        <v>5044</v>
+      </c>
+      <c r="B4097" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4097" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4097" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4097" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4098" s="28" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B4098" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4098" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4098" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4098" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4099" s="28" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B4099" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4099" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4099" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4099" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4100" s="28" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B4100" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4100" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4100" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4100" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4101" s="28" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B4101" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4101" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4101" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4101" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4102" s="28" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B4102" s="28" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C4102" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4102" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4102" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4103" s="28" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B4103" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4103" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4103" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4103" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4104" s="28" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B4104" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4104" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4104" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4104" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4105" s="28" t="s">
+        <v>5052</v>
+      </c>
+      <c r="B4105" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4105" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4105" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4105" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4106" s="28" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B4106" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4106" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4106" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4106" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4107" s="28" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B4107" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4107" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4107" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4107" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4108" s="28" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B4108" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4108" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4108" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4108" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4109" s="28" t="s">
+        <v>5056</v>
+      </c>
+      <c r="B4109" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4109" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4109" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4109" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4110" s="28" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B4110" s="27" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C4110" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4110" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4110" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4111" s="28" t="s">
+        <v>5058</v>
+      </c>
+      <c r="B4111" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4111" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4111" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4111" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4112" s="28" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B4112" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4112" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4112" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4112" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4113" s="28" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B4113" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4113" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4113" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4113" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4114" s="28" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B4114" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4114" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4114" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4114" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4115" s="28" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B4115" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4115" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4115" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4115" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4116" s="28" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B4116" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4116" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4116" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4116" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4117" s="28" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B4117" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4117" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4117" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4117" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4118" s="28" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B4118" s="28" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C4118" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4118" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4118" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4119" s="28" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B4119" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4119" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4119" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4119" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4120" s="28" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B4120" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4120" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4120" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4120" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4121" s="28" t="s">
+        <v>5068</v>
+      </c>
+      <c r="B4121" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4121" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4121" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4121" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4122" s="28" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B4122" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4122" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4122" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4122" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4123" s="28" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B4123" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4123" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4123" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4123" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4124" s="28" t="s">
+        <v>5071</v>
+      </c>
+      <c r="B4124" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4124" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4124" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4124" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4125" s="28" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B4125" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4125" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4125" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4125" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4126" s="28" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B4126" s="27" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C4126" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4126" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4126" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4127" s="28" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B4127" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4127" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4127" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4127" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4128" s="28" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B4128" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4128" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4128" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4128" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4129" s="28" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B4129" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4129" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4129" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4129" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4130" s="28" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B4130" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4130" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4130" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4130" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4131" s="28" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B4131" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4131" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4131" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4131" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4132" s="28" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B4132" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4132" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4132" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4132" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4133" s="28" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B4133" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4133" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4133" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4133" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4134" s="28" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B4134" s="28" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C4134" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4134" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4134" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4135" s="28" t="s">
+        <v>5082</v>
+      </c>
+      <c r="B4135" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4135" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4135" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4135" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4136" s="28" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B4136" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4136" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4136" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4136" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4137" s="28" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B4137" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4137" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4137" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4137" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4138" s="28" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B4138" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4138" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4138" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4138" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4139" s="28" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B4139" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4139" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4139" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4139" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4140" s="28" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B4140" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4140" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4140" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4140" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4141" s="28" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B4141" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4141" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4141" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4141" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4142" s="28" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B4142" s="27" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C4142" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4142" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4142" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4143" s="28" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B4143" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4143" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4143" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4143" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4144" s="28" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B4144" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4144" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4144" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4144" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4145" s="28" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B4145" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4145" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4145" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4145" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4146" s="28" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B4146" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4146" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4146" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4146" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4147" s="28" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B4147" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4147" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4147" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4147" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4148" s="28" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B4148" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4148" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4148" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4148" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4149" s="28" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B4149" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4149" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4149" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4149" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4150" s="28" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B4150" s="28" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C4150" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4150" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4150" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4151" s="28" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B4151" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4151" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4151" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4151" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4152" s="28" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B4152" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4152" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4152" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4152" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4153" s="28" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B4153" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4153" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4153" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4153" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4154" s="28" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B4154" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4154" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4154" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4154" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4155" s="28" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B4155" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4155" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4155" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4155" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4156" s="28" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B4156" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4156" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4156" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4156" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4157" s="28" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B4157" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4157" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4157" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4157" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4158" s="28" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B4158" s="27" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C4158" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4158" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4158" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4159" s="28" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B4159" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4159" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4159" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4159" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4160" s="28" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B4160" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4160" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4160" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4160" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4161" s="28" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B4161" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4161" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4161" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4161" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4162" s="28" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B4162" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4162" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4162" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4162" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4163" s="28" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B4163" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4163" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4163" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4163" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4164" s="28" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B4164" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4164" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4164" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4164" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4165" s="28" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B4165" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4165" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4165" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4165" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4166" s="28" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B4166" s="28" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C4166" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4166" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4166" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4167" s="27" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B4167" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4167" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4167" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4167" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4168" s="27" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B4168" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4168" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4168" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4168" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4169" s="27" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B4169" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4169" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4169" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4169" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4170" s="27" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B4170" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4170" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4170" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4170" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4171" s="27" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B4171" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4171" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4171" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4171" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4172" s="27" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B4172" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4172" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4172" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4172" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4173" s="27" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B4173" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4173" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4173" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4173" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4174" s="27" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B4174" s="27" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C4174" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4174" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4174" s="96">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15607" uniqueCount="5123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="5126">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15400,6 +15400,15 @@
   </si>
   <si>
     <t>DSS5169</t>
+  </si>
+  <si>
+    <t>DSS5170</t>
+  </si>
+  <si>
+    <t>14-Dec-2026</t>
+  </si>
+  <si>
+    <t>DSS5171</t>
   </si>
 </sst>
 </file>
@@ -16254,7 +16263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16262,10 +16271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4174"/>
+  <dimension ref="A1:E4176"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4166" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B4177" sqref="B4177"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4003" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C4016" sqref="C4016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86866,6 +86875,40 @@
         <v>4879</v>
       </c>
       <c r="E4174" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4175" s="28" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B4175" s="28" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C4175" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4175" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4175" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4176" s="27" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B4176" s="27" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C4176" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4176" s="27" t="s">
+        <v>5124</v>
+      </c>
+      <c r="E4176" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="5126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15647" uniqueCount="5135">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15409,6 +15409,33 @@
   </si>
   <si>
     <t>DSS5171</t>
+  </si>
+  <si>
+    <t>Ali Mohsen Hassan Abdelmagid</t>
+  </si>
+  <si>
+    <t>DSS5172</t>
+  </si>
+  <si>
+    <t>DSS5173</t>
+  </si>
+  <si>
+    <t>DSS5174</t>
+  </si>
+  <si>
+    <t>DSS5175</t>
+  </si>
+  <si>
+    <t>DSS5176</t>
+  </si>
+  <si>
+    <t>DSS5177</t>
+  </si>
+  <si>
+    <t>DSS5178</t>
+  </si>
+  <si>
+    <t>DSS5179</t>
   </si>
 </sst>
 </file>
@@ -16263,7 +16290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16271,10 +16298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4176"/>
+  <dimension ref="A1:E4184"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4003" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4016" sqref="C4016"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4172" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B4187" sqref="B4187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86909,6 +86936,142 @@
         <v>5124</v>
       </c>
       <c r="E4176" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4177" s="28" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B4177" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4177" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4177" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4177" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4178" s="28" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B4178" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4178" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4178" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4178" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4179" s="28" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B4179" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4179" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4179" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4179" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4180" s="28" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B4180" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4180" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4180" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4180" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4181" s="28" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B4181" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4181" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4181" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4181" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4182" s="28" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B4182" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4182" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4182" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4182" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4183" s="28" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B4183" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4183" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4183" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4183" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4184" s="28" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B4184" s="28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C4184" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4184" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4184" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15647" uniqueCount="5135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="5140">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15436,6 +15436,21 @@
   </si>
   <si>
     <t>DSS5179</t>
+  </si>
+  <si>
+    <t>ESLAM MOHAMED ABOUELEYUON HASSAN</t>
+  </si>
+  <si>
+    <t>03-Feb-2025</t>
+  </si>
+  <si>
+    <t>05-Feb-2025</t>
+  </si>
+  <si>
+    <t>DSS5180</t>
+  </si>
+  <si>
+    <t>DSS5181</t>
   </si>
 </sst>
 </file>
@@ -16298,10 +16313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4184"/>
+  <dimension ref="A1:E4186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4172" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B4187" sqref="B4187"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4170" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B4188" sqref="B4188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87072,6 +87087,40 @@
         <v>4879</v>
       </c>
       <c r="E4184" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4185" s="27" t="s">
+        <v>5138</v>
+      </c>
+      <c r="B4185" s="27" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C4185" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4185" s="27" t="s">
+        <v>5136</v>
+      </c>
+      <c r="E4185" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4186" s="27" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B4186" s="27" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C4186" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4186" s="27" t="s">
+        <v>5137</v>
+      </c>
+      <c r="E4186" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="5140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15695" uniqueCount="5152">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15405,9 +15405,6 @@
     <t>DSS5170</t>
   </si>
   <si>
-    <t>14-Dec-2026</t>
-  </si>
-  <si>
     <t>DSS5171</t>
   </si>
   <si>
@@ -15451,6 +15448,45 @@
   </si>
   <si>
     <t>DSS5181</t>
+  </si>
+  <si>
+    <t>Ahmed Ismail Abdellatif Albehairy</t>
+  </si>
+  <si>
+    <t>DSS5182</t>
+  </si>
+  <si>
+    <t>DSS5183</t>
+  </si>
+  <si>
+    <t>DSS5184</t>
+  </si>
+  <si>
+    <t>DSS5185</t>
+  </si>
+  <si>
+    <t>DSS5186</t>
+  </si>
+  <si>
+    <t>DSS5187</t>
+  </si>
+  <si>
+    <t>DSS5188</t>
+  </si>
+  <si>
+    <t>DSS5189</t>
+  </si>
+  <si>
+    <t>14-Dec-2025</t>
+  </si>
+  <si>
+    <t>DSS5190</t>
+  </si>
+  <si>
+    <t>DSS5191</t>
+  </si>
+  <si>
+    <t>MOHAMED SALAH ABDELLATIF ELMESERY</t>
   </si>
 </sst>
 </file>
@@ -16313,10 +16349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4186"/>
+  <dimension ref="A1:E4196"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4170" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B4188" sqref="B4188"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4182" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D4196" sqref="D4196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86933,13 +86969,13 @@
       <c r="D4175" s="28" t="s">
         <v>4879</v>
       </c>
-      <c r="E4175" s="51">
+      <c r="E4175" s="96">
         <v>1</v>
       </c>
     </row>
     <row r="4176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4176" s="27" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="B4176" s="27" t="s">
         <v>5014</v>
@@ -86948,18 +86984,18 @@
         <v>462</v>
       </c>
       <c r="D4176" s="27" t="s">
-        <v>5124</v>
-      </c>
-      <c r="E4176" s="51">
+        <v>5148</v>
+      </c>
+      <c r="E4176" s="96">
         <v>1</v>
       </c>
     </row>
     <row r="4177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4177" s="28" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="B4177" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4177" s="28" t="s">
         <v>2</v>
@@ -86967,16 +87003,16 @@
       <c r="D4177" s="28" t="s">
         <v>4872</v>
       </c>
-      <c r="E4177" s="51">
+      <c r="E4177" s="96">
         <v>1</v>
       </c>
     </row>
     <row r="4178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4178" s="28" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="B4178" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4178" s="28" t="s">
         <v>230</v>
@@ -86990,10 +87026,10 @@
     </row>
     <row r="4179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4179" s="28" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="B4179" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4179" s="28" t="s">
         <v>952</v>
@@ -87007,10 +87043,10 @@
     </row>
     <row r="4180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4180" s="28" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="B4180" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4180" s="28" t="s">
         <v>3859</v>
@@ -87024,10 +87060,10 @@
     </row>
     <row r="4181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4181" s="28" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="B4181" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4181" s="28" t="s">
         <v>247</v>
@@ -87041,10 +87077,10 @@
     </row>
     <row r="4182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4182" s="28" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="B4182" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4182" s="28" t="s">
         <v>263</v>
@@ -87058,10 +87094,10 @@
     </row>
     <row r="4183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4183" s="28" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="B4183" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4183" s="28" t="s">
         <v>252</v>
@@ -87075,10 +87111,10 @@
     </row>
     <row r="4184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4184" s="28" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="B4184" s="28" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="C4184" s="28" t="s">
         <v>231</v>
@@ -87092,16 +87128,16 @@
     </row>
     <row r="4185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4185" s="27" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="B4185" s="27" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="C4185" s="27" t="s">
         <v>462</v>
       </c>
       <c r="D4185" s="27" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="E4185" s="51">
         <v>1</v>
@@ -87109,18 +87145,188 @@
     </row>
     <row r="4186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4186" s="27" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="B4186" s="27" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="C4186" s="27" t="s">
         <v>3859</v>
       </c>
       <c r="D4186" s="27" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="E4186" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4187" s="28" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B4187" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4187" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4187" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4187" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4188" s="28" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B4188" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4188" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4188" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4188" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4189" s="28" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B4189" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4189" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4189" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4189" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4190" s="28" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B4190" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4190" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4190" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4190" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4191" s="28" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B4191" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4191" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4191" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4191" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4192" s="28" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B4192" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4192" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4192" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4192" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4193" s="28" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B4193" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4193" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4193" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4193" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4194" s="28" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B4194" s="28" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C4194" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4194" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4194" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4195" s="27" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B4195" s="27" t="s">
+        <v>5151</v>
+      </c>
+      <c r="C4195" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4195" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4195" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4196" s="27" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B4196" s="27" t="s">
+        <v>5151</v>
+      </c>
+      <c r="C4196" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4196" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4196" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15695" uniqueCount="5152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15727" uniqueCount="5161">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15487,6 +15487,33 @@
   </si>
   <si>
     <t>MOHAMED SALAH ABDELLATIF ELMESERY</t>
+  </si>
+  <si>
+    <t>Ahmed Gamal Eid Mahmoud</t>
+  </si>
+  <si>
+    <t>DSS5192</t>
+  </si>
+  <si>
+    <t>DSS5193</t>
+  </si>
+  <si>
+    <t>DSS5194</t>
+  </si>
+  <si>
+    <t>DSS5195</t>
+  </si>
+  <si>
+    <t>DSS5196</t>
+  </si>
+  <si>
+    <t>DSS5197</t>
+  </si>
+  <si>
+    <t>DSS5198</t>
+  </si>
+  <si>
+    <t>DSS5199</t>
   </si>
 </sst>
 </file>
@@ -16341,7 +16368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16349,10 +16376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4196"/>
+  <dimension ref="A1:E4204"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4182" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D4196" sqref="D4196"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4194" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B4209" sqref="B4209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87327,6 +87354,142 @@
         <v>4872</v>
       </c>
       <c r="E4196" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4197" s="28" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B4197" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4197" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4197" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4197" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4198" s="28" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B4198" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4198" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4198" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4198" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4199" s="28" t="s">
+        <v>5155</v>
+      </c>
+      <c r="B4199" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4199" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4199" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4199" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4200" s="28" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B4200" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4200" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4200" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4200" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4201" s="28" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B4201" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4201" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4201" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4201" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4202" s="28" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B4202" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4202" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4202" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4202" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4203" s="28" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B4203" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4203" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4203" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4203" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4204" s="28" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B4204" s="28" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C4204" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4204" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4204" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4207</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4251</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15727" uniqueCount="5161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15887" uniqueCount="5206">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15514,6 +15514,141 @@
   </si>
   <si>
     <t>DSS5199</t>
+  </si>
+  <si>
+    <t>Deyaa Kamal Abdelneim Hussein</t>
+  </si>
+  <si>
+    <t>DSS5200</t>
+  </si>
+  <si>
+    <t>DSS5201</t>
+  </si>
+  <si>
+    <t>DSS5202</t>
+  </si>
+  <si>
+    <t>DSS5203</t>
+  </si>
+  <si>
+    <t>DSS5204</t>
+  </si>
+  <si>
+    <t>DSS5205</t>
+  </si>
+  <si>
+    <t>DSS5206</t>
+  </si>
+  <si>
+    <t>DSS5207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdelrauof Ahmed Mohamed Alshik Eissa </t>
+  </si>
+  <si>
+    <t>DSS5208</t>
+  </si>
+  <si>
+    <t>DSS5209</t>
+  </si>
+  <si>
+    <t>DSS5210</t>
+  </si>
+  <si>
+    <t>DSS5211</t>
+  </si>
+  <si>
+    <t>DSS5212</t>
+  </si>
+  <si>
+    <t>DSS5213</t>
+  </si>
+  <si>
+    <t>DSS5214</t>
+  </si>
+  <si>
+    <t>DSS5215</t>
+  </si>
+  <si>
+    <t>Khaled AbdelSabour AbdelAtti Ismail</t>
+  </si>
+  <si>
+    <t>DSS5216</t>
+  </si>
+  <si>
+    <t>DSS5217</t>
+  </si>
+  <si>
+    <t>DSS5218</t>
+  </si>
+  <si>
+    <t>DSS5219</t>
+  </si>
+  <si>
+    <t>DSS5220</t>
+  </si>
+  <si>
+    <t>DSS5221</t>
+  </si>
+  <si>
+    <t>DSS5222</t>
+  </si>
+  <si>
+    <t>DSS5223</t>
+  </si>
+  <si>
+    <t>MOHAMMED ALI MOHAMMED ASIRI</t>
+  </si>
+  <si>
+    <t>DSS5224</t>
+  </si>
+  <si>
+    <t>DSS5225</t>
+  </si>
+  <si>
+    <t>DSS5226</t>
+  </si>
+  <si>
+    <t>DSS5227</t>
+  </si>
+  <si>
+    <t>DSS5228</t>
+  </si>
+  <si>
+    <t>DSS5229</t>
+  </si>
+  <si>
+    <t>DSS5230</t>
+  </si>
+  <si>
+    <t>DSS5231</t>
+  </si>
+  <si>
+    <t>Ziad Yasser Hassan Alkasaby</t>
+  </si>
+  <si>
+    <t>DSS5232</t>
+  </si>
+  <si>
+    <t>DSS5233</t>
+  </si>
+  <si>
+    <t>DSS5234</t>
+  </si>
+  <si>
+    <t>DSS5235</t>
+  </si>
+  <si>
+    <t>DSS5236</t>
+  </si>
+  <si>
+    <t>DSS5237</t>
+  </si>
+  <si>
+    <t>DSS5238</t>
+  </si>
+  <si>
+    <t>DSS5239</t>
   </si>
 </sst>
 </file>
@@ -15774,7 +15909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -16091,6 +16226,9 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16376,10 +16514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4204"/>
+  <dimension ref="A1:E4244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4194" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B4209" sqref="B4209"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4232" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C4248" sqref="C4248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87030,7 +87168,7 @@
       <c r="D4177" s="28" t="s">
         <v>4872</v>
       </c>
-      <c r="E4177" s="96">
+      <c r="E4177" s="51">
         <v>1</v>
       </c>
     </row>
@@ -87370,7 +87508,7 @@
       <c r="D4197" s="28" t="s">
         <v>4872</v>
       </c>
-      <c r="E4197" s="51">
+      <c r="E4197" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87387,7 +87525,7 @@
       <c r="D4198" s="28" t="s">
         <v>4873</v>
       </c>
-      <c r="E4198" s="51">
+      <c r="E4198" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87404,7 +87542,7 @@
       <c r="D4199" s="28" t="s">
         <v>4874</v>
       </c>
-      <c r="E4199" s="51">
+      <c r="E4199" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87421,7 +87559,7 @@
       <c r="D4200" s="28" t="s">
         <v>4875</v>
       </c>
-      <c r="E4200" s="51">
+      <c r="E4200" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87438,7 +87576,7 @@
       <c r="D4201" s="28" t="s">
         <v>4876</v>
       </c>
-      <c r="E4201" s="51">
+      <c r="E4201" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87455,7 +87593,7 @@
       <c r="D4202" s="28" t="s">
         <v>4877</v>
       </c>
-      <c r="E4202" s="51">
+      <c r="E4202" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87472,7 +87610,7 @@
       <c r="D4203" s="28" t="s">
         <v>4878</v>
       </c>
-      <c r="E4203" s="51">
+      <c r="E4203" s="96">
         <v>1</v>
       </c>
     </row>
@@ -87489,7 +87627,687 @@
       <c r="D4204" s="28" t="s">
         <v>4879</v>
       </c>
-      <c r="E4204" s="51">
+      <c r="E4204" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4205" s="27" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B4205" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4205" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4205" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4205" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4206" s="27" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B4206" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4206" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4206" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4206" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4207" s="27" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B4207" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4207" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4207" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4207" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4208" s="27" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B4208" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4208" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4208" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4208" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4209" s="27" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B4209" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4209" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4209" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4209" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4210" s="27" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B4210" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4210" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4210" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4210" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4211" s="27" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B4211" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4211" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4211" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4211" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4212" s="27" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B4212" s="27" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C4212" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4212" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4212" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4213" s="28" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B4213" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4213" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4213" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4213" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4214" s="28" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B4214" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4214" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4214" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4214" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4215" s="28" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B4215" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4215" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4215" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4215" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4216" s="28" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B4216" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4216" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4216" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4216" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4217" s="28" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B4217" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4217" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4217" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4217" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4218" s="28" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B4218" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4218" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4218" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4218" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4219" s="28" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B4219" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4219" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4219" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4219" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4220" s="28" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B4220" s="28" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C4220" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4220" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4220" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4221" s="27" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B4221" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4221" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4221" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4221" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4222" s="27" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B4222" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4222" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4222" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4222" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4223" s="27" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B4223" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4223" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4223" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4223" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4224" s="27" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B4224" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4224" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4224" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4224" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4225" s="27" t="s">
+        <v>5184</v>
+      </c>
+      <c r="B4225" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4225" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4225" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4225" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4226" s="27" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B4226" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4226" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4226" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4226" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4227" s="27" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B4227" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4227" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4227" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4227" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4228" s="27" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B4228" s="27" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C4228" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4228" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4228" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4229" s="28" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B4229" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4229" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4229" s="28" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4229" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4230" s="28" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B4230" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4230" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4230" s="28" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4230" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4231" s="28" t="s">
+        <v>5191</v>
+      </c>
+      <c r="B4231" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4231" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4231" s="28" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4231" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4232" s="28" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B4232" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4232" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4232" s="28" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4232" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4233" s="28" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B4233" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4233" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4233" s="28" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4233" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4234" s="28" t="s">
+        <v>5194</v>
+      </c>
+      <c r="B4234" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4234" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4234" s="28" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4234" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4235" s="28" t="s">
+        <v>5195</v>
+      </c>
+      <c r="B4235" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4235" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4235" s="28" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4235" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4236" s="28" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B4236" s="28" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C4236" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4236" s="28" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4236" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4237" s="27" t="s">
+        <v>5198</v>
+      </c>
+      <c r="B4237" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4237" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4237" s="27" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4237" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4238" s="27" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B4238" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4238" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4238" s="27" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4238" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4239" s="27" t="s">
+        <v>5200</v>
+      </c>
+      <c r="B4239" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4239" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4239" s="27" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4239" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4240" s="27" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B4240" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4240" s="27" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4240" s="27" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4240" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4241" s="27" t="s">
+        <v>5202</v>
+      </c>
+      <c r="B4241" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4241" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4241" s="27" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4241" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4242" s="27" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B4242" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4242" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4242" s="27" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4242" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4243" s="27" t="s">
+        <v>5204</v>
+      </c>
+      <c r="B4243" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4243" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4243" s="27" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4243" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4244" s="27" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B4244" s="27" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C4244" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4244" s="27" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4244" s="88">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4251</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4297</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15887" uniqueCount="5206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16047" uniqueCount="5261">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15649,6 +15649,171 @@
   </si>
   <si>
     <t>DSS5239</t>
+  </si>
+  <si>
+    <t>Ali Muhammad Ali Muhammad</t>
+  </si>
+  <si>
+    <t>Mustafa Abdel Aziz Farouk Abdel Aziz</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Abdelmohsen Mahmoud</t>
+  </si>
+  <si>
+    <t>Kareem Ahmed Ramadan Darwish</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Ahmed Hassan Elnagdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Hours OSHA Construction </t>
+  </si>
+  <si>
+    <t>15-Dec-2025</t>
+  </si>
+  <si>
+    <t>20-Dec-2025</t>
+  </si>
+  <si>
+    <t>16-Dec-2025</t>
+  </si>
+  <si>
+    <t>13-Dec-2025</t>
+  </si>
+  <si>
+    <t>11-Dec-2025</t>
+  </si>
+  <si>
+    <t>12-Dec-2025</t>
+  </si>
+  <si>
+    <t>17-Dec-2025</t>
+  </si>
+  <si>
+    <t>18-Dec-2025</t>
+  </si>
+  <si>
+    <t>DSS5240</t>
+  </si>
+  <si>
+    <t>DSS5241</t>
+  </si>
+  <si>
+    <t>DSS5242</t>
+  </si>
+  <si>
+    <t>DSS5243</t>
+  </si>
+  <si>
+    <t>DSS5244</t>
+  </si>
+  <si>
+    <t>DSS5245</t>
+  </si>
+  <si>
+    <t>DSS5246</t>
+  </si>
+  <si>
+    <t>DSS5247</t>
+  </si>
+  <si>
+    <t>DSS5248</t>
+  </si>
+  <si>
+    <t>DSS5249</t>
+  </si>
+  <si>
+    <t>DSS5250</t>
+  </si>
+  <si>
+    <t>DSS5251</t>
+  </si>
+  <si>
+    <t>DSS5252</t>
+  </si>
+  <si>
+    <t>DSS5253</t>
+  </si>
+  <si>
+    <t>DSS5254</t>
+  </si>
+  <si>
+    <t>DSS5255</t>
+  </si>
+  <si>
+    <t>DSS5256</t>
+  </si>
+  <si>
+    <t>DSS5257</t>
+  </si>
+  <si>
+    <t>DSS5258</t>
+  </si>
+  <si>
+    <t>DSS5259</t>
+  </si>
+  <si>
+    <t>DSS5260</t>
+  </si>
+  <si>
+    <t>DSS5261</t>
+  </si>
+  <si>
+    <t>DSS5262</t>
+  </si>
+  <si>
+    <t>DSS5263</t>
+  </si>
+  <si>
+    <t>DSS5264</t>
+  </si>
+  <si>
+    <t>DSS5265</t>
+  </si>
+  <si>
+    <t>DSS5266</t>
+  </si>
+  <si>
+    <t>DSS5267</t>
+  </si>
+  <si>
+    <t>DSS5268</t>
+  </si>
+  <si>
+    <t>DSS5269</t>
+  </si>
+  <si>
+    <t>DSS5270</t>
+  </si>
+  <si>
+    <t>DSS5271</t>
+  </si>
+  <si>
+    <t>DSS5272</t>
+  </si>
+  <si>
+    <t>DSS5273</t>
+  </si>
+  <si>
+    <t>DSS5274</t>
+  </si>
+  <si>
+    <t>DSS5275</t>
+  </si>
+  <si>
+    <t>DSS5276</t>
+  </si>
+  <si>
+    <t>DSS5277</t>
+  </si>
+  <si>
+    <t>DSS5278</t>
+  </si>
+  <si>
+    <t>DSS5279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Hours OSHA General Industry </t>
   </si>
 </sst>
 </file>
@@ -16506,7 +16671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16514,10 +16679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4244"/>
+  <dimension ref="A1:E4284"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4232" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4248" sqref="C4248"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4236" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C4247" sqref="C4247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87904,16 +88069,16 @@
       </c>
     </row>
     <row r="4221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4221" s="27" t="s">
+      <c r="A4221" s="104" t="s">
         <v>5180</v>
       </c>
-      <c r="B4221" s="27" t="s">
+      <c r="B4221" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4221" s="27" t="s">
+      <c r="C4221" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D4221" s="27" t="s">
+      <c r="D4221" s="104" t="s">
         <v>4872</v>
       </c>
       <c r="E4221" s="88">
@@ -87921,16 +88086,16 @@
       </c>
     </row>
     <row r="4222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4222" s="27" t="s">
+      <c r="A4222" s="104" t="s">
         <v>5181</v>
       </c>
-      <c r="B4222" s="27" t="s">
+      <c r="B4222" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4222" s="27" t="s">
+      <c r="C4222" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="D4222" s="27" t="s">
+      <c r="D4222" s="104" t="s">
         <v>4873</v>
       </c>
       <c r="E4222" s="88">
@@ -87938,16 +88103,16 @@
       </c>
     </row>
     <row r="4223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4223" s="27" t="s">
+      <c r="A4223" s="104" t="s">
         <v>5182</v>
       </c>
-      <c r="B4223" s="27" t="s">
+      <c r="B4223" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4223" s="27" t="s">
+      <c r="C4223" s="104" t="s">
         <v>952</v>
       </c>
-      <c r="D4223" s="27" t="s">
+      <c r="D4223" s="104" t="s">
         <v>4874</v>
       </c>
       <c r="E4223" s="88">
@@ -87955,16 +88120,16 @@
       </c>
     </row>
     <row r="4224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4224" s="27" t="s">
+      <c r="A4224" s="104" t="s">
         <v>5183</v>
       </c>
-      <c r="B4224" s="27" t="s">
+      <c r="B4224" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4224" s="27" t="s">
+      <c r="C4224" s="104" t="s">
         <v>3859</v>
       </c>
-      <c r="D4224" s="27" t="s">
+      <c r="D4224" s="104" t="s">
         <v>4875</v>
       </c>
       <c r="E4224" s="88">
@@ -87972,16 +88137,16 @@
       </c>
     </row>
     <row r="4225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4225" s="27" t="s">
+      <c r="A4225" s="104" t="s">
         <v>5184</v>
       </c>
-      <c r="B4225" s="27" t="s">
+      <c r="B4225" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4225" s="27" t="s">
+      <c r="C4225" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="D4225" s="27" t="s">
+      <c r="D4225" s="104" t="s">
         <v>4876</v>
       </c>
       <c r="E4225" s="88">
@@ -87989,16 +88154,16 @@
       </c>
     </row>
     <row r="4226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4226" s="27" t="s">
+      <c r="A4226" s="104" t="s">
         <v>5185</v>
       </c>
-      <c r="B4226" s="27" t="s">
+      <c r="B4226" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4226" s="27" t="s">
+      <c r="C4226" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="D4226" s="27" t="s">
+      <c r="D4226" s="104" t="s">
         <v>4877</v>
       </c>
       <c r="E4226" s="88">
@@ -88006,16 +88171,16 @@
       </c>
     </row>
     <row r="4227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4227" s="27" t="s">
+      <c r="A4227" s="104" t="s">
         <v>5186</v>
       </c>
-      <c r="B4227" s="27" t="s">
+      <c r="B4227" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4227" s="27" t="s">
+      <c r="C4227" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="D4227" s="27" t="s">
+      <c r="D4227" s="104" t="s">
         <v>4878</v>
       </c>
       <c r="E4227" s="88">
@@ -88023,16 +88188,16 @@
       </c>
     </row>
     <row r="4228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4228" s="27" t="s">
+      <c r="A4228" s="104" t="s">
         <v>5187</v>
       </c>
-      <c r="B4228" s="27" t="s">
+      <c r="B4228" s="104" t="s">
         <v>5179</v>
       </c>
-      <c r="C4228" s="27" t="s">
+      <c r="C4228" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="D4228" s="27" t="s">
+      <c r="D4228" s="104" t="s">
         <v>4879</v>
       </c>
       <c r="E4228" s="88">
@@ -88040,16 +88205,16 @@
       </c>
     </row>
     <row r="4229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4229" s="28" t="s">
+      <c r="A4229" s="52" t="s">
         <v>5189</v>
       </c>
-      <c r="B4229" s="28" t="s">
+      <c r="B4229" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4229" s="28" t="s">
+      <c r="C4229" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D4229" s="28" t="s">
+      <c r="D4229" s="52" t="s">
         <v>4872</v>
       </c>
       <c r="E4229" s="88">
@@ -88057,16 +88222,16 @@
       </c>
     </row>
     <row r="4230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4230" s="28" t="s">
+      <c r="A4230" s="52" t="s">
         <v>5190</v>
       </c>
-      <c r="B4230" s="28" t="s">
+      <c r="B4230" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4230" s="28" t="s">
+      <c r="C4230" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="D4230" s="28" t="s">
+      <c r="D4230" s="52" t="s">
         <v>4873</v>
       </c>
       <c r="E4230" s="88">
@@ -88074,16 +88239,16 @@
       </c>
     </row>
     <row r="4231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4231" s="28" t="s">
+      <c r="A4231" s="52" t="s">
         <v>5191</v>
       </c>
-      <c r="B4231" s="28" t="s">
+      <c r="B4231" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4231" s="28" t="s">
+      <c r="C4231" s="52" t="s">
         <v>952</v>
       </c>
-      <c r="D4231" s="28" t="s">
+      <c r="D4231" s="52" t="s">
         <v>4874</v>
       </c>
       <c r="E4231" s="88">
@@ -88091,16 +88256,16 @@
       </c>
     </row>
     <row r="4232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4232" s="28" t="s">
+      <c r="A4232" s="52" t="s">
         <v>5192</v>
       </c>
-      <c r="B4232" s="28" t="s">
+      <c r="B4232" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4232" s="28" t="s">
+      <c r="C4232" s="52" t="s">
         <v>3859</v>
       </c>
-      <c r="D4232" s="28" t="s">
+      <c r="D4232" s="52" t="s">
         <v>4875</v>
       </c>
       <c r="E4232" s="88">
@@ -88108,16 +88273,16 @@
       </c>
     </row>
     <row r="4233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4233" s="28" t="s">
+      <c r="A4233" s="52" t="s">
         <v>5193</v>
       </c>
-      <c r="B4233" s="28" t="s">
+      <c r="B4233" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4233" s="28" t="s">
+      <c r="C4233" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="D4233" s="28" t="s">
+      <c r="D4233" s="52" t="s">
         <v>4876</v>
       </c>
       <c r="E4233" s="88">
@@ -88125,16 +88290,16 @@
       </c>
     </row>
     <row r="4234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4234" s="28" t="s">
+      <c r="A4234" s="52" t="s">
         <v>5194</v>
       </c>
-      <c r="B4234" s="28" t="s">
+      <c r="B4234" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4234" s="28" t="s">
+      <c r="C4234" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="D4234" s="28" t="s">
+      <c r="D4234" s="52" t="s">
         <v>4877</v>
       </c>
       <c r="E4234" s="88">
@@ -88142,16 +88307,16 @@
       </c>
     </row>
     <row r="4235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4235" s="28" t="s">
+      <c r="A4235" s="52" t="s">
         <v>5195</v>
       </c>
-      <c r="B4235" s="28" t="s">
+      <c r="B4235" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4235" s="28" t="s">
+      <c r="C4235" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="D4235" s="28" t="s">
+      <c r="D4235" s="52" t="s">
         <v>4878</v>
       </c>
       <c r="E4235" s="88">
@@ -88159,16 +88324,16 @@
       </c>
     </row>
     <row r="4236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4236" s="28" t="s">
+      <c r="A4236" s="52" t="s">
         <v>5196</v>
       </c>
-      <c r="B4236" s="28" t="s">
+      <c r="B4236" s="52" t="s">
         <v>5188</v>
       </c>
-      <c r="C4236" s="28" t="s">
+      <c r="C4236" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D4236" s="28" t="s">
+      <c r="D4236" s="52" t="s">
         <v>4879</v>
       </c>
       <c r="E4236" s="88">
@@ -88176,16 +88341,16 @@
       </c>
     </row>
     <row r="4237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4237" s="27" t="s">
+      <c r="A4237" s="104" t="s">
         <v>5198</v>
       </c>
-      <c r="B4237" s="27" t="s">
+      <c r="B4237" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4237" s="27" t="s">
+      <c r="C4237" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D4237" s="27" t="s">
+      <c r="D4237" s="104" t="s">
         <v>4872</v>
       </c>
       <c r="E4237" s="88">
@@ -88193,16 +88358,16 @@
       </c>
     </row>
     <row r="4238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4238" s="27" t="s">
+      <c r="A4238" s="104" t="s">
         <v>5199</v>
       </c>
-      <c r="B4238" s="27" t="s">
+      <c r="B4238" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4238" s="27" t="s">
+      <c r="C4238" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="D4238" s="27" t="s">
+      <c r="D4238" s="104" t="s">
         <v>4873</v>
       </c>
       <c r="E4238" s="88">
@@ -88210,16 +88375,16 @@
       </c>
     </row>
     <row r="4239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4239" s="27" t="s">
+      <c r="A4239" s="104" t="s">
         <v>5200</v>
       </c>
-      <c r="B4239" s="27" t="s">
+      <c r="B4239" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4239" s="27" t="s">
+      <c r="C4239" s="104" t="s">
         <v>952</v>
       </c>
-      <c r="D4239" s="27" t="s">
+      <c r="D4239" s="104" t="s">
         <v>4874</v>
       </c>
       <c r="E4239" s="88">
@@ -88227,16 +88392,16 @@
       </c>
     </row>
     <row r="4240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4240" s="27" t="s">
+      <c r="A4240" s="104" t="s">
         <v>5201</v>
       </c>
-      <c r="B4240" s="27" t="s">
+      <c r="B4240" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4240" s="27" t="s">
+      <c r="C4240" s="104" t="s">
         <v>3859</v>
       </c>
-      <c r="D4240" s="27" t="s">
+      <c r="D4240" s="104" t="s">
         <v>4875</v>
       </c>
       <c r="E4240" s="88">
@@ -88244,16 +88409,16 @@
       </c>
     </row>
     <row r="4241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4241" s="27" t="s">
+      <c r="A4241" s="104" t="s">
         <v>5202</v>
       </c>
-      <c r="B4241" s="27" t="s">
+      <c r="B4241" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4241" s="27" t="s">
+      <c r="C4241" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="D4241" s="27" t="s">
+      <c r="D4241" s="104" t="s">
         <v>4876</v>
       </c>
       <c r="E4241" s="88">
@@ -88261,16 +88426,16 @@
       </c>
     </row>
     <row r="4242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4242" s="27" t="s">
+      <c r="A4242" s="104" t="s">
         <v>5203</v>
       </c>
-      <c r="B4242" s="27" t="s">
+      <c r="B4242" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4242" s="27" t="s">
+      <c r="C4242" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="D4242" s="27" t="s">
+      <c r="D4242" s="104" t="s">
         <v>4877</v>
       </c>
       <c r="E4242" s="88">
@@ -88278,16 +88443,16 @@
       </c>
     </row>
     <row r="4243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4243" s="27" t="s">
+      <c r="A4243" s="104" t="s">
         <v>5204</v>
       </c>
-      <c r="B4243" s="27" t="s">
+      <c r="B4243" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4243" s="27" t="s">
+      <c r="C4243" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="D4243" s="27" t="s">
+      <c r="D4243" s="104" t="s">
         <v>4878</v>
       </c>
       <c r="E4243" s="88">
@@ -88295,19 +88460,699 @@
       </c>
     </row>
     <row r="4244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4244" s="27" t="s">
+      <c r="A4244" s="104" t="s">
         <v>5205</v>
       </c>
-      <c r="B4244" s="27" t="s">
+      <c r="B4244" s="104" t="s">
         <v>5197</v>
       </c>
-      <c r="C4244" s="27" t="s">
+      <c r="C4244" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="D4244" s="27" t="s">
+      <c r="D4244" s="104" t="s">
         <v>4879</v>
       </c>
       <c r="E4244" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4245" s="52" t="s">
+        <v>5220</v>
+      </c>
+      <c r="B4245" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4245" s="52" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D4245" s="52" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4245" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4246" s="52" t="s">
+        <v>5221</v>
+      </c>
+      <c r="B4246" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4246" s="52" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D4246" s="52" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4246" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4247" s="52" t="s">
+        <v>5222</v>
+      </c>
+      <c r="B4247" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4247" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4247" s="52" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4247" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4248" s="52" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B4248" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4248" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4248" s="52" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4248" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4249" s="52" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B4249" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4249" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4249" s="52" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4249" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4250" s="52" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B4250" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4250" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4250" s="52" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4250" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4251" s="52" t="s">
+        <v>5226</v>
+      </c>
+      <c r="B4251" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4251" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4251" s="52" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4251" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4252" s="52" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B4252" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C4252" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4252" s="52" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E4252" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4253" s="104" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B4253" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4253" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D4253" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4253" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4254" s="104" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B4254" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4254" s="104" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D4254" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4254" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4255" s="104" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B4255" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4255" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4255" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4255" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4256" s="104" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B4256" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4256" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4256" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4256" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4257" s="104" t="s">
+        <v>5232</v>
+      </c>
+      <c r="B4257" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4257" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4257" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4257" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4258" s="104" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B4258" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4258" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4258" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4258" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4259" s="104" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B4259" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4259" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4259" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4259" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4260" s="104" t="s">
+        <v>5235</v>
+      </c>
+      <c r="B4260" s="104" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C4260" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4260" s="104" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E4260" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4261" s="52" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B4261" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4261" s="52" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D4261" s="52" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4261" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4262" s="52" t="s">
+        <v>5237</v>
+      </c>
+      <c r="B4262" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4262" s="52" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D4262" s="52" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4262" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4263" s="52" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B4263" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4263" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4263" s="52" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4263" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4264" s="52" t="s">
+        <v>5239</v>
+      </c>
+      <c r="B4264" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4264" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4264" s="52" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4264" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4265" s="52" t="s">
+        <v>5240</v>
+      </c>
+      <c r="B4265" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4265" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4265" s="52" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4265" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4266" s="52" t="s">
+        <v>5241</v>
+      </c>
+      <c r="B4266" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4266" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4266" s="52" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4266" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4267" s="52" t="s">
+        <v>5242</v>
+      </c>
+      <c r="B4267" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4267" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4267" s="52" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4267" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4268" s="52" t="s">
+        <v>5243</v>
+      </c>
+      <c r="B4268" s="52" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C4268" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4268" s="52" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E4268" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4269" s="104" t="s">
+        <v>5244</v>
+      </c>
+      <c r="B4269" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4269" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D4269" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4269" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4270" s="104" t="s">
+        <v>5245</v>
+      </c>
+      <c r="B4270" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4270" s="104" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D4270" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4270" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4271" s="104" t="s">
+        <v>5246</v>
+      </c>
+      <c r="B4271" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4271" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4271" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4271" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4272" s="104" t="s">
+        <v>5247</v>
+      </c>
+      <c r="B4272" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4272" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4272" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4272" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4273" s="104" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B4273" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4273" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4273" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4273" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4274" s="104" t="s">
+        <v>5249</v>
+      </c>
+      <c r="B4274" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4274" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4274" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4274" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4275" s="104" t="s">
+        <v>5250</v>
+      </c>
+      <c r="B4275" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4275" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4275" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4275" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4276" s="104" t="s">
+        <v>5251</v>
+      </c>
+      <c r="B4276" s="104" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C4276" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4276" s="104" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E4276" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4277" s="52" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B4277" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4277" s="52" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D4277" s="52" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4277" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4278" s="52" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B4278" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4278" s="52" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D4278" s="52" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4278" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4279" s="52" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B4279" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4279" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4279" s="52" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4279" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4280" s="52" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B4280" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4280" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4280" s="52" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4280" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4281" s="52" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B4281" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4281" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4281" s="52" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4281" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4282" s="52" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B4282" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4282" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4282" s="52" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4282" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4283" s="52" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B4283" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4283" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4283" s="52" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4283" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4284" s="52" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B4284" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C4284" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4284" s="52" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E4284" s="88">
         <v>1</v>
       </c>
     </row>
@@ -88320,7 +89165,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="29" manualBreakCount="29">
+  <rowBreaks count="30" manualBreakCount="30">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="16383" man="1"/>
     <brk id="493" max="16383" man="1"/>
@@ -88350,6 +89195,7 @@
     <brk id="3487" max="4" man="1"/>
     <brk id="3586" max="4" man="1"/>
     <brk id="3698" max="4" man="1"/>
+    <brk id="4244" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16047" uniqueCount="5261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16079" uniqueCount="5270">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15814,6 +15814,33 @@
   </si>
   <si>
     <t xml:space="preserve">30 Hours OSHA General Industry </t>
+  </si>
+  <si>
+    <t>SEDDEK MEDHAT SEDDEK MOHAMED</t>
+  </si>
+  <si>
+    <t>DSS5280</t>
+  </si>
+  <si>
+    <t>DSS5281</t>
+  </si>
+  <si>
+    <t>DSS5282</t>
+  </si>
+  <si>
+    <t>DSS5283</t>
+  </si>
+  <si>
+    <t>DSS5284</t>
+  </si>
+  <si>
+    <t>DSS5285</t>
+  </si>
+  <si>
+    <t>DSS5286</t>
+  </si>
+  <si>
+    <t>DSS5287</t>
   </si>
 </sst>
 </file>
@@ -16671,7 +16698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16679,10 +16706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4284"/>
+  <dimension ref="A1:E4292"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4236" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4247" sqref="C4247"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4281" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D4295" sqref="D4295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89153,6 +89180,142 @@
         <v>5219</v>
       </c>
       <c r="E4284" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4285" s="104" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B4285" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4285" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="D4285" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4285" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4286" s="104" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B4286" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4286" s="104" t="s">
+        <v>5260</v>
+      </c>
+      <c r="D4286" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4286" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4287" s="104" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B4287" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4287" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4287" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4287" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4288" s="104" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B4288" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4288" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4288" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4288" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4289" s="104" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B4289" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4289" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4289" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4289" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4290" s="104" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B4290" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4290" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4290" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4290" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4291" s="104" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B4291" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4291" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4291" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4291" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4292" s="104" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B4292" s="104" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C4292" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4292" s="104" t="s">
+        <v>5219</v>
+      </c>
+      <c r="E4292" s="88">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4297</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4306</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16079" uniqueCount="5270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16111" uniqueCount="5279">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15841,6 +15841,33 @@
   </si>
   <si>
     <t>DSS5287</t>
+  </si>
+  <si>
+    <t>Ahmed Gamil Abdelhady Marouf</t>
+  </si>
+  <si>
+    <t>DSS5288</t>
+  </si>
+  <si>
+    <t>DSS5289</t>
+  </si>
+  <si>
+    <t>DSS5290</t>
+  </si>
+  <si>
+    <t>DSS5291</t>
+  </si>
+  <si>
+    <t>DSS5292</t>
+  </si>
+  <si>
+    <t>DSS5293</t>
+  </si>
+  <si>
+    <t>DSS5294</t>
+  </si>
+  <si>
+    <t>DSS5295</t>
   </si>
 </sst>
 </file>
@@ -16706,10 +16733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4292"/>
+  <dimension ref="A1:E4300"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4281" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D4295" sqref="D4295"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4287" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C4303" sqref="C4303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88108,7 +88135,7 @@
       <c r="D4221" s="104" t="s">
         <v>4872</v>
       </c>
-      <c r="E4221" s="88">
+      <c r="E4221" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88125,7 +88152,7 @@
       <c r="D4222" s="104" t="s">
         <v>4873</v>
       </c>
-      <c r="E4222" s="88">
+      <c r="E4222" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88142,7 +88169,7 @@
       <c r="D4223" s="104" t="s">
         <v>4874</v>
       </c>
-      <c r="E4223" s="88">
+      <c r="E4223" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88159,7 +88186,7 @@
       <c r="D4224" s="104" t="s">
         <v>4875</v>
       </c>
-      <c r="E4224" s="88">
+      <c r="E4224" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88176,7 +88203,7 @@
       <c r="D4225" s="104" t="s">
         <v>4876</v>
       </c>
-      <c r="E4225" s="88">
+      <c r="E4225" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88193,7 +88220,7 @@
       <c r="D4226" s="104" t="s">
         <v>4877</v>
       </c>
-      <c r="E4226" s="88">
+      <c r="E4226" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88210,7 +88237,7 @@
       <c r="D4227" s="104" t="s">
         <v>4878</v>
       </c>
-      <c r="E4227" s="88">
+      <c r="E4227" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88227,7 +88254,7 @@
       <c r="D4228" s="104" t="s">
         <v>4879</v>
       </c>
-      <c r="E4228" s="88">
+      <c r="E4228" s="106">
         <v>1</v>
       </c>
     </row>
@@ -89316,6 +89343,142 @@
         <v>5219</v>
       </c>
       <c r="E4292" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4293" s="52" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B4293" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4293" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4293" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4293" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4294" s="52" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B4294" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4294" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4294" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4294" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4295" s="52" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B4295" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4295" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4295" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4295" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4296" s="52" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B4296" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4296" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4296" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4296" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4297" s="52" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B4297" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4297" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4297" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4297" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4298" s="52" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B4298" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4298" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4298" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4298" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4299" s="52" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B4299" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4299" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4299" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4299" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4300" s="52" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B4300" s="52" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C4300" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4300" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4300" s="88">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4306</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4453</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16111" uniqueCount="5279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16679" uniqueCount="5444">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -15663,9 +15663,6 @@
     <t>Kareem Ahmed Ramadan Darwish</t>
   </si>
   <si>
-    <t>Mohamed Ahmed Ahmed Hassan Elnagdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">30 Hours OSHA Construction </t>
   </si>
   <si>
@@ -15868,6 +15865,504 @@
   </si>
   <si>
     <t>DSS5295</t>
+  </si>
+  <si>
+    <t>Abdallah Khairat EL- Sayed Abdelsalam</t>
+  </si>
+  <si>
+    <t>Ahmed Sami Abd El Moneim Ali</t>
+  </si>
+  <si>
+    <t>Faisal Ragab Fahmy Ali</t>
+  </si>
+  <si>
+    <t>Eid Jamal El Din Abdeen</t>
+  </si>
+  <si>
+    <t>OSMAN SALAH OSMAN MOHAMED AHMED</t>
+  </si>
+  <si>
+    <t>Nasser Eid Mansour Ali</t>
+  </si>
+  <si>
+    <t>Hossam elsayed shehata salem</t>
+  </si>
+  <si>
+    <t>ABDALLA  MANSOUR  DEYAB  BAYOUMY</t>
+  </si>
+  <si>
+    <t>Said ismail said Hammad</t>
+  </si>
+  <si>
+    <t>Gamal Maher Gamal Lotfy</t>
+  </si>
+  <si>
+    <t>Ahmed Abd Elhamid Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdleghani Bahnini </t>
+  </si>
+  <si>
+    <t>ELAWADY ELSYD ELAWADY SHOGAA</t>
+  </si>
+  <si>
+    <t>Musab Abbas HASSAN ABDALGAUM</t>
+  </si>
+  <si>
+    <t>ABDELRAHMAN MOHAMED ELSAYED ELSHORKOBALI</t>
+  </si>
+  <si>
+    <t>Abanoub Atef William Naguib Iskandar</t>
+  </si>
+  <si>
+    <t>Mohammed Abdul Salam Ahmed</t>
+  </si>
+  <si>
+    <t>DSS5296</t>
+  </si>
+  <si>
+    <t>DSS5297</t>
+  </si>
+  <si>
+    <t>DSS5298</t>
+  </si>
+  <si>
+    <t>DSS5299</t>
+  </si>
+  <si>
+    <t>DSS5300</t>
+  </si>
+  <si>
+    <t>DSS5301</t>
+  </si>
+  <si>
+    <t>DSS5302</t>
+  </si>
+  <si>
+    <t>DSS5303</t>
+  </si>
+  <si>
+    <t>DSS5304</t>
+  </si>
+  <si>
+    <t>DSS5305</t>
+  </si>
+  <si>
+    <t>DSS5306</t>
+  </si>
+  <si>
+    <t>DSS5307</t>
+  </si>
+  <si>
+    <t>DSS5308</t>
+  </si>
+  <si>
+    <t>DSS5309</t>
+  </si>
+  <si>
+    <t>DSS5310</t>
+  </si>
+  <si>
+    <t>DSS5311</t>
+  </si>
+  <si>
+    <t>DSS5312</t>
+  </si>
+  <si>
+    <t>DSS5313</t>
+  </si>
+  <si>
+    <t>DSS5314</t>
+  </si>
+  <si>
+    <t>DSS5315</t>
+  </si>
+  <si>
+    <t>DSS5316</t>
+  </si>
+  <si>
+    <t>DSS5317</t>
+  </si>
+  <si>
+    <t>DSS5318</t>
+  </si>
+  <si>
+    <t>DSS5319</t>
+  </si>
+  <si>
+    <t>DSS5320</t>
+  </si>
+  <si>
+    <t>DSS5321</t>
+  </si>
+  <si>
+    <t>DSS5322</t>
+  </si>
+  <si>
+    <t>DSS5323</t>
+  </si>
+  <si>
+    <t>DSS5324</t>
+  </si>
+  <si>
+    <t>DSS5325</t>
+  </si>
+  <si>
+    <t>DSS5326</t>
+  </si>
+  <si>
+    <t>DSS5327</t>
+  </si>
+  <si>
+    <t>DSS5328</t>
+  </si>
+  <si>
+    <t>DSS5329</t>
+  </si>
+  <si>
+    <t>DSS5330</t>
+  </si>
+  <si>
+    <t>DSS5331</t>
+  </si>
+  <si>
+    <t>DSS5332</t>
+  </si>
+  <si>
+    <t>DSS5333</t>
+  </si>
+  <si>
+    <t>DSS5334</t>
+  </si>
+  <si>
+    <t>DSS5335</t>
+  </si>
+  <si>
+    <t>DSS5336</t>
+  </si>
+  <si>
+    <t>DSS5337</t>
+  </si>
+  <si>
+    <t>DSS5338</t>
+  </si>
+  <si>
+    <t>DSS5339</t>
+  </si>
+  <si>
+    <t>DSS5340</t>
+  </si>
+  <si>
+    <t>DSS5341</t>
+  </si>
+  <si>
+    <t>DSS5342</t>
+  </si>
+  <si>
+    <t>DSS5343</t>
+  </si>
+  <si>
+    <t>DSS5344</t>
+  </si>
+  <si>
+    <t>DSS5345</t>
+  </si>
+  <si>
+    <t>DSS5346</t>
+  </si>
+  <si>
+    <t>DSS5347</t>
+  </si>
+  <si>
+    <t>DSS5348</t>
+  </si>
+  <si>
+    <t>DSS5349</t>
+  </si>
+  <si>
+    <t>DSS5350</t>
+  </si>
+  <si>
+    <t>DSS5351</t>
+  </si>
+  <si>
+    <t>DSS5352</t>
+  </si>
+  <si>
+    <t>DSS5353</t>
+  </si>
+  <si>
+    <t>DSS5354</t>
+  </si>
+  <si>
+    <t>DSS5355</t>
+  </si>
+  <si>
+    <t>DSS5356</t>
+  </si>
+  <si>
+    <t>DSS5357</t>
+  </si>
+  <si>
+    <t>DSS5358</t>
+  </si>
+  <si>
+    <t>DSS5359</t>
+  </si>
+  <si>
+    <t>DSS5360</t>
+  </si>
+  <si>
+    <t>DSS5361</t>
+  </si>
+  <si>
+    <t>DSS5362</t>
+  </si>
+  <si>
+    <t>DSS5363</t>
+  </si>
+  <si>
+    <t>DSS5364</t>
+  </si>
+  <si>
+    <t>DSS5365</t>
+  </si>
+  <si>
+    <t>DSS5366</t>
+  </si>
+  <si>
+    <t>DSS5367</t>
+  </si>
+  <si>
+    <t>DSS5368</t>
+  </si>
+  <si>
+    <t>DSS5369</t>
+  </si>
+  <si>
+    <t>DSS5370</t>
+  </si>
+  <si>
+    <t>DSS5371</t>
+  </si>
+  <si>
+    <t>DSS5372</t>
+  </si>
+  <si>
+    <t>DSS5373</t>
+  </si>
+  <si>
+    <t>DSS5374</t>
+  </si>
+  <si>
+    <t>DSS5375</t>
+  </si>
+  <si>
+    <t>DSS5376</t>
+  </si>
+  <si>
+    <t>DSS5377</t>
+  </si>
+  <si>
+    <t>DSS5378</t>
+  </si>
+  <si>
+    <t>DSS5379</t>
+  </si>
+  <si>
+    <t>DSS5380</t>
+  </si>
+  <si>
+    <t>DSS5381</t>
+  </si>
+  <si>
+    <t>DSS5382</t>
+  </si>
+  <si>
+    <t>DSS5383</t>
+  </si>
+  <si>
+    <t>DSS5384</t>
+  </si>
+  <si>
+    <t>DSS5385</t>
+  </si>
+  <si>
+    <t>DSS5386</t>
+  </si>
+  <si>
+    <t>DSS5387</t>
+  </si>
+  <si>
+    <t>DSS5388</t>
+  </si>
+  <si>
+    <t>DSS5389</t>
+  </si>
+  <si>
+    <t>DSS5390</t>
+  </si>
+  <si>
+    <t>DSS5391</t>
+  </si>
+  <si>
+    <t>DSS5392</t>
+  </si>
+  <si>
+    <t>DSS5393</t>
+  </si>
+  <si>
+    <t>DSS5394</t>
+  </si>
+  <si>
+    <t>DSS5395</t>
+  </si>
+  <si>
+    <t>DSS5396</t>
+  </si>
+  <si>
+    <t>DSS5397</t>
+  </si>
+  <si>
+    <t>DSS5398</t>
+  </si>
+  <si>
+    <t>DSS5399</t>
+  </si>
+  <si>
+    <t>DSS5400</t>
+  </si>
+  <si>
+    <t>DSS5401</t>
+  </si>
+  <si>
+    <t>DSS5402</t>
+  </si>
+  <si>
+    <t>DSS5403</t>
+  </si>
+  <si>
+    <t>DSS5404</t>
+  </si>
+  <si>
+    <t>DSS5405</t>
+  </si>
+  <si>
+    <t>DSS5406</t>
+  </si>
+  <si>
+    <t>DSS5407</t>
+  </si>
+  <si>
+    <t>DSS5408</t>
+  </si>
+  <si>
+    <t>DSS5409</t>
+  </si>
+  <si>
+    <t>DSS5410</t>
+  </si>
+  <si>
+    <t>DSS5411</t>
+  </si>
+  <si>
+    <t>DSS5412</t>
+  </si>
+  <si>
+    <t>DSS5413</t>
+  </si>
+  <si>
+    <t>DSS5414</t>
+  </si>
+  <si>
+    <t>DSS5415</t>
+  </si>
+  <si>
+    <t>DSS5416</t>
+  </si>
+  <si>
+    <t>DSS5417</t>
+  </si>
+  <si>
+    <t>DSS5418</t>
+  </si>
+  <si>
+    <t>DSS5419</t>
+  </si>
+  <si>
+    <t>DSS5420</t>
+  </si>
+  <si>
+    <t>DSS5421</t>
+  </si>
+  <si>
+    <t>DSS5422</t>
+  </si>
+  <si>
+    <t>DSS5423</t>
+  </si>
+  <si>
+    <t>DSS5424</t>
+  </si>
+  <si>
+    <t>DSS5425</t>
+  </si>
+  <si>
+    <t>DSS5426</t>
+  </si>
+  <si>
+    <t>DSS5427</t>
+  </si>
+  <si>
+    <t>DSS5428</t>
+  </si>
+  <si>
+    <t>DSS5429</t>
+  </si>
+  <si>
+    <t>DSS5430</t>
+  </si>
+  <si>
+    <t>DSS5431</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Ahmed Mohamed Hassan Elnagdy</t>
+  </si>
+  <si>
+    <t>Mahmoud Ismail Abdelfattah</t>
+  </si>
+  <si>
+    <t>Mohamed Adel Abd Elrahman Mohamed</t>
+  </si>
+  <si>
+    <t>Nser Eid Mansour Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emad Essameldeen Zaki </t>
+  </si>
+  <si>
+    <t>Moustafa Mourad Mahmoud Abdelal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaled Waled Mohamed Elnaker </t>
+  </si>
+  <si>
+    <t>DSS5432</t>
+  </si>
+  <si>
+    <t>DSS5433</t>
+  </si>
+  <si>
+    <t>DSS5434</t>
+  </si>
+  <si>
+    <t>DSS5435</t>
+  </si>
+  <si>
+    <t>DSS5436</t>
+  </si>
+  <si>
+    <t>DSS5437</t>
   </si>
 </sst>
 </file>
@@ -16128,7 +16623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -16448,6 +16943,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16725,7 +17223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16733,10 +17231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4300"/>
+  <dimension ref="A1:E4442"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4287" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4303" sqref="C4303"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4431" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="B4445" sqref="B4445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -88271,7 +88769,7 @@
       <c r="D4229" s="52" t="s">
         <v>4872</v>
       </c>
-      <c r="E4229" s="88">
+      <c r="E4229" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88288,7 +88786,7 @@
       <c r="D4230" s="52" t="s">
         <v>4873</v>
       </c>
-      <c r="E4230" s="88">
+      <c r="E4230" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88305,7 +88803,7 @@
       <c r="D4231" s="52" t="s">
         <v>4874</v>
       </c>
-      <c r="E4231" s="88">
+      <c r="E4231" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88322,7 +88820,7 @@
       <c r="D4232" s="52" t="s">
         <v>4875</v>
       </c>
-      <c r="E4232" s="88">
+      <c r="E4232" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88339,7 +88837,7 @@
       <c r="D4233" s="52" t="s">
         <v>4876</v>
       </c>
-      <c r="E4233" s="88">
+      <c r="E4233" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88356,7 +88854,7 @@
       <c r="D4234" s="52" t="s">
         <v>4877</v>
       </c>
-      <c r="E4234" s="88">
+      <c r="E4234" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88373,7 +88871,7 @@
       <c r="D4235" s="52" t="s">
         <v>4878</v>
       </c>
-      <c r="E4235" s="88">
+      <c r="E4235" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88390,7 +88888,7 @@
       <c r="D4236" s="52" t="s">
         <v>4879</v>
       </c>
-      <c r="E4236" s="88">
+      <c r="E4236" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88407,7 +88905,7 @@
       <c r="D4237" s="104" t="s">
         <v>4872</v>
       </c>
-      <c r="E4237" s="88">
+      <c r="E4237" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88424,7 +88922,7 @@
       <c r="D4238" s="104" t="s">
         <v>4873</v>
       </c>
-      <c r="E4238" s="88">
+      <c r="E4238" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88441,7 +88939,7 @@
       <c r="D4239" s="104" t="s">
         <v>4874</v>
       </c>
-      <c r="E4239" s="88">
+      <c r="E4239" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88458,7 +88956,7 @@
       <c r="D4240" s="104" t="s">
         <v>4875</v>
       </c>
-      <c r="E4240" s="88">
+      <c r="E4240" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88475,7 +88973,7 @@
       <c r="D4241" s="104" t="s">
         <v>4876</v>
       </c>
-      <c r="E4241" s="88">
+      <c r="E4241" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88492,7 +88990,7 @@
       <c r="D4242" s="104" t="s">
         <v>4877</v>
       </c>
-      <c r="E4242" s="88">
+      <c r="E4242" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88509,7 +89007,7 @@
       <c r="D4243" s="104" t="s">
         <v>4878</v>
       </c>
-      <c r="E4243" s="88">
+      <c r="E4243" s="106">
         <v>1</v>
       </c>
     </row>
@@ -88526,47 +89024,47 @@
       <c r="D4244" s="104" t="s">
         <v>4879</v>
       </c>
-      <c r="E4244" s="88">
+      <c r="E4244" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4245" s="52" t="s">
-        <v>5220</v>
+        <v>5219</v>
       </c>
       <c r="B4245" s="52" t="s">
         <v>5206</v>
       </c>
       <c r="C4245" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4245" s="52" t="s">
         <v>5211</v>
       </c>
-      <c r="D4245" s="52" t="s">
-        <v>5212</v>
-      </c>
-      <c r="E4245" s="88">
+      <c r="E4245" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4246" s="52" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="B4246" s="52" t="s">
         <v>5206</v>
       </c>
       <c r="C4246" s="52" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D4246" s="52" t="s">
-        <v>5213</v>
-      </c>
-      <c r="E4246" s="88">
+        <v>5212</v>
+      </c>
+      <c r="E4246" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4247" s="52" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B4247" s="52" t="s">
         <v>5206</v>
@@ -88575,15 +89073,15 @@
         <v>952</v>
       </c>
       <c r="D4247" s="52" t="s">
-        <v>5214</v>
-      </c>
-      <c r="E4247" s="88">
+        <v>5213</v>
+      </c>
+      <c r="E4247" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4248" s="52" t="s">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="B4248" s="52" t="s">
         <v>5206</v>
@@ -88592,15 +89090,15 @@
         <v>3859</v>
       </c>
       <c r="D4248" s="52" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E4248" s="88">
+        <v>5214</v>
+      </c>
+      <c r="E4248" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4249" s="52" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="B4249" s="52" t="s">
         <v>5206</v>
@@ -88609,15 +89107,15 @@
         <v>247</v>
       </c>
       <c r="D4249" s="52" t="s">
-        <v>5216</v>
-      </c>
-      <c r="E4249" s="88">
+        <v>5215</v>
+      </c>
+      <c r="E4249" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4250" s="52" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="B4250" s="52" t="s">
         <v>5206</v>
@@ -88626,15 +89124,15 @@
         <v>263</v>
       </c>
       <c r="D4250" s="52" t="s">
-        <v>5217</v>
-      </c>
-      <c r="E4250" s="88">
+        <v>5216</v>
+      </c>
+      <c r="E4250" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4251" s="52" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="B4251" s="52" t="s">
         <v>5206</v>
@@ -88643,15 +89141,15 @@
         <v>252</v>
       </c>
       <c r="D4251" s="52" t="s">
-        <v>5218</v>
-      </c>
-      <c r="E4251" s="88">
+        <v>5217</v>
+      </c>
+      <c r="E4251" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4252" s="52" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="B4252" s="52" t="s">
         <v>5206</v>
@@ -88660,49 +89158,49 @@
         <v>231</v>
       </c>
       <c r="D4252" s="52" t="s">
-        <v>5219</v>
-      </c>
-      <c r="E4252" s="88">
+        <v>5218</v>
+      </c>
+      <c r="E4252" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4253" s="104" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="B4253" s="104" t="s">
         <v>5207</v>
       </c>
       <c r="C4253" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4253" s="104" t="s">
         <v>5211</v>
       </c>
-      <c r="D4253" s="104" t="s">
-        <v>5212</v>
-      </c>
-      <c r="E4253" s="88">
+      <c r="E4253" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4254" s="104" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="B4254" s="104" t="s">
         <v>5207</v>
       </c>
       <c r="C4254" s="104" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D4254" s="104" t="s">
-        <v>5213</v>
-      </c>
-      <c r="E4254" s="88">
+        <v>5212</v>
+      </c>
+      <c r="E4254" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4255" s="104" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="B4255" s="104" t="s">
         <v>5207</v>
@@ -88711,15 +89209,15 @@
         <v>952</v>
       </c>
       <c r="D4255" s="104" t="s">
-        <v>5214</v>
-      </c>
-      <c r="E4255" s="88">
+        <v>5213</v>
+      </c>
+      <c r="E4255" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4256" s="104" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
       <c r="B4256" s="104" t="s">
         <v>5207</v>
@@ -88728,15 +89226,15 @@
         <v>3859</v>
       </c>
       <c r="D4256" s="104" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E4256" s="88">
+        <v>5214</v>
+      </c>
+      <c r="E4256" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4257" s="104" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="B4257" s="104" t="s">
         <v>5207</v>
@@ -88745,15 +89243,15 @@
         <v>247</v>
       </c>
       <c r="D4257" s="104" t="s">
-        <v>5216</v>
-      </c>
-      <c r="E4257" s="88">
+        <v>5215</v>
+      </c>
+      <c r="E4257" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4258" s="104" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B4258" s="104" t="s">
         <v>5207</v>
@@ -88762,15 +89260,15 @@
         <v>263</v>
       </c>
       <c r="D4258" s="104" t="s">
-        <v>5217</v>
-      </c>
-      <c r="E4258" s="88">
+        <v>5216</v>
+      </c>
+      <c r="E4258" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4259" s="104" t="s">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="B4259" s="104" t="s">
         <v>5207</v>
@@ -88779,15 +89277,15 @@
         <v>252</v>
       </c>
       <c r="D4259" s="104" t="s">
-        <v>5218</v>
-      </c>
-      <c r="E4259" s="88">
+        <v>5217</v>
+      </c>
+      <c r="E4259" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4260" s="104" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="B4260" s="104" t="s">
         <v>5207</v>
@@ -88796,49 +89294,49 @@
         <v>231</v>
       </c>
       <c r="D4260" s="104" t="s">
-        <v>5219</v>
-      </c>
-      <c r="E4260" s="88">
+        <v>5218</v>
+      </c>
+      <c r="E4260" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4261" s="52" t="s">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="B4261" s="52" t="s">
         <v>5208</v>
       </c>
       <c r="C4261" s="52" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4261" s="52" t="s">
         <v>5211</v>
       </c>
-      <c r="D4261" s="52" t="s">
-        <v>5212</v>
-      </c>
-      <c r="E4261" s="88">
+      <c r="E4261" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4262" s="52" t="s">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B4262" s="52" t="s">
         <v>5208</v>
       </c>
       <c r="C4262" s="52" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D4262" s="52" t="s">
-        <v>5213</v>
-      </c>
-      <c r="E4262" s="88">
+        <v>5212</v>
+      </c>
+      <c r="E4262" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4263" s="52" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="B4263" s="52" t="s">
         <v>5208</v>
@@ -88847,15 +89345,15 @@
         <v>952</v>
       </c>
       <c r="D4263" s="52" t="s">
-        <v>5214</v>
-      </c>
-      <c r="E4263" s="88">
+        <v>5213</v>
+      </c>
+      <c r="E4263" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4264" s="52" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="B4264" s="52" t="s">
         <v>5208</v>
@@ -88864,15 +89362,15 @@
         <v>3859</v>
       </c>
       <c r="D4264" s="52" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E4264" s="88">
+        <v>5214</v>
+      </c>
+      <c r="E4264" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4265" s="52" t="s">
-        <v>5240</v>
+        <v>5239</v>
       </c>
       <c r="B4265" s="52" t="s">
         <v>5208</v>
@@ -88881,15 +89379,15 @@
         <v>247</v>
       </c>
       <c r="D4265" s="52" t="s">
-        <v>5216</v>
-      </c>
-      <c r="E4265" s="88">
+        <v>5215</v>
+      </c>
+      <c r="E4265" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4266" s="52" t="s">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="B4266" s="52" t="s">
         <v>5208</v>
@@ -88898,15 +89396,15 @@
         <v>263</v>
       </c>
       <c r="D4266" s="52" t="s">
-        <v>5217</v>
-      </c>
-      <c r="E4266" s="88">
+        <v>5216</v>
+      </c>
+      <c r="E4266" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4267" s="52" t="s">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="B4267" s="52" t="s">
         <v>5208</v>
@@ -88915,15 +89413,15 @@
         <v>252</v>
       </c>
       <c r="D4267" s="52" t="s">
-        <v>5218</v>
-      </c>
-      <c r="E4267" s="88">
+        <v>5217</v>
+      </c>
+      <c r="E4267" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4268" s="52" t="s">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="B4268" s="52" t="s">
         <v>5208</v>
@@ -88932,49 +89430,49 @@
         <v>231</v>
       </c>
       <c r="D4268" s="52" t="s">
-        <v>5219</v>
-      </c>
-      <c r="E4268" s="88">
+        <v>5218</v>
+      </c>
+      <c r="E4268" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4269" s="104" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
       <c r="B4269" s="104" t="s">
         <v>5209</v>
       </c>
       <c r="C4269" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4269" s="104" t="s">
         <v>5211</v>
       </c>
-      <c r="D4269" s="104" t="s">
-        <v>5212</v>
-      </c>
-      <c r="E4269" s="88">
+      <c r="E4269" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4270" s="104" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B4270" s="104" t="s">
         <v>5209</v>
       </c>
       <c r="C4270" s="104" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D4270" s="104" t="s">
-        <v>5213</v>
-      </c>
-      <c r="E4270" s="88">
+        <v>5212</v>
+      </c>
+      <c r="E4270" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4271" s="104" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
       <c r="B4271" s="104" t="s">
         <v>5209</v>
@@ -88983,15 +89481,15 @@
         <v>952</v>
       </c>
       <c r="D4271" s="104" t="s">
-        <v>5214</v>
-      </c>
-      <c r="E4271" s="88">
+        <v>5213</v>
+      </c>
+      <c r="E4271" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4272" s="104" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="B4272" s="104" t="s">
         <v>5209</v>
@@ -89000,15 +89498,15 @@
         <v>3859</v>
       </c>
       <c r="D4272" s="104" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E4272" s="88">
+        <v>5214</v>
+      </c>
+      <c r="E4272" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4273" s="104" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
       <c r="B4273" s="104" t="s">
         <v>5209</v>
@@ -89017,15 +89515,15 @@
         <v>247</v>
       </c>
       <c r="D4273" s="104" t="s">
-        <v>5216</v>
-      </c>
-      <c r="E4273" s="88">
+        <v>5215</v>
+      </c>
+      <c r="E4273" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4274" s="104" t="s">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="B4274" s="104" t="s">
         <v>5209</v>
@@ -89034,15 +89532,15 @@
         <v>263</v>
       </c>
       <c r="D4274" s="104" t="s">
-        <v>5217</v>
-      </c>
-      <c r="E4274" s="88">
+        <v>5216</v>
+      </c>
+      <c r="E4274" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4275" s="104" t="s">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="B4275" s="104" t="s">
         <v>5209</v>
@@ -89051,15 +89549,15 @@
         <v>252</v>
       </c>
       <c r="D4275" s="104" t="s">
-        <v>5218</v>
-      </c>
-      <c r="E4275" s="88">
+        <v>5217</v>
+      </c>
+      <c r="E4275" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4276" s="104" t="s">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B4276" s="104" t="s">
         <v>5209</v>
@@ -89068,290 +89566,290 @@
         <v>231</v>
       </c>
       <c r="D4276" s="104" t="s">
-        <v>5219</v>
-      </c>
-      <c r="E4276" s="88">
+        <v>5218</v>
+      </c>
+      <c r="E4276" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4277" s="52" t="s">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="B4277" s="52" t="s">
+        <v>5431</v>
+      </c>
+      <c r="C4277" s="52" t="s">
         <v>5210</v>
       </c>
-      <c r="C4277" s="52" t="s">
+      <c r="D4277" s="52" t="s">
         <v>5211</v>
       </c>
-      <c r="D4277" s="52" t="s">
-        <v>5212</v>
-      </c>
-      <c r="E4277" s="88">
+      <c r="E4277" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4278" s="52" t="s">
-        <v>5253</v>
+        <v>5252</v>
       </c>
       <c r="B4278" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4278" s="52" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D4278" s="52" t="s">
-        <v>5213</v>
-      </c>
-      <c r="E4278" s="88">
+        <v>5212</v>
+      </c>
+      <c r="E4278" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4279" s="52" t="s">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="B4279" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4279" s="52" t="s">
         <v>952</v>
       </c>
       <c r="D4279" s="52" t="s">
-        <v>5214</v>
-      </c>
-      <c r="E4279" s="88">
+        <v>5213</v>
+      </c>
+      <c r="E4279" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4280" s="52" t="s">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="B4280" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4280" s="52" t="s">
         <v>3859</v>
       </c>
       <c r="D4280" s="52" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E4280" s="88">
+        <v>5214</v>
+      </c>
+      <c r="E4280" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4281" s="52" t="s">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="B4281" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4281" s="52" t="s">
         <v>247</v>
       </c>
       <c r="D4281" s="52" t="s">
-        <v>5216</v>
-      </c>
-      <c r="E4281" s="88">
+        <v>5215</v>
+      </c>
+      <c r="E4281" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4282" s="52" t="s">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="B4282" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4282" s="52" t="s">
         <v>263</v>
       </c>
       <c r="D4282" s="52" t="s">
-        <v>5217</v>
-      </c>
-      <c r="E4282" s="88">
+        <v>5216</v>
+      </c>
+      <c r="E4282" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4283" s="52" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="B4283" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4283" s="52" t="s">
         <v>252</v>
       </c>
       <c r="D4283" s="52" t="s">
-        <v>5218</v>
-      </c>
-      <c r="E4283" s="88">
+        <v>5217</v>
+      </c>
+      <c r="E4283" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4284" s="52" t="s">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="B4284" s="52" t="s">
-        <v>5210</v>
+        <v>5431</v>
       </c>
       <c r="C4284" s="52" t="s">
         <v>231</v>
       </c>
       <c r="D4284" s="52" t="s">
-        <v>5219</v>
-      </c>
-      <c r="E4284" s="88">
+        <v>5218</v>
+      </c>
+      <c r="E4284" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4285" s="104" t="s">
-        <v>5262</v>
+        <v>5261</v>
       </c>
       <c r="B4285" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4285" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4285" s="104" t="s">
         <v>5211</v>
       </c>
-      <c r="D4285" s="104" t="s">
-        <v>5212</v>
-      </c>
-      <c r="E4285" s="88">
+      <c r="E4285" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4286" s="104" t="s">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="B4286" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4286" s="104" t="s">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D4286" s="104" t="s">
-        <v>5213</v>
-      </c>
-      <c r="E4286" s="88">
+        <v>5212</v>
+      </c>
+      <c r="E4286" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4287" s="104" t="s">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="B4287" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4287" s="104" t="s">
         <v>952</v>
       </c>
       <c r="D4287" s="104" t="s">
-        <v>5214</v>
-      </c>
-      <c r="E4287" s="88">
+        <v>5213</v>
+      </c>
+      <c r="E4287" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4288" s="104" t="s">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="B4288" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4288" s="104" t="s">
         <v>3859</v>
       </c>
       <c r="D4288" s="104" t="s">
-        <v>5215</v>
-      </c>
-      <c r="E4288" s="88">
+        <v>5214</v>
+      </c>
+      <c r="E4288" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4289" s="104" t="s">
-        <v>5266</v>
+        <v>5265</v>
       </c>
       <c r="B4289" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4289" s="104" t="s">
         <v>247</v>
       </c>
       <c r="D4289" s="104" t="s">
-        <v>5216</v>
-      </c>
-      <c r="E4289" s="88">
+        <v>5215</v>
+      </c>
+      <c r="E4289" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4290" s="104" t="s">
-        <v>5267</v>
+        <v>5266</v>
       </c>
       <c r="B4290" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4290" s="104" t="s">
         <v>263</v>
       </c>
       <c r="D4290" s="104" t="s">
-        <v>5217</v>
-      </c>
-      <c r="E4290" s="88">
+        <v>5216</v>
+      </c>
+      <c r="E4290" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4291" s="104" t="s">
-        <v>5268</v>
+        <v>5267</v>
       </c>
       <c r="B4291" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4291" s="104" t="s">
         <v>252</v>
       </c>
       <c r="D4291" s="104" t="s">
-        <v>5218</v>
-      </c>
-      <c r="E4291" s="88">
+        <v>5217</v>
+      </c>
+      <c r="E4291" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4292" s="104" t="s">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="B4292" s="104" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="C4292" s="104" t="s">
         <v>231</v>
       </c>
       <c r="D4292" s="104" t="s">
-        <v>5219</v>
-      </c>
-      <c r="E4292" s="88">
+        <v>5218</v>
+      </c>
+      <c r="E4292" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4293" s="52" t="s">
-        <v>5271</v>
+        <v>5270</v>
       </c>
       <c r="B4293" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4293" s="52" t="s">
         <v>2</v>
@@ -89359,16 +89857,16 @@
       <c r="D4293" s="52" t="s">
         <v>4872</v>
       </c>
-      <c r="E4293" s="88">
+      <c r="E4293" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4294" s="52" t="s">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="B4294" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4294" s="52" t="s">
         <v>230</v>
@@ -89376,16 +89874,16 @@
       <c r="D4294" s="52" t="s">
         <v>4873</v>
       </c>
-      <c r="E4294" s="88">
+      <c r="E4294" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4295" s="52" t="s">
-        <v>5273</v>
+        <v>5272</v>
       </c>
       <c r="B4295" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4295" s="52" t="s">
         <v>952</v>
@@ -89393,16 +89891,16 @@
       <c r="D4295" s="52" t="s">
         <v>4874</v>
       </c>
-      <c r="E4295" s="88">
+      <c r="E4295" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4296" s="52" t="s">
-        <v>5274</v>
+        <v>5273</v>
       </c>
       <c r="B4296" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4296" s="52" t="s">
         <v>3859</v>
@@ -89410,16 +89908,16 @@
       <c r="D4296" s="52" t="s">
         <v>4875</v>
       </c>
-      <c r="E4296" s="88">
+      <c r="E4296" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4297" s="52" t="s">
-        <v>5275</v>
+        <v>5274</v>
       </c>
       <c r="B4297" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4297" s="52" t="s">
         <v>247</v>
@@ -89427,16 +89925,16 @@
       <c r="D4297" s="52" t="s">
         <v>4876</v>
       </c>
-      <c r="E4297" s="88">
+      <c r="E4297" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4298" s="52" t="s">
-        <v>5276</v>
+        <v>5275</v>
       </c>
       <c r="B4298" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4298" s="52" t="s">
         <v>263</v>
@@ -89444,16 +89942,16 @@
       <c r="D4298" s="52" t="s">
         <v>4877</v>
       </c>
-      <c r="E4298" s="88">
+      <c r="E4298" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4299" s="52" t="s">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="B4299" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4299" s="52" t="s">
         <v>252</v>
@@ -89461,16 +89959,16 @@
       <c r="D4299" s="52" t="s">
         <v>4878</v>
       </c>
-      <c r="E4299" s="88">
+      <c r="E4299" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="4300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4300" s="52" t="s">
-        <v>5278</v>
+        <v>5277</v>
       </c>
       <c r="B4300" s="52" t="s">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="C4300" s="52" t="s">
         <v>231</v>
@@ -89478,7 +89976,2421 @@
       <c r="D4300" s="52" t="s">
         <v>4879</v>
       </c>
-      <c r="E4300" s="88">
+      <c r="E4300" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4301" s="104" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B4301" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4301" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4301" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4301" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4302" s="104" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B4302" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4302" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4302" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4302" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4303" s="104" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B4303" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4303" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4303" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4303" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4304" s="104" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B4304" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4304" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4304" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4304" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4305" s="104" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B4305" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4305" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4305" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4305" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4306" s="104" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B4306" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4306" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4306" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4306" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4307" s="104" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B4307" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4307" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4307" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4307" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4308" s="104" t="s">
+        <v>5302</v>
+      </c>
+      <c r="B4308" s="104" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C4308" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4308" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4308" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4309" s="52" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B4309" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4309" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4309" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4309" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4310" s="52" t="s">
+        <v>5304</v>
+      </c>
+      <c r="B4310" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4310" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4310" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4310" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4311" s="52" t="s">
+        <v>5305</v>
+      </c>
+      <c r="B4311" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4311" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4311" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4311" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4312" s="52" t="s">
+        <v>5306</v>
+      </c>
+      <c r="B4312" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4312" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4312" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4312" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4313" s="52" t="s">
+        <v>5307</v>
+      </c>
+      <c r="B4313" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4313" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4313" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4313" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4314" s="52" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B4314" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4314" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4314" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4314" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4315" s="52" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B4315" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4315" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4315" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4315" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4316" s="52" t="s">
+        <v>5310</v>
+      </c>
+      <c r="B4316" s="52" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C4316" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4316" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4316" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4317" s="104" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B4317" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4317" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4317" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4317" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4318" s="104" t="s">
+        <v>5312</v>
+      </c>
+      <c r="B4318" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4318" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4318" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4318" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4319" s="104" t="s">
+        <v>5313</v>
+      </c>
+      <c r="B4319" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4319" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4319" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4319" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4320" s="104" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B4320" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4320" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4320" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4320" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4321" s="104" t="s">
+        <v>5315</v>
+      </c>
+      <c r="B4321" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4321" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4321" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4321" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4322" s="104" t="s">
+        <v>5316</v>
+      </c>
+      <c r="B4322" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4322" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4322" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4322" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4323" s="104" t="s">
+        <v>5317</v>
+      </c>
+      <c r="B4323" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4323" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4323" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4323" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4324" s="104" t="s">
+        <v>5318</v>
+      </c>
+      <c r="B4324" s="104" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C4324" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4324" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4324" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4325" s="52" t="s">
+        <v>5319</v>
+      </c>
+      <c r="B4325" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4325" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4325" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4325" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4326" s="52" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B4326" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4326" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4326" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4326" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4327" s="52" t="s">
+        <v>5321</v>
+      </c>
+      <c r="B4327" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4327" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4327" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4327" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4328" s="52" t="s">
+        <v>5322</v>
+      </c>
+      <c r="B4328" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4328" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4328" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4328" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4329" s="52" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B4329" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4329" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4329" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4329" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4330" s="52" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B4330" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4330" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4330" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4330" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4331" s="52" t="s">
+        <v>5325</v>
+      </c>
+      <c r="B4331" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4331" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4331" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4331" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4332" s="52" t="s">
+        <v>5326</v>
+      </c>
+      <c r="B4332" s="52" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C4332" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4332" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4332" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4333" s="104" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B4333" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4333" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4333" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4333" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4334" s="104" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B4334" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4334" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4334" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4334" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4335" s="104" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B4335" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4335" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4335" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4335" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4336" s="104" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B4336" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4336" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4336" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4336" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4337" s="104" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B4337" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4337" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4337" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4337" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4338" s="104" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B4338" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4338" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4338" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4338" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4339" s="104" t="s">
+        <v>5333</v>
+      </c>
+      <c r="B4339" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4339" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4339" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4339" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4340" s="104" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B4340" s="104" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C4340" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4340" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4340" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4341" s="52" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B4341" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4341" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4341" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4341" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4342" s="52" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B4342" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4342" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4342" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4342" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4343" s="52" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B4343" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4343" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4343" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4343" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4344" s="52" t="s">
+        <v>5338</v>
+      </c>
+      <c r="B4344" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4344" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4344" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4344" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4345" s="52" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B4345" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4345" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4345" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4345" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4346" s="52" t="s">
+        <v>5340</v>
+      </c>
+      <c r="B4346" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4346" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4346" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4346" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4347" s="52" t="s">
+        <v>5341</v>
+      </c>
+      <c r="B4347" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4347" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4347" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4347" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4348" s="52" t="s">
+        <v>5342</v>
+      </c>
+      <c r="B4348" s="52" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C4348" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4348" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4348" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4349" s="104" t="s">
+        <v>5343</v>
+      </c>
+      <c r="B4349" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4349" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4349" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4349" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4350" s="104" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B4350" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4350" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4350" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4350" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4351" s="104" t="s">
+        <v>5345</v>
+      </c>
+      <c r="B4351" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4351" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4351" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4351" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4352" s="104" t="s">
+        <v>5346</v>
+      </c>
+      <c r="B4352" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4352" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4352" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4352" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4353" s="104" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B4353" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4353" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4353" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4353" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4354" s="104" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B4354" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4354" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4354" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4354" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4355" s="104" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B4355" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4355" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4355" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4355" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4356" s="104" t="s">
+        <v>5350</v>
+      </c>
+      <c r="B4356" s="104" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C4356" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4356" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4356" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4357" s="52" t="s">
+        <v>5351</v>
+      </c>
+      <c r="B4357" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4357" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4357" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4357" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4358" s="52" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B4358" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4358" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4358" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4358" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4359" s="52" t="s">
+        <v>5353</v>
+      </c>
+      <c r="B4359" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4359" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4359" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4359" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4360" s="52" t="s">
+        <v>5354</v>
+      </c>
+      <c r="B4360" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4360" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4360" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4360" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4361" s="52" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B4361" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4361" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4361" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4361" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4362" s="52" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B4362" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4362" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4362" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4362" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4363" s="52" t="s">
+        <v>5357</v>
+      </c>
+      <c r="B4363" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4363" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4363" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4363" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4364" s="52" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B4364" s="52" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C4364" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4364" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4364" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4365" s="104" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B4365" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4365" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4365" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4365" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4366" s="104" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B4366" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4366" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4366" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4366" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4367" s="104" t="s">
+        <v>5361</v>
+      </c>
+      <c r="B4367" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4367" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4367" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4367" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4368" s="104" t="s">
+        <v>5362</v>
+      </c>
+      <c r="B4368" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4368" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4368" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4368" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4369" s="104" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B4369" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4369" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4369" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4369" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4370" s="104" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B4370" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4370" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4370" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4370" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4371" s="104" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B4371" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4371" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4371" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4371" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4372" s="104" t="s">
+        <v>5366</v>
+      </c>
+      <c r="B4372" s="104" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C4372" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4372" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4372" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4373" s="52" t="s">
+        <v>5367</v>
+      </c>
+      <c r="B4373" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4373" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4373" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4373" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4374" s="52" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B4374" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4374" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4374" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4374" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4375" s="52" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B4375" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4375" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4375" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4375" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4376" s="52" t="s">
+        <v>5370</v>
+      </c>
+      <c r="B4376" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4376" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4376" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4376" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4377" s="52" t="s">
+        <v>5371</v>
+      </c>
+      <c r="B4377" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4377" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4377" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4377" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4378" s="52" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B4378" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4378" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4378" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4378" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4379" s="52" t="s">
+        <v>5373</v>
+      </c>
+      <c r="B4379" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4379" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4379" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4379" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4380" s="52" t="s">
+        <v>5374</v>
+      </c>
+      <c r="B4380" s="52" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C4380" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4380" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4380" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4381" s="104" t="s">
+        <v>5375</v>
+      </c>
+      <c r="B4381" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4381" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4381" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4381" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4382" s="104" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B4382" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4382" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4382" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4382" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4383" s="104" t="s">
+        <v>5377</v>
+      </c>
+      <c r="B4383" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4383" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4383" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4383" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4384" s="104" t="s">
+        <v>5378</v>
+      </c>
+      <c r="B4384" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4384" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4384" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4384" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4385" s="104" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B4385" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4385" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4385" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4385" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4386" s="104" t="s">
+        <v>5380</v>
+      </c>
+      <c r="B4386" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4386" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4386" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4386" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4387" s="104" t="s">
+        <v>5381</v>
+      </c>
+      <c r="B4387" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4387" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4387" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4387" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4388" s="104" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B4388" s="104" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C4388" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4388" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4388" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4389" s="52" t="s">
+        <v>5383</v>
+      </c>
+      <c r="B4389" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4389" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4389" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4389" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4390" s="52" t="s">
+        <v>5384</v>
+      </c>
+      <c r="B4390" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4390" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4390" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4390" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4391" s="52" t="s">
+        <v>5385</v>
+      </c>
+      <c r="B4391" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4391" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4391" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4391" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4392" s="52" t="s">
+        <v>5386</v>
+      </c>
+      <c r="B4392" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4392" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4392" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4392" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4393" s="52" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B4393" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4393" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4393" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4393" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4394" s="52" t="s">
+        <v>5388</v>
+      </c>
+      <c r="B4394" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4394" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4394" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4394" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4395" s="52" t="s">
+        <v>5389</v>
+      </c>
+      <c r="B4395" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4395" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4395" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4395" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4396" s="52" t="s">
+        <v>5390</v>
+      </c>
+      <c r="B4396" s="52" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C4396" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4396" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4396" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4397" s="104" t="s">
+        <v>5391</v>
+      </c>
+      <c r="B4397" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4397" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4397" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4397" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4398" s="104" t="s">
+        <v>5392</v>
+      </c>
+      <c r="B4398" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4398" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4398" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4398" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4399" s="104" t="s">
+        <v>5393</v>
+      </c>
+      <c r="B4399" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4399" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4399" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4399" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4400" s="104" t="s">
+        <v>5394</v>
+      </c>
+      <c r="B4400" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4400" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4400" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4400" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4401" s="104" t="s">
+        <v>5395</v>
+      </c>
+      <c r="B4401" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4401" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4401" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4401" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4402" s="104" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B4402" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4402" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4402" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4402" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4403" s="104" t="s">
+        <v>5397</v>
+      </c>
+      <c r="B4403" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4403" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4403" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4403" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4404" s="104" t="s">
+        <v>5398</v>
+      </c>
+      <c r="B4404" s="104" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C4404" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4404" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4404" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4405" s="52" t="s">
+        <v>5399</v>
+      </c>
+      <c r="B4405" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4405" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4405" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4405" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4406" s="52" t="s">
+        <v>5400</v>
+      </c>
+      <c r="B4406" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4406" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4406" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4406" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4407" s="52" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B4407" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4407" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4407" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4407" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4408" s="52" t="s">
+        <v>5402</v>
+      </c>
+      <c r="B4408" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4408" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4408" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4408" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4409" s="52" t="s">
+        <v>5403</v>
+      </c>
+      <c r="B4409" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4409" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4409" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4409" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4410" s="52" t="s">
+        <v>5404</v>
+      </c>
+      <c r="B4410" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4410" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4410" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4410" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4411" s="52" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B4411" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4411" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4411" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4411" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4412" s="52" t="s">
+        <v>5406</v>
+      </c>
+      <c r="B4412" s="52" t="s">
+        <v>5290</v>
+      </c>
+      <c r="C4412" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4412" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4412" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4413" s="104" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B4413" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4413" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4413" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4413" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4414" s="104" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B4414" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4414" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4414" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4414" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4415" s="104" t="s">
+        <v>5409</v>
+      </c>
+      <c r="B4415" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4415" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4415" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4415" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4416" s="104" t="s">
+        <v>5410</v>
+      </c>
+      <c r="B4416" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4416" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4416" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4416" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4417" s="104" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B4417" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4417" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4417" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4417" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4418" s="104" t="s">
+        <v>5412</v>
+      </c>
+      <c r="B4418" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4418" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4418" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4418" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4419" s="104" t="s">
+        <v>5413</v>
+      </c>
+      <c r="B4419" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4419" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4419" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4419" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4420" s="104" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B4420" s="107" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C4420" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4420" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4420" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4421" s="52" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B4421" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4421" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4421" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4421" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4422" s="52" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B4422" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4422" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4422" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4422" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4423" s="52" t="s">
+        <v>5417</v>
+      </c>
+      <c r="B4423" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4423" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4423" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4423" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4424" s="52" t="s">
+        <v>5418</v>
+      </c>
+      <c r="B4424" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4424" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4424" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4424" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4425" s="52" t="s">
+        <v>5419</v>
+      </c>
+      <c r="B4425" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4425" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4425" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4425" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4426" s="52" t="s">
+        <v>5420</v>
+      </c>
+      <c r="B4426" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4426" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4426" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4426" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4427" s="52" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B4427" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4427" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4427" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4427" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4428" s="52" t="s">
+        <v>5422</v>
+      </c>
+      <c r="B4428" s="52" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C4428" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4428" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4428" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4429" s="104" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B4429" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4429" s="104" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4429" s="104" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E4429" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4430" s="104" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B4430" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4430" s="104" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4430" s="104" t="s">
+        <v>5212</v>
+      </c>
+      <c r="E4430" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4431" s="104" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B4431" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4431" s="104" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4431" s="104" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E4431" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4432" s="104" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B4432" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4432" s="104" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4432" s="104" t="s">
+        <v>5214</v>
+      </c>
+      <c r="E4432" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4433" s="104" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B4433" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4433" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4433" s="104" t="s">
+        <v>5215</v>
+      </c>
+      <c r="E4433" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4434" s="104" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B4434" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4434" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4434" s="104" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E4434" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4435" s="104" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B4435" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4435" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4435" s="104" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4435" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4436" s="104" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B4436" s="104" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C4436" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4436" s="104" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E4436" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4437" s="40" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B4437" s="40" t="s">
+        <v>5436</v>
+      </c>
+      <c r="C4437" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4437" s="40" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4437" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4438" s="40" t="s">
+        <v>5439</v>
+      </c>
+      <c r="B4438" s="40" t="s">
+        <v>5432</v>
+      </c>
+      <c r="C4438" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4438" s="40" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4438" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4439" s="40" t="s">
+        <v>5440</v>
+      </c>
+      <c r="B4439" s="40" t="s">
+        <v>5433</v>
+      </c>
+      <c r="C4439" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4439" s="40" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4439" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4440" s="40" t="s">
+        <v>5441</v>
+      </c>
+      <c r="B4440" s="40" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C4440" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4440" s="40" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4440" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4441" s="40" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B4441" s="40" t="s">
+        <v>5434</v>
+      </c>
+      <c r="C4441" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4441" s="40" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4441" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4442" s="40" t="s">
+        <v>5443</v>
+      </c>
+      <c r="B4442" s="40" t="s">
+        <v>5435</v>
+      </c>
+      <c r="C4442" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4442" s="40" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4442" s="106">
         <v>1</v>
       </c>
     </row>
@@ -89491,7 +92403,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="30" manualBreakCount="30">
+  <rowBreaks count="31" manualBreakCount="31">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="16383" man="1"/>
     <brk id="493" max="16383" man="1"/>
@@ -89522,6 +92434,7 @@
     <brk id="3586" max="4" man="1"/>
     <brk id="3698" max="4" man="1"/>
     <brk id="4244" max="4" man="1"/>
+    <brk id="4356" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16679" uniqueCount="5444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16711" uniqueCount="5453">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -16363,6 +16363,33 @@
   </si>
   <si>
     <t>DSS5437</t>
+  </si>
+  <si>
+    <t>Mahmoud Saad Mohammed Khalaf</t>
+  </si>
+  <si>
+    <t>DSS5438</t>
+  </si>
+  <si>
+    <t>DSS5439</t>
+  </si>
+  <si>
+    <t>DSS5440</t>
+  </si>
+  <si>
+    <t>DSS5441</t>
+  </si>
+  <si>
+    <t>DSS5442</t>
+  </si>
+  <si>
+    <t>DSS5443</t>
+  </si>
+  <si>
+    <t>DSS5444</t>
+  </si>
+  <si>
+    <t>DSS5445</t>
   </si>
 </sst>
 </file>
@@ -17223,7 +17250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17231,10 +17258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4442"/>
+  <dimension ref="A1:E4450"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4431" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="B4445" sqref="B4445"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4434" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C4449" sqref="C4449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92391,6 +92418,142 @@
         <v>5217</v>
       </c>
       <c r="E4442" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4443" s="52" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B4443" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4443" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4443" s="52" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E4443" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4444" s="52" t="s">
+        <v>5446</v>
+      </c>
+      <c r="B4444" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4444" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4444" s="52" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E4444" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4445" s="52" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B4445" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4445" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4445" s="52" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E4445" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4446" s="52" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B4446" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4446" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4446" s="52" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E4446" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4447" s="52" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B4447" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4447" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4447" s="52" t="s">
+        <v>4876</v>
+      </c>
+      <c r="E4447" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4448" s="52" t="s">
+        <v>5450</v>
+      </c>
+      <c r="B4448" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4448" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4448" s="52" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E4448" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4449" s="52" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B4449" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4449" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4449" s="52" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E4449" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4450" s="52" t="s">
+        <v>5452</v>
+      </c>
+      <c r="B4450" s="52" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C4450" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4450" s="52" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E4450" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4453</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4470</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16711" uniqueCount="5453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16743" uniqueCount="5469">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -16390,13 +16390,61 @@
   </si>
   <si>
     <t>DSS5445</t>
+  </si>
+  <si>
+    <t>15-Jan-2025</t>
+  </si>
+  <si>
+    <t>20-Jan-2025</t>
+  </si>
+  <si>
+    <t>16-Jan-2025</t>
+  </si>
+  <si>
+    <t>11-Jan-2025</t>
+  </si>
+  <si>
+    <t>12-Jan-2025</t>
+  </si>
+  <si>
+    <t>17-Jan-2025</t>
+  </si>
+  <si>
+    <t>18-Jan-2025</t>
+  </si>
+  <si>
+    <t>19-Jan-2025</t>
+  </si>
+  <si>
+    <t>DSS5446</t>
+  </si>
+  <si>
+    <t>DSS5447</t>
+  </si>
+  <si>
+    <t>DSS5448</t>
+  </si>
+  <si>
+    <t>DSS5449</t>
+  </si>
+  <si>
+    <t>DSS5450</t>
+  </si>
+  <si>
+    <t>DSS5451</t>
+  </si>
+  <si>
+    <t>DSS5452</t>
+  </si>
+  <si>
+    <t>DSS5453</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16489,8 +16537,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16566,6 +16621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16650,7 +16711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -16973,6 +17034,12 @@
     <xf numFmtId="14" fontId="5" fillId="13" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="14" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17250,7 +17317,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17258,10 +17325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4450"/>
+  <dimension ref="A1:E4458"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4434" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4449" sqref="C4449"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4446" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="A4451" sqref="A4451:E4458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92554,6 +92621,142 @@
         <v>4879</v>
       </c>
       <c r="E4450" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4451" s="109" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B4451" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4451" s="109" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D4451" s="109" t="s">
+        <v>5453</v>
+      </c>
+      <c r="E4451" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4452" s="109" t="s">
+        <v>5462</v>
+      </c>
+      <c r="B4452" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4452" s="109" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D4452" s="109" t="s">
+        <v>5454</v>
+      </c>
+      <c r="E4452" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4453" s="109" t="s">
+        <v>5463</v>
+      </c>
+      <c r="B4453" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4453" s="109" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4453" s="109" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E4453" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4454" s="109" t="s">
+        <v>5464</v>
+      </c>
+      <c r="B4454" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4454" s="109" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4454" s="109" t="s">
+        <v>5460</v>
+      </c>
+      <c r="E4454" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4455" s="109" t="s">
+        <v>5465</v>
+      </c>
+      <c r="B4455" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4455" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4455" s="109" t="s">
+        <v>5456</v>
+      </c>
+      <c r="E4455" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4456" s="109" t="s">
+        <v>5466</v>
+      </c>
+      <c r="B4456" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4456" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4456" s="109" t="s">
+        <v>5457</v>
+      </c>
+      <c r="E4456" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4457" s="109" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B4457" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4457" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4457" s="109" t="s">
+        <v>5458</v>
+      </c>
+      <c r="E4457" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4458" s="109" t="s">
+        <v>5468</v>
+      </c>
+      <c r="B4458" s="109" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C4458" s="109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4458" s="109" t="s">
+        <v>5459</v>
+      </c>
+      <c r="E4458" s="108">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -16392,30 +16392,6 @@
     <t>DSS5445</t>
   </si>
   <si>
-    <t>15-Jan-2025</t>
-  </si>
-  <si>
-    <t>20-Jan-2025</t>
-  </si>
-  <si>
-    <t>16-Jan-2025</t>
-  </si>
-  <si>
-    <t>11-Jan-2025</t>
-  </si>
-  <si>
-    <t>12-Jan-2025</t>
-  </si>
-  <si>
-    <t>17-Jan-2025</t>
-  </si>
-  <si>
-    <t>18-Jan-2025</t>
-  </si>
-  <si>
-    <t>19-Jan-2025</t>
-  </si>
-  <si>
     <t>DSS5446</t>
   </si>
   <si>
@@ -16438,6 +16414,30 @@
   </si>
   <si>
     <t>DSS5453</t>
+  </si>
+  <si>
+    <t>15-Jan-2026</t>
+  </si>
+  <si>
+    <t>20-Jan-2026</t>
+  </si>
+  <si>
+    <t>16-Jan-2026</t>
+  </si>
+  <si>
+    <t>19-Jan-2026</t>
+  </si>
+  <si>
+    <t>11-Jan-2026</t>
+  </si>
+  <si>
+    <t>12-Jan-2026</t>
+  </si>
+  <si>
+    <t>17-Jan-2026</t>
+  </si>
+  <si>
+    <t>18-Jan-2026</t>
   </si>
 </sst>
 </file>
@@ -17317,7 +17317,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17328,7 +17328,7 @@
   <dimension ref="A1:E4458"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4446" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="A4451" sqref="A4451:E4458"/>
+      <selection activeCell="C4464" sqref="C4464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92626,7 +92626,7 @@
     </row>
     <row r="4451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4451" s="109" t="s">
-        <v>5461</v>
+        <v>5453</v>
       </c>
       <c r="B4451" s="109" t="s">
         <v>3099</v>
@@ -92635,7 +92635,7 @@
         <v>5210</v>
       </c>
       <c r="D4451" s="109" t="s">
-        <v>5453</v>
+        <v>5461</v>
       </c>
       <c r="E4451" s="108">
         <v>1</v>
@@ -92643,7 +92643,7 @@
     </row>
     <row r="4452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4452" s="109" t="s">
-        <v>5462</v>
+        <v>5454</v>
       </c>
       <c r="B4452" s="109" t="s">
         <v>3099</v>
@@ -92652,7 +92652,7 @@
         <v>5259</v>
       </c>
       <c r="D4452" s="109" t="s">
-        <v>5454</v>
+        <v>5462</v>
       </c>
       <c r="E4452" s="108">
         <v>1</v>
@@ -92660,7 +92660,7 @@
     </row>
     <row r="4453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4453" s="109" t="s">
-        <v>5463</v>
+        <v>5455</v>
       </c>
       <c r="B4453" s="109" t="s">
         <v>3099</v>
@@ -92669,7 +92669,7 @@
         <v>952</v>
       </c>
       <c r="D4453" s="109" t="s">
-        <v>5455</v>
+        <v>5463</v>
       </c>
       <c r="E4453" s="108">
         <v>1</v>
@@ -92677,7 +92677,7 @@
     </row>
     <row r="4454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4454" s="109" t="s">
-        <v>5464</v>
+        <v>5456</v>
       </c>
       <c r="B4454" s="109" t="s">
         <v>3099</v>
@@ -92686,7 +92686,7 @@
         <v>3859</v>
       </c>
       <c r="D4454" s="109" t="s">
-        <v>5460</v>
+        <v>5464</v>
       </c>
       <c r="E4454" s="108">
         <v>1</v>
@@ -92694,7 +92694,7 @@
     </row>
     <row r="4455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4455" s="109" t="s">
-        <v>5465</v>
+        <v>5457</v>
       </c>
       <c r="B4455" s="109" t="s">
         <v>3099</v>
@@ -92703,7 +92703,7 @@
         <v>247</v>
       </c>
       <c r="D4455" s="109" t="s">
-        <v>5456</v>
+        <v>5465</v>
       </c>
       <c r="E4455" s="108">
         <v>1</v>
@@ -92711,7 +92711,7 @@
     </row>
     <row r="4456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4456" s="109" t="s">
-        <v>5466</v>
+        <v>5458</v>
       </c>
       <c r="B4456" s="109" t="s">
         <v>3099</v>
@@ -92720,7 +92720,7 @@
         <v>263</v>
       </c>
       <c r="D4456" s="109" t="s">
-        <v>5457</v>
+        <v>5466</v>
       </c>
       <c r="E4456" s="108">
         <v>1</v>
@@ -92728,7 +92728,7 @@
     </row>
     <row r="4457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4457" s="109" t="s">
-        <v>5467</v>
+        <v>5459</v>
       </c>
       <c r="B4457" s="109" t="s">
         <v>3099</v>
@@ -92737,7 +92737,7 @@
         <v>252</v>
       </c>
       <c r="D4457" s="109" t="s">
-        <v>5458</v>
+        <v>5467</v>
       </c>
       <c r="E4457" s="108">
         <v>1</v>
@@ -92745,7 +92745,7 @@
     </row>
     <row r="4458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4458" s="109" t="s">
-        <v>5468</v>
+        <v>5460</v>
       </c>
       <c r="B4458" s="109" t="s">
         <v>3099</v>
@@ -92754,7 +92754,7 @@
         <v>231</v>
       </c>
       <c r="D4458" s="109" t="s">
-        <v>5459</v>
+        <v>5468</v>
       </c>
       <c r="E4458" s="108">
         <v>1</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16743" uniqueCount="5469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16775" uniqueCount="5478">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -16438,6 +16438,33 @@
   </si>
   <si>
     <t>18-Jan-2026</t>
+  </si>
+  <si>
+    <t>DSS5454</t>
+  </si>
+  <si>
+    <t>DSS5455</t>
+  </si>
+  <si>
+    <t>DSS5456</t>
+  </si>
+  <si>
+    <t>DSS5457</t>
+  </si>
+  <si>
+    <t>DSS5458</t>
+  </si>
+  <si>
+    <t>DSS5459</t>
+  </si>
+  <si>
+    <t>DSS5460</t>
+  </si>
+  <si>
+    <t>DSS5461</t>
+  </si>
+  <si>
+    <t>Ahmed Mosbah Mostafa Eid</t>
   </si>
 </sst>
 </file>
@@ -17317,7 +17344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17325,10 +17352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4458"/>
+  <dimension ref="A1:E4466"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4446" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4464" sqref="C4464"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4455" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C4467" sqref="C4467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92757,6 +92784,142 @@
         <v>5468</v>
       </c>
       <c r="E4458" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4459" s="52" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B4459" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4459" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4459" s="52" t="s">
+        <v>5461</v>
+      </c>
+      <c r="E4459" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4460" s="52" t="s">
+        <v>5470</v>
+      </c>
+      <c r="B4460" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4460" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4460" s="52" t="s">
+        <v>5462</v>
+      </c>
+      <c r="E4460" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4461" s="52" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B4461" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4461" s="52" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4461" s="52" t="s">
+        <v>5463</v>
+      </c>
+      <c r="E4461" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4462" s="52" t="s">
+        <v>5472</v>
+      </c>
+      <c r="B4462" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4462" s="52" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4462" s="52" t="s">
+        <v>5464</v>
+      </c>
+      <c r="E4462" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4463" s="52" t="s">
+        <v>5473</v>
+      </c>
+      <c r="B4463" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4463" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4463" s="52" t="s">
+        <v>5465</v>
+      </c>
+      <c r="E4463" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4464" s="52" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B4464" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4464" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4464" s="52" t="s">
+        <v>5466</v>
+      </c>
+      <c r="E4464" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4465" s="52" t="s">
+        <v>5475</v>
+      </c>
+      <c r="B4465" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4465" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4465" s="52" t="s">
+        <v>5467</v>
+      </c>
+      <c r="E4465" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4466" s="52" t="s">
+        <v>5476</v>
+      </c>
+      <c r="B4466" s="52" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C4466" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4466" s="52" t="s">
+        <v>5468</v>
+      </c>
+      <c r="E4466" s="51">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16775" uniqueCount="5478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16779" uniqueCount="5482">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -16465,6 +16465,18 @@
   </si>
   <si>
     <t>Ahmed Mosbah Mostafa Eid</t>
+  </si>
+  <si>
+    <t>Mohamed Omar Mohamed</t>
+  </si>
+  <si>
+    <t>DSS5462</t>
+  </si>
+  <si>
+    <t>ISO 9001 QMS Awareness</t>
+  </si>
+  <si>
+    <t>18-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -16572,7 +16584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16657,6 +16669,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -16738,7 +16756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -17067,6 +17085,9 @@
     <xf numFmtId="14" fontId="2" fillId="14" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="15" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17344,7 +17365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17352,10 +17373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4466"/>
+  <dimension ref="A1:E4467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4455" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="C4467" sqref="C4467"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4450" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D4469" sqref="D4469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92920,6 +92941,23 @@
         <v>5468</v>
       </c>
       <c r="E4466" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4467" s="110" t="s">
+        <v>5479</v>
+      </c>
+      <c r="B4467" s="110" t="s">
+        <v>5478</v>
+      </c>
+      <c r="C4467" s="110" t="s">
+        <v>5480</v>
+      </c>
+      <c r="D4467" s="110" t="s">
+        <v>5481</v>
+      </c>
+      <c r="E4467" s="108">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4470</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$4482</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16779" uniqueCount="5482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16811" uniqueCount="5499">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -16477,6 +16477,57 @@
   </si>
   <si>
     <t>18-Jan-2025</t>
+  </si>
+  <si>
+    <t>Mohamed Abo Elez Mohamed Amr</t>
+  </si>
+  <si>
+    <t>05-Dec-2023</t>
+  </si>
+  <si>
+    <t>10-Dec-2023</t>
+  </si>
+  <si>
+    <t>06-Dec-2023</t>
+  </si>
+  <si>
+    <t>03-Dec-2023</t>
+  </si>
+  <si>
+    <t>01-Dec-2023</t>
+  </si>
+  <si>
+    <t>02-Dec-2023</t>
+  </si>
+  <si>
+    <t>07-Dec-2023</t>
+  </si>
+  <si>
+    <t>08-Dec-2023</t>
+  </si>
+  <si>
+    <t>DSS5463</t>
+  </si>
+  <si>
+    <t>DSS5464</t>
+  </si>
+  <si>
+    <t>DSS5465</t>
+  </si>
+  <si>
+    <t>DSS5466</t>
+  </si>
+  <si>
+    <t>DSS5467</t>
+  </si>
+  <si>
+    <t>DSS5468</t>
+  </si>
+  <si>
+    <t>DSS5469</t>
+  </si>
+  <si>
+    <t>DSS5470</t>
   </si>
 </sst>
 </file>
@@ -17365,7 +17416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17373,10 +17424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4467"/>
+  <dimension ref="A1:E4475"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4450" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D4469" sqref="D4469"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4465" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="G4469" sqref="G4469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92961,6 +93012,142 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4468" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4468" s="56" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B4468" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4468" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4468" s="56" t="s">
+        <v>5483</v>
+      </c>
+      <c r="E4468" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4469" s="56" t="s">
+        <v>5492</v>
+      </c>
+      <c r="B4469" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4469" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4469" s="56" t="s">
+        <v>5484</v>
+      </c>
+      <c r="E4469" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4470" s="56" t="s">
+        <v>5493</v>
+      </c>
+      <c r="B4470" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4470" s="56" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4470" s="56" t="s">
+        <v>5485</v>
+      </c>
+      <c r="E4470" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4471" s="56" t="s">
+        <v>5494</v>
+      </c>
+      <c r="B4471" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4471" s="56" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4471" s="56" t="s">
+        <v>5486</v>
+      </c>
+      <c r="E4471" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4472" s="56" t="s">
+        <v>5495</v>
+      </c>
+      <c r="B4472" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4472" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4472" s="56" t="s">
+        <v>5487</v>
+      </c>
+      <c r="E4472" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4473" s="56" t="s">
+        <v>5496</v>
+      </c>
+      <c r="B4473" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4473" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4473" s="56" t="s">
+        <v>5488</v>
+      </c>
+      <c r="E4473" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4474" s="56" t="s">
+        <v>5497</v>
+      </c>
+      <c r="B4474" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4474" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4474" s="56" t="s">
+        <v>5489</v>
+      </c>
+      <c r="E4474" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4475" s="56" t="s">
+        <v>5498</v>
+      </c>
+      <c r="B4475" s="56" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C4475" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4475" s="56" t="s">
+        <v>5490</v>
+      </c>
+      <c r="E4475" s="106">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -92970,7 +93157,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="31" manualBreakCount="31">
+  <rowBreaks count="32" manualBreakCount="32">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="16383" man="1"/>
     <brk id="493" max="16383" man="1"/>
@@ -93002,6 +93189,7 @@
     <brk id="3698" max="4" man="1"/>
     <brk id="4244" max="4" man="1"/>
     <brk id="4356" max="4" man="1"/>
+    <brk id="4467" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16811" uniqueCount="5499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16823" uniqueCount="5504">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -16528,6 +16528,21 @@
   </si>
   <si>
     <t>DSS5470</t>
+  </si>
+  <si>
+    <t>Taha Mohamed Ramzy Mahmoud</t>
+  </si>
+  <si>
+    <t>DSS5471</t>
+  </si>
+  <si>
+    <t>MOUSTAFA ABDELRAHMAN AHMED HAMED</t>
+  </si>
+  <si>
+    <t>DSS5472</t>
+  </si>
+  <si>
+    <t>DSS5473</t>
   </si>
 </sst>
 </file>
@@ -17416,7 +17431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17424,10 +17439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4475"/>
+  <dimension ref="A1:E4478"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4465" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="G4469" sqref="G4469"/>
+      <selection activeCell="C4481" sqref="C4481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93145,6 +93160,57 @@
         <v>5490</v>
       </c>
       <c r="E4475" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4476" s="52" t="s">
+        <v>5500</v>
+      </c>
+      <c r="B4476" s="52" t="s">
+        <v>5499</v>
+      </c>
+      <c r="C4476" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4476" s="52" t="s">
+        <v>5217</v>
+      </c>
+      <c r="E4476" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4477" s="28" t="s">
+        <v>5502</v>
+      </c>
+      <c r="B4477" s="28" t="s">
+        <v>5501</v>
+      </c>
+      <c r="C4477" s="28" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D4477" s="28" t="s">
+        <v>5464</v>
+      </c>
+      <c r="E4477" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4478" s="28" t="s">
+        <v>5503</v>
+      </c>
+      <c r="B4478" s="28" t="s">
+        <v>5501</v>
+      </c>
+      <c r="C4478" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4478" s="28" t="s">
+        <v>5464</v>
+      </c>
+      <c r="E4478" s="51">
         <v>1</v>
       </c>
     </row>
